--- a/src/utils/seed/planilha-dados.xlsx
+++ b/src/utils/seed/planilha-dados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasfellipe/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F661ED52-CD98-E549-BE99-9C53464E4A2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A0A6581-A0B0-4A25-BAD3-1301EA5E44C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36960" yWindow="3120" windowWidth="33600" windowHeight="19080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,8 +19,17 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Plan2!$A$1:$D$1</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191028" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -29,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="486">
   <si>
     <t>Grande Grupo</t>
   </si>
@@ -100,12 +109,18 @@
     <t>Não</t>
   </si>
   <si>
+    <t>https://uc9fb217afc3ccedf0d41cf1f6cc.previews.dropboxusercontent.com/p/thumb/ABfJXIrK4k0RS2GkMLqDfH3fqqBfL5giyDe6lizIxQjjhI44_EFL_zycbJoxReDgPjQCWsluK-ddoytH2mQdLArSbj-q-bhbYYw5-mN9QyUCewPlA3ZMXOgj_XMjrvdybG_L-IJ_DiKgE2oUt6U0MaFrx_ta4BdN9MjotYN87JpPUqoGNLDpPO9O3qU0K7Ldn97bAAFJgfHGMyTdapNZZIVIcwG2aJ4M0nudgAUpJIh_qKemhX7rdll92dXsd72V09BdqqY7pGr1tMCwjADs0R8f48D9R5xQwSsbIg4KwwE-yZdrjQCKLPMco6Q6QcEOztRUn6bvgybuq9HdyQMNZXBdI5ybB6rXlTaPd5qb3NW-CQ/p.jpeg</t>
+  </si>
+  <si>
     <t>Acestrorhynchus microlepis</t>
   </si>
   <si>
     <t>0.23</t>
   </si>
   <si>
+    <t>https://uc82d8c29f83a204c0a7115a8834.previews.dropboxusercontent.com/p/thumb/ABfN9na-oAGv9_PJvTPk8Q8qDHQdMvFAeS1iKw4xAzeWAHT8o6gbKFYZuF2-kZOPKKiHIwAMZnUKeOvmGrv0foN0CaJ1CjKwd447HAWorClMxRNBuecQUnw7QTuKFxaixJIXxiTLfAUFkOL7G63zQeISg6GS76ipIPNHeUNJtz1S-0aODpgzHnoH3mhbfGy7EwPF3hFpnPC0WMJpVhbu8dPDGGBUziesxoi9jM0x9OCIDHgJHUM7Y4q2p3iT7vF9sXsQqIJQwHxizCxACKJuhZeTEdCBEld65um8fU2Y7WXftjT4CzBUPtbw_6bAfbMhELJjkeUeyUc8q5dznKW22fn-8617XKWdGja4eqqBidLHIQ/p.jpeg</t>
+  </si>
+  <si>
     <t>Peixes de couro</t>
   </si>
   <si>
@@ -133,12 +148,18 @@
     <t>Sim</t>
   </si>
   <si>
+    <t>https://uc61755ebe615e0501827b7b4316.previews.dropboxusercontent.com/p/thumb/ABdxfK-zbBKI-lpRYmI4KDQR1C06gVM7VHmf8v2qYqOzt-eXfi9X7UICTK0Wp6d-4sqfjGdvskuXfnk323EYW32BcLmZc7b8Szz6dA2CqG6sccO65jlrqTPzZT0XH5xnT4RFBhr2_9fHLU2f3CAsyGc_qDOD6g_WBJeGt8uSLvwi2Qi9Un_6Jt1igETbZtfPqUyJ0E_buE_KbaMWRCJLv2RRm_TWyeijP3zoUiV2WNDyXTBRCkMCsIAsRlGq0H9mM_jYDCfq_pde0ISNWs4tidzl7u-jxIYeBEbb9Cx6tN_d5aLU8zY3-v68pxUPl4c6tvf3oj0AW7geHQmVdUNEGQL1krpjSkKWQDfHKKolyiljyA/p.jpeg</t>
+  </si>
+  <si>
     <t>Fidalgo, Mandubé-de-ferrão</t>
   </si>
   <si>
     <t>Ageneiosus ucayalensis</t>
   </si>
   <si>
+    <t>https://uca26f2e845fdce598edda8f3836.previews.dropboxusercontent.com/p/thumb/ABfpF2tMyacvMWIaeb7qScVuGdINudWdm8UGxJV33Im07dPmNiZxPkotylArmQgILBHqVbCbkqZx6rK7SzidK24T2mN1TFLfgmQuyovs6SmldSgVcWT1AXYZU8X9pDQ3JnAo5OViAQby8ARz8h4-Y-QaRBbS7t9WmJ_oSctd2SQvSPJXby5o1rMhB2UCfOvpPfLJvvIlyqDXFQiQmMZKL2SU1AL59nJg7bey_MK81c-BnRtlMO-6d7zSf9coD_Lz5s2drfFy6EELzPF_MR8JIecgGQEA5ibTZGNpV5bXOX-wYfncoTC4hUtKkHsMmPs5TddVVg14B8TkxicX5YMbZz2KQgvxoLiopyVjtJjEWifQAA/p.jpeg</t>
+  </si>
+  <si>
     <t>Peixes pequenos</t>
   </si>
   <si>
@@ -184,6 +205,9 @@
     <t>Sim. Categoria Vulnerável.</t>
   </si>
   <si>
+    <t>https://uceebfd71d7a1f827c59f1c92bae.previews.dropboxusercontent.com/p/thumb/ABfZY0VSL7dxdJe-UnkQ2Xzs6aCrDfYuvtO4twDDG-v6i95pM-dcIiUzb5Rc9wA5ObGksLpdS8x-9MgOjRp6KnsgWnwUsEOeBykMxn5YUI_ry4mz9qaA0jaYOYV-hb_d9jD5AU0RLCuOadypH1D4ZBEXlvVeSw5XMv6TkpA-WdZatVeBljd1rFNwqCBeOz6-ZilbBhG86Z6HGo9fBKscSw3CYZJ2qPCjmXTcoHIVK5zmwWXY15u59aqM_RPL0KrCdZDgz2GePIm6M_nqf42GfKNzgeac83GFDPxzkV075L2XW3ufNT3SDwpE47IlgyIfqUS2QEBIghHy45XPmbBBKVB4qHzoKrwNXqKptHmrA-SsCA/p.jpeg</t>
+  </si>
+  <si>
     <t>Piaus</t>
   </si>
   <si>
@@ -199,6 +223,9 @@
     <t>Material vegetal</t>
   </si>
   <si>
+    <t>https://ucca13d3fc2d289a990c6ddfd5cd.previews.dropboxusercontent.com/p/thumb/ABfi7FNUmPH4-pLgQKzubFvemu8FAciqcWnIu5943mQDtP-fiz1fCJ_1kqLmNDhNlWAXVx-pUHMw9HMIXTpwAj3ITqX4wLo4Nku5RrmwLwTOgGD5cMcewd8sPMqxegbRh9eKnth717gB-1XGNn40VDeI8LUcxb9ACy2FLFeYZ7QDzoJ6f_mVFMk5GW-9XxpCaYrS0DvCbHMiLX2FjdHkRE-KR454xGhyLVycSN9uKq6bq-eUNzCHMpVI70DpeLhrSKP7yPPwG7VSL1IiUHgEruALH_upE06jZCvpUMuYmk3O_-WLj0SHOQnaYdjkd_r9DVeBvqy6jbUDtNMOaQlfyBP2JoN3AKP8NwkOv-CdlJ9mlw/p.jpeg</t>
+  </si>
+  <si>
     <t>Outros</t>
   </si>
   <si>
@@ -217,6 +244,9 @@
     <t>Lagoas e lagos de água parada.</t>
   </si>
   <si>
+    <t>https://uc40c8d29fe83cb66b38f1541ebd.previews.dropboxusercontent.com/p/thumb/ABdRNh_wbTQsHEWD5P3NhqBbuvPq-4_JCUxtKUCM0_PnD0mo2NtrErqu2xONwfwqXOAymjDYokYx4AJkvqsm9FWD2Sj4X9S-KPmlm_0YVmRErL53xYtUBX7EBHwqlUpPUqx1Wco9T1l8N9_QvJ5oLIsthJzH7MhZZSBqEO5P1w3KIyWBa89aUpvfpNLcCEA5NeplZZCxDBBpJySF9h2B_kLKmnmlsf3Km71Moz2MaYDPT6p7DPfSnPO7wMWvsYm7VeHga6aeNylLGShKa-L4MlE2_44QIx14kR6IskK7k8PlP1TdZVXJ9Euw3-cP_JIBQfLEf1-2-woWvcOGLssidOLQZ4I5BOaptVd-ZETiHRGkvw/p.jpeg</t>
+  </si>
+  <si>
     <t>Peixes grandes</t>
   </si>
   <si>
@@ -229,6 +259,9 @@
     <t>Arapaimidae</t>
   </si>
   <si>
+    <t>https://uc432a2d3a87f646126e7e559734.previews.dropboxusercontent.com/p/thumb/ABeAKhH759fgcLcM1YhOZev6vGaXoLSqZ9F2eI2SnZJnXWXno3b4FnDMTGz45cUaO8GO4hWZ2OQp3WZ-dZ8WBecpMXV7aSZZXFVRAixuMQlLbOuP-lgYCli96RKboClEBlLr8q3_6K1MMAJx9AM6kgQlrf6-r5q6hJCem1Xc57Vfgj6lugiWsyn9vJWZI8VZmqq56zgJ-eOwYAY9rFmTrQmCLFeMfWkivsdXCDQ3E-GdjyM4XaFmLNoiFLsS8kSZ-t5Ud-Q5xz8Kky5QFnn-nNsc-SjLPhpSrJRBU_wnv5MeSAqgXc2XQRRLnIXF93AnwqEUmMqEH1id3m9PgPv7zGIW_GiCo-1UldVX3eNIYNSMMQ/p.jpeg</t>
+  </si>
+  <si>
     <t>Carás, Marianas e Jacundás</t>
   </si>
   <si>
@@ -250,6 +283,9 @@
     <t>1.6</t>
   </si>
   <si>
+    <t>https://ucdd929105e65bb62e940132c869.previews.dropboxusercontent.com/p/thumb/ABcAJCZ4qO58Cn4FI4uVF-dY7Wv6nOhlujnuSimdCYw6xpRk4wHeRlrcyjsRyk_qfgPo3VB0zQ4hWxRWORiO5LZ_c71wgHHT9TaCMpw6TH0AUJrlLV0OWS0uXSGqv2Y-c0wkOQTB7fhx275nabeFmfuNmhdXSrGOBf3uokRYEfdSdJNdxhBeAjerxFbgurTUCg3QhXRSihfOMQ2CMR-nbKUcRwqSFhzH31h39vt8OsB1uAyCXRGEqBToTk777YJOOxRYzNTHzxA7zEMtBHcHr_HbYJzBOUEUGXp3YSyn7XzMhtdJVdfY2O6p_RBuAD9RF7FRbqppy5-heIY8BvtPWdOW4Uy4WLHNFKl5hg-19NfjSQ/p.jpeg</t>
+  </si>
+  <si>
     <t>Lambarís e piabas</t>
   </si>
   <si>
@@ -268,6 +304,9 @@
     <t>17.5</t>
   </si>
   <si>
+    <t>https://uc7d2a566b168a081c5f59209275.previews.dropboxusercontent.com/p/thumb/ABdImVbDJbUWRVTbGc0ahLmY6RyWc3riKJtKWwQ4gQUENWjI8tHtnEM2_LYqoferLVPYenRz9IO28ybNAVPI_q2is8IU22MP73LyuRITe42zCizo1ExtZMamoTbJcc6u-TTyNjcv_JWUCX7HtR1SfdDsX_NsHA4CbyYDpnkRh3A5Ac5giVxvtri0lgzKcxoiCaV5viOph64Li9nCnereEm-1TfQmviVxftL4Jrm8-2A228v2bfWjcBCTRabFhxueejOy2PX8ZeY6o4qiOYWZW8Je71v_JRaPW3k_PiHDBPByYArLcQYsQ0MSjGiLl6BYtakb-jV4fYFHRE5vy6wgJXflRtzZTNdQF0L4OtPHzu4odg/p.jpeg</t>
+  </si>
+  <si>
     <t>Lambarí-largo</t>
   </si>
   <si>
@@ -298,6 +337,9 @@
     <t>Auchenipterus nuchalis</t>
   </si>
   <si>
+    <t>https://ucf3e33395a32b6217232a9a7944.previews.dropboxusercontent.com/p/thumb/ABeBijHW6Qbw-QtUrfrjaEsE1l9YMHcNsIKe6RkkmBXrsv9CB8c2EQFY3ZgHT-_l_zGjRj0Jew_7BAVh7cWIgFPgFl6XRxzgGzeusQi1j7yV8zFxTbeNMmm39NLKf2003ZKHnww0QmhSrfMlWB32zAScZtQ8xwk1BLTw8SGtfiFELkukjj5acZ04MV3XHEHp0QgpTudnwWTMaqJDRLRBn9LHLHZ8JyzWkfWxkxnSKGO7aoRzBUd7FqU5-1xh5MKtmhNPoTsfrWVfMeVgopeUt0FEsZD4_3MnnAhbNkmb9uXquMKJStR7DmTpN16WCjS6KxAh-V5Y7MwjYu7Z-15NDKUL5lXNt9jcBzEPx4j9PpDXvQ/p.jpeg</t>
+  </si>
+  <si>
     <t>Cascudos</t>
   </si>
   <si>
@@ -322,12 +364,18 @@
     <t>Sim. Categoria Criticamente Ameaçada.</t>
   </si>
   <si>
+    <t>https://uc5c780ec2e2e0b053f5c54f32e8.previews.dropboxusercontent.com/p/thumb/ABevpHe-YasrylWvbXfbqHD2QdKuOf8bBZlggGggp0PfGA8ZkpgAUB523tNMJYZPHwvQvgeDIVQDDC5l-115Ww-SWNcGFCasKTFvCEQ8_EeofwJu5lrwFeDoSXwyfPu2CBP4mGMfKBqiedXpq8rzrs7t_nfWkP7ar4EEP3Hb6R_knKmJtMJVC_qZEIf7ToaNI057HpBkIhX8Jkrt2-RkNQVc6co1NvJYtBO-AC3MfwdSifHI0J7E1CsNXVuJTCCwBAqrbYFWjncK9ydvoP_sZRzz4H-dxWRo52qSxG3KPDmeQrcYCuPklw9niYBggvDZ6u-JdyxCV9cTh-4BnFnIuL1dcSxmHxzHbZyAAmfKIsLHbA/p.jpeg</t>
+  </si>
+  <si>
     <t>Baryancistrus niveatus</t>
   </si>
   <si>
     <t>0.52</t>
   </si>
   <si>
+    <t>https://ucd187babd43fe7c28e9235a67b9.previews.dropboxusercontent.com/p/thumb/ABe34vCh_f58sS8Vz8-3yvcycbrjCyDN7UluV_8iGAJpggYsnc7PC0Ey1vlUIRHa3g_4EJI9gFOSjrkJt02WIDygGvHUYvR2QEbjPZFXiKM59QxO-2qVXxSAMeCxXi6wupNHrPU7C4poKLXVL1kxHHpYEEq8NfojWbhRyPtCBmaMCRkFxyDNrpAkzC11PwM6fQJiq0newbIRmoA53DxCbfMEwzlzs1nVYZzKEy0BRPQ8vXPZNcSo2FT7s81IO1KOMhP7k9xFEQqAKpB12W7T4unLg7GvjJkYe0dP6_-lbj1dQy7gX3w1BwsQq_WY57dcZsmqQvUTmv0KlEnFIrGVBGs2CUOgxKgaiWZUGf0e44yrxQ/p.jpeg</t>
+  </si>
+  <si>
     <t>Bicudas</t>
   </si>
   <si>
@@ -340,12 +388,18 @@
     <t>Ctenoluciidae</t>
   </si>
   <si>
+    <t>https://ucc1d5a0267188ad93b6605edb38.previews.dropboxusercontent.com/p/thumb/ABfb-ZYnMfF-s53vrrCQq6i183kuyq1VABhv76BKZYLlifjBPTsVEhwlkQ4if6fQEFm7LlEMa0nRsGn6YiQXMthwXjtB0o6mgYsvwt-RW3P1QFq2ljFVrp9bVHCGrV8mFmbD59hHHGoVcYIi2Zs8CnfbShqFWZQIZylJEWNQN2uLuWks9hxt755QpcQvVOsiMdU0RizL-lBRcTcr3wZrh5LDKjxc-ZgAxVkK5weUzQlgJIXM8LxbXs1D6vcza5vsdjhr-hptAGvog5HBBakJGFMfF3Y8DR_njEtZwUEXD8-HRYfOGlbnHfXCsSh6QuNP0gzcV-usBAw6ZnQlqt8ImDpkkfgCoR2sSnyF_3P9MPoNXg/p.jpeg</t>
+  </si>
+  <si>
     <t>Boulengerella maculata</t>
   </si>
   <si>
     <t>31.9</t>
   </si>
   <si>
+    <t>https://uc250fc6e8d86604912444474d4b.previews.dropboxusercontent.com/p/thumb/ABf_H3uxQ_yIYMPHjQ3fTimREoM6oFbGpZ4LqBfvtIRsGFHFvo3XohCKHXatEqr7S4awYXgc76IkV0Dm--eSDnVUnYswQJbrNH3QYaY4oTFgn-9tvydKcX5tL_28GsnwBlnh1TivEx5lgbGRb-gkvM2yMVaGLh13ye1hAJt2VvWWZbjO-v_7rOS8EX8gDa7stpjUb-Q3NJ9EOaBnkB-Sc6_UQai7hkHdIFs_RMvxwHENCSKTUPYw0zyAafgZzJj_BMY1weyYcZiwKTJj8Dk-536iW9lX5k6uZ7DL_QqpzrkmjS7ml2NIRh65cuGdBfaLdJ64AtCnAkf75u69vus2yI8TH6wvHsxBwt9ErlCRwZGSIw/p.jpeg</t>
+  </si>
+  <si>
     <t>Grandes bagres</t>
   </si>
   <si>
@@ -355,6 +409,9 @@
     <t>Brachiplatystoma filamentosum</t>
   </si>
   <si>
+    <t>https://ucd616a464a6594f237a9f07a731.previews.dropboxusercontent.com/p/thumb/ABfS-RTkMXLDpEuQiyo3CmAWabnTJ8IDH6FQL56b0yAd6r9eljvmq-QkTKfNT7MsIJE0IbML8N4549ojIrS6E2zzJ18t9mrUtVgbcLllhlprxefk5_iuFUOikyaD26c1MwnDVjmDrm3OyqWcLsG-2L1L_F192kh5C_IJcWKpH-c1UHq6yYmth-ZoJXdJrG3OyzCG7ut0SVOPY0g99hf3ION1r7Wx1vzbzx76cWFB0BVxxicwmFoIPZS50X6DV4F8RBcqLso0b-8s9maubzLfNSZxN0XT2wt4ExIfotqxVebDYt1uY5W1euPQ7ime7teWHrgr4Dz4suhveRSHTfTZFgjbMwckIWw2wY5t385ETyC8dQ/p.jpeg</t>
+  </si>
+  <si>
     <t>Piabanha, Matrinxã e Voadores</t>
   </si>
   <si>
@@ -367,6 +424,9 @@
     <t>Bryconidae</t>
   </si>
   <si>
+    <t>https://uc1d5494ef47f71c66f613d3fc72.previews.dropboxusercontent.com/p/thumb/ABeseledRBrvJZ41_WBcfyfrTr-dO7i9U_Qj2sk3S749hjlgdQSsKAdUgvoJp93-I7S0g8Ou1M2Q4D821NZzzguexUltuc4iQpkZM1q1I1YU_XwZoUftQHNbuY1yHsqZlyxHUkzWcddCWJ0BzVgEbcNRplaYpXs8G3ryquWxudOVAVlO8xAkG-BsYOu70ldjKNmu8csRRL2n8LYoJVk4KrDxHMVkPLKVm-5l79diZ55vhf8wCKod7xMKBoku7flRd1rl0RFYl9iiPNuo-YnHTI42QMWd5RXMYvDOiRPLBsU7YTyD5NfTrTYH7i4yAQ2uq4wGQluChyiZX3LN_VbKAgDjcNA9RqSQ-nnH0r9YqIKruw/p.jpeg</t>
+  </si>
+  <si>
     <t>Piabanha, Matrinxã</t>
   </si>
   <si>
@@ -379,9 +439,15 @@
     <t>Sim. Categoria Ameaçada.</t>
   </si>
   <si>
+    <t>https://ucd73935300d08e26010bc71a199.previews.dropboxusercontent.com/p/thumb/ABdZWOmShlGbIB2ExpJHcMAN434foPVBYDgB_I9KSsqTNnUdVYX48mlu9wD0H_1cRS8Tx_b5fxJzdADrp8qT5YxH7MedgcgbbPgqIqKC0xwuCRvWltPKJ0f4yJOx1ozGLIu8lW5IMg8WOrmfi0tJgUW9Dxd_pV-XJ8TtZWnRLAPt6UXcTZtab-kXCaCMtkb9u4ZMGZPLPBq0nQMM_Q3-1A9Dh6SOr9QxmUgH_icWeoJHdDNPZTqU81d0A7xfYKSJ1Ybr_tWHHZ5uq64HewwSDxx0UnK7msjOPHjRSX0P1vxMjF_fpW62KlFy4k21QWy56k67WCKQ1Vz2t8jNUrAE97nTZyS3oKW1RJdau45w8GyPdg/p.jpeg</t>
+  </si>
+  <si>
     <t>Brycon nattereri</t>
   </si>
   <si>
+    <t>https://uc74569af4136e861368869398ae.previews.dropboxusercontent.com/p/thumb/ABdvuTDyCkYo4YKGPnn-_Xv6O_v7HCXexNeN00sjSBAzFMtOgS2FtyQPzTfdTTjDv_IBma3T-eUWYa2m7B_LvZeUEYP38RU2WWhEaXBZEPu0kA7exkiTU89__4MeDinIy7Fsnp_onmsgA73-4az1cJpu4ON_lnc9dl176_L4QEFioE8zIMk032S6aUFRIzmsrLL0woD9U3VTvhx-KEUoxqGZiEdw4BO4TLRrVHupD8Iqwd99vOGQ4RqREweCk_VJBXpxfx7x4JkDvo-WLFM7pwOPg_XagcxxBsdBniKsavFyw_OMqYEir1cXYvCqaC4VN0vKSQi_9_RFcwjm4nXa9HLuTnLsWpkOHYQ2E78tchQSxg/p.jpeg</t>
+  </si>
+  <si>
     <t>Piaba-beiradeira</t>
   </si>
   <si>
@@ -391,18 +457,27 @@
     <t>Peixes e insetos</t>
   </si>
   <si>
+    <t>https://uc6977c3ed016ff579d8311194ad.previews.dropboxusercontent.com/p/thumb/ABdunapR_jgeuGSIfiWOKm9rYjHmj45zeY-1AJfGnVF_1LzjScsItgC1P59HxkojDFShpfqWV4220bsisPbkUFQskr98hmmFCp5f01dy6i_zZD-9AQ1U_xiiSJOh3yfHxZluebN8tbh-7zSGg-k2pSjlqC9QO0Yr0mUhUnAwkqyWv5jOo2ugFFV2R3fyx9MqMJXQSezV-ofDQUOyrxMaUbbPh-U4QagDLVD9bCcYsMSz0czClKhqq_xeWATIPVzYp8TU7j7tGm9o_UEfHARFJVJFQgiLmQkqH2xSBig6C6msd4GEshM6Zad50vfir5kGYaFpODUPCZSI7Y-daEdwGm1IZ9Mv3SPVR14kLh-nDf36Bw/p.jpeg</t>
+  </si>
+  <si>
     <t>Brycon polylepis</t>
   </si>
   <si>
     <t>22.4</t>
   </si>
   <si>
+    <t>https://uc75f31e86b454d72f82cba7683c.previews.dropboxusercontent.com/p/thumb/ABc0RaqO871tXdqXKLsWljqRprtTavD2-2NVZg8bFGotrIEsOWZt-rraU76TnifjoRIcylbmA25Rc5HQkOJXdCisdL4RIkKjdX1W6QUvHtF87INNdKYUZqJ7PH0zR4mnx7w__qPv5820BvLNEM9gHBNFduEn-z3DTAE4R8S4mfNh3yhfReo-S5rT67T5gbPg6EcSsskZAO9-m80iWtuHsW6q8HgRKJw_xI-cAvfLmEDbs2nBsT8bBITbNwJNgOQGHn0xe7-fi14PB39Tzm0dc_uLdSeCGPMv8uHYe57s6TXiCdPyh0uuRnYwE85eIlV9WOpsiXr03wprsJh1NdUWgf2sO6sRGkKnhFprASSDxSi_MA/p.jpeg</t>
+  </si>
+  <si>
     <t>Piquirão</t>
   </si>
   <si>
     <t>Bryconops alburnoides</t>
   </si>
   <si>
+    <t>https://uc751271b4062061414791311d1c.previews.dropboxusercontent.com/p/thumb/ABeRhVGqzu4v5qEMChilHwN6xhhEkNltwOZSPRfZQPkGwwrPTR7G6KuAU312horrszln5XwUd-Sk3fIwdH0B6W8SuoW3Ht8D2GIF3sUKGwmV1-01ezRCE3wzD6wkqcqGc9AwYtiAqGqt7n8AKk4csY785Fw0rdgtZzG4NSIQ-68IEvO5A2Jqnjl42yEGk0KtHoX4tdJFxJurS5RJgLreeQZh2zcv75MIbdGl8PJVECYTuht8LKkAbxn_hYvkzxKxg8E7eR7_wwabTWsN_PAR-BHbOoPdAl2hRJXxIPG4oduTtu6iaofHJikXFSy_QjP_g50_Cb-jluxzQEDRplQH2gGB4Kk8Mwf37mP2bW3j1A-soA/p.jpeg</t>
+  </si>
+  <si>
     <t>Durinho, Cabeça-dura</t>
   </si>
   <si>
@@ -415,6 +490,9 @@
     <t>18.6</t>
   </si>
   <si>
+    <t>https://uce16851f311c50ac1fa50f1b774.previews.dropboxusercontent.com/p/thumb/ABcRoVsQmKSF4t7m83oQ1cm1cAky01t_7NUtSIfLZ2vroQS22ZBeDmsxBiFMkDvLTav6TKSFmAmYN_2-5s6qVhXV0i5Ql7BEUSKGP5MnK8oqVIOXB2fs5p25JWQlRMvf4N3KzGA2b9YH52vV6KdEDqybuv60lxL8fsD6v7jH5qe1sc9n1VK35Cv4OOY4ndaNJ3m5GDgfJVDt5iRC8hV2_K_Rq3MIyVYV1VuQVXUzNnwCpiiBBsUGliwNP0hdAbdCJ142Ceib_XxZnDaahrnpq5u9MqLUt648ICskQQetXqtba46eCibSUcEh2tUyxtzdLW5U77LxcpDRRzlzlB1M955oJYKZ_1DwRNJgV4TrxW7KGQ/p.jpeg</t>
+  </si>
+  <si>
     <t>Candirús</t>
   </si>
   <si>
@@ -454,6 +532,9 @@
     <t>0.07</t>
   </si>
   <si>
+    <t>https://uc6a7f6d61704af646220a94c25d.previews.dropboxusercontent.com/p/thumb/ABf3fkui5s0_S1XaBvQfVe_E1u_J9qp6ZlMWz058X7_VDwSA88SJyAYC081auiyrwaj0gxxAUr4S2frk4YexWcXo0bIs84FB7y-95IDtzenq15fHVAOXk8iv3Fij7cSZ1owFHvu0cVsCJiVpFiocJhF4-jVsC_MqhW8IPF1vJuKunphcvVUXEE9RdYcw4rdTQNlMY73VSufhNuRePtKXkMb2c1CC0W-GuUIJiELuHUDHrD5FtCEctmbh3BeAY6iH6IWQaCaeKev7xarKIF6-yNvngYitqnzyTLAx03_o3IJGb7bIjEHCrKfgU5MsK9px5u7rokSZc3T9XFwEEB-QM7WNMWSzS7GjBLdkcLw74if9iw/p.jpeg</t>
+  </si>
+  <si>
     <t>Tucunarés</t>
   </si>
   <si>
@@ -469,6 +550,9 @@
     <t>4.9</t>
   </si>
   <si>
+    <t>https://uc090bf1260852f46cd8f642a40c.previews.dropboxusercontent.com/p/thumb/ABe8RXs4OHDd5ke4RPpsnjUM2d3eRharGKJZ-U83y7rlSBeaquO_MYbsp885eGdUZMdi8EXvG_vBLvfbERFDyYcXM51vBq_Og6faDkpxQoNQeRvauN_CpHnHST8msJKqa4TGix64XgxtbCPqizBR_tWh29rH4orlnZHDCTINKo_bi62szdE0KeIFArHFi5DH-2Rz8m24Tp1iyGnpFJaN_njd_NDYr_YVflI3ORGQ4vx3E7pJmXbi3BiOCq-E00DSYGc3MFjbCVgcKyoYZcLVl0ylK5nh7y_Ap4ImGHvoW4ln4_X_MtRzAPdrMRfm4z9TnflgB6SDpQK6UeHmBy3pMFBL_5CyCGT2cCO228XUdtcu3Q/p.jpeg</t>
+  </si>
+  <si>
     <t>Tucunaré-azul</t>
   </si>
   <si>
@@ -478,6 +562,9 @@
     <t>1.8</t>
   </si>
   <si>
+    <t>https://uc6888decfe555a554f184ca02ea.previews.dropboxusercontent.com/p/thumb/ABexdXQd5rqcjnZrLYO-hLQ_biUGd2AVQDur3tT8bGNzM2TK3BftdPYteu3-gU43-NDDxqImDpchPAAQJHBXWbtlO1OvobcqDmtvVlEzO7bxoq4RHshBEqMtfeIwCcs-xTE8ChhY10Ftvw-rUSDXtbPy1Xw8IcXPj4GGP5bQ-hJokvYSbca-cuiXg1xc7bTQHdKs_vhgoV9h4xBvnCs-M7yZN2o_0ffKYZ9S4V7iYeQmLrV3aVQa2bQaeN_hX1Tadugj-j1o0ubkwppmWCF9bPq3Xdis0wgOdVuDpFweEheFVLMAqoTPmu0wWYrynLgRYGYpux-2FaRyamPW6F0Zpb8HSw6ijBIPENZkLlUDGS7ONw/p.jpeg</t>
+  </si>
+  <si>
     <t>Acará, Caroço-de-manga</t>
   </si>
   <si>
@@ -487,6 +574,9 @@
     <t>0.3</t>
   </si>
   <si>
+    <t>https://ucc2e53d24408614657af09d625a.previews.dropboxusercontent.com/p/thumb/ABfdBN9gLUScVLTcIYy34lHGl82E8s9Zgt9RUwHJlDjE5TaNSpnKo2c7NokfeFlhdVSbf4pzRLX_Rx9puqRSqfPHT4T3ntU2qlXD60JYMo6Mij-EwnxR18L8F7ZXU8H0XLOAQwzIdPxeDepkwWsxsAtDuagDEbPpwcILjbtLjwGC8UPgejEWAuBJFMv2YD2ur1MTdzHC5bWe0VNekZQGzX_yF5aAo2T-VHJC2H9H1FmHxJ7oFFEVMGDfgcIv1Kjql4ISZem1eIYeTLl1Og0y-5Tl7xy0Y2kzRqHCelHmbS0xHAbfQwtFdbrer3-QvfI_P3CtsUnsja4DKXUokwH7l37h2BxKHQcpf0HwIKJw4wZEHQ/p.jpeg</t>
+  </si>
+  <si>
     <t>Baiacu</t>
   </si>
   <si>
@@ -496,6 +586,9 @@
     <t>Tetraodontidae</t>
   </si>
   <si>
+    <t>https://uc0ce4af853a16afd14b99ac002b.previews.dropboxusercontent.com/p/thumb/ABeFarXPZNiUZI6NcahovO4mxPzeQnvOX6Iet1KaNqSQN2hyNi7KYBCdtJ_rOrl8mr8xQgv_-1hvH_rViClOy4XjTf120rQD8nbtGfDiGp6PcuohDqoFiocbh6_CdT4POca5vqJLC5wkI8Iu0wULBMtoQbpsTnwRPpHOrkXem5K3e6EO1J7v5YwjR0-eln5rbbQFofeZA5h4Q0ynXDdFPJoYqPYiVAyl4gh9CYX1lxo4gUcDyWaWdnoLEjb4lhu8Zp8nb_DdivpffqdOgRMGVnZ90W3imWaS5sZdKBNrTdoVb4MrHAyUdSikcXy_T4p_RzjCpYc9_u3y8X7bORNgNQ1SsWJt2LlzI_BIklbL5zA8zg/p.jpeg</t>
+  </si>
+  <si>
     <t>Mariana, Jacundá-vermelho</t>
   </si>
   <si>
@@ -520,6 +613,9 @@
     <t>Crenicichla sp</t>
   </si>
   <si>
+    <t>https://uc53ccaf2033313beab461be3e21.previews.dropboxusercontent.com/p/thumb/ABcNUG5hgvkYQDBY17eY_OzKAgZUrkjKLSnGaowDbMCXQW-utGDo-2yO9cdfeXYga1IfhM14LXKHzBSYtswKQUDmgixfiEONNONXnNSRTWDS69CxfMKTpspVOEmzjTLvIJlAz03PrShUABDe0kGEvZHPA1ZZ5imtPGPmui2iCNqVNR2c2PCgZbxlKn1TUzIxWioANtlyBrpd2d_jn-8Ml0YPoVYsgDXv_35JJWpevvJQWWZqN72uF-RtoOxY5ULNkzjEP8u8Dj31vjmEm_ockLA4cG4ZGUv41fTKdqUtiZ72XDdlNLx2X8ZJ2K1tWIEWO-jj61QH12oYTWylT1s9d00IdKd-x6NZSk3A95dG41ZPEA/p.jpeg</t>
+  </si>
+  <si>
     <t>Papa-terras e Curimatás</t>
   </si>
   <si>
@@ -532,6 +628,9 @@
     <t>Curimatidae</t>
   </si>
   <si>
+    <t>https://ucef552ba4af4be4d23256571e96.previews.dropboxusercontent.com/p/thumb/ABeCY6htPwyjm3r83OyqVO1glEcotg12LoggunvoZJg_5GIzsUJKUfoSUSBwA86qnjhMcPq-Haso4Z7ZwoloOddIAyAp65U8Qh3GJK4uW44XmvhLgAYN5Raxr_0YonqJWFwHNIdXnJXBFBjgIMk2keEYYmF-4x3RiX8Ec1KWir88e-6sBHn5tNSk8YTK8iYH1g5KCmvxDNiIPPA4zVi4abbUOP6ePtRPjRA3NUBBsCcSB0ChOPaDFFrrGGNWpuVPqATZEzmYGu1GzVxO4xGx9kMwJfHa0k7luMas4l1lT_61xbHJlzZXW4v1cLINNBQ_2qyfurqC59BrlzMcKTVUfUjPWskE4MVjOC05NJ0HTdNGdg/p.jpeg</t>
+  </si>
+  <si>
     <t>Cachorra-icanga</t>
   </si>
   <si>
@@ -559,6 +658,9 @@
     <t>Gymnotidae</t>
   </si>
   <si>
+    <t>https://uccf47b276f8572fa50cce7cb99f.previews.dropboxusercontent.com/p/thumb/ABefIcP099-FCvs1tV09A9ITNOtYqpWD5JhRTfrE4IzG7GtjVgn_UZHN-czdT2jj_uIlFDzd09W2vhP4NskL1auwNMY0V7NIM-3vuucsIywcjf52Ju7uwpzc-JYR7cNDIy8_92jBeCtMEJVixebQuXj_6fZdDb0D9LDESPOc5nHgTrgKrUeUZisX3AHIGpX1ZrYafC64MtF0lJHRyrYol5XF4PfSHVEeCH9JawBH_yrM00617sI590STzHqF0FteG0hYc-kk0lyZ8tlI7Ehm_z2ZWDcIu7LTzlW1q8KCW2vu1i7swJpVvTR1s55yocI4mMyCQAb4TsHRlYQRL35yFLiP0bnnzCaTxL-pRjUDUnSr7Q/p.jpeg</t>
+  </si>
+  <si>
     <t>Miguelinho</t>
   </si>
   <si>
@@ -568,12 +670,18 @@
     <t>7.5</t>
   </si>
   <si>
+    <t>https://ucbe45138b130d7b9d49fa5ec9ea.previews.dropboxusercontent.com/p/thumb/ABcSjoU2HQ7liM2UmMZyCMx8KvzeF4cv7wHN4ZL0-u27RzDUBx0ER1rAWH-ljjTc_7QnHEXzlxfV0B9YPVWfgV6wv1neYvv8-SAFtQAgnB7Ulx3lMx4YVZ6rBQkQZI0eVo94Y5insKKq1Qhj4oD07pqO92DDHB3FF6NGbrZZaBKVfu_XitJn4WNlZP4ZsvtyeTEz4TEl1O970mBq7N9xMhNB1WL3-pmcJa2CSKiKAKGXL0FYEp6nBbqHHwPj2Rl_EY9WQp1yUcYOWH0qXG1zE1rQaqUTmVWkUuinIjqR7yLNqFpUYRPQLp7zfCRoC7I6ELmxYBJtHQkh_FVSOiXLnPLWQlZ-FTIexeyiSbd5DRq7yA/p.jpeg</t>
+  </si>
+  <si>
     <t>Corró, Acará-bicudo</t>
   </si>
   <si>
     <t>Geophagus aff. altifrons</t>
   </si>
   <si>
+    <t>https://uc78884d9a3e59c9a74f25943e01.previews.dropboxusercontent.com/p/thumb/ABd7UyvAibY_7VyJYmT3UldgwCTYCsVYucWyZ6KdTheJVOmyZYr1Uy8PaumtilOSD6VSdLzx42H5M0LjpknY56EiqEpt_CxJ5sLsoo4kkL2T7rjyhq1g7H040SeYafVBQMjYdX7F42vqdEXCp96GO0_CI4Us0XxHR8nYZdz-LNXdTeTzRpgjdoSf6_NMFVliLSRaHPSKXsX4N-bw9AnjUfNBAV9f5ITYr4bcqwXYSkmhMEqgbRbXjlDpsFwKi46gzphtixNMPqN7AsvRwSHOkszdwFpuQftIgDLcDSDDcUQRNlPqyN6ur1OEXIXBqaz-h3bn5iTJs5ymcvjn9UuFrjgno8eRL1qHLjYpxornEdhfnQ/p.jpeg</t>
+  </si>
+  <si>
     <t>Tuvira</t>
   </si>
   <si>
@@ -583,6 +691,9 @@
     <t>1.2</t>
   </si>
   <si>
+    <t>https://uce9398e2925bbc628e2824dd58f.previews.dropboxusercontent.com/p/thumb/ABdl17CysgvdtTm4Msx-9ObT23hW5u24AmdCNU0pnQkJQtENC2XtA-T_09Ck6Gzh5bqzfsp3G1hLuvCmXx5VH8uDMTcSVUHvIhVYYYVctqLmSm5qZ2wqjoHMYoc2x22K4-v80DkNkdtvx9QKTvsH46Tge2q3zCc4_J_I8qImd92CXYcS-_syR5rWZybPMvbKCLCBH7QCspqqkcd628jOCHhsVFxMLTaeDHQUAbszUmwDlHc-iPALTNhhabID5KjNTqhiiKPJTB1y4KIXJc1P7Bztni2OspbX3A3ck2uNMt4lua5oTBe1qwM6GwAVvC21ekWaj6-g4RBZxJMrz-REGQX24YrNhIUgsVhqSj4ucZppkA/p.jpeg</t>
+  </si>
+  <si>
     <t>Mandí-serra</t>
   </si>
   <si>
@@ -595,6 +706,9 @@
     <t>Rios de água turva.</t>
   </si>
   <si>
+    <t>https://uc5c42be7fbd7932bc11b903bd5b.previews.dropboxusercontent.com/p/thumb/ABf0YCn5HHfyoqiWkk3xYVr-Az-jXpUaLlu6UKl9IB2Vg08CnQJnVfs-MuZrrRYsCCdqmjp4w37c0Y26zGE5CKCgvX7VpUEov1IXML2UE2VGcoVnj3NNDw0h2Tgr9QApwdAnc-xjyd8pTLoZ1DZ6S90CA_WB3dR8EvzAvD1Yy2plv9iAZGpbv8cB4elfQKNDxyxSFj52lRBjiZEDgaWdbmTpPeHv2UI6MxjMZLZ70NI2p0o3_rf6iHTKX9J591zqzPC8ecUoAMT_TflRKiwEE_0G4aHJCBsi9nFxNspkpGTLyA6ghU0VE4JsI1XLSWWbB_b9VxeMQjffXf4DfR6vh8OAEo9nYmxe-EhZNINMjdansA/p.jpeg</t>
+  </si>
+  <si>
     <t>Voador-rabo-vermelho</t>
   </si>
   <si>
@@ -607,24 +721,36 @@
     <t>Onívoro</t>
   </si>
   <si>
+    <t>https://uc1f535f680548879e982df620c8.previews.dropboxusercontent.com/p/thumb/ABeUwT6sCoz6eMdCowHoHSwdF1vU3fqyUmJP15qo8aMls4u48HJzPLSgoavaY4G5ZkvgqMD__wvK4LyVfxn80KTudF4Oyxf5Uh_49Ei48BS8wngb6VngWoKOF-Jw1n5Xj4mqqW2LMfPffPUKR-wbLNNH5QsOEs5ktucvBunt92bdBgysiqXBDJ4flcPKcwD8dknsLGCnF0S_keHLFMtQgiUsylD2bShxbHDhj6VY58_w1NjTVnDoMpkvzJ9PK7xr20PsEoxW8Jef7KSloXm9vv6971PL9LutS_M9Be-A5iKt-RBsXLwLwzHKsLQovGPJLvBMMvpJ9EuEsPsNVBGIE7I1gFzfPBNicga2nP_FR5tsfg/p.jpeg</t>
+  </si>
+  <si>
     <t>Voador-escama-fina</t>
   </si>
   <si>
     <t>Hemiodus microlepis</t>
   </si>
   <si>
+    <t>https://uc97b17a8f30ed3f49bea94d23d6.previews.dropboxusercontent.com/p/thumb/ABfNqIi3mQ4bir_2J-hqI-cI0_EhaIZzmoWx28MWwlxBOP8pmgO4h7cRXeMo-aw2HCgnZYFpaxiAOvV7kt8wDIVGHSidzZwXdgWHDtVVXZY-R5aa9XOsHy8f5YyZtL9K3W17lh5W_q05zNj0yN_s3Ls-tBdK3Y6CuM7F-opkwenKWsv_BeeP2nS-gIlZWe7Knje5-EGUT9ZoXxc9Q1TPUfqXTrgCnDHUMmrhKPcjhQVarqyWZagK-zQVGCNBYP9KE5KrT7fSdeTx8HKlHKq-cvRVO-zjOhO91408mm-KD8mO1hgrApWjqQ0-ZaYpH_AkHRkRi-iLSLBFW_5qpTVnJIesmjxUqrfz01llHvU0_LxxbQ/p.jpeg</t>
+  </si>
+  <si>
     <t>Voador-vermelho</t>
   </si>
   <si>
     <t>Hemiodus ternetzi</t>
   </si>
   <si>
+    <t>https://uc7c7632166ae5c988f082b208af.previews.dropboxusercontent.com/p/thumb/ABcjnzJzn1ZP4rj5dytBB-JabBAlPCoPK7JWD01Mz5NeKQFFQh9ipgW22tRf_Aa-RUqlpbuc3Eh25GtPiE77tIpKQpAondeITIMAwi9M2HoDuPcx8jqAbG0mKGgd2W42E-DbNmoUgn0AvHFuJmhcJkguLh-5sHko1F_9Dgsg1sFkKmw26lNwJWBFf43kEiWvJFsv4XwBcWqmaw3kG6oVXvRdaqH5jzpfMF4lGeCySNpGGGSZFRUD2wrSCH5mD5utjlbiMLbizkiYpe7IeiVXXxaRJ1mt3xKTQA7EA6gB6jer3wgXPL96_01p-W5E30N7LudO-h6eKNsflDfOq0Ka1bby2SDay3WF5iK7R29pC-G9nA/p.jpeg</t>
+  </si>
+  <si>
     <t>Voador-escama-grossa</t>
   </si>
   <si>
     <t>Hemiodus unimaculatus</t>
   </si>
   <si>
+    <t>https://uc77b041c61dfe1fdecdb93ef952.previews.dropboxusercontent.com/p/thumb/ABfDCzKstc8UKJUB8lpwBE13DokKW9ujWOM5TjITC5wB84vWTxVGhTNXN7YDt13Y4k_bdzJCMY4E2Gd-Hp0f2QjN6hIo3_Nr85VIOGW4F_UGgTa9CJDPDoUCWM2n_Wbty_psvQw8pPmZvKvq8kwQ5k9382Pl6zuXsahMwMz3jk266VhNGFb6zycYDkNY9w2AjOYwol1AKr4L3uM2sPjBwVn9I0cJ7cY4SRDEuBWgc-PzcLJtuRzC2EUnKxo8bH2CqJECSjo93uhzrrOsfO1BTGcDD5vI8VZPmAeqnTqzN5TeDoHxo1M8W3-4QVR5-QQqEeoYfhi96SsJf3edcgy0TxrPpr8ymTz9Rb1JiCDi4tbl6A/p.jpeg</t>
+  </si>
+  <si>
     <t>Jeripoca, Jurupoca</t>
   </si>
   <si>
@@ -634,12 +760,18 @@
     <t>2.7</t>
   </si>
   <si>
+    <t>https://uc5e03984c6226991f53a718010f.previews.dropboxusercontent.com/p/thumb/ABfmt-GxlgZ6ktMqgtKR-x0dRZW2vyVD-mwgdZT6q397c_9_aDMLpw1QadvK6CaxKdz7DXi_G-1QQaURRYwQRea7Bn012LyD5Ik-YM5yGWUVY4Dwj1cmTZ8MVaa9FGs_K9Owr8JSosiZAqJ8hTVJmLZoWNShvCC5krV1C9X5gquKRwELPRwIpu6f4YT2za1M94nq89Qz6F2qR_CPbNHSjZoaWXdJrFdKuu_VG1mVUPNOfHitWeiiZicyegaVUqjvfBa-nI5yqYx-WTjgwhGnkh8Bzk8DiYHzZz1_hY_dZXOLHE_1r5RGuFa3Hv4J9GDkjBgWce7IteBJUGScSvYFD0ziWRBUVjROB8kermtB6mAD-w/p.jpeg</t>
+  </si>
+  <si>
     <t>Acará-folha</t>
   </si>
   <si>
     <t>Heros efasciatus</t>
   </si>
   <si>
+    <t>https://uc62fa473fb4392a51c5178a7bf3.previews.dropboxusercontent.com/p/thumb/ABc8Nu47xnhJx3bH7-nI4gCzsTG7nK01VTVHxr1JSTsNUg0-hkZMUCgGhH_6oi8TLHbmX-6LdGUnvvDg62WQgu_7TV6FVGO7H_Owm7l_PfHzYJ2mE2OnGRMoDkCMbzHsamR_Ic_ZLKAYcpyKSvDjkSJFSizdQmOMiCxQAybwfBTSZoYGixMz2hxJ2UT8v7IPBZfCBoDxkJUgsArw-GJXXdfaOUbF0jfme68olC2J2rygXxpL-XaedAb3R_qEQ3BfVeoRmiVEBeXgYrqTKOoOifioRM7TBO83H1kU4bmX7LT8DuLd_PcSbG3VJO50g3AAv0BgsSm5xKV02FY8AVwO9LAlpUdYC279Ex2KZPGGjTC47A/p.jpeg</t>
+  </si>
+  <si>
     <t>Traíras</t>
   </si>
   <si>
@@ -664,12 +796,18 @@
     <t>3.8</t>
   </si>
   <si>
+    <t>https://uc04d513c53c7dfd1d2a2b000539.previews.dropboxusercontent.com/p/thumb/ABfES9nvijxWr7pRK1lEM2-i_-AVQ_6qrIzkzkWvWAHOidl6PwmzQk9DDjLO6dj9Ykdz1ac78uKwROWAPCLDL_XbW9csAmUdpcN4ARTM5sA1wuJKa7prqNkMsn75EmDdxh3maSwrlIjsrkNGPgUL5pLAMvk6rCDtWUMmBNKDYha43-hGb1vcmdsbrMGO9GBFccIpBQYc0pnWx3HUBVDSHsnYdWFu_ILWJvvxKDSU3XooERIily9GcDLjVD7piCZxzZXUVnEu4LjKpiSiq_BYnTFt56Oe2s2Jk_Q1ODlRXwCNS95kJk-Oci3CwWLCgP6GiFnrzLLn35aOp6yRwSQU5Y0LFrdlUA3kDg12szOhqnXYUw/p.jpeg</t>
+  </si>
+  <si>
     <t>Trairão</t>
   </si>
   <si>
     <t>Hoplias curupira</t>
   </si>
   <si>
+    <t>https://uc6824aa3e7508a5698af866e503.previews.dropboxusercontent.com/p/thumb/ABdm8j5ooPxSUFH1Dl899lN6TBB1OLXefL6NkKBFeI7iKlg6-YJwTov9wp2MFtf02ira_XH1O-xHYVoFABl8Vxjb4jkAr85qvSyb2sDjQxKps9yJstHMLMZaWr9yX3TrbCQhzaCTl9CXP6SLdQK_beU8-nbUi5ZfsnhqZmeMczoptSZA51Cuk2nJk5nNw41hdjI_qLjtYoDsAW1KWibXDBANmLPKsHkDJlWIWdt5U6-BOHqCPd8gG49s4eFkYfdaRpqEGGYKKx3W5nFCl2xS2zTtblQ7i_9aF8bTfbG_oPimVmswe--B9bXMD7LYok3uW_4VtXnA139sDg7pID5VC85bXUtGOQCxNran6t0DueUhGw/p.jpeg</t>
+  </si>
+  <si>
     <t>Cachorra-larga</t>
   </si>
   <si>
@@ -679,6 +817,9 @@
     <t>8.5</t>
   </si>
   <si>
+    <t>https://uc16442ad1a957eff078f4927bd2.previews.dropboxusercontent.com/p/thumb/ABfQgS5eD-Dc0_ZVt4BEZofBELnHigLTDJm56KIL0YxtH3728O2aTw8FqqMBfBbZrlZ-ptkqza6IZ73s4VYpXK28VbN2dgBgBVRhpEKXSyTAYVUV-L-R9JL-rEx-yPEaNSgl2USiBjvuV0FR2q1at4QYSIxZw82e2rT2_Je8e1atoJ3bEfXPbHWMV-EaloMZQkuwQ97NqmLAOl2q0byXZoa1j2tFKhfbUynkzJCDJ1WcOELhmpNob-H53PPK36-0yZKHGwVBQGf8puwioasWXtjeCUBaqQZnRhXUqab7F339Is3GXSRIJfC7IJG15y3wNPolRNbHUVex9_cB8KXxY2JzRX4y7KXjjpRZomOfpzqcwg/p.jpeg</t>
+  </si>
+  <si>
     <t>Cachorra-corcunda</t>
   </si>
   <si>
@@ -700,12 +841,18 @@
     <t>1.3</t>
   </si>
   <si>
+    <t>https://uc6a230972e8e58c601d0bd4a977.previews.dropboxusercontent.com/p/thumb/ABcbw1ZQSmwcQuxrJBEuw7-1uFpfLmNg2QlWgEvoOmXstYHgcBCfZQPK2_iUCf_FG6xkiZqVo6JvoXHwh2uGyn5wNI6XK96V8PijuVrVL_QnZWe_qo77QuKf1lJm2YbgHTzQRaC5rLE2_Y7-wWTmDh2XX24WDvMl_1TTt526kgYci2537fjbVl1Vsu2XCeEAtIaUr6gssiH_AZHpTULkRQmSJsBKnq93RC2wK6Yq3ZWC8eXw2Hcx8ikagehvn_RuibnrbXuYjGmcUzsSXII9rXXVOThvIxC3SF7CDNDi5bMAmeCw9agSONmxyY0oVog43YOBnYTKHbypEeU_1B3_0b8m8C3cTbrLVAvpx97tmKiXbQ/p.jpeg</t>
+  </si>
+  <si>
     <t>Acará-roxo</t>
   </si>
   <si>
     <t>Hypselacara temporalis</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AACmO9IbOGmdgafHxqFokh0Ua/IMAGENS-PEIXES-COMP/Hypselacara%20temporalis.JPG?dl=0</t>
+  </si>
+  <si>
     <t>Cascudo-paca</t>
   </si>
   <si>
@@ -718,6 +865,9 @@
     <t>Leporinus affinis</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AADhhYZ1RU5Qpl3hgucksodwa/IMAGENS-PEIXES-COMP/Leporinus%20affinis.JPG?dl=0</t>
+  </si>
+  <si>
     <t>Piau-comum</t>
   </si>
   <si>
@@ -727,6 +877,9 @@
     <t>1.5</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AABaN1jywFzFPpUWpgEShzxPa/IMAGENS-PEIXES-COMP/Leporinus%20friderici.JPG?dl=0</t>
+  </si>
+  <si>
     <t>Sardinha-de-gato, Manjuba</t>
   </si>
   <si>
@@ -736,6 +889,9 @@
     <t>Engraulidae</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AAAv8lOH1KpwZtclwQ6T4AQ7a/IMAGENS-PEIXES-COMP/Lycengraulis%20batesi.JPG?dl=0</t>
+  </si>
+  <si>
     <t>Piau-cabeça-gorda</t>
   </si>
   <si>
@@ -745,24 +901,36 @@
     <t>2.2</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AACSJrf9ZJ-i8bm_RKJR94zYa/IMAGENS-PEIXES-COMP/Megaleporinus%20trifasciatus.JPG?dl=0</t>
+  </si>
+  <si>
     <t>Mandí-prata</t>
   </si>
   <si>
     <t>Megalonema platycephalum</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AABycH01-jWguDoS9hV6A11aa/IMAGENS-PEIXES-COMP/Moenkhausia%20dichroura.JPG?dl=0</t>
+  </si>
+  <si>
     <t>Acará-festivo</t>
   </si>
   <si>
     <t>Mesonauta festivus</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AADuWRBNEs3KZ7aRoxZTnR0Oa/IMAGENS-PEIXES-COMP/Mesonauta%20festivus.JPG?dl=0</t>
+  </si>
+  <si>
     <t>Lambarí-rabo-preto-e-branco</t>
   </si>
   <si>
     <t>Moenkhausia dichroura</t>
   </si>
   <si>
+    <t>https://ucb0c136efc20f41b8a9b797e705.previews.dropboxusercontent.com/p/thumb/ABfkAEhD3kFNG-OMboYh-ShXQdNELjbNM8Xd4f__KfZJQXBe1XLluaSab0eH6ceBlMuDKCNa2RjusxveJZgcoHTi2bIf-iyJYgoTQVGfbuYmPXy_iMT0cwtuKd4ofnPAeskIkZ6rYxwVYTVnWraesQgwUudqeMr9Ofn3kFR93Uk7VAerklEk08wtYVstYu0vk2m08T-erYKhxWEE3cDdSBgfCLVIad-4vyzdmNWESqYWkYkwBUOTKxCLhfA-ty5bnmAeVuIn24UrnmFsqD9a7mjqflqiy-nrq0rxV5Z3calrZWJDT6iy2cF6a1sKzi1zTPOgn3CeeR1KARmqyAYK4weKFH8-3E5TsoDFAHDNYZ1_4g/p.jpeg</t>
+  </si>
+  <si>
     <t>Lambarí-rabo-vermelho-e-preto</t>
   </si>
   <si>
@@ -778,6 +946,9 @@
     <t>Moenkhausia oligolepis</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AACjM2baghwdzyGn-9v0yxD_a/IMAGENS-PEIXES-COMP/Moenkhausia%20oligolepis.JPG?dl=0</t>
+  </si>
+  <si>
     <t>Peixes redondos</t>
   </si>
   <si>
@@ -796,6 +967,9 @@
     <t>Rios com corredeiras.</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AAC5_329wbAk1r6Q8iAvEr2Ua/IMAGENS-PEIXES-COMP/Mylesinus%20paucisquamatus.jpg?dl=0</t>
+  </si>
+  <si>
     <t>Myleus setiger</t>
   </si>
   <si>
@@ -805,6 +979,9 @@
     <t>Myloplus schomburgkii</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AAD_2ol5WCDh0Bo448NTyo1Ja/IMAGENS-PEIXES-COMP/Myloplus%20schomburgkii.JPG?dl=0</t>
+  </si>
+  <si>
     <t>Pacú-branca</t>
   </si>
   <si>
@@ -829,6 +1006,9 @@
     <t>4.3</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AACPuoB9Gfbu2WUYhd0ZCDIya/IMAGENS-PEIXES-COMP/Oreochromis%20niloticus.jpg?dl=0</t>
+  </si>
+  <si>
     <t>Aruanã</t>
   </si>
   <si>
@@ -838,6 +1018,9 @@
     <t>Osteoglossidae</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AABYrbhZdKIIyyLqPZk7KFAua/IMAGENS-PEIXES-COMP/Osteoglossum%20bicirrhosum.JPG?dl=0</t>
+  </si>
+  <si>
     <t>Cuiú-cuiú</t>
   </si>
   <si>
@@ -856,6 +1039,9 @@
     <t>Scianidae</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AAAILsq4uAUI0FNcSqI_mhDCa/IMAGENS-PEIXES-COMP/Pachypops%20fourcroi.JPG?dl=0</t>
+  </si>
+  <si>
     <t>Arraias</t>
   </si>
   <si>
@@ -874,6 +1060,9 @@
     <t>Endêmica da Amazônia.</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AADYA8fAuVQ-F8NooDSlVZ9xa/IMAGENS-PEIXES-COMP/Paratrygon%20aiereba.jpg?dl=0</t>
+  </si>
+  <si>
     <t>Apapá, Sardinhão, Pescada-amarela</t>
   </si>
   <si>
@@ -886,12 +1075,18 @@
     <t>7.1</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AAABdMCI8HIJPV8GaxwtrG2Wa/IMAGENS-PEIXES-COMP/Pellona%20castelnaeana.JPG?dl=0</t>
+  </si>
+  <si>
     <t>Pescada-branca</t>
   </si>
   <si>
     <t>Pellona flavipinnis</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AAAvnWSee1KqapbMyokPyCdFa/IMAGENS-PEIXES-COMP/Pelona%20flavipinnis.JPG?dl=0</t>
+  </si>
+  <si>
     <t>Pirarara</t>
   </si>
   <si>
@@ -901,6 +1096,9 @@
     <t>44.2</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AABlrH8XfldL2BARz2B05FLga/IMAGENS-PEIXES-COMP/Phractocephalus%20hemioliopterus.JPG?dl=0</t>
+  </si>
+  <si>
     <t>Caranha, Pirapitinga</t>
   </si>
   <si>
@@ -910,6 +1108,9 @@
     <t>Frutas e sementes.</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AAALnzyfV5l2cjp8y0cXQPgMa/IMAGENS-PEIXES-COMP/Piaractus%20brachypomus.JPG?dl=0</t>
+  </si>
+  <si>
     <t>Chorão</t>
   </si>
   <si>
@@ -925,6 +1126,9 @@
     <t>Pimelodella gracilis</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AACzXEvj6FW0ylRrCpLtpgCja/IMAGENS-PEIXES-COMP/Pimelodella%20gracilis.jpg?dl=0</t>
+  </si>
+  <si>
     <t>Mandí-moela</t>
   </si>
   <si>
@@ -940,12 +1144,18 @@
     <t>Pimelodus blochii</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AAA7iDN4mU2L43grTlFyexvoa/IMAGENS-PEIXES-COMP/Pimelodus%20blochii.JPG?dl=0</t>
+  </si>
+  <si>
     <t>Mandí-guarú</t>
   </si>
   <si>
     <t>Pimelodus ornatus</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AAAY-25ybeXXyYdwQoNAIM9Ra/IMAGENS-PEIXES-COMP/Pimelodus%20ornatus.JPG?dl=0</t>
+  </si>
+  <si>
     <t>Barbado</t>
   </si>
   <si>
@@ -955,6 +1165,9 @@
     <t>7.7</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AADoMJzwzl979lGkcl1COGZ3a/IMAGENS-PEIXES-COMP/Pinirampus%20pirinampu.JPG?dl=0</t>
+  </si>
+  <si>
     <t>Corvina</t>
   </si>
   <si>
@@ -964,18 +1177,27 @@
     <t>4.5</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AACfNh7tCn1JZmXGEQcLoqRAa/IMAGENS-PEIXES-COMP/Plagioscion%20squamosissimus.JPG?dl=0</t>
+  </si>
+  <si>
     <t>Bacu-rebeca, Cascudo-rebeca, Cascudo listrado</t>
   </si>
   <si>
     <t>Platydoras costatus</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AAAcbuE7Wu4XjnSXPja0xuDGa/IMAGENS-PEIXES-COMP/Platydoras%20costatus.JPG?dl=0</t>
+  </si>
+  <si>
     <t>Coroatá, Piranambú, Surubim-de-corredeira</t>
   </si>
   <si>
     <t>Platynematichthys notatus</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AACy6WMl-PXOK-C5lJwnd4e_a/IMAGENS-PEIXES-COMP/Platynematichthys%20notatus.jpg?dl=0</t>
+  </si>
+  <si>
     <t>Lambarí-papudo</t>
   </si>
   <si>
@@ -1000,6 +1222,9 @@
     <t>29.1</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AABbLiTuIFay_XaYb-O1qprSa/IMAGENS-PEIXES-COMP/Potamorrhapis%20guianensis.JPG?dl=0</t>
+  </si>
+  <si>
     <t>Arraia-de-fogo</t>
   </si>
   <si>
@@ -1033,6 +1258,9 @@
     <t>Prochilodontidae</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AADcBEMuZ477MtbZrHaGm4Pla/IMAGENS-PEIXES-COMP/Prochilodus%20nigricans.JPG?dl=0</t>
+  </si>
+  <si>
     <t>Branquinha-cascuda</t>
   </si>
   <si>
@@ -1042,12 +1270,18 @@
     <t>0.2</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AACNL0_62R878dYkHK_SZptda/IMAGENS-PEIXES-COMP/Psectrogaster%20amazonica.JPG?dl=0</t>
+  </si>
+  <si>
     <t>Surubim, Cachara, Pintado</t>
   </si>
   <si>
     <t>Pseudoplatystoma fasciatum</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AAD9ZDjhfNB6V6gWvFcmiFcua/IMAGENS-PEIXES-COMP/Pseudoplatystoma%20fasciatum.JPG?dl=0</t>
+  </si>
+  <si>
     <t>Abotoado</t>
   </si>
   <si>
@@ -1072,6 +1306,9 @@
     <t>39.5</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AAC6F3IwgPnSC65H90tdGsCOa/IMAGENS-PEIXES-COMP/Pterygoplichthys%20joselimaianus.JPG?dl=0</t>
+  </si>
+  <si>
     <t>Piranha-vermelha</t>
   </si>
   <si>
@@ -1081,6 +1318,9 @@
     <t>3.9</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AADWsSa9ePO4Cu_WQJkzTn-2a/IMAGENS-PEIXES-COMP/Pygocentrus%20nattereri.JPG?dl=0</t>
+  </si>
+  <si>
     <t>Cachorra-facão</t>
   </si>
   <si>
@@ -1090,6 +1330,9 @@
     <t>2.1</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AACz1lvaNE4ola6s5HDBk3kOa/IMAGENS-PEIXES-COMP/Rhaphiodon%20vulpinus.JPG?dl=0</t>
+  </si>
+  <si>
     <t>Jundiá, Bagre, Lobó</t>
   </si>
   <si>
@@ -1102,6 +1345,9 @@
     <t>47.4</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AADq0APo6MtUrzQ6Bn34YGTVa/IMAGENS-PEIXES-COMP/Rhamdia%20quelen.JPG?dl=0</t>
+  </si>
+  <si>
     <t>Tubarana, Tabarana</t>
   </si>
   <si>
@@ -1111,9 +1357,15 @@
     <t>1.1</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AAD64t33d_lYTf0Ot0d1Gyv9a/IMAGENS-PEIXES-COMP/Salminus%20hilarii.jpg?dl=0</t>
+  </si>
+  <si>
     <t>Schizodon vittatus</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AAC2EQYX64NdzWNCuWAuDrcVa/IMAGENS-PEIXES-COMP/Schizodon%20vittatus.JPG?dl=0</t>
+  </si>
+  <si>
     <t>Jaraqui</t>
   </si>
   <si>
@@ -1129,6 +1381,9 @@
     <t>Serrasalmus eigenmanni</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AAClkk-O0h17qx0oWtn-CTwXa/IMAGENS-PEIXES-COMP/Serrasalmus%20eigenmanni.JPG?dl=0</t>
+  </si>
+  <si>
     <t>Piranha-preta</t>
   </si>
   <si>
@@ -1138,6 +1393,9 @@
     <t>41.5</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AAC9sHLOxqvoEZIvRND0hhZ3a/IMAGENS-PEIXES-COMP/Serrasalmus%20rhombeus.JPG?dl=0</t>
+  </si>
+  <si>
     <t>Bico-de-pato, Jurupensém</t>
   </si>
   <si>
@@ -1147,12 +1405,18 @@
     <t>54.2</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AABdJLNMq8Nqbbga9VjZfaSUa/IMAGENS-PEIXES-COMP/Sorubim%20lima.JPG?dl=0</t>
+  </si>
+  <si>
     <t>Surubim-chicote, Bargada</t>
   </si>
   <si>
     <t>Sorubimichthys planiceps</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AABmepXnrKV7MWeYHXOu6Geja/IMAGENS-PEIXES-COMP/Sorubimichthys%20planiceps.JPG?dl=0</t>
+  </si>
+  <si>
     <t>Cascudo-chicote</t>
   </si>
   <si>
@@ -1174,12 +1438,18 @@
     <t>Tetragonopterus argenteus</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AADbgGlZQyvj0KdS8BGwRJ1ra/IMAGENS-PEIXES-COMP/Tetragonopterus%20argenteus.JPG?dl=0</t>
+  </si>
+  <si>
     <t>Cangatí, Cachorro-do-padre</t>
   </si>
   <si>
     <t>Trachelyopterus galeatus</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AADnlkGtA7fiF7o81dZslO3Pa/IMAGENS-PEIXES-COMP/Trachelyopterus%20galeatus.JPG?dl=0</t>
+  </si>
+  <si>
     <t>Sardinhas</t>
   </si>
   <si>
@@ -1192,6 +1462,9 @@
     <t>25.7</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AAA_KSDc8TQ9IhRf6LLb7L7da/IMAGENS-PEIXES-COMP/Triportheus%20albus.JPG?dl=0</t>
+  </si>
+  <si>
     <t>Sardinha-papuda</t>
   </si>
   <si>
@@ -1201,12 +1474,18 @@
     <t>16.5</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AAAQGRq3z7ED4QDaq6H6y3vga/IMAGENS-PEIXES-COMP/Triportheus%20trifurcatus.JPG?dl=0</t>
+  </si>
+  <si>
     <t>Jaú</t>
   </si>
   <si>
     <t>Zungaro zungaro</t>
   </si>
   <si>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AAA7NxFhV1XWPolav1l8Ra9Xa/IMAGENS-PEIXES-COMP/Zungaro%20zungaro.JPG?dl=0</t>
+  </si>
+  <si>
     <t>Peixes de escama</t>
   </si>
   <si>
@@ -1216,269 +1495,25 @@
     <t>Leporellus vittatus</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACeuUVRbAKuiFQ1f_Rdl0BNa/IMAGENS-PEIXES/Acestrorhynchus%20falcatus.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABHF0CqNrSimEp_BtrrIP_ka/IMAGENS-PEIXES/Acestrorhynchus%20microlepis.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABHwXZoWko3om7Oo9wggbbha/IMAGENS-PEIXES/Ageneiosus%20inermis.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAJL7U-xOUtuDbJauMW6ZJZa/IMAGENS-PEIXES/Ageneiosus%20ucayalensis.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAIw7UAB1abn6rnlIJFQtUEa/IMAGENS-PEIXES/Aguarunichthys%20tocantinsensis.jpg?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADKeQkaCqORp82Xpulp-TIJa/IMAGENS-PEIXES/Anostomoides%20laticeps.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAALWBpxgL5ZJXm2AVmCryg2a/IMAGENS-PEIXES/Apteronotus%20camposdapazi.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACka_hUaKbde4E4xBHACNIka/IMAGENS-PEIXES/Arapaima%20gigas.jpg?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD0DneioOqyIlFnVhBuBrIma/IMAGENS-PEIXES/Astronotus%20ocellatus.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAARmcMOm6sm8-Acgl-IGfs7a/IMAGENS-PEIXES/Astyanax%20bimaculatus.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADonhaaofeK5X8Kae3TtmXea/IMAGENS-PEIXES/Auchenipterus%20nuchalis.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABLDIAcoryZmuZ1yNCkh_bca/IMAGENS-PEIXES/Baryancistrus%20longipinnis.jpg?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD0GFEUZo6KUt88cpBB-Mt6a/IMAGENS-PEIXES/Baryancistrus%20niveatus.jpg?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACtwxUVybx_x1SG4vrkhaMPa/IMAGENS-PEIXES/Boulengerella%20cuvieri.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAbp0j8KOAe-0Dcx77Dl8qXa/IMAGENS-PEIXES/Boulengerella%20maculata.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABxtnRUBNRs-HsFVLiNU4l5a/IMAGENS-PEIXES/Brachyplatystoma%20filamentosum.jpg?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACRINRZIMszHYmg8NyAsYz8a/IMAGENS-PEIXES/Brycon%20falcatus.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAPSlNPXSQ30fITaf8vx1JXa/IMAGENS-PEIXES/Brycon%20gouldingi.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAC071duLSb0-_L2O2-eUT3Ca/IMAGENS-PEIXES/Brycon%20nattereri.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD-u046FFBIrJz1zPxAkqQpa/IMAGENS-PEIXES/Brycon%20pesu.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABynjb7Q9NVMqxB15cfyAkGa/IMAGENS-PEIXES/Brycon%20polylepis.jpeg?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABQGtj9BtLvX47BWQhfyJLIa/IMAGENS-PEIXES/Bryconops%20alburnoides.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADoR_ce3yrPzy_32z5R6hH3a/IMAGENS-PEIXES/Caenotropus%20labyrinthicus.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAB4tOHEICbJt1GhIL7rYqbOa/IMAGENS-PEIXES/Chalceus%20epakros.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAc7NuWRD83n2qJk41k5nUFa/IMAGENS-PEIXES/Cichla%20kelberi.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADmlRY87ElsoG_zi8MlNEXna/IMAGENS-PEIXES/Cichla%20piquiti.jpg?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADh0XjKYaVO0pwM15bArc7Na/IMAGENS-PEIXES/Cichlasoma%20araguaiense.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACP1SsUstm2e5RiAhp7j2SJa/IMAGENS-PEIXES/Colomesus%20tocantinensis.jpg?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAA1Q0VNXY0SRw7Q_7PtT2sUa/IMAGENS-PEIXES/Crenicichla%20sp.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACWNgC0aTPdqvBk5SXzuhDEa/IMAGENS-PEIXES/Curimata%20sp.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAAUA1GJECppGC6HINIlA3Ha/IMAGENS-PEIXES/Electrophorus%20electricus.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACkyGY3CEXx-4CIhmTQAotAa/IMAGENS-PEIXES/Exodon%20paradoxus.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAA55G4HJRbTddiae2B7XSXaa/IMAGENS-PEIXES/Geophagus%20aff.%20altifrons.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAtOK5Ptc3uYFHsuYqgYvHBa/IMAGENS-PEIXES/Gymnotus%20carapo.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAhfEEr6AJJYDAe5n5UFqOTa/IMAGENS-PEIXES/Hassar%20wilderi.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAlvks2c4jjlXtg5Ou-dx2Sa/IMAGENS-PEIXES/Hemiodus%20gracilis.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABw58Df5JydE9Uj2kiFAiPpa/IMAGENS-PEIXES/Hemiodus%20microlepis.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAAzELcO5juwRnU3EktUUAEa/IMAGENS-PEIXES/Hemiodus%20ternetzi.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD9qK2DiaWrpZaU8ZUS5_KTa/IMAGENS-PEIXES/Hemiodus%20unimaculatus.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAl6cy3FbAk4WYhiiffYtxwa/IMAGENS-PEIXES/Hemisorubim%20platyrhinchus.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABNXyYb9vofSrUWUr5KLibIa/IMAGENS-PEIXES/Heros%20efasciatus.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABp3CedBUy4OSEl9JxbdGPoa/IMAGENS-PEIXES/Hoplias%20curupira.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAhzaYYlF0ydUA8q1dFmq21a/IMAGENS-PEIXES/Hydrolicus%20armatus.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAA2w-xCEz8uZiJMHhCMXPAta/IMAGENS-PEIXES/Hypophthalmus%20edentatus.jpeg?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD9zYTcEVV1RMxeHGRJSFB_a/IMAGENS-PEIXES/Hypselacara%20temporalis.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD62wlUv8p7Up8jfR0-RMJWa/IMAGENS-PEIXES/Leporinus%20affinis.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAcH2ZDtc1xtSkn1z4N7Bv5a/IMAGENS-PEIXES/Leporinus%20friderici.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADQLMxB8c4nG68-KZ5slotda/IMAGENS-PEIXES/Lycengraulis%20batesi.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADKO5i_wq6CdG2vx6XYiChXa/IMAGENS-PEIXES/Megaleporinus%20trifasciatus.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAB65wsfEZ78mPPTgy82sTIaa/IMAGENS-PEIXES/Megalonema%20platycephalum.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAFB12YoMHltIrCKz95J0N6a/IMAGENS-PEIXES/Mesonauta%20festivus.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACol5cuO4afZV7RYqwKX2jsa/IMAGENS-PEIXES/Moenkhausia%20dichroura.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADgaJuypIzxVdydZpjI2jtGa/IMAGENS-PEIXES/Mylesinus%20paucisquamatus.jpg?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABwMrOzi4QxAQa8BICg3RqVa/IMAGENS-PEIXES/Myloplus%20schomburgkii.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAbBD0hys6_5gabZAipchOZa/IMAGENS-PEIXES/Osteoglossum%20bicirrhosum.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAboGhsclsxzwgQ4Xfv6V21a/IMAGENS-PEIXES/Pachypops%20fourcroi.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAz9zpQHO1XZs3Ue-dzt3aGa/IMAGENS-PEIXES/Paratrygon%20aiereba.jpg?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAAczBg7hoaaSyVKjtZtcKpma/IMAGENS-PEIXES/Pellona%20castelnaeana.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD0QdXEjfuSPWyQeSoNq8EMa/IMAGENS-PEIXES/Pelona%20flavipinnis.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAB2ima_yFRZjCU42YqGXrpYa/IMAGENS-PEIXES/Phractocephalus%20hemioliopterus.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAC5hVnqUSCqy6Bbzm2dvCA7a/IMAGENS-PEIXES/Piaractus%20brachypomus.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABA_0DUjbptm_Y8-dWAKweYa/IMAGENS-PEIXES/Pimelodella%20gracilis.jpg?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACv-LWdkjxZsmwMea2Eys__a/IMAGENS-PEIXES/Pimelodus%20blochii.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACY0k_FbKogxn3ftpT7YRl0a/IMAGENS-PEIXES/Pimelodus%20ornatus.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABRojeNV1nQfqy6OzqHXeQ6a/IMAGENS-PEIXES/Pinirampus%20pirinampu.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADNkXb7GwwzyU0WI_ni5Mqaa/IMAGENS-PEIXES/Plagioscion%20squamosissimus.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADGvFRM-iIO9acEevnuNroca/IMAGENS-PEIXES/Platydoras%20costatus.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADspctFW-A_QNbE0nUldNeFa/IMAGENS-PEIXES/Potamorrhapis%20guianensis.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABZsUb_VECf65xXyriajtmXa/IMAGENS-PEIXES/Prochilodus%20nigricans.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAA3SRIAa6wQcCXALkJrxvnfa/IMAGENS-PEIXES/Psectrogaster%20amazonica.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACwwSBlnzM1v2ekxEI-FaLra/IMAGENS-PEIXES/Pseudoplatystoma%20fasciatum.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACaiPp9S0feRUmCdDA_A7Zaa/IMAGENS-PEIXES/Pterygoplichthys%20joselimaianus.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABPZ1bQhiMhAJZs1YT0boMZa/IMAGENS-PEIXES/Pygocentrus%20nattereri.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADLn_WDDyK6XoRR5WjZIksxa/IMAGENS-PEIXES/Raphiodon%20vulpinus.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACRGuurdw1cxSE-f2xT6B6Ba/IMAGENS-PEIXES/Rhamdia%20quelen.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD7PhtmbRbGoVHbqFCGziu5a/IMAGENS-PEIXES/Schizodon%20vittatus.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AADbdgzn0LLaaqLU8CtMS_nka/IMAGENS-PEIXES/Serrasalmus%20eigenmanni.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD16Sofr2Ywi_8VYMLZakqKa/IMAGENS-PEIXES/Serrasalmus%20rhombeus.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAD7_U-UcEFS-B3LXey8f1jDa/IMAGENS-PEIXES/Sorubim%20lima.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAA8oKMC9kuMAu1r7EbAUWr-a/IMAGENS-PEIXES/Sorubimichthys%20planiceps.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAClMTqEFS4cN3ZYUG6_pqbTa/IMAGENS-PEIXES/Tetragonopterus%20argenteus.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABFCXn00hlsWSOmMWfF4Kaea/IMAGENS-PEIXES/Trachelyopterus%20galeatus.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AAA6WfuKsiegVhKjnd6Pqs_Ja/IMAGENS-PEIXES/Triportheus%20albus.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AABuSkYGBB2lWirYWccINtpqa/IMAGENS-PEIXES/Triportheus%20trifurcatus.JPG?raw=1</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/cktcyg6hh5su3mk/AACCG9643Nm047hX03iiH1Sya/IMAGENS-PEIXES/Zungaro%20zungaro.JPG?raw=1</t>
+    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AABZndaVIQjC6xaMcxRajZ9pa/IMAGENS-PEIXES-COMP/Leporellus%20vittatus.JPG?dl=0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1501,14 +1536,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1821,84 +1858,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X118"/>
+  <dimension ref="A1:X119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AG1" sqref="AG1"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.83203125" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="28.83203125" customWidth="1"/>
-    <col min="5" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="18.1640625" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" customWidth="1"/>
-    <col min="10" max="10" width="10.5" customWidth="1"/>
-    <col min="11" max="11" width="16.5" customWidth="1"/>
-    <col min="12" max="12" width="21.1640625" customWidth="1"/>
-    <col min="13" max="13" width="13.5" customWidth="1"/>
-    <col min="14" max="14" width="18.1640625" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="5" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="16.42578125" customWidth="1"/>
+    <col min="12" max="12" width="21.140625" customWidth="1"/>
+    <col min="13" max="13" width="13.42578125" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" customWidth="1"/>
+    <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="95.140625" customWidth="1"/>
+    <col min="31" max="31" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:24">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" t="s">
-        <v>395</v>
-      </c>
-      <c r="X1" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1935,14 +1969,14 @@
       <c r="M2" t="s">
         <v>22</v>
       </c>
-      <c r="S2" t="s">
-        <v>396</v>
-      </c>
-      <c r="X2" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1953,7 +1987,7 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
@@ -1968,7 +2002,7 @@
         <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J3" t="s">
         <v>22</v>
@@ -1982,75 +2016,75 @@
       <c r="M3" t="s">
         <v>22</v>
       </c>
-      <c r="S3" t="s">
-        <v>397</v>
-      </c>
-      <c r="X3" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F4" t="s">
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
         <v>31</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" t="s">
-        <v>398</v>
-      </c>
-      <c r="X4" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
       </c>
       <c r="F5" t="s">
         <v>20</v>
@@ -2059,10 +2093,10 @@
         <v>21</v>
       </c>
       <c r="H5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J5" t="s">
         <v>22</v>
@@ -2071,36 +2105,42 @@
         <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G6" t="s">
         <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I6">
         <v>115</v>
@@ -2117,75 +2157,69 @@
       <c r="M6" t="s">
         <v>22</v>
       </c>
-      <c r="S6" t="s">
-        <v>399</v>
-      </c>
-      <c r="X6" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="J7" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K7" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M7" t="s">
         <v>22</v>
       </c>
-      <c r="S7" t="s">
-        <v>400</v>
-      </c>
-      <c r="X7" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G8" t="s">
         <v>21</v>
@@ -2200,42 +2234,42 @@
         <v>22</v>
       </c>
       <c r="L8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M8" t="s">
         <v>22</v>
       </c>
-      <c r="S8" t="s">
-        <v>401</v>
-      </c>
-      <c r="X8" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="J9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K9" t="s">
         <v>22</v>
@@ -2246,34 +2280,34 @@
       <c r="M9" t="s">
         <v>22</v>
       </c>
-      <c r="S9" t="s">
-        <v>402</v>
-      </c>
-      <c r="X9" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
       <c r="A10" t="s">
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D10" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E10" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H10">
         <v>450</v>
@@ -2293,40 +2327,40 @@
       <c r="M10" t="s">
         <v>22</v>
       </c>
-      <c r="S10" t="s">
-        <v>403</v>
-      </c>
-      <c r="X10" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S10" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24">
       <c r="A11" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" t="s">
         <v>67</v>
       </c>
-      <c r="D11" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G11" t="s">
-        <v>61</v>
-      </c>
       <c r="H11" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="J11" t="s">
         <v>22</v>
@@ -2340,37 +2374,37 @@
       <c r="M11" t="s">
         <v>22</v>
       </c>
-      <c r="S11" t="s">
-        <v>404</v>
-      </c>
-      <c r="X11" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S11" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F12" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s">
         <v>21</v>
       </c>
       <c r="H12" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="I12">
         <v>96</v>
@@ -2387,69 +2421,75 @@
       <c r="M12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
       <c r="A13" t="s">
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C13" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="E13" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F13" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" t="s">
+        <v>22</v>
+      </c>
+      <c r="L13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
         <v>82</v>
       </c>
-      <c r="J13" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" t="s">
-        <v>22</v>
-      </c>
-      <c r="L13" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" t="s">
-        <v>73</v>
-      </c>
       <c r="C14" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D14" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F14" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H14" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="I14">
         <v>69</v>
@@ -2466,31 +2506,25 @@
       <c r="M14" t="s">
         <v>22</v>
       </c>
-      <c r="S14" t="s">
-        <v>405</v>
-      </c>
-      <c r="X14" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C15" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E15" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s">
         <v>21</v>
@@ -2505,48 +2539,48 @@
         <v>22</v>
       </c>
       <c r="L15" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M15" t="s">
         <v>22</v>
       </c>
-      <c r="S15" t="s">
-        <v>406</v>
-      </c>
-      <c r="X15" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B16" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C16" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F16" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="G16" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H16">
         <v>20</v>
       </c>
       <c r="J16" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K16" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="L16" t="s">
         <v>22</v>
@@ -2554,46 +2588,46 @@
       <c r="M16" t="s">
         <v>22</v>
       </c>
-      <c r="S16" t="s">
-        <v>407</v>
-      </c>
-      <c r="X16" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B17" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C17" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="G17" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="H17">
         <v>34</v>
       </c>
       <c r="I17" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="J17" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K17" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="L17" t="s">
         <v>22</v>
@@ -2601,28 +2635,28 @@
       <c r="M17" t="s">
         <v>22</v>
       </c>
-      <c r="S17" t="s">
-        <v>408</v>
-      </c>
-      <c r="X17" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D18" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="E18" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="F18" t="s">
         <v>20</v>
@@ -2648,28 +2682,28 @@
       <c r="M18" t="s">
         <v>22</v>
       </c>
-      <c r="S18" t="s">
-        <v>409</v>
-      </c>
-      <c r="X18" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
       <c r="A19" t="s">
         <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C19" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="D19" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="F19" t="s">
         <v>20</v>
@@ -2678,7 +2712,7 @@
         <v>21</v>
       </c>
       <c r="H19" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="J19" t="s">
         <v>22</v>
@@ -2692,28 +2726,28 @@
       <c r="M19" t="s">
         <v>22</v>
       </c>
-      <c r="S19" t="s">
-        <v>410</v>
-      </c>
-      <c r="X19" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S19" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="D20" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F20" t="s">
         <v>20</v>
@@ -2734,33 +2768,33 @@
         <v>22</v>
       </c>
       <c r="L20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M20" t="s">
         <v>22</v>
       </c>
-      <c r="S20" t="s">
-        <v>411</v>
-      </c>
-      <c r="X20" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S20" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
       <c r="A21" t="s">
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C21" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F21" t="s">
         <v>20</v>
@@ -2781,33 +2815,33 @@
         <v>22</v>
       </c>
       <c r="L21" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M21" t="s">
         <v>22</v>
       </c>
-      <c r="S21" t="s">
-        <v>412</v>
-      </c>
-      <c r="X21" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S21" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24">
       <c r="A22" t="s">
         <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C22" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="D22" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F22" t="s">
         <v>20</v>
@@ -2816,89 +2850,89 @@
         <v>21</v>
       </c>
       <c r="H22" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="J22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K22" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="L22" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M22" t="s">
         <v>22</v>
       </c>
-      <c r="S22" t="s">
-        <v>413</v>
-      </c>
-      <c r="X22" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24">
       <c r="A23" t="s">
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C23" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D23" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="E23" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F23" t="s">
         <v>20</v>
       </c>
       <c r="G23" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H23">
         <v>37</v>
       </c>
       <c r="J23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K23" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M23" t="s">
         <v>22</v>
       </c>
-      <c r="S23" t="s">
-        <v>414</v>
-      </c>
-      <c r="X23" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S23" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24">
       <c r="A24" t="s">
         <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="D24" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="E24" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F24" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="G24" t="s">
         <v>21</v>
@@ -2913,42 +2947,42 @@
         <v>22</v>
       </c>
       <c r="L24" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M24" t="s">
         <v>22</v>
       </c>
-      <c r="S24" t="s">
-        <v>415</v>
-      </c>
-      <c r="X24" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24">
       <c r="A25" t="s">
         <v>15</v>
       </c>
       <c r="B25" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C25" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="E25" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F25" t="s">
         <v>20</v>
       </c>
       <c r="G25" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H25" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="J25" t="s">
         <v>22</v>
@@ -2957,36 +2991,36 @@
         <v>22</v>
       </c>
       <c r="L25" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M25" t="s">
         <v>22</v>
       </c>
-      <c r="S25" t="s">
-        <v>416</v>
-      </c>
-      <c r="X25" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S25" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24">
       <c r="A26" t="s">
         <v>15</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="D26" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="E26" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F26" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s">
         <v>21</v>
@@ -3003,37 +3037,37 @@
       <c r="M26" t="s">
         <v>22</v>
       </c>
-      <c r="S26" t="s">
-        <v>417</v>
-      </c>
-      <c r="X26" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24">
       <c r="A27" t="s">
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C27" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>147</v>
       </c>
       <c r="E27" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="F27" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G27" t="s">
         <v>21</v>
       </c>
       <c r="H27" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="J27" t="s">
         <v>22</v>
@@ -3047,25 +3081,31 @@
       <c r="M27" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S27" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="C28" t="s">
-        <v>129</v>
+        <v>152</v>
       </c>
       <c r="D28" t="s">
-        <v>130</v>
+        <v>153</v>
       </c>
       <c r="E28" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="F28" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="G28" t="s">
         <v>21</v>
@@ -3086,30 +3126,30 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>128</v>
+        <v>151</v>
       </c>
       <c r="C29" t="s">
-        <v>133</v>
+        <v>156</v>
       </c>
       <c r="D29" t="s">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="E29" t="s">
-        <v>131</v>
+        <v>154</v>
       </c>
       <c r="F29" t="s">
-        <v>132</v>
+        <v>155</v>
       </c>
       <c r="G29" t="s">
         <v>21</v>
       </c>
       <c r="H29" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="I29">
         <v>280</v>
@@ -3121,45 +3161,39 @@
         <v>22</v>
       </c>
       <c r="L29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M29" t="s">
         <v>22</v>
       </c>
-      <c r="S29" t="s">
-        <v>418</v>
-      </c>
-      <c r="X29" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:24">
       <c r="A30" t="s">
         <v>15</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="D30" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="E30" t="s">
-        <v>138</v>
+        <v>161</v>
       </c>
       <c r="F30" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s">
         <v>21</v>
       </c>
       <c r="H30" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="I30" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="J30" t="s">
         <v>22</v>
@@ -3173,40 +3207,40 @@
       <c r="M30" t="s">
         <v>22</v>
       </c>
-      <c r="S30" t="s">
-        <v>419</v>
-      </c>
-      <c r="X30" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S30" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24">
       <c r="A31" t="s">
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="C31" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="D31" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="E31" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s">
         <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H31" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="I31" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="J31" t="s">
         <v>22</v>
@@ -3220,40 +3254,40 @@
       <c r="M31" t="s">
         <v>22</v>
       </c>
-      <c r="S31" t="s">
-        <v>420</v>
-      </c>
-      <c r="X31" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S31" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
         <v>15</v>
       </c>
       <c r="B32" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="C32" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="D32" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="E32" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F32" t="s">
         <v>20</v>
       </c>
       <c r="G32" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H32">
         <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="J32" t="s">
         <v>22</v>
@@ -3267,43 +3301,43 @@
       <c r="M32" t="s">
         <v>22</v>
       </c>
-      <c r="S32" t="s">
-        <v>421</v>
-      </c>
-      <c r="X32" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S32" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24">
       <c r="A33" t="s">
         <v>15</v>
       </c>
       <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>175</v>
+      </c>
+      <c r="D33" t="s">
+        <v>176</v>
+      </c>
+      <c r="E33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" t="s">
         <v>66</v>
       </c>
-      <c r="C33" t="s">
-        <v>149</v>
-      </c>
-      <c r="D33" t="s">
-        <v>150</v>
-      </c>
-      <c r="E33" t="s">
-        <v>69</v>
-      </c>
-      <c r="F33" t="s">
-        <v>60</v>
-      </c>
       <c r="G33" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H33">
         <v>22</v>
       </c>
       <c r="I33" t="s">
-        <v>151</v>
+        <v>177</v>
       </c>
       <c r="J33" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K33" t="s">
         <v>22</v>
@@ -3314,40 +3348,40 @@
       <c r="M33" t="s">
         <v>22</v>
       </c>
-      <c r="S33" t="s">
-        <v>422</v>
-      </c>
-      <c r="X33" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S33" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="X33" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="C34" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="D34" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
       <c r="E34" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="F34" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G34" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H34">
         <v>10</v>
       </c>
       <c r="J34" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K34" t="s">
         <v>22</v>
@@ -3358,34 +3392,40 @@
       <c r="M34" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S34" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24">
       <c r="A35" t="s">
         <v>15</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C35" t="s">
-        <v>155</v>
+        <v>183</v>
       </c>
       <c r="D35" t="s">
-        <v>156</v>
+        <v>184</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F35" t="s">
         <v>20</v>
       </c>
       <c r="G35" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H35" t="s">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="I35" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="J35" t="s">
         <v>22</v>
@@ -3400,27 +3440,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24">
       <c r="A36" t="s">
         <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="D36" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F36" t="s">
         <v>20</v>
       </c>
       <c r="G36" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H36">
         <v>25</v>
@@ -3437,34 +3477,28 @@
       <c r="M36" t="s">
         <v>22</v>
       </c>
-      <c r="S36" t="s">
-        <v>423</v>
-      </c>
-      <c r="X36" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:24">
       <c r="A37" t="s">
         <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="D37" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="E37" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F37" t="s">
         <v>20</v>
       </c>
       <c r="G37" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="J37" t="s">
         <v>22</v>
@@ -3478,31 +3512,31 @@
       <c r="M37" t="s">
         <v>22</v>
       </c>
-      <c r="S37" t="s">
-        <v>424</v>
-      </c>
-      <c r="X37" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S37" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24">
       <c r="A38" t="s">
         <v>15</v>
       </c>
       <c r="B38" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="C38" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="D38" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="E38" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="F38" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="G38" t="s">
         <v>21</v>
@@ -3514,13 +3548,19 @@
         <v>22</v>
       </c>
       <c r="L38" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M38" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S38" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="X38" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -3528,13 +3568,13 @@
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="D39" t="s">
-        <v>168</v>
+        <v>198</v>
       </c>
       <c r="E39" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="F39" t="s">
         <v>20</v>
@@ -3543,10 +3583,10 @@
         <v>21</v>
       </c>
       <c r="H39" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="I39" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="J39" t="s">
         <v>22</v>
@@ -3555,39 +3595,33 @@
         <v>22</v>
       </c>
       <c r="L39" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M39" t="s">
         <v>22</v>
       </c>
-      <c r="S39" t="s">
-        <v>425</v>
-      </c>
-      <c r="X39" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="C40" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="D40" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="E40" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G40" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H40">
         <v>250</v>
@@ -3607,28 +3641,28 @@
       <c r="M40" t="s">
         <v>22</v>
       </c>
-      <c r="S40" t="s">
-        <v>426</v>
-      </c>
-      <c r="X40" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S40" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="X40" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24">
       <c r="A41" t="s">
         <v>15</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="D41" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="E41" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F41" t="s">
         <v>20</v>
@@ -3637,7 +3671,7 @@
         <v>21</v>
       </c>
       <c r="H41" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="J41" t="s">
         <v>22</v>
@@ -3651,40 +3685,40 @@
       <c r="M41" t="s">
         <v>22</v>
       </c>
-      <c r="S41" t="s">
-        <v>427</v>
-      </c>
-      <c r="X41" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S41" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="X41" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24">
       <c r="A42" t="s">
         <v>15</v>
       </c>
       <c r="B42" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>179</v>
+        <v>211</v>
       </c>
       <c r="D42" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="E42" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s">
         <v>20</v>
       </c>
       <c r="G42" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H42">
         <v>28</v>
       </c>
       <c r="J42" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K42" t="s">
         <v>22</v>
@@ -3695,40 +3729,40 @@
       <c r="M42" t="s">
         <v>22</v>
       </c>
-      <c r="S42" t="s">
-        <v>428</v>
-      </c>
-      <c r="X42" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S42" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="X42" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C43" t="s">
-        <v>181</v>
+        <v>214</v>
       </c>
       <c r="D43" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="E43" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G43" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H43">
         <v>76</v>
       </c>
       <c r="I43" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="J43" t="s">
         <v>22</v>
@@ -3742,34 +3776,34 @@
       <c r="M43" t="s">
         <v>22</v>
       </c>
-      <c r="S43" t="s">
-        <v>429</v>
-      </c>
-      <c r="X43" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S43" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="X43" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="D44" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="E44" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G44" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="H44">
         <v>25</v>
@@ -3781,36 +3815,36 @@
         <v>22</v>
       </c>
       <c r="L44" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M44" t="s">
         <v>22</v>
       </c>
-      <c r="S44" t="s">
-        <v>430</v>
-      </c>
-      <c r="X44" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S44" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24">
       <c r="A45" t="s">
         <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C45" t="s">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="D45" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="E45" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="F45" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="G45" t="s">
         <v>21</v>
@@ -3819,7 +3853,7 @@
         <v>20</v>
       </c>
       <c r="I45" t="s">
-        <v>140</v>
+        <v>163</v>
       </c>
       <c r="J45" t="s">
         <v>22</v>
@@ -3833,31 +3867,31 @@
       <c r="M45" t="s">
         <v>22</v>
       </c>
-      <c r="S45" t="s">
-        <v>431</v>
-      </c>
-      <c r="X45" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S45" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24">
       <c r="A46" t="s">
         <v>15</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C46" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="D46" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="E46" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="F46" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="G46" t="s">
         <v>21</v>
@@ -3880,31 +3914,31 @@
       <c r="M46" t="s">
         <v>22</v>
       </c>
-      <c r="S46" t="s">
-        <v>432</v>
-      </c>
-      <c r="X46" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S46" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="X46" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24">
       <c r="A47" t="s">
         <v>15</v>
       </c>
       <c r="B47" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C47" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="D47" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="E47" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="F47" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="G47" t="s">
         <v>21</v>
@@ -3921,31 +3955,31 @@
       <c r="M47" t="s">
         <v>22</v>
       </c>
-      <c r="S47" t="s">
-        <v>433</v>
-      </c>
-      <c r="X47" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S47" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="X47" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24">
       <c r="A48" t="s">
         <v>15</v>
       </c>
       <c r="B48" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="C48" t="s">
-        <v>196</v>
+        <v>234</v>
       </c>
       <c r="D48" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="E48" t="s">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="F48" t="s">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="G48" t="s">
         <v>21</v>
@@ -3968,31 +4002,31 @@
       <c r="M48" t="s">
         <v>22</v>
       </c>
-      <c r="S48" t="s">
-        <v>434</v>
-      </c>
-      <c r="X48" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S48" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="X48" s="1" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C49" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="D49" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G49" t="s">
         <v>21</v>
@@ -4001,7 +4035,7 @@
         <v>61</v>
       </c>
       <c r="I49" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="J49" t="s">
         <v>22</v>
@@ -4010,39 +4044,39 @@
         <v>22</v>
       </c>
       <c r="L49" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M49" t="s">
         <v>22</v>
       </c>
-      <c r="S49" t="s">
-        <v>435</v>
-      </c>
-      <c r="X49" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S49" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="X49" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24">
       <c r="A50" t="s">
         <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C50" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="D50" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="E50" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F50" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G50" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="J50" t="s">
         <v>22</v>
@@ -4056,28 +4090,34 @@
       <c r="M50" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S50" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="X50" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24">
       <c r="A51" t="s">
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="C51" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="D51" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="E51" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
       <c r="F51" t="s">
         <v>20</v>
       </c>
       <c r="G51" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="H51">
         <v>25</v>
@@ -4095,33 +4135,33 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:24">
       <c r="A52" t="s">
         <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="C52" t="s">
-        <v>208</v>
+        <v>249</v>
       </c>
       <c r="D52" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="E52" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
       <c r="F52" t="s">
         <v>20</v>
       </c>
       <c r="G52" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="H52">
         <v>65</v>
       </c>
       <c r="I52" t="s">
-        <v>210</v>
+        <v>251</v>
       </c>
       <c r="J52" t="s">
         <v>22</v>
@@ -4135,34 +4175,34 @@
       <c r="M52" t="s">
         <v>22</v>
       </c>
-      <c r="S52" t="s">
-        <v>436</v>
-      </c>
-      <c r="X52" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S52" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="X52" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24">
       <c r="A53" t="s">
         <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>203</v>
+        <v>244</v>
       </c>
       <c r="C53" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="D53" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="E53" t="s">
-        <v>206</v>
+        <v>247</v>
       </c>
       <c r="F53" t="s">
         <v>20</v>
       </c>
       <c r="G53" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="H53">
         <v>35</v>
@@ -4179,14 +4219,14 @@
       <c r="M53" t="s">
         <v>22</v>
       </c>
-      <c r="S53" t="s">
-        <v>437</v>
-      </c>
-      <c r="X53" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S53" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="X53" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24">
       <c r="A54" t="s">
         <v>15</v>
       </c>
@@ -4194,13 +4234,13 @@
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="D54" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="E54" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="F54" t="s">
         <v>20</v>
@@ -4212,7 +4252,7 @@
         <v>89</v>
       </c>
       <c r="I54" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="J54" t="s">
         <v>22</v>
@@ -4221,13 +4261,19 @@
         <v>22</v>
       </c>
       <c r="L54" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M54" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S54" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="X54" s="1" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24">
       <c r="A55" t="s">
         <v>15</v>
       </c>
@@ -4235,13 +4281,13 @@
         <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>216</v>
+        <v>260</v>
       </c>
       <c r="D55" t="s">
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="E55" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="F55" t="s">
         <v>20</v>
@@ -4253,7 +4299,7 @@
         <v>59</v>
       </c>
       <c r="I55" t="s">
-        <v>200</v>
+        <v>239</v>
       </c>
       <c r="J55" t="s">
         <v>22</v>
@@ -4262,45 +4308,39 @@
         <v>22</v>
       </c>
       <c r="L55" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M55" t="s">
         <v>22</v>
       </c>
-      <c r="S55" t="s">
-        <v>438</v>
-      </c>
-      <c r="X55" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C56" t="s">
-        <v>218</v>
+        <v>262</v>
       </c>
       <c r="D56" t="s">
-        <v>219</v>
+        <v>263</v>
       </c>
       <c r="E56" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F56" t="s">
-        <v>220</v>
+        <v>264</v>
       </c>
       <c r="G56" t="s">
         <v>21</v>
       </c>
       <c r="H56" t="s">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="I56" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="J56" t="s">
         <v>22</v>
@@ -4309,39 +4349,39 @@
         <v>22</v>
       </c>
       <c r="L56" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M56" t="s">
-        <v>33</v>
-      </c>
-      <c r="S56" t="s">
-        <v>439</v>
-      </c>
-      <c r="X56" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="S56" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="X56" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="57" spans="1:24">
       <c r="A57" t="s">
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C57" t="s">
-        <v>223</v>
+        <v>268</v>
       </c>
       <c r="D57" t="s">
-        <v>224</v>
+        <v>269</v>
       </c>
       <c r="E57" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F57" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G57" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="J57" t="s">
         <v>22</v>
@@ -4355,25 +4395,31 @@
       <c r="M57" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S57" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="X57" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B58" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C58" t="s">
-        <v>225</v>
+        <v>271</v>
       </c>
       <c r="D58" t="s">
-        <v>226</v>
+        <v>272</v>
       </c>
       <c r="E58" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F58" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="G58" t="s">
         <v>21</v>
@@ -4393,31 +4439,25 @@
       <c r="M58" t="s">
         <v>22</v>
       </c>
-      <c r="S58" t="s">
-        <v>440</v>
-      </c>
-      <c r="X58" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:24">
       <c r="A59" t="s">
         <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>227</v>
+        <v>273</v>
       </c>
       <c r="D59" t="s">
-        <v>228</v>
+        <v>274</v>
       </c>
       <c r="E59" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F59" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G59" t="s">
         <v>21</v>
@@ -4437,31 +4477,31 @@
       <c r="M59" t="s">
         <v>22</v>
       </c>
-      <c r="S59" t="s">
-        <v>441</v>
-      </c>
-      <c r="X59" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S59" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="X59" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="60" spans="1:24">
       <c r="A60" t="s">
         <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="D60" t="s">
-        <v>230</v>
+        <v>277</v>
       </c>
       <c r="E60" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F60" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G60" t="s">
         <v>21</v>
@@ -4470,7 +4510,7 @@
         <v>40</v>
       </c>
       <c r="I60" t="s">
-        <v>231</v>
+        <v>278</v>
       </c>
       <c r="J60" t="s">
         <v>22</v>
@@ -4484,31 +4524,31 @@
       <c r="M60" t="s">
         <v>22</v>
       </c>
-      <c r="S60" t="s">
-        <v>442</v>
-      </c>
-      <c r="X60" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S60" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="X60" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="61" spans="1:24">
       <c r="A61" t="s">
         <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C61" t="s">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="D61" t="s">
-        <v>233</v>
+        <v>281</v>
       </c>
       <c r="E61" t="s">
-        <v>234</v>
+        <v>282</v>
       </c>
       <c r="F61" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G61" t="s">
         <v>21</v>
@@ -4528,31 +4568,31 @@
       <c r="M61" t="s">
         <v>22</v>
       </c>
-      <c r="S61" t="s">
-        <v>443</v>
-      </c>
-      <c r="X61" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S61" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="X61" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="62" spans="1:24">
       <c r="A62" t="s">
         <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C62" t="s">
-        <v>235</v>
+        <v>284</v>
       </c>
       <c r="D62" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="E62" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F62" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G62" t="s">
         <v>21</v>
@@ -4561,7 +4601,7 @@
         <v>45</v>
       </c>
       <c r="I62" t="s">
-        <v>237</v>
+        <v>286</v>
       </c>
       <c r="J62" t="s">
         <v>22</v>
@@ -4570,36 +4610,36 @@
         <v>22</v>
       </c>
       <c r="L62" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M62" t="s">
         <v>22</v>
       </c>
-      <c r="S62" t="s">
-        <v>444</v>
-      </c>
-      <c r="X62" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S62" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="X62" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B63" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C63" t="s">
-        <v>238</v>
+        <v>288</v>
       </c>
       <c r="D63" t="s">
-        <v>239</v>
+        <v>289</v>
       </c>
       <c r="E63" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G63" t="s">
         <v>21</v>
@@ -4614,39 +4654,39 @@
         <v>22</v>
       </c>
       <c r="L63" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M63" t="s">
         <v>22</v>
       </c>
-      <c r="S63" t="s">
-        <v>445</v>
-      </c>
-      <c r="X63" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S63" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="X63" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="64" spans="1:24">
       <c r="A64" t="s">
         <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="C64" t="s">
-        <v>240</v>
+        <v>291</v>
       </c>
       <c r="D64" t="s">
-        <v>241</v>
+        <v>292</v>
       </c>
       <c r="E64" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F64" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G64" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="I64">
         <v>97</v>
@@ -4663,31 +4703,31 @@
       <c r="M64" t="s">
         <v>22</v>
       </c>
-      <c r="S64" t="s">
-        <v>446</v>
-      </c>
-      <c r="X64" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S64" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="X64" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24">
       <c r="A65" t="s">
         <v>15</v>
       </c>
       <c r="B65" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C65" t="s">
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="D65" t="s">
-        <v>243</v>
+        <v>295</v>
       </c>
       <c r="E65" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F65" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G65" t="s">
         <v>21</v>
@@ -4707,31 +4747,37 @@
       <c r="M65" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="66" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S65" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="X65" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24">
       <c r="A66" t="s">
         <v>15</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C66" t="s">
-        <v>244</v>
+        <v>297</v>
       </c>
       <c r="D66" t="s">
-        <v>245</v>
+        <v>298</v>
       </c>
       <c r="E66" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F66" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G66" t="s">
         <v>21</v>
       </c>
       <c r="H66" t="s">
-        <v>246</v>
+        <v>299</v>
       </c>
       <c r="J66" t="s">
         <v>22</v>
@@ -4746,24 +4792,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:24">
       <c r="A67" t="s">
         <v>15</v>
       </c>
       <c r="B67" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C67" t="s">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c r="D67" t="s">
-        <v>248</v>
+        <v>301</v>
       </c>
       <c r="E67" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F67" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G67" t="s">
         <v>21</v>
@@ -4783,69 +4829,75 @@
       <c r="M67" t="s">
         <v>22</v>
       </c>
-      <c r="S67" t="s">
-        <v>447</v>
-      </c>
-      <c r="X67" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="68" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S67" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="X67" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24">
       <c r="A68" t="s">
         <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="C68" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="D68" t="s">
-        <v>251</v>
+        <v>305</v>
       </c>
       <c r="E68" t="s">
-        <v>252</v>
+        <v>306</v>
       </c>
       <c r="F68" t="s">
-        <v>253</v>
+        <v>307</v>
       </c>
       <c r="G68" t="s">
-        <v>254</v>
+        <v>308</v>
       </c>
       <c r="H68">
         <v>22</v>
       </c>
       <c r="J68" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K68" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="L68" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M68" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S68" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="X68" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="69" spans="1:24">
       <c r="A69" t="s">
         <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="C69" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="D69" t="s">
-        <v>255</v>
+        <v>310</v>
       </c>
       <c r="E69" t="s">
-        <v>252</v>
+        <v>306</v>
       </c>
       <c r="F69" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G69" t="s">
         <v>21</v>
@@ -4860,36 +4912,30 @@
         <v>22</v>
       </c>
       <c r="L69" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M69" t="s">
         <v>22</v>
       </c>
-      <c r="S69" t="s">
-        <v>448</v>
-      </c>
-      <c r="X69" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:24">
       <c r="A70" t="s">
         <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="C70" t="s">
-        <v>256</v>
+        <v>311</v>
       </c>
       <c r="D70" t="s">
-        <v>257</v>
+        <v>312</v>
       </c>
       <c r="E70" t="s">
-        <v>252</v>
+        <v>306</v>
       </c>
       <c r="F70" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G70" t="s">
         <v>21</v>
@@ -4904,30 +4950,36 @@
         <v>22</v>
       </c>
       <c r="L70" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M70" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S70" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="X70" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24">
       <c r="A71" t="s">
         <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="C71" t="s">
-        <v>258</v>
+        <v>314</v>
       </c>
       <c r="D71" t="s">
-        <v>259</v>
+        <v>315</v>
       </c>
       <c r="E71" t="s">
-        <v>252</v>
+        <v>306</v>
       </c>
       <c r="F71" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G71" t="s">
         <v>21</v>
@@ -4939,30 +4991,30 @@
         <v>22</v>
       </c>
       <c r="L71" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M71" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:24">
       <c r="A72" t="s">
         <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="C72" t="s">
-        <v>260</v>
+        <v>316</v>
       </c>
       <c r="D72" t="s">
-        <v>261</v>
+        <v>317</v>
       </c>
       <c r="E72" t="s">
-        <v>252</v>
+        <v>306</v>
       </c>
       <c r="F72" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G72" t="s">
         <v>21</v>
@@ -4980,39 +5032,39 @@
         <v>22</v>
       </c>
       <c r="L72" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M72" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:24">
       <c r="A73" t="s">
         <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>262</v>
+        <v>318</v>
       </c>
       <c r="C73" t="s">
-        <v>263</v>
+        <v>319</v>
       </c>
       <c r="D73" t="s">
-        <v>264</v>
+        <v>320</v>
       </c>
       <c r="E73" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F73" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="G73" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H73">
         <v>60</v>
       </c>
       <c r="I73" t="s">
-        <v>265</v>
+        <v>321</v>
       </c>
       <c r="J73" t="s">
         <v>22</v>
@@ -5024,36 +5076,36 @@
         <v>22</v>
       </c>
       <c r="M73" t="s">
-        <v>33</v>
-      </c>
-      <c r="S73" t="s">
-        <v>449</v>
-      </c>
-      <c r="X73" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+      <c r="S73" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="X73" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="74" spans="1:24">
       <c r="A74" t="s">
         <v>15</v>
       </c>
       <c r="B74" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C74" t="s">
-        <v>266</v>
+        <v>323</v>
       </c>
       <c r="D74" t="s">
-        <v>267</v>
+        <v>324</v>
       </c>
       <c r="E74" t="s">
-        <v>268</v>
+        <v>325</v>
       </c>
       <c r="F74" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G74" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H74">
         <v>90</v>
@@ -5073,25 +5125,31 @@
       <c r="M74" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S74" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="X74" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B75" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C75" t="s">
-        <v>269</v>
+        <v>327</v>
       </c>
       <c r="D75" t="s">
-        <v>270</v>
+        <v>328</v>
       </c>
       <c r="E75" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="F75" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G75" t="s">
         <v>21</v>
@@ -5109,33 +5167,27 @@
         <v>22</v>
       </c>
       <c r="L75" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M75" t="s">
         <v>22</v>
       </c>
-      <c r="S75" t="s">
-        <v>450</v>
-      </c>
-      <c r="X75" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:24">
       <c r="A76" t="s">
         <v>15</v>
       </c>
       <c r="B76" t="s">
-        <v>271</v>
+        <v>329</v>
       </c>
       <c r="C76" t="s">
-        <v>272</v>
+        <v>330</v>
       </c>
       <c r="D76" t="s">
-        <v>273</v>
+        <v>331</v>
       </c>
       <c r="E76" t="s">
-        <v>274</v>
+        <v>332</v>
       </c>
       <c r="F76" t="s">
         <v>20</v>
@@ -5146,34 +5198,34 @@
       <c r="H76">
         <v>25</v>
       </c>
-      <c r="S76" t="s">
-        <v>451</v>
-      </c>
-      <c r="X76" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="77" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S76" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="X76" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>275</v>
+        <v>334</v>
       </c>
       <c r="B77" t="s">
-        <v>275</v>
+        <v>334</v>
       </c>
       <c r="C77" t="s">
-        <v>276</v>
+        <v>335</v>
       </c>
       <c r="D77" t="s">
-        <v>277</v>
+        <v>336</v>
       </c>
       <c r="E77" t="s">
-        <v>278</v>
+        <v>337</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G77" t="s">
-        <v>279</v>
+        <v>338</v>
       </c>
       <c r="H77">
         <v>80</v>
@@ -5182,10 +5234,10 @@
         <v>14</v>
       </c>
       <c r="J77" t="s">
-        <v>280</v>
+        <v>339</v>
       </c>
       <c r="K77" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="L77" t="s">
         <v>22</v>
@@ -5193,28 +5245,28 @@
       <c r="M77" t="s">
         <v>22</v>
       </c>
-      <c r="S77" t="s">
-        <v>452</v>
-      </c>
-      <c r="X77" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="78" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S77" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="X77" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24">
       <c r="A78" t="s">
         <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C78" t="s">
-        <v>281</v>
+        <v>341</v>
       </c>
       <c r="D78" t="s">
-        <v>282</v>
+        <v>342</v>
       </c>
       <c r="E78" t="s">
-        <v>283</v>
+        <v>343</v>
       </c>
       <c r="F78" t="s">
         <v>20</v>
@@ -5226,7 +5278,7 @@
         <v>80</v>
       </c>
       <c r="I78" t="s">
-        <v>284</v>
+        <v>344</v>
       </c>
       <c r="J78" t="s">
         <v>22</v>
@@ -5240,28 +5292,28 @@
       <c r="M78" t="s">
         <v>22</v>
       </c>
-      <c r="S78" t="s">
-        <v>453</v>
-      </c>
-      <c r="X78" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="79" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S78" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="X78" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24">
       <c r="A79" t="s">
         <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C79" t="s">
-        <v>285</v>
+        <v>346</v>
       </c>
       <c r="D79" t="s">
-        <v>286</v>
+        <v>347</v>
       </c>
       <c r="E79" t="s">
-        <v>283</v>
+        <v>343</v>
       </c>
       <c r="F79" t="s">
         <v>20</v>
@@ -5273,7 +5325,7 @@
         <v>80</v>
       </c>
       <c r="I79" t="s">
-        <v>284</v>
+        <v>344</v>
       </c>
       <c r="J79" t="s">
         <v>22</v>
@@ -5282,33 +5334,33 @@
         <v>22</v>
       </c>
       <c r="L79" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M79" t="s">
         <v>22</v>
       </c>
-      <c r="S79" t="s">
-        <v>454</v>
-      </c>
-      <c r="X79" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S79" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="X79" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B80" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C80" t="s">
-        <v>287</v>
+        <v>349</v>
       </c>
       <c r="D80" t="s">
-        <v>288</v>
+        <v>350</v>
       </c>
       <c r="E80" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F80" t="s">
         <v>20</v>
@@ -5320,7 +5372,7 @@
         <v>135</v>
       </c>
       <c r="I80" t="s">
-        <v>289</v>
+        <v>351</v>
       </c>
       <c r="J80" t="s">
         <v>22</v>
@@ -5329,36 +5381,36 @@
         <v>22</v>
       </c>
       <c r="L80" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M80" t="s">
         <v>22</v>
       </c>
-      <c r="S80" t="s">
-        <v>455</v>
-      </c>
-      <c r="X80" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S80" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="X80" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="81" spans="1:24">
       <c r="A81" t="s">
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="C81" t="s">
-        <v>290</v>
+        <v>353</v>
       </c>
       <c r="D81" t="s">
-        <v>291</v>
+        <v>354</v>
       </c>
       <c r="E81" t="s">
-        <v>252</v>
+        <v>306</v>
       </c>
       <c r="F81" t="s">
-        <v>292</v>
+        <v>355</v>
       </c>
       <c r="G81" t="s">
         <v>21</v>
@@ -5376,30 +5428,36 @@
         <v>22</v>
       </c>
       <c r="L81" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M81" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S81" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="X81" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C82" t="s">
-        <v>293</v>
+        <v>357</v>
       </c>
       <c r="D82" t="s">
-        <v>294</v>
+        <v>358</v>
       </c>
       <c r="E82" t="s">
-        <v>295</v>
+        <v>359</v>
       </c>
       <c r="F82" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="G82" t="s">
         <v>21</v>
@@ -5419,31 +5477,25 @@
       <c r="M82" t="s">
         <v>22</v>
       </c>
-      <c r="S82" t="s">
-        <v>456</v>
-      </c>
-      <c r="X82" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C83" t="s">
-        <v>296</v>
+        <v>360</v>
       </c>
       <c r="D83" t="s">
-        <v>297</v>
+        <v>361</v>
       </c>
       <c r="E83" t="s">
-        <v>295</v>
+        <v>359</v>
       </c>
       <c r="F83" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="G83" t="s">
         <v>21</v>
@@ -5463,28 +5515,34 @@
       <c r="M83" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="84" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S83" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="X83" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B84" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C84" t="s">
-        <v>298</v>
+        <v>363</v>
       </c>
       <c r="D84" t="s">
-        <v>299</v>
+        <v>364</v>
       </c>
       <c r="E84" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G84" t="s">
-        <v>300</v>
+        <v>365</v>
       </c>
       <c r="H84">
         <v>39</v>
@@ -5496,39 +5554,39 @@
         <v>22</v>
       </c>
       <c r="L84" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M84" t="s">
         <v>22</v>
       </c>
-      <c r="S84" t="s">
-        <v>457</v>
-      </c>
-      <c r="X84" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="85" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S84" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="X84" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B85" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C85" t="s">
-        <v>301</v>
+        <v>366</v>
       </c>
       <c r="D85" t="s">
-        <v>302</v>
+        <v>367</v>
       </c>
       <c r="E85" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F85" t="s">
         <v>20</v>
       </c>
       <c r="G85" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
       <c r="H85">
         <v>35</v>
@@ -5540,39 +5598,39 @@
         <v>22</v>
       </c>
       <c r="L85" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M85" t="s">
         <v>22</v>
       </c>
-      <c r="S85" t="s">
-        <v>458</v>
-      </c>
-      <c r="X85" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S85" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="X85" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B86" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C86" t="s">
-        <v>303</v>
+        <v>369</v>
       </c>
       <c r="D86" t="s">
-        <v>304</v>
+        <v>370</v>
       </c>
       <c r="E86" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F86" t="s">
         <v>20</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H86">
         <v>35</v>
@@ -5587,36 +5645,36 @@
         <v>22</v>
       </c>
       <c r="L86" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M86" t="s">
         <v>22</v>
       </c>
-      <c r="S86" t="s">
-        <v>459</v>
-      </c>
-      <c r="X86" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="87" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S86" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="X86" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B87" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C87" t="s">
-        <v>305</v>
+        <v>372</v>
       </c>
       <c r="D87" t="s">
-        <v>306</v>
+        <v>373</v>
       </c>
       <c r="E87" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F87" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G87" t="s">
         <v>21</v>
@@ -5625,7 +5683,7 @@
         <v>120</v>
       </c>
       <c r="I87" t="s">
-        <v>307</v>
+        <v>374</v>
       </c>
       <c r="J87" t="s">
         <v>22</v>
@@ -5634,33 +5692,33 @@
         <v>22</v>
       </c>
       <c r="L87" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M87" t="s">
         <v>22</v>
       </c>
-      <c r="S87" t="s">
-        <v>460</v>
-      </c>
-      <c r="X87" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="88" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S87" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="X87" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="88" spans="1:24">
       <c r="A88" t="s">
         <v>15</v>
       </c>
       <c r="B88" t="s">
-        <v>271</v>
+        <v>329</v>
       </c>
       <c r="C88" t="s">
-        <v>308</v>
+        <v>376</v>
       </c>
       <c r="D88" t="s">
-        <v>309</v>
+        <v>377</v>
       </c>
       <c r="E88" t="s">
-        <v>274</v>
+        <v>332</v>
       </c>
       <c r="F88" t="s">
         <v>20</v>
@@ -5672,7 +5730,7 @@
         <v>80</v>
       </c>
       <c r="I88" t="s">
-        <v>310</v>
+        <v>378</v>
       </c>
       <c r="J88" t="s">
         <v>22</v>
@@ -5686,31 +5744,31 @@
       <c r="M88" t="s">
         <v>22</v>
       </c>
-      <c r="S88" t="s">
-        <v>461</v>
-      </c>
-      <c r="X88" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="89" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S88" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="X88" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B89" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C89" t="s">
-        <v>311</v>
+        <v>380</v>
       </c>
       <c r="D89" t="s">
-        <v>312</v>
+        <v>381</v>
       </c>
       <c r="E89" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="F89" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G89" t="s">
         <v>21</v>
@@ -5730,34 +5788,34 @@
       <c r="M89" t="s">
         <v>22</v>
       </c>
-      <c r="S89" t="s">
-        <v>461</v>
-      </c>
-      <c r="X89" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="90" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S89" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="X89" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B90" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C90" t="s">
-        <v>313</v>
+        <v>383</v>
       </c>
       <c r="D90" t="s">
-        <v>314</v>
+        <v>384</v>
       </c>
       <c r="E90" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F90" t="s">
         <v>20</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H90">
         <v>80</v>
@@ -5769,36 +5827,42 @@
         <v>22</v>
       </c>
       <c r="L90" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M90" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="91" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S90" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="X90" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="91" spans="1:24">
       <c r="A91" t="s">
         <v>15</v>
       </c>
       <c r="B91" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C91" t="s">
-        <v>315</v>
+        <v>386</v>
       </c>
       <c r="D91" t="s">
-        <v>316</v>
+        <v>387</v>
       </c>
       <c r="E91" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F91" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G91" t="s">
         <v>21</v>
       </c>
       <c r="H91" t="s">
-        <v>317</v>
+        <v>388</v>
       </c>
       <c r="J91" t="s">
         <v>22</v>
@@ -5812,37 +5876,31 @@
       <c r="M91" t="s">
         <v>22</v>
       </c>
-      <c r="S91" t="s">
-        <v>462</v>
-      </c>
-      <c r="X91" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="92" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:24">
       <c r="A92" t="s">
         <v>15</v>
       </c>
       <c r="B92" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="C92" t="s">
-        <v>318</v>
+        <v>389</v>
       </c>
       <c r="D92" t="s">
-        <v>319</v>
+        <v>390</v>
       </c>
       <c r="E92" t="s">
-        <v>320</v>
+        <v>391</v>
       </c>
       <c r="F92" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G92" t="s">
-        <v>321</v>
+        <v>392</v>
       </c>
       <c r="H92" t="s">
-        <v>322</v>
+        <v>393</v>
       </c>
       <c r="J92" t="s">
         <v>22</v>
@@ -5856,34 +5914,40 @@
       <c r="M92" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="93" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S92" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="X92" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>275</v>
+        <v>334</v>
       </c>
       <c r="B93" t="s">
-        <v>275</v>
+        <v>334</v>
       </c>
       <c r="C93" t="s">
-        <v>323</v>
+        <v>395</v>
       </c>
       <c r="D93" t="s">
-        <v>324</v>
+        <v>396</v>
       </c>
       <c r="E93" t="s">
-        <v>278</v>
+        <v>337</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G93" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="H93">
         <v>45</v>
       </c>
       <c r="J93" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K93" t="s">
         <v>22</v>
@@ -5895,33 +5959,33 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>275</v>
+        <v>334</v>
       </c>
       <c r="B94" t="s">
-        <v>275</v>
+        <v>334</v>
       </c>
       <c r="C94" t="s">
-        <v>325</v>
+        <v>397</v>
       </c>
       <c r="D94" t="s">
-        <v>326</v>
+        <v>398</v>
       </c>
       <c r="E94" t="s">
-        <v>278</v>
+        <v>337</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G94" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="H94">
         <v>35</v>
       </c>
       <c r="I94" t="s">
-        <v>327</v>
+        <v>399</v>
       </c>
       <c r="J94" t="s">
         <v>22</v>
@@ -5936,30 +6000,30 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:24">
       <c r="A95" t="s">
         <v>15</v>
       </c>
       <c r="B95" t="s">
-        <v>262</v>
+        <v>318</v>
       </c>
       <c r="C95" t="s">
-        <v>328</v>
+        <v>400</v>
       </c>
       <c r="D95" t="s">
-        <v>329</v>
+        <v>401</v>
       </c>
       <c r="E95" t="s">
-        <v>283</v>
+        <v>343</v>
       </c>
       <c r="F95" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G95" t="s">
         <v>21</v>
       </c>
       <c r="H95" t="s">
-        <v>330</v>
+        <v>402</v>
       </c>
       <c r="J95" t="s">
         <v>22</v>
@@ -5973,31 +6037,25 @@
       <c r="M95" t="s">
         <v>22</v>
       </c>
-      <c r="S95" t="s">
-        <v>463</v>
-      </c>
-      <c r="X95" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="96" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:24">
       <c r="A96" t="s">
         <v>15</v>
       </c>
       <c r="B96" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="C96" t="s">
-        <v>331</v>
+        <v>403</v>
       </c>
       <c r="D96" t="s">
-        <v>332</v>
+        <v>404</v>
       </c>
       <c r="E96" t="s">
-        <v>333</v>
+        <v>405</v>
       </c>
       <c r="F96" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="G96" t="s">
         <v>21</v>
@@ -6006,7 +6064,7 @@
         <v>45</v>
       </c>
       <c r="I96" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="J96" t="s">
         <v>22</v>
@@ -6015,36 +6073,36 @@
         <v>22</v>
       </c>
       <c r="L96" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M96" t="s">
         <v>22</v>
       </c>
-      <c r="S96" t="s">
-        <v>464</v>
-      </c>
-      <c r="X96" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="97" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S96" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="X96" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="97" spans="1:24">
       <c r="A97" t="s">
         <v>15</v>
       </c>
       <c r="B97" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="C97" t="s">
-        <v>334</v>
+        <v>407</v>
       </c>
       <c r="D97" t="s">
-        <v>335</v>
+        <v>408</v>
       </c>
       <c r="E97" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="F97" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="G97" t="s">
         <v>21</v>
@@ -6053,7 +6111,7 @@
         <v>19</v>
       </c>
       <c r="I97" t="s">
-        <v>336</v>
+        <v>409</v>
       </c>
       <c r="J97" t="s">
         <v>22</v>
@@ -6062,33 +6120,33 @@
         <v>22</v>
       </c>
       <c r="L97" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M97" t="s">
         <v>22</v>
       </c>
-      <c r="S97" t="s">
-        <v>465</v>
-      </c>
-      <c r="X97" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="98" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S97" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="X97" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B98" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C98" t="s">
-        <v>337</v>
+        <v>411</v>
       </c>
       <c r="D98" t="s">
-        <v>338</v>
+        <v>412</v>
       </c>
       <c r="E98" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F98" t="s">
         <v>20</v>
@@ -6109,30 +6167,36 @@
         <v>22</v>
       </c>
       <c r="L98" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M98" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="99" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S98" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="X98" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B99" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C99" t="s">
-        <v>339</v>
+        <v>414</v>
       </c>
       <c r="D99" t="s">
-        <v>340</v>
+        <v>415</v>
       </c>
       <c r="E99" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="F99" t="s">
-        <v>341</v>
+        <v>416</v>
       </c>
       <c r="G99" t="s">
         <v>21</v>
@@ -6141,7 +6205,7 @@
         <v>70</v>
       </c>
       <c r="I99" t="s">
-        <v>342</v>
+        <v>417</v>
       </c>
       <c r="J99" t="s">
         <v>22</v>
@@ -6150,45 +6214,39 @@
         <v>22</v>
       </c>
       <c r="L99" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M99" t="s">
         <v>22</v>
       </c>
-      <c r="S99" t="s">
-        <v>466</v>
-      </c>
-      <c r="X99" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="100" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B100" t="s">
-        <v>343</v>
+        <v>418</v>
       </c>
       <c r="C100" t="s">
-        <v>344</v>
+        <v>419</v>
       </c>
       <c r="D100" t="s">
-        <v>345</v>
+        <v>420</v>
       </c>
       <c r="E100" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F100" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="G100" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H100" t="s">
-        <v>346</v>
+        <v>421</v>
       </c>
       <c r="J100" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K100" t="s">
         <v>22</v>
@@ -6199,28 +6257,28 @@
       <c r="M100" t="s">
         <v>22</v>
       </c>
-      <c r="S100" t="s">
-        <v>467</v>
-      </c>
-      <c r="X100" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="101" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S100" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="X100" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="101" spans="1:24">
       <c r="A101" t="s">
         <v>15</v>
       </c>
       <c r="B101" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="C101" t="s">
-        <v>347</v>
+        <v>423</v>
       </c>
       <c r="D101" t="s">
-        <v>348</v>
+        <v>424</v>
       </c>
       <c r="E101" t="s">
-        <v>252</v>
+        <v>306</v>
       </c>
       <c r="F101" t="s">
         <v>20</v>
@@ -6232,7 +6290,7 @@
         <v>50</v>
       </c>
       <c r="I101" t="s">
-        <v>349</v>
+        <v>425</v>
       </c>
       <c r="J101" t="s">
         <v>22</v>
@@ -6241,19 +6299,19 @@
         <v>22</v>
       </c>
       <c r="L101" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M101" t="s">
         <v>22</v>
       </c>
-      <c r="S101" t="s">
-        <v>468</v>
-      </c>
-      <c r="X101" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="102" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S101" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="X101" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="102" spans="1:24">
       <c r="A102" t="s">
         <v>15</v>
       </c>
@@ -6261,13 +6319,13 @@
         <v>16</v>
       </c>
       <c r="C102" t="s">
-        <v>350</v>
+        <v>427</v>
       </c>
       <c r="D102" t="s">
-        <v>351</v>
+        <v>428</v>
       </c>
       <c r="E102" t="s">
-        <v>169</v>
+        <v>199</v>
       </c>
       <c r="F102" t="s">
         <v>20</v>
@@ -6279,7 +6337,7 @@
         <v>80</v>
       </c>
       <c r="I102" t="s">
-        <v>352</v>
+        <v>429</v>
       </c>
       <c r="J102" t="s">
         <v>22</v>
@@ -6288,42 +6346,42 @@
         <v>22</v>
       </c>
       <c r="L102" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M102" t="s">
         <v>22</v>
       </c>
-      <c r="S102" t="s">
-        <v>469</v>
-      </c>
-      <c r="X102" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="103" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S102" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="X102" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="103" spans="1:24">
       <c r="A103" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B103" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C103" t="s">
-        <v>353</v>
+        <v>431</v>
       </c>
       <c r="D103" t="s">
-        <v>354</v>
+        <v>432</v>
       </c>
       <c r="E103" t="s">
-        <v>295</v>
+        <v>359</v>
       </c>
       <c r="F103" t="s">
         <v>20</v>
       </c>
       <c r="G103" t="s">
-        <v>355</v>
+        <v>433</v>
       </c>
       <c r="H103" t="s">
-        <v>356</v>
+        <v>434</v>
       </c>
       <c r="I103">
         <v>4</v>
@@ -6340,34 +6398,40 @@
       <c r="M103" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="104" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S103" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="X103" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="104" spans="1:24">
       <c r="A104" t="s">
         <v>15</v>
       </c>
       <c r="B104" t="s">
-        <v>262</v>
+        <v>318</v>
       </c>
       <c r="C104" t="s">
-        <v>357</v>
+        <v>436</v>
       </c>
       <c r="D104" t="s">
-        <v>358</v>
+        <v>437</v>
       </c>
       <c r="E104" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F104" t="s">
         <v>20</v>
       </c>
       <c r="G104" t="s">
-        <v>254</v>
+        <v>308</v>
       </c>
       <c r="H104">
         <v>45</v>
       </c>
       <c r="I104" t="s">
-        <v>359</v>
+        <v>438</v>
       </c>
       <c r="J104" t="s">
         <v>22</v>
@@ -6376,36 +6440,36 @@
         <v>22</v>
       </c>
       <c r="L104" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M104" t="s">
         <v>22</v>
       </c>
-      <c r="S104" t="s">
-        <v>470</v>
-      </c>
-      <c r="X104" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="105" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S104" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="X104" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="105" spans="1:24">
       <c r="A105" t="s">
         <v>15</v>
       </c>
       <c r="B105" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C105" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D105" t="s">
-        <v>360</v>
+        <v>440</v>
       </c>
       <c r="E105" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F105" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G105" t="s">
         <v>21</v>
@@ -6425,25 +6489,31 @@
       <c r="M105" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="106" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S105" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="X105" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="106" spans="1:24">
       <c r="A106" t="s">
         <v>15</v>
       </c>
       <c r="B106" t="s">
-        <v>163</v>
+        <v>192</v>
       </c>
       <c r="C106" t="s">
-        <v>361</v>
+        <v>442</v>
       </c>
       <c r="D106" t="s">
-        <v>362</v>
+        <v>443</v>
       </c>
       <c r="E106" t="s">
-        <v>333</v>
+        <v>405</v>
       </c>
       <c r="F106" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G106" t="s">
         <v>21</v>
@@ -6452,7 +6522,7 @@
         <v>54</v>
       </c>
       <c r="I106" t="s">
-        <v>363</v>
+        <v>444</v>
       </c>
       <c r="J106" t="s">
         <v>22</v>
@@ -6461,33 +6531,27 @@
         <v>22</v>
       </c>
       <c r="L106" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M106" t="s">
         <v>22</v>
       </c>
-      <c r="S106" t="s">
-        <v>471</v>
-      </c>
-      <c r="X106" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="107" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:24">
       <c r="A107" t="s">
         <v>15</v>
       </c>
       <c r="B107" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="C107" t="s">
-        <v>364</v>
+        <v>445</v>
       </c>
       <c r="D107" t="s">
-        <v>365</v>
+        <v>446</v>
       </c>
       <c r="E107" t="s">
-        <v>252</v>
+        <v>306</v>
       </c>
       <c r="F107" t="s">
         <v>20</v>
@@ -6513,28 +6577,28 @@
       <c r="M107" t="s">
         <v>22</v>
       </c>
-      <c r="S107" t="s">
-        <v>472</v>
-      </c>
-      <c r="X107" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="108" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S107" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="X107" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="108" spans="1:24">
       <c r="A108" t="s">
         <v>15</v>
       </c>
       <c r="B108" t="s">
-        <v>249</v>
+        <v>303</v>
       </c>
       <c r="C108" t="s">
-        <v>366</v>
+        <v>448</v>
       </c>
       <c r="D108" t="s">
-        <v>367</v>
+        <v>449</v>
       </c>
       <c r="E108" t="s">
-        <v>252</v>
+        <v>306</v>
       </c>
       <c r="F108" t="s">
         <v>20</v>
@@ -6543,7 +6607,7 @@
         <v>21</v>
       </c>
       <c r="H108" t="s">
-        <v>368</v>
+        <v>450</v>
       </c>
       <c r="I108">
         <v>3</v>
@@ -6555,33 +6619,33 @@
         <v>22</v>
       </c>
       <c r="L108" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M108" t="s">
         <v>22</v>
       </c>
-      <c r="S108" t="s">
-        <v>473</v>
-      </c>
-      <c r="X108" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="109" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S108" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="X108" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="109" spans="1:24">
       <c r="A109" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B109" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C109" t="s">
-        <v>369</v>
+        <v>452</v>
       </c>
       <c r="D109" t="s">
-        <v>370</v>
+        <v>453</v>
       </c>
       <c r="E109" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F109" t="s">
         <v>20</v>
@@ -6590,10 +6654,10 @@
         <v>21</v>
       </c>
       <c r="H109" t="s">
-        <v>371</v>
+        <v>454</v>
       </c>
       <c r="I109" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="J109" t="s">
         <v>22</v>
@@ -6602,33 +6666,33 @@
         <v>22</v>
       </c>
       <c r="L109" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M109" t="s">
         <v>22</v>
       </c>
-      <c r="S109" t="s">
-        <v>474</v>
-      </c>
-      <c r="X109" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="110" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S109" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="X109" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B110" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="C110" t="s">
-        <v>372</v>
+        <v>456</v>
       </c>
       <c r="D110" t="s">
-        <v>373</v>
+        <v>457</v>
       </c>
       <c r="E110" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F110" t="s">
         <v>20</v>
@@ -6646,30 +6710,36 @@
         <v>22</v>
       </c>
       <c r="L110" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M110" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="111" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S110" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="X110" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="111" spans="1:24">
       <c r="A111" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="B111" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C111" t="s">
-        <v>374</v>
+        <v>459</v>
       </c>
       <c r="D111" t="s">
-        <v>375</v>
+        <v>460</v>
       </c>
       <c r="E111" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F111" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="G111" t="s">
         <v>21</v>
@@ -6690,27 +6760,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="112" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:24">
       <c r="A112" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B112" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C112" t="s">
-        <v>376</v>
+        <v>461</v>
       </c>
       <c r="D112" t="s">
-        <v>377</v>
+        <v>462</v>
       </c>
       <c r="E112" t="s">
-        <v>378</v>
+        <v>463</v>
       </c>
       <c r="F112" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="G112" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H112">
         <v>150</v>
@@ -6727,31 +6797,25 @@
       <c r="M112" t="s">
         <v>22</v>
       </c>
-      <c r="S112" t="s">
-        <v>475</v>
-      </c>
-      <c r="X112" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="113" spans="1:24" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:24">
       <c r="A113" t="s">
         <v>15</v>
       </c>
       <c r="B113" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C113" t="s">
-        <v>379</v>
+        <v>464</v>
       </c>
       <c r="D113" t="s">
-        <v>380</v>
+        <v>465</v>
       </c>
       <c r="E113" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="F113" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G113" t="s">
         <v>21</v>
@@ -6771,34 +6835,34 @@
       <c r="M113" t="s">
         <v>22</v>
       </c>
-      <c r="S113" t="s">
-        <v>476</v>
-      </c>
-      <c r="X113" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="114" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S113" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="X113" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="114" spans="1:24">
       <c r="A114" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B114" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="C114" t="s">
-        <v>381</v>
+        <v>467</v>
       </c>
       <c r="D114" t="s">
-        <v>382</v>
+        <v>468</v>
       </c>
       <c r="E114" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F114" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G114" t="s">
-        <v>207</v>
+        <v>248</v>
       </c>
       <c r="H114">
         <v>30</v>
@@ -6818,40 +6882,40 @@
       <c r="M114" t="s">
         <v>22</v>
       </c>
-      <c r="S114" t="s">
-        <v>477</v>
-      </c>
-      <c r="X114" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="115" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S114" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="X114" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="115" spans="1:24">
       <c r="A115" t="s">
         <v>15</v>
       </c>
       <c r="B115" t="s">
-        <v>383</v>
+        <v>470</v>
       </c>
       <c r="C115" t="s">
-        <v>384</v>
+        <v>471</v>
       </c>
       <c r="D115" t="s">
-        <v>385</v>
+        <v>472</v>
       </c>
       <c r="E115" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F115" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G115" t="s">
         <v>21</v>
       </c>
       <c r="H115" t="s">
-        <v>386</v>
+        <v>473</v>
       </c>
       <c r="I115" t="s">
-        <v>336</v>
+        <v>409</v>
       </c>
       <c r="J115" t="s">
         <v>22</v>
@@ -6860,77 +6924,77 @@
         <v>22</v>
       </c>
       <c r="L115" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M115" t="s">
         <v>22</v>
       </c>
-      <c r="S115" t="s">
-        <v>478</v>
-      </c>
-      <c r="X115" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="116" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S115" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="X115" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="116" spans="1:24">
       <c r="A116" t="s">
         <v>15</v>
       </c>
       <c r="B116" t="s">
-        <v>383</v>
+        <v>470</v>
       </c>
       <c r="C116" t="s">
-        <v>387</v>
+        <v>475</v>
       </c>
       <c r="D116" t="s">
-        <v>388</v>
+        <v>476</v>
       </c>
       <c r="E116" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F116" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="G116" t="s">
         <v>21</v>
       </c>
       <c r="H116" t="s">
-        <v>389</v>
+        <v>477</v>
       </c>
       <c r="J116" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K116" t="s">
         <v>22</v>
       </c>
       <c r="L116" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M116" t="s">
         <v>22</v>
       </c>
-      <c r="S116" t="s">
+      <c r="S116" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="X116" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="117" spans="1:24">
+      <c r="A117" t="s">
+        <v>27</v>
+      </c>
+      <c r="B117" t="s">
+        <v>120</v>
+      </c>
+      <c r="C117" t="s">
         <v>479</v>
       </c>
-      <c r="X116" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="117" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>25</v>
-      </c>
-      <c r="B117" t="s">
-        <v>105</v>
-      </c>
-      <c r="C117" t="s">
-        <v>390</v>
-      </c>
       <c r="D117" t="s">
-        <v>391</v>
+        <v>480</v>
       </c>
       <c r="E117" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F117" t="s">
         <v>20</v>
@@ -6951,28 +7015,233 @@
         <v>22</v>
       </c>
       <c r="L117" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M117" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="118" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="S117" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="X117" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="118" spans="1:24">
       <c r="A118" t="s">
-        <v>392</v>
+        <v>482</v>
       </c>
       <c r="B118" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C118" t="s">
-        <v>393</v>
+        <v>483</v>
       </c>
       <c r="D118" t="s">
-        <v>394</v>
+        <v>484</v>
+      </c>
+      <c r="S118" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="X118" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="119" spans="1:24">
+      <c r="S119" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="X119" s="1" t="s">
+        <v>485</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:O1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <hyperlinks>
+    <hyperlink ref="S119" r:id="rId1" xr:uid="{08A3F25F-0414-4A0F-A719-72B022F2E356}"/>
+    <hyperlink ref="S2" r:id="rId2" display="https://uc9fb217afc3ccedf0d41cf1f6cc.previews.dropboxusercontent.com/p/thumb/ABfJXIrK4k0RS2GkMLqDfH3fqqBfL5giyDe6lizIxQjjhI44_EFL_zycbJoxReDgPjQCWsluK-ddoytH2mQdLArSbj-q-bhbYYw5-mN9QyUCewPlA3ZMXOgj_XMjrvdybG_L-IJ_DiKgE2oUt6U0MaFrx_ta4BdN9MjotYN87JpPUqoGNLDpPO9O3qU0K7Ldn97bAAFJgfHGMyTdapNZZIVIcwG2aJ4M0nudgAUpJIh_qKemhX7rdll92dXsd72V09BdqqY7pGr1tMCwjADs0R8f48D9R5xQwSsbIg4KwwE-yZdrjQCKLPMco6Q6QcEOztRUn6bvgybuq9HdyQMNZXBdI5ybB6rXlTaPd5qb3NW-CQ/p.jpeg" xr:uid="{9ECB1404-B45D-4AFC-816E-26036A3FCBBB}"/>
+    <hyperlink ref="S117" r:id="rId3" xr:uid="{FA043706-2418-432F-B7FE-CD4917F577EF}"/>
+    <hyperlink ref="S116" r:id="rId4" xr:uid="{9B08E448-A33F-4876-8B2D-80E23B551D54}"/>
+    <hyperlink ref="S3" r:id="rId5" display="https://uc82d8c29f83a204c0a7115a8834.previews.dropboxusercontent.com/p/thumb/ABfN9na-oAGv9_PJvTPk8Q8qDHQdMvFAeS1iKw4xAzeWAHT8o6gbKFYZuF2-kZOPKKiHIwAMZnUKeOvmGrv0foN0CaJ1CjKwd447HAWorClMxRNBuecQUnw7QTuKFxaixJIXxiTLfAUFkOL7G63zQeISg6GS76ipIPNHeUNJtz1S-0aODpgzHnoH3mhbfGy7EwPF3hFpnPC0WMJpVhbu8dPDGGBUziesxoi9jM0x9OCIDHgJHUM7Y4q2p3iT7vF9sXsQqIJQwHxizCxACKJuhZeTEdCBEld65um8fU2Y7WXftjT4CzBUPtbw_6bAfbMhELJjkeUeyUc8q5dznKW22fn-8617XKWdGja4eqqBidLHIQ/p.jpeg" xr:uid="{42BCB43A-A740-4362-9343-018B8DAFFD31}"/>
+    <hyperlink ref="S115" r:id="rId6" xr:uid="{0D168D68-FFA1-4886-8A0B-DB218F59AE1C}"/>
+    <hyperlink ref="S114" r:id="rId7" xr:uid="{C22B599C-F442-4501-A9F9-6A8400F6172C}"/>
+    <hyperlink ref="S4" r:id="rId8" display="https://uc61755ebe615e0501827b7b4316.previews.dropboxusercontent.com/p/thumb/ABdxfK-zbBKI-lpRYmI4KDQR1C06gVM7VHmf8v2qYqOzt-eXfi9X7UICTK0Wp6d-4sqfjGdvskuXfnk323EYW32BcLmZc7b8Szz6dA2CqG6sccO65jlrqTPzZT0XH5xnT4RFBhr2_9fHLU2f3CAsyGc_qDOD6g_WBJeGt8uSLvwi2Qi9Un_6Jt1igETbZtfPqUyJ0E_buE_KbaMWRCJLv2RRm_TWyeijP3zoUiV2WNDyXTBRCkMCsIAsRlGq0H9mM_jYDCfq_pde0ISNWs4tidzl7u-jxIYeBEbb9Cx6tN_d5aLU8zY3-v68pxUPl4c6tvf3oj0AW7geHQmVdUNEGQL1krpjSkKWQDfHKKolyiljyA/p.jpeg" xr:uid="{70DEF3EC-7056-4B17-8850-C1CE31B288FB}"/>
+    <hyperlink ref="S113" r:id="rId9" xr:uid="{0F8FF7E4-C11D-43EB-A495-B509DB231213}"/>
+    <hyperlink ref="S5" r:id="rId10" display="https://uca26f2e845fdce598edda8f3836.previews.dropboxusercontent.com/p/thumb/ABfpF2tMyacvMWIaeb7qScVuGdINudWdm8UGxJV33Im07dPmNiZxPkotylArmQgILBHqVbCbkqZx6rK7SzidK24T2mN1TFLfgmQuyovs6SmldSgVcWT1AXYZU8X9pDQ3JnAo5OViAQby8ARz8h4-Y-QaRBbS7t9WmJ_oSctd2SQvSPJXby5o1rMhB2UCfOvpPfLJvvIlyqDXFQiQmMZKL2SU1AL59nJg7bey_MK81c-BnRtlMO-6d7zSf9coD_Lz5s2drfFy6EELzPF_MR8JIecgGQEA5ibTZGNpV5bXOX-wYfncoTC4hUtKkHsMmPs5TddVVg14B8TkxicX5YMbZz2KQgvxoLiopyVjtJjEWifQAA/p.jpeg" xr:uid="{AFDBFE02-5199-40BE-901F-5A390252797D}"/>
+    <hyperlink ref="S110" r:id="rId11" xr:uid="{459A5495-4787-4D8F-B703-4AFBBD4034D8}"/>
+    <hyperlink ref="S7" r:id="rId12" display="https://uceebfd71d7a1f827c59f1c92bae.previews.dropboxusercontent.com/p/thumb/ABfZY0VSL7dxdJe-UnkQ2Xzs6aCrDfYuvtO4twDDG-v6i95pM-dcIiUzb5Rc9wA5ObGksLpdS8x-9MgOjRp6KnsgWnwUsEOeBykMxn5YUI_ry4mz9qaA0jaYOYV-hb_d9jD5AU0RLCuOadypH1D4ZBEXlvVeSw5XMv6TkpA-WdZatVeBljd1rFNwqCBeOz6-ZilbBhG86Z6HGo9fBKscSw3CYZJ2qPCjmXTcoHIVK5zmwWXY15u59aqM_RPL0KrCdZDgz2GePIm6M_nqf42GfKNzgeac83GFDPxzkV075L2XW3ufNT3SDwpE47IlgyIfqUS2QEBIghHy45XPmbBBKVB4qHzoKrwNXqKptHmrA-SsCA/p.jpeg" xr:uid="{60261B18-2BCC-49FD-88BE-A28704D0A89F}"/>
+    <hyperlink ref="S8" r:id="rId13" display="https://ucca13d3fc2d289a990c6ddfd5cd.previews.dropboxusercontent.com/p/thumb/ABfi7FNUmPH4-pLgQKzubFvemu8FAciqcWnIu5943mQDtP-fiz1fCJ_1kqLmNDhNlWAXVx-pUHMw9HMIXTpwAj3ITqX4wLo4Nku5RrmwLwTOgGD5cMcewd8sPMqxegbRh9eKnth717gB-1XGNn40VDeI8LUcxb9ACy2FLFeYZ7QDzoJ6f_mVFMk5GW-9XxpCaYrS0DvCbHMiLX2FjdHkRE-KR454xGhyLVycSN9uKq6bq-eUNzCHMpVI70DpeLhrSKP7yPPwG7VSL1IiUHgEruALH_upE06jZCvpUMuYmk3O_-WLj0SHOQnaYdjkd_r9DVeBvqy6jbUDtNMOaQlfyBP2JoN3AKP8NwkOv-CdlJ9mlw/p.jpeg" xr:uid="{EC8768B4-E6BE-40DD-9C77-E3A425D4B0FB}"/>
+    <hyperlink ref="S109" r:id="rId14" xr:uid="{C330ABE3-972D-4081-AAC3-C63501B0F5C2}"/>
+    <hyperlink ref="S9" r:id="rId15" display="https://uc40c8d29fe83cb66b38f1541ebd.previews.dropboxusercontent.com/p/thumb/ABdRNh_wbTQsHEWD5P3NhqBbuvPq-4_JCUxtKUCM0_PnD0mo2NtrErqu2xONwfwqXOAymjDYokYx4AJkvqsm9FWD2Sj4X9S-KPmlm_0YVmRErL53xYtUBX7EBHwqlUpPUqx1Wco9T1l8N9_QvJ5oLIsthJzH7MhZZSBqEO5P1w3KIyWBa89aUpvfpNLcCEA5NeplZZCxDBBpJySF9h2B_kLKmnmlsf3Km71Moz2MaYDPT6p7DPfSnPO7wMWvsYm7VeHga6aeNylLGShKa-L4MlE2_44QIx14kR6IskK7k8PlP1TdZVXJ9Euw3-cP_JIBQfLEf1-2-woWvcOGLssidOLQZ4I5BOaptVd-ZETiHRGkvw/p.jpeg" xr:uid="{4B3F45E0-42DF-4E9E-9C80-2F0C3EEEBAF8}"/>
+    <hyperlink ref="S10" r:id="rId16" display="https://uc432a2d3a87f646126e7e559734.previews.dropboxusercontent.com/p/thumb/ABeAKhH759fgcLcM1YhOZev6vGaXoLSqZ9F2eI2SnZJnXWXno3b4FnDMTGz45cUaO8GO4hWZ2OQp3WZ-dZ8WBecpMXV7aSZZXFVRAixuMQlLbOuP-lgYCli96RKboClEBlLr8q3_6K1MMAJx9AM6kgQlrf6-r5q6hJCem1Xc57Vfgj6lugiWsyn9vJWZI8VZmqq56zgJ-eOwYAY9rFmTrQmCLFeMfWkivsdXCDQ3E-GdjyM4XaFmLNoiFLsS8kSZ-t5Ud-Q5xz8Kky5QFnn-nNsc-SjLPhpSrJRBU_wnv5MeSAqgXc2XQRRLnIXF93AnwqEUmMqEH1id3m9PgPv7zGIW_GiCo-1UldVX3eNIYNSMMQ/p.jpeg" xr:uid="{9CDDFEA1-8012-4701-BAC5-2D7225E170F5}"/>
+    <hyperlink ref="S108" r:id="rId17" xr:uid="{5277B38A-204B-4B87-9040-A744AFC25530}"/>
+    <hyperlink ref="S107" r:id="rId18" xr:uid="{6ED5A6FC-2B11-4300-AF1C-41821F8AB203}"/>
+    <hyperlink ref="S105" r:id="rId19" xr:uid="{2F7B420F-24FC-4CCA-8AEA-29E61AF1ECD6}"/>
+    <hyperlink ref="S11" r:id="rId20" display="https://ucdd929105e65bb62e940132c869.previews.dropboxusercontent.com/p/thumb/ABcAJCZ4qO58Cn4FI4uVF-dY7Wv6nOhlujnuSimdCYw6xpRk4wHeRlrcyjsRyk_qfgPo3VB0zQ4hWxRWORiO5LZ_c71wgHHT9TaCMpw6TH0AUJrlLV0OWS0uXSGqv2Y-c0wkOQTB7fhx275nabeFmfuNmhdXSrGOBf3uokRYEfdSdJNdxhBeAjerxFbgurTUCg3QhXRSihfOMQ2CMR-nbKUcRwqSFhzH31h39vt8OsB1uAyCXRGEqBToTk777YJOOxRYzNTHzxA7zEMtBHcHr_HbYJzBOUEUGXp3YSyn7XzMhtdJVdfY2O6p_RBuAD9RF7FRbqppy5-heIY8BvtPWdOW4Uy4WLHNFKl5hg-19NfjSQ/p.jpeg" xr:uid="{EC53894E-6532-4B09-861D-B6EE7DC6A583}"/>
+    <hyperlink ref="S104" r:id="rId21" xr:uid="{0308509F-1F94-49E7-A457-BA1A2A654AB9}"/>
+    <hyperlink ref="S12" r:id="rId22" display="https://uc7d2a566b168a081c5f59209275.previews.dropboxusercontent.com/p/thumb/ABdImVbDJbUWRVTbGc0ahLmY6RyWc3riKJtKWwQ4gQUENWjI8tHtnEM2_LYqoferLVPYenRz9IO28ybNAVPI_q2is8IU22MP73LyuRITe42zCizo1ExtZMamoTbJcc6u-TTyNjcv_JWUCX7HtR1SfdDsX_NsHA4CbyYDpnkRh3A5Ac5giVxvtri0lgzKcxoiCaV5viOph64Li9nCnereEm-1TfQmviVxftL4Jrm8-2A228v2bfWjcBCTRabFhxueejOy2PX8ZeY6o4qiOYWZW8Je71v_JRaPW3k_PiHDBPByYArLcQYsQ0MSjGiLl6BYtakb-jV4fYFHRE5vy6wgJXflRtzZTNdQF0L4OtPHzu4odg/p.jpeg" xr:uid="{33D3FA1D-DC37-4FDF-A096-69C2D2324395}"/>
+    <hyperlink ref="S103" r:id="rId23" xr:uid="{1DF4DD8D-5377-4193-AE41-2B8277ACBDEB}"/>
+    <hyperlink ref="S15" r:id="rId24" display="https://ucf3e33395a32b6217232a9a7944.previews.dropboxusercontent.com/p/thumb/ABeBijHW6Qbw-QtUrfrjaEsE1l9YMHcNsIKe6RkkmBXrsv9CB8c2EQFY3ZgHT-_l_zGjRj0Jew_7BAVh7cWIgFPgFl6XRxzgGzeusQi1j7yV8zFxTbeNMmm39NLKf2003ZKHnww0QmhSrfMlWB32zAScZtQ8xwk1BLTw8SGtfiFELkukjj5acZ04MV3XHEHp0QgpTudnwWTMaqJDRLRBn9LHLHZ8JyzWkfWxkxnSKGO7aoRzBUd7FqU5-1xh5MKtmhNPoTsfrWVfMeVgopeUt0FEsZD4_3MnnAhbNkmb9uXquMKJStR7DmTpN16WCjS6KxAh-V5Y7MwjYu7Z-15NDKUL5lXNt9jcBzEPx4j9PpDXvQ/p.jpeg" xr:uid="{F80EA165-40A2-490E-B378-8667EDB1CF82}"/>
+    <hyperlink ref="S102" r:id="rId25" xr:uid="{A0AD95C2-9571-47B5-B12F-F459C414E925}"/>
+    <hyperlink ref="S101" r:id="rId26" xr:uid="{F9288155-8FF7-4E08-8181-3714D1F4AAE5}"/>
+    <hyperlink ref="S100" r:id="rId27" xr:uid="{46D99794-CF13-4DCB-B26D-67035C8C2141}"/>
+    <hyperlink ref="S16" r:id="rId28" display="https://uc5c780ec2e2e0b053f5c54f32e8.previews.dropboxusercontent.com/p/thumb/ABevpHe-YasrylWvbXfbqHD2QdKuOf8bBZlggGggp0PfGA8ZkpgAUB523tNMJYZPHwvQvgeDIVQDDC5l-115Ww-SWNcGFCasKTFvCEQ8_EeofwJu5lrwFeDoSXwyfPu2CBP4mGMfKBqiedXpq8rzrs7t_nfWkP7ar4EEP3Hb6R_knKmJtMJVC_qZEIf7ToaNI057HpBkIhX8Jkrt2-RkNQVc6co1NvJYtBO-AC3MfwdSifHI0J7E1CsNXVuJTCCwBAqrbYFWjncK9ydvoP_sZRzz4H-dxWRo52qSxG3KPDmeQrcYCuPklw9niYBggvDZ6u-JdyxCV9cTh-4BnFnIuL1dcSxmHxzHbZyAAmfKIsLHbA/p.jpeg" xr:uid="{AB3D87C9-7D0F-4032-9690-F550082C465F}"/>
+    <hyperlink ref="S17" r:id="rId29" display="https://ucd187babd43fe7c28e9235a67b9.previews.dropboxusercontent.com/p/thumb/ABe34vCh_f58sS8Vz8-3yvcycbrjCyDN7UluV_8iGAJpggYsnc7PC0Ey1vlUIRHa3g_4EJI9gFOSjrkJt02WIDygGvHUYvR2QEbjPZFXiKM59QxO-2qVXxSAMeCxXi6wupNHrPU7C4poKLXVL1kxHHpYEEq8NfojWbhRyPtCBmaMCRkFxyDNrpAkzC11PwM6fQJiq0newbIRmoA53DxCbfMEwzlzs1nVYZzKEy0BRPQ8vXPZNcSo2FT7s81IO1KOMhP7k9xFEQqAKpB12W7T4unLg7GvjJkYe0dP6_-lbj1dQy7gX3w1BwsQq_WY57dcZsmqQvUTmv0KlEnFIrGVBGs2CUOgxKgaiWZUGf0e44yrxQ/p.jpeg" xr:uid="{5E73B485-8D4E-406B-8E01-9A24198B6989}"/>
+    <hyperlink ref="S18" r:id="rId30" display="https://ucc1d5a0267188ad93b6605edb38.previews.dropboxusercontent.com/p/thumb/ABfb-ZYnMfF-s53vrrCQq6i183kuyq1VABhv76BKZYLlifjBPTsVEhwlkQ4if6fQEFm7LlEMa0nRsGn6YiQXMthwXjtB0o6mgYsvwt-RW3P1QFq2ljFVrp9bVHCGrV8mFmbD59hHHGoVcYIi2Zs8CnfbShqFWZQIZylJEWNQN2uLuWks9hxt755QpcQvVOsiMdU0RizL-lBRcTcr3wZrh5LDKjxc-ZgAxVkK5weUzQlgJIXM8LxbXs1D6vcza5vsdjhr-hptAGvog5HBBakJGFMfF3Y8DR_njEtZwUEXD8-HRYfOGlbnHfXCsSh6QuNP0gzcV-usBAw6ZnQlqt8ImDpkkfgCoR2sSnyF_3P9MPoNXg/p.jpeg" xr:uid="{1C216117-3EA3-4DB1-9344-5A878188703E}"/>
+    <hyperlink ref="S98" r:id="rId31" xr:uid="{BCEC2863-A25D-454A-A7DD-050F6C31238C}"/>
+    <hyperlink ref="S19" r:id="rId32" display="https://uc250fc6e8d86604912444474d4b.previews.dropboxusercontent.com/p/thumb/ABf_H3uxQ_yIYMPHjQ3fTimREoM6oFbGpZ4LqBfvtIRsGFHFvo3XohCKHXatEqr7S4awYXgc76IkV0Dm--eSDnVUnYswQJbrNH3QYaY4oTFgn-9tvydKcX5tL_28GsnwBlnh1TivEx5lgbGRb-gkvM2yMVaGLh13ye1hAJt2VvWWZbjO-v_7rOS8EX8gDa7stpjUb-Q3NJ9EOaBnkB-Sc6_UQai7hkHdIFs_RMvxwHENCSKTUPYw0zyAafgZzJj_BMY1weyYcZiwKTJj8Dk-536iW9lX5k6uZ7DL_QqpzrkmjS7ml2NIRh65cuGdBfaLdJ64AtCnAkf75u69vus2yI8TH6wvHsxBwt9ErlCRwZGSIw/p.jpeg" xr:uid="{24A2721C-1EE4-4619-AF54-6A980028DC39}"/>
+    <hyperlink ref="S97" r:id="rId33" xr:uid="{23DDFA23-4E47-4469-B38E-BDC9BAE646A2}"/>
+    <hyperlink ref="S20" r:id="rId34" display="https://ucd616a464a6594f237a9f07a731.previews.dropboxusercontent.com/p/thumb/ABfS-RTkMXLDpEuQiyo3CmAWabnTJ8IDH6FQL56b0yAd6r9eljvmq-QkTKfNT7MsIJE0IbML8N4549ojIrS6E2zzJ18t9mrUtVgbcLllhlprxefk5_iuFUOikyaD26c1MwnDVjmDrm3OyqWcLsG-2L1L_F192kh5C_IJcWKpH-c1UHq6yYmth-ZoJXdJrG3OyzCG7ut0SVOPY0g99hf3ION1r7Wx1vzbzx76cWFB0BVxxicwmFoIPZS50X6DV4F8RBcqLso0b-8s9maubzLfNSZxN0XT2wt4ExIfotqxVebDYt1uY5W1euPQ7ime7teWHrgr4Dz4suhveRSHTfTZFgjbMwckIWw2wY5t385ETyC8dQ/p.jpeg" xr:uid="{D14E1F61-D584-443D-B8F9-469505A35F52}"/>
+    <hyperlink ref="S96" r:id="rId35" xr:uid="{B267C1DE-294D-442D-954D-0CB23BF7FE57}"/>
+    <hyperlink ref="S21" r:id="rId36" display="https://uc1d5494ef47f71c66f613d3fc72.previews.dropboxusercontent.com/p/thumb/ABeseledRBrvJZ41_WBcfyfrTr-dO7i9U_Qj2sk3S749hjlgdQSsKAdUgvoJp93-I7S0g8Ou1M2Q4D821NZzzguexUltuc4iQpkZM1q1I1YU_XwZoUftQHNbuY1yHsqZlyxHUkzWcddCWJ0BzVgEbcNRplaYpXs8G3ryquWxudOVAVlO8xAkG-BsYOu70ldjKNmu8csRRL2n8LYoJVk4KrDxHMVkPLKVm-5l79diZ55vhf8wCKod7xMKBoku7flRd1rl0RFYl9iiPNuo-YnHTI42QMWd5RXMYvDOiRPLBsU7YTyD5NfTrTYH7i4yAQ2uq4wGQluChyiZX3LN_VbKAgDjcNA9RqSQ-nnH0r9YqIKruw/p.jpeg" xr:uid="{BB7C0591-AED2-4C94-A813-DD979708BA14}"/>
+    <hyperlink ref="S22" r:id="rId37" display="https://ucd73935300d08e26010bc71a199.previews.dropboxusercontent.com/p/thumb/ABdZWOmShlGbIB2ExpJHcMAN434foPVBYDgB_I9KSsqTNnUdVYX48mlu9wD0H_1cRS8Tx_b5fxJzdADrp8qT5YxH7MedgcgbbPgqIqKC0xwuCRvWltPKJ0f4yJOx1ozGLIu8lW5IMg8WOrmfi0tJgUW9Dxd_pV-XJ8TtZWnRLAPt6UXcTZtab-kXCaCMtkb9u4ZMGZPLPBq0nQMM_Q3-1A9Dh6SOr9QxmUgH_icWeoJHdDNPZTqU81d0A7xfYKSJ1Ybr_tWHHZ5uq64HewwSDxx0UnK7msjOPHjRSX0P1vxMjF_fpW62KlFy4k21QWy56k67WCKQ1Vz2t8jNUrAE97nTZyS3oKW1RJdau45w8GyPdg/p.jpeg" xr:uid="{F13F8704-8289-41EA-A3A6-659480185842}"/>
+    <hyperlink ref="S23" r:id="rId38" display="https://uc74569af4136e861368869398ae.previews.dropboxusercontent.com/p/thumb/ABdvuTDyCkYo4YKGPnn-_Xv6O_v7HCXexNeN00sjSBAzFMtOgS2FtyQPzTfdTTjDv_IBma3T-eUWYa2m7B_LvZeUEYP38RU2WWhEaXBZEPu0kA7exkiTU89__4MeDinIy7Fsnp_onmsgA73-4az1cJpu4ON_lnc9dl176_L4QEFioE8zIMk032S6aUFRIzmsrLL0woD9U3VTvhx-KEUoxqGZiEdw4BO4TLRrVHupD8Iqwd99vOGQ4RqREweCk_VJBXpxfx7x4JkDvo-WLFM7pwOPg_XagcxxBsdBniKsavFyw_OMqYEir1cXYvCqaC4VN0vKSQi_9_RFcwjm4nXa9HLuTnLsWpkOHYQ2E78tchQSxg/p.jpeg" xr:uid="{A5389021-867F-4831-B886-1C614F4D4754}"/>
+    <hyperlink ref="S24" r:id="rId39" display="https://uc6977c3ed016ff579d8311194ad.previews.dropboxusercontent.com/p/thumb/ABdunapR_jgeuGSIfiWOKm9rYjHmj45zeY-1AJfGnVF_1LzjScsItgC1P59HxkojDFShpfqWV4220bsisPbkUFQskr98hmmFCp5f01dy6i_zZD-9AQ1U_xiiSJOh3yfHxZluebN8tbh-7zSGg-k2pSjlqC9QO0Yr0mUhUnAwkqyWv5jOo2ugFFV2R3fyx9MqMJXQSezV-ofDQUOyrxMaUbbPh-U4QagDLVD9bCcYsMSz0czClKhqq_xeWATIPVzYp8TU7j7tGm9o_UEfHARFJVJFQgiLmQkqH2xSBig6C6msd4GEshM6Zad50vfir5kGYaFpODUPCZSI7Y-daEdwGm1IZ9Mv3SPVR14kLh-nDf36Bw/p.jpeg" xr:uid="{091CB816-BEA2-4F12-A75A-DD98A837D23E}"/>
+    <hyperlink ref="S92" r:id="rId40" xr:uid="{684E1A62-CE22-4299-8956-8EB927260FF8}"/>
+    <hyperlink ref="S25" r:id="rId41" display="https://uc75f31e86b454d72f82cba7683c.previews.dropboxusercontent.com/p/thumb/ABc0RaqO871tXdqXKLsWljqRprtTavD2-2NVZg8bFGotrIEsOWZt-rraU76TnifjoRIcylbmA25Rc5HQkOJXdCisdL4RIkKjdX1W6QUvHtF87INNdKYUZqJ7PH0zR4mnx7w__qPv5820BvLNEM9gHBNFduEn-z3DTAE4R8S4mfNh3yhfReo-S5rT67T5gbPg6EcSsskZAO9-m80iWtuHsW6q8HgRKJw_xI-cAvfLmEDbs2nBsT8bBITbNwJNgOQGHn0xe7-fi14PB39Tzm0dc_uLdSeCGPMv8uHYe57s6TXiCdPyh0uuRnYwE85eIlV9WOpsiXr03wprsJh1NdUWgf2sO6sRGkKnhFprASSDxSi_MA/p.jpeg" xr:uid="{384C6749-AB5C-4DBD-B525-B4C6D8B88403}"/>
+    <hyperlink ref="S26" r:id="rId42" display="https://uc751271b4062061414791311d1c.previews.dropboxusercontent.com/p/thumb/ABeRhVGqzu4v5qEMChilHwN6xhhEkNltwOZSPRfZQPkGwwrPTR7G6KuAU312horrszln5XwUd-Sk3fIwdH0B6W8SuoW3Ht8D2GIF3sUKGwmV1-01ezRCE3wzD6wkqcqGc9AwYtiAqGqt7n8AKk4csY785Fw0rdgtZzG4NSIQ-68IEvO5A2Jqnjl42yEGk0KtHoX4tdJFxJurS5RJgLreeQZh2zcv75MIbdGl8PJVECYTuht8LKkAbxn_hYvkzxKxg8E7eR7_wwabTWsN_PAR-BHbOoPdAl2hRJXxIPG4oduTtu6iaofHJikXFSy_QjP_g50_Cb-jluxzQEDRplQH2gGB4Kk8Mwf37mP2bW3j1A-soA/p.jpeg" xr:uid="{22333AE4-0388-4368-B086-4E3B48650CD3}"/>
+    <hyperlink ref="S27" r:id="rId43" display="https://uce16851f311c50ac1fa50f1b774.previews.dropboxusercontent.com/p/thumb/ABcRoVsQmKSF4t7m83oQ1cm1cAky01t_7NUtSIfLZ2vroQS22ZBeDmsxBiFMkDvLTav6TKSFmAmYN_2-5s6qVhXV0i5Ql7BEUSKGP5MnK8oqVIOXB2fs5p25JWQlRMvf4N3KzGA2b9YH52vV6KdEDqybuv60lxL8fsD6v7jH5qe1sc9n1VK35Cv4OOY4ndaNJ3m5GDgfJVDt5iRC8hV2_K_Rq3MIyVYV1VuQVXUzNnwCpiiBBsUGliwNP0hdAbdCJ142Ceib_XxZnDaahrnpq5u9MqLUt648ICskQQetXqtba46eCibSUcEh2tUyxtzdLW5U77LxcpDRRzlzlB1M955oJYKZ_1DwRNJgV4TrxW7KGQ/p.jpeg" xr:uid="{827731C5-3AE8-40B2-BC57-FE841C69DAEF}"/>
+    <hyperlink ref="S90" r:id="rId44" xr:uid="{74DFAD5E-15A5-4F5D-A7DC-F051F4DB143B}"/>
+    <hyperlink ref="S89" r:id="rId45" xr:uid="{B45807E6-7392-4AD2-9F08-022937B69378}"/>
+    <hyperlink ref="S30" r:id="rId46" display="https://uc6a7f6d61704af646220a94c25d.previews.dropboxusercontent.com/p/thumb/ABf3fkui5s0_S1XaBvQfVe_E1u_J9qp6ZlMWz058X7_VDwSA88SJyAYC081auiyrwaj0gxxAUr4S2frk4YexWcXo0bIs84FB7y-95IDtzenq15fHVAOXk8iv3Fij7cSZ1owFHvu0cVsCJiVpFiocJhF4-jVsC_MqhW8IPF1vJuKunphcvVUXEE9RdYcw4rdTQNlMY73VSufhNuRePtKXkMb2c1CC0W-GuUIJiELuHUDHrD5FtCEctmbh3BeAY6iH6IWQaCaeKev7xarKIF6-yNvngYitqnzyTLAx03_o3IJGb7bIjEHCrKfgU5MsK9px5u7rokSZc3T9XFwEEB-QM7WNMWSzS7GjBLdkcLw74if9iw/p.jpeg" xr:uid="{A7E47F32-F209-4CDF-ABEA-539DA5D4A66C}"/>
+    <hyperlink ref="S88" r:id="rId47" xr:uid="{4D7DD7B5-1489-4282-86D7-96E75FFB7B63}"/>
+    <hyperlink ref="S87" r:id="rId48" xr:uid="{E7E937AD-BBF5-4986-B89A-53E905853B98}"/>
+    <hyperlink ref="S31" r:id="rId49" display="https://uc090bf1260852f46cd8f642a40c.previews.dropboxusercontent.com/p/thumb/ABe8RXs4OHDd5ke4RPpsnjUM2d3eRharGKJZ-U83y7rlSBeaquO_MYbsp885eGdUZMdi8EXvG_vBLvfbERFDyYcXM51vBq_Og6faDkpxQoNQeRvauN_CpHnHST8msJKqa4TGix64XgxtbCPqizBR_tWh29rH4orlnZHDCTINKo_bi62szdE0KeIFArHFi5DH-2Rz8m24Tp1iyGnpFJaN_njd_NDYr_YVflI3ORGQ4vx3E7pJmXbi3BiOCq-E00DSYGc3MFjbCVgcKyoYZcLVl0ylK5nh7y_Ap4ImGHvoW4ln4_X_MtRzAPdrMRfm4z9TnflgB6SDpQK6UeHmBy3pMFBL_5CyCGT2cCO228XUdtcu3Q/p.jpeg" xr:uid="{D9B893A6-989C-40E2-BD5D-FD5F18683B13}"/>
+    <hyperlink ref="S86" r:id="rId50" xr:uid="{FC6A2171-7CC2-4E0F-858C-D70AE62BCD49}"/>
+    <hyperlink ref="S32" r:id="rId51" display="https://uc6888decfe555a554f184ca02ea.previews.dropboxusercontent.com/p/thumb/ABexdXQd5rqcjnZrLYO-hLQ_biUGd2AVQDur3tT8bGNzM2TK3BftdPYteu3-gU43-NDDxqImDpchPAAQJHBXWbtlO1OvobcqDmtvVlEzO7bxoq4RHshBEqMtfeIwCcs-xTE8ChhY10Ftvw-rUSDXtbPy1Xw8IcXPj4GGP5bQ-hJokvYSbca-cuiXg1xc7bTQHdKs_vhgoV9h4xBvnCs-M7yZN2o_0ffKYZ9S4V7iYeQmLrV3aVQa2bQaeN_hX1Tadugj-j1o0ubkwppmWCF9bPq3Xdis0wgOdVuDpFweEheFVLMAqoTPmu0wWYrynLgRYGYpux-2FaRyamPW6F0Zpb8HSw6ijBIPENZkLlUDGS7ONw/p.jpeg" xr:uid="{504959EF-916C-4300-8F03-4AC31162701F}"/>
+    <hyperlink ref="S85" r:id="rId52" xr:uid="{2AF5EBD7-1F31-431C-A2F0-F38F2CF2EAEF}"/>
+    <hyperlink ref="S33" r:id="rId53" display="https://ucc2e53d24408614657af09d625a.previews.dropboxusercontent.com/p/thumb/ABfdBN9gLUScVLTcIYy34lHGl82E8s9Zgt9RUwHJlDjE5TaNSpnKo2c7NokfeFlhdVSbf4pzRLX_Rx9puqRSqfPHT4T3ntU2qlXD60JYMo6Mij-EwnxR18L8F7ZXU8H0XLOAQwzIdPxeDepkwWsxsAtDuagDEbPpwcILjbtLjwGC8UPgejEWAuBJFMv2YD2ur1MTdzHC5bWe0VNekZQGzX_yF5aAo2T-VHJC2H9H1FmHxJ7oFFEVMGDfgcIv1Kjql4ISZem1eIYeTLl1Og0y-5Tl7xy0Y2kzRqHCelHmbS0xHAbfQwtFdbrer3-QvfI_P3CtsUnsja4DKXUokwH7l37h2BxKHQcpf0HwIKJw4wZEHQ/p.jpeg" xr:uid="{2EEEAE0B-6781-49AD-AC40-A5610FF1DAA4}"/>
+    <hyperlink ref="S84" r:id="rId54" xr:uid="{64863B1C-44EC-4D8B-9E8C-08CA16AAA5C5}"/>
+    <hyperlink ref="S34" r:id="rId55" display="https://uc0ce4af853a16afd14b99ac002b.previews.dropboxusercontent.com/p/thumb/ABeFarXPZNiUZI6NcahovO4mxPzeQnvOX6Iet1KaNqSQN2hyNi7KYBCdtJ_rOrl8mr8xQgv_-1hvH_rViClOy4XjTf120rQD8nbtGfDiGp6PcuohDqoFiocbh6_CdT4POca5vqJLC5wkI8Iu0wULBMtoQbpsTnwRPpHOrkXem5K3e6EO1J7v5YwjR0-eln5rbbQFofeZA5h4Q0ynXDdFPJoYqPYiVAyl4gh9CYX1lxo4gUcDyWaWdnoLEjb4lhu8Zp8nb_DdivpffqdOgRMGVnZ90W3imWaS5sZdKBNrTdoVb4MrHAyUdSikcXy_T4p_RzjCpYc9_u3y8X7bORNgNQ1SsWJt2LlzI_BIklbL5zA8zg/p.jpeg" xr:uid="{4177EAB0-9D3C-4DB2-943A-C88B49F0A04E}"/>
+    <hyperlink ref="S83" r:id="rId56" xr:uid="{3C55DEBF-3646-48AA-9074-10179AE8018B}"/>
+    <hyperlink ref="S37" r:id="rId57" display="https://uc53ccaf2033313beab461be3e21.previews.dropboxusercontent.com/p/thumb/ABcNUG5hgvkYQDBY17eY_OzKAgZUrkjKLSnGaowDbMCXQW-utGDo-2yO9cdfeXYga1IfhM14LXKHzBSYtswKQUDmgixfiEONNONXnNSRTWDS69CxfMKTpspVOEmzjTLvIJlAz03PrShUABDe0kGEvZHPA1ZZ5imtPGPmui2iCNqVNR2c2PCgZbxlKn1TUzIxWioANtlyBrpd2d_jn-8Ml0YPoVYsgDXv_35JJWpevvJQWWZqN72uF-RtoOxY5ULNkzjEP8u8Dj31vjmEm_ockLA4cG4ZGUv41fTKdqUtiZ72XDdlNLx2X8ZJ2K1tWIEWO-jj61QH12oYTWylT1s9d00IdKd-x6NZSk3A95dG41ZPEA/p.jpeg" xr:uid="{FDAC5791-2B05-4B1F-B329-E7A655CECDC6}"/>
+    <hyperlink ref="S81" r:id="rId58" xr:uid="{6C29BEEB-9380-4475-833C-4EC3C7791646}"/>
+    <hyperlink ref="S38" r:id="rId59" display="https://ucef552ba4af4be4d23256571e96.previews.dropboxusercontent.com/p/thumb/ABeCY6htPwyjm3r83OyqVO1glEcotg12LoggunvoZJg_5GIzsUJKUfoSUSBwA86qnjhMcPq-Haso4Z7ZwoloOddIAyAp65U8Qh3GJK4uW44XmvhLgAYN5Raxr_0YonqJWFwHNIdXnJXBFBjgIMk2keEYYmF-4x3RiX8Ec1KWir88e-6sBHn5tNSk8YTK8iYH1g5KCmvxDNiIPPA4zVi4abbUOP6ePtRPjRA3NUBBsCcSB0ChOPaDFFrrGGNWpuVPqATZEzmYGu1GzVxO4xGx9kMwJfHa0k7luMas4l1lT_61xbHJlzZXW4v1cLINNBQ_2qyfurqC59BrlzMcKTVUfUjPWskE4MVjOC05NJ0HTdNGdg/p.jpeg" xr:uid="{03628202-D11F-4A5F-BE71-DE2A5AD97B71}"/>
+    <hyperlink ref="S80" r:id="rId60" xr:uid="{F1A4DB3E-C837-46CD-8853-637CE70E4625}"/>
+    <hyperlink ref="S79" r:id="rId61" xr:uid="{D2D46AB3-F33E-42B3-AF6D-9CC5D7FE9DA7}"/>
+    <hyperlink ref="S78" r:id="rId62" xr:uid="{6684545E-95B7-4D76-B123-007EC36D247C}"/>
+    <hyperlink ref="S77" r:id="rId63" xr:uid="{9E89D255-5C13-4C5C-81FA-3B908D4FD707}"/>
+    <hyperlink ref="S76" r:id="rId64" xr:uid="{5932A081-90C7-4C9E-8007-1735043537FC}"/>
+    <hyperlink ref="S74" r:id="rId65" xr:uid="{1D081D37-D3D6-4B6D-94E7-B150C41DB62E}"/>
+    <hyperlink ref="S40" r:id="rId66" display="https://uccf47b276f8572fa50cce7cb99f.previews.dropboxusercontent.com/p/thumb/ABefIcP099-FCvs1tV09A9ITNOtYqpWD5JhRTfrE4IzG7GtjVgn_UZHN-czdT2jj_uIlFDzd09W2vhP4NskL1auwNMY0V7NIM-3vuucsIywcjf52Ju7uwpzc-JYR7cNDIy8_92jBeCtMEJVixebQuXj_6fZdDb0D9LDESPOc5nHgTrgKrUeUZisX3AHIGpX1ZrYafC64MtF0lJHRyrYol5XF4PfSHVEeCH9JawBH_yrM00617sI590STzHqF0FteG0hYc-kk0lyZ8tlI7Ehm_z2ZWDcIu7LTzlW1q8KCW2vu1i7swJpVvTR1s55yocI4mMyCQAb4TsHRlYQRL35yFLiP0bnnzCaTxL-pRjUDUnSr7Q/p.jpeg" xr:uid="{6C294763-D096-4B9C-B1FD-4DB5E5C9934A}"/>
+    <hyperlink ref="S73" r:id="rId67" xr:uid="{D21EE40B-43F0-4267-ACCA-8410E8A90238}"/>
+    <hyperlink ref="S41" r:id="rId68" display="https://ucbe45138b130d7b9d49fa5ec9ea.previews.dropboxusercontent.com/p/thumb/ABcSjoU2HQ7liM2UmMZyCMx8KvzeF4cv7wHN4ZL0-u27RzDUBx0ER1rAWH-ljjTc_7QnHEXzlxfV0B9YPVWfgV6wv1neYvv8-SAFtQAgnB7Ulx3lMx4YVZ6rBQkQZI0eVo94Y5insKKq1Qhj4oD07pqO92DDHB3FF6NGbrZZaBKVfu_XitJn4WNlZP4ZsvtyeTEz4TEl1O970mBq7N9xMhNB1WL3-pmcJa2CSKiKAKGXL0FYEp6nBbqHHwPj2Rl_EY9WQp1yUcYOWH0qXG1zE1rQaqUTmVWkUuinIjqR7yLNqFpUYRPQLp7zfCRoC7I6ELmxYBJtHQkh_FVSOiXLnPLWQlZ-FTIexeyiSbd5DRq7yA/p.jpeg" xr:uid="{DC7E5C5D-3291-4BE2-A97F-B05603CB0686}"/>
+    <hyperlink ref="S42" r:id="rId69" display="https://uc78884d9a3e59c9a74f25943e01.previews.dropboxusercontent.com/p/thumb/ABd7UyvAibY_7VyJYmT3UldgwCTYCsVYucWyZ6KdTheJVOmyZYr1Uy8PaumtilOSD6VSdLzx42H5M0LjpknY56EiqEpt_CxJ5sLsoo4kkL2T7rjyhq1g7H040SeYafVBQMjYdX7F42vqdEXCp96GO0_CI4Us0XxHR8nYZdz-LNXdTeTzRpgjdoSf6_NMFVliLSRaHPSKXsX4N-bw9AnjUfNBAV9f5ITYr4bcqwXYSkmhMEqgbRbXjlDpsFwKi46gzphtixNMPqN7AsvRwSHOkszdwFpuQftIgDLcDSDDcUQRNlPqyN6ur1OEXIXBqaz-h3bn5iTJs5ymcvjn9UuFrjgno8eRL1qHLjYpxornEdhfnQ/p.jpeg" xr:uid="{91D38BF0-A6C2-4871-BCD4-69E399FCFB24}"/>
+    <hyperlink ref="S43" r:id="rId70" display="https://uce9398e2925bbc628e2824dd58f.previews.dropboxusercontent.com/p/thumb/ABdl17CysgvdtTm4Msx-9ObT23hW5u24AmdCNU0pnQkJQtENC2XtA-T_09Ck6Gzh5bqzfsp3G1hLuvCmXx5VH8uDMTcSVUHvIhVYYYVctqLmSm5qZ2wqjoHMYoc2x22K4-v80DkNkdtvx9QKTvsH46Tge2q3zCc4_J_I8qImd92CXYcS-_syR5rWZybPMvbKCLCBH7QCspqqkcd628jOCHhsVFxMLTaeDHQUAbszUmwDlHc-iPALTNhhabID5KjNTqhiiKPJTB1y4KIXJc1P7Bztni2OspbX3A3ck2uNMt4lua5oTBe1qwM6GwAVvC21ekWaj6-g4RBZxJMrz-REGQX24YrNhIUgsVhqSj4ucZppkA/p.jpeg" xr:uid="{E9D4D0E1-8BFE-4EF4-89B8-0FDDEEAE3BCF}"/>
+    <hyperlink ref="S44" r:id="rId71" display="https://uc5c42be7fbd7932bc11b903bd5b.previews.dropboxusercontent.com/p/thumb/ABf0YCn5HHfyoqiWkk3xYVr-Az-jXpUaLlu6UKl9IB2Vg08CnQJnVfs-MuZrrRYsCCdqmjp4w37c0Y26zGE5CKCgvX7VpUEov1IXML2UE2VGcoVnj3NNDw0h2Tgr9QApwdAnc-xjyd8pTLoZ1DZ6S90CA_WB3dR8EvzAvD1Yy2plv9iAZGpbv8cB4elfQKNDxyxSFj52lRBjiZEDgaWdbmTpPeHv2UI6MxjMZLZ70NI2p0o3_rf6iHTKX9J591zqzPC8ecUoAMT_TflRKiwEE_0G4aHJCBsi9nFxNspkpGTLyA6ghU0VE4JsI1XLSWWbB_b9VxeMQjffXf4DfR6vh8OAEo9nYmxe-EhZNINMjdansA/p.jpeg" xr:uid="{DA64F217-2099-46D6-8846-3DF0D87ED1C2}"/>
+    <hyperlink ref="S70" r:id="rId72" xr:uid="{3D8DCC6E-A185-4F3E-9CF0-523F4B53695D}"/>
+    <hyperlink ref="S45" r:id="rId73" display="https://uc1f535f680548879e982df620c8.previews.dropboxusercontent.com/p/thumb/ABeUwT6sCoz6eMdCowHoHSwdF1vU3fqyUmJP15qo8aMls4u48HJzPLSgoavaY4G5ZkvgqMD__wvK4LyVfxn80KTudF4Oyxf5Uh_49Ei48BS8wngb6VngWoKOF-Jw1n5Xj4mqqW2LMfPffPUKR-wbLNNH5QsOEs5ktucvBunt92bdBgysiqXBDJ4flcPKcwD8dknsLGCnF0S_keHLFMtQgiUsylD2bShxbHDhj6VY58_w1NjTVnDoMpkvzJ9PK7xr20PsEoxW8Jef7KSloXm9vv6971PL9LutS_M9Be-A5iKt-RBsXLwLwzHKsLQovGPJLvBMMvpJ9EuEsPsNVBGIE7I1gFzfPBNicga2nP_FR5tsfg/p.jpeg" xr:uid="{45A27B6B-B9EC-4F35-84B7-CE9A211662C0}"/>
+    <hyperlink ref="S68" r:id="rId74" xr:uid="{E2B468C6-38E2-4F50-B521-D7873935576C}"/>
+    <hyperlink ref="S46" r:id="rId75" display="https://uc97b17a8f30ed3f49bea94d23d6.previews.dropboxusercontent.com/p/thumb/ABfNqIi3mQ4bir_2J-hqI-cI0_EhaIZzmoWx28MWwlxBOP8pmgO4h7cRXeMo-aw2HCgnZYFpaxiAOvV7kt8wDIVGHSidzZwXdgWHDtVVXZY-R5aa9XOsHy8f5YyZtL9K3W17lh5W_q05zNj0yN_s3Ls-tBdK3Y6CuM7F-opkwenKWsv_BeeP2nS-gIlZWe7Knje5-EGUT9ZoXxc9Q1TPUfqXTrgCnDHUMmrhKPcjhQVarqyWZagK-zQVGCNBYP9KE5KrT7fSdeTx8HKlHKq-cvRVO-zjOhO91408mm-KD8mO1hgrApWjqQ0-ZaYpH_AkHRkRi-iLSLBFW_5qpTVnJIesmjxUqrfz01llHvU0_LxxbQ/p.jpeg" xr:uid="{2F4D4E24-8D85-4DC3-A68F-C8835A8C8CC8}"/>
+    <hyperlink ref="S67" r:id="rId76" xr:uid="{6A7AD920-F7E9-4B9C-A793-D35F4D695E6A}"/>
+    <hyperlink ref="S47" r:id="rId77" display="https://uc7c7632166ae5c988f082b208af.previews.dropboxusercontent.com/p/thumb/ABcjnzJzn1ZP4rj5dytBB-JabBAlPCoPK7JWD01Mz5NeKQFFQh9ipgW22tRf_Aa-RUqlpbuc3Eh25GtPiE77tIpKQpAondeITIMAwi9M2HoDuPcx8jqAbG0mKGgd2W42E-DbNmoUgn0AvHFuJmhcJkguLh-5sHko1F_9Dgsg1sFkKmw26lNwJWBFf43kEiWvJFsv4XwBcWqmaw3kG6oVXvRdaqH5jzpfMF4lGeCySNpGGGSZFRUD2wrSCH5mD5utjlbiMLbizkiYpe7IeiVXXxaRJ1mt3xKTQA7EA6gB6jer3wgXPL96_01p-W5E30N7LudO-h6eKNsflDfOq0Ka1bby2SDay3WF5iK7R29pC-G9nA/p.jpeg" xr:uid="{9A9466B3-7C2C-4C04-9C42-C6F95183D15A}"/>
+    <hyperlink ref="S48" r:id="rId78" display="https://uc77b041c61dfe1fdecdb93ef952.previews.dropboxusercontent.com/p/thumb/ABfDCzKstc8UKJUB8lpwBE13DokKW9ujWOM5TjITC5wB84vWTxVGhTNXN7YDt13Y4k_bdzJCMY4E2Gd-Hp0f2QjN6hIo3_Nr85VIOGW4F_UGgTa9CJDPDoUCWM2n_Wbty_psvQw8pPmZvKvq8kwQ5k9382Pl6zuXsahMwMz3jk266VhNGFb6zycYDkNY9w2AjOYwol1AKr4L3uM2sPjBwVn9I0cJ7cY4SRDEuBWgc-PzcLJtuRzC2EUnKxo8bH2CqJECSjo93uhzrrOsfO1BTGcDD5vI8VZPmAeqnTqzN5TeDoHxo1M8W3-4QVR5-QQqEeoYfhi96SsJf3edcgy0TxrPpr8ymTz9Rb1JiCDi4tbl6A/p.jpeg" xr:uid="{42A7F6EA-BA09-490B-AEA0-932EB36AECAB}"/>
+    <hyperlink ref="S49" r:id="rId79" display="https://uc5e03984c6226991f53a718010f.previews.dropboxusercontent.com/p/thumb/ABfmt-GxlgZ6ktMqgtKR-x0dRZW2vyVD-mwgdZT6q397c_9_aDMLpw1QadvK6CaxKdz7DXi_G-1QQaURRYwQRea7Bn012LyD5Ik-YM5yGWUVY4Dwj1cmTZ8MVaa9FGs_K9Owr8JSosiZAqJ8hTVJmLZoWNShvCC5krV1C9X5gquKRwELPRwIpu6f4YT2za1M94nq89Qz6F2qR_CPbNHSjZoaWXdJrFdKuu_VG1mVUPNOfHitWeiiZicyegaVUqjvfBa-nI5yqYx-WTjgwhGnkh8Bzk8DiYHzZz1_hY_dZXOLHE_1r5RGuFa3Hv4J9GDkjBgWce7IteBJUGScSvYFD0ziWRBUVjROB8kermtB6mAD-w/p.jpeg" xr:uid="{EB6BF247-0D37-4FEE-B8BB-3FD000029744}"/>
+    <hyperlink ref="S50" r:id="rId80" display="https://uc62fa473fb4392a51c5178a7bf3.previews.dropboxusercontent.com/p/thumb/ABc8Nu47xnhJx3bH7-nI4gCzsTG7nK01VTVHxr1JSTsNUg0-hkZMUCgGhH_6oi8TLHbmX-6LdGUnvvDg62WQgu_7TV6FVGO7H_Owm7l_PfHzYJ2mE2OnGRMoDkCMbzHsamR_Ic_ZLKAYcpyKSvDjkSJFSizdQmOMiCxQAybwfBTSZoYGixMz2hxJ2UT8v7IPBZfCBoDxkJUgsArw-GJXXdfaOUbF0jfme68olC2J2rygXxpL-XaedAb3R_qEQ3BfVeoRmiVEBeXgYrqTKOoOifioRM7TBO83H1kU4bmX7LT8DuLd_PcSbG3VJO50g3AAv0BgsSm5xKV02FY8AVwO9LAlpUdYC279Ex2KZPGGjTC47A/p.jpeg" xr:uid="{CBB9CFE0-32A8-4560-A6E6-23C5B2B59FAD}"/>
+    <hyperlink ref="S64" r:id="rId81" xr:uid="{27FE5FEC-D381-4D2E-BD24-B0A183EAC1D0}"/>
+    <hyperlink ref="S62" r:id="rId82" xr:uid="{9F35053B-AFFE-47B5-A05D-216185E4DB51}"/>
+    <hyperlink ref="S53" r:id="rId83" display="https://uc6824aa3e7508a5698af866e503.previews.dropboxusercontent.com/p/thumb/ABdm8j5ooPxSUFH1Dl899lN6TBB1OLXefL6NkKBFeI7iKlg6-YJwTov9wp2MFtf02ira_XH1O-xHYVoFABl8Vxjb4jkAr85qvSyb2sDjQxKps9yJstHMLMZaWr9yX3TrbCQhzaCTl9CXP6SLdQK_beU8-nbUi5ZfsnhqZmeMczoptSZA51Cuk2nJk5nNw41hdjI_qLjtYoDsAW1KWibXDBANmLPKsHkDJlWIWdt5U6-BOHqCPd8gG49s4eFkYfdaRpqEGGYKKx3W5nFCl2xS2zTtblQ7i_9aF8bTfbG_oPimVmswe--B9bXMD7LYok3uW_4VtXnA139sDg7pID5VC85bXUtGOQCxNran6t0DueUhGw/p.jpeg" xr:uid="{7932744B-D63D-4C1F-844E-6D281C4BBBD3}"/>
+    <hyperlink ref="S63" r:id="rId84" xr:uid="{B7BE9BE8-F682-4C1A-9B73-74956E1BFB50}"/>
+    <hyperlink ref="S61" r:id="rId85" xr:uid="{8C51B5C6-E1F6-4F4D-B258-2E00C10F816D}"/>
+    <hyperlink ref="S52" r:id="rId86" display="https://uc04d513c53c7dfd1d2a2b000539.previews.dropboxusercontent.com/p/thumb/ABfES9nvijxWr7pRK1lEM2-i_-AVQ_6qrIzkzkWvWAHOidl6PwmzQk9DDjLO6dj9Ykdz1ac78uKwROWAPCLDL_XbW9csAmUdpcN4ARTM5sA1wuJKa7prqNkMsn75EmDdxh3maSwrlIjsrkNGPgUL5pLAMvk6rCDtWUMmBNKDYha43-hGb1vcmdsbrMGO9GBFccIpBQYc0pnWx3HUBVDSHsnYdWFu_ILWJvvxKDSU3XooERIily9GcDLjVD7piCZxzZXUVnEu4LjKpiSiq_BYnTFt56Oe2s2Jk_Q1ODlRXwCNS95kJk-Oci3CwWLCgP6GiFnrzLLn35aOp6yRwSQU5Y0LFrdlUA3kDg12szOhqnXYUw/p.jpeg" xr:uid="{14F6D591-C73A-4C63-B5F0-242224FEF67C}"/>
+    <hyperlink ref="S60" r:id="rId87" xr:uid="{36F4343C-DB8A-45A6-BBAC-0088882378A9}"/>
+    <hyperlink ref="S54" r:id="rId88" display="https://uc16442ad1a957eff078f4927bd2.previews.dropboxusercontent.com/p/thumb/ABfQgS5eD-Dc0_ZVt4BEZofBELnHigLTDJm56KIL0YxtH3728O2aTw8FqqMBfBbZrlZ-ptkqza6IZ73s4VYpXK28VbN2dgBgBVRhpEKXSyTAYVUV-L-R9JL-rEx-yPEaNSgl2USiBjvuV0FR2q1at4QYSIxZw82e2rT2_Je8e1atoJ3bEfXPbHWMV-EaloMZQkuwQ97NqmLAOl2q0byXZoa1j2tFKhfbUynkzJCDJ1WcOELhmpNob-H53PPK36-0yZKHGwVBQGf8puwioasWXtjeCUBaqQZnRhXUqab7F339Is3GXSRIJfC7IJG15y3wNPolRNbHUVex9_cB8KXxY2JzRX4y7KXjjpRZomOfpzqcwg/p.jpeg" xr:uid="{B4543D33-6DE6-48F7-BF92-D2ED31FFFF12}"/>
+    <hyperlink ref="S59" r:id="rId89" xr:uid="{820A12A8-022D-444D-981C-135311FD60C3}"/>
+    <hyperlink ref="S57" r:id="rId90" xr:uid="{EE1E2092-AC87-468B-8185-F8CC3AACACE4}"/>
+    <hyperlink ref="S56" r:id="rId91" display="https://uc6a230972e8e58c601d0bd4a977.previews.dropboxusercontent.com/p/thumb/ABcbw1ZQSmwcQuxrJBEuw7-1uFpfLmNg2QlWgEvoOmXstYHgcBCfZQPK2_iUCf_FG6xkiZqVo6JvoXHwh2uGyn5wNI6XK96V8PijuVrVL_QnZWe_qo77QuKf1lJm2YbgHTzQRaC5rLE2_Y7-wWTmDh2XX24WDvMl_1TTt526kgYci2537fjbVl1Vsu2XCeEAtIaUr6gssiH_AZHpTULkRQmSJsBKnq93RC2wK6Yq3ZWC8eXw2Hcx8ikagehvn_RuibnrbXuYjGmcUzsSXII9rXXVOThvIxC3SF7CDNDi5bMAmeCw9agSONmxyY0oVog43YOBnYTKHbypEeU_1B3_0b8m8C3cTbrLVAvpx97tmKiXbQ/p.jpeg" xr:uid="{31F44A9D-D9C5-4F49-B2D2-2FB243B3B396}"/>
+    <hyperlink ref="X2" r:id="rId92" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AABZndaVIQjC6xaMcxRajZ9pa/IMAGENS-PEIXES-COMP/Leporellus%20vittatus.JPG?dl=0" xr:uid="{64237D7A-8B38-48BA-B7E0-7A03970F36CF}"/>
+    <hyperlink ref="X65" r:id="rId93" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AACmO9IbOGmdgafHxqFokh0Ua/IMAGENS-PEIXES-COMP/Hypselacara%20temporalis.JPG?dl=0" xr:uid="{17B065B6-5919-46E5-A07D-DDCA11623568}"/>
+    <hyperlink ref="X56" r:id="rId94" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AADhhYZ1RU5Qpl3hgucksodwa/IMAGENS-PEIXES-COMP/Leporinus%20affinis.JPG?dl=0" xr:uid="{EEF41250-232C-42FB-9534-594821808C8E}"/>
+    <hyperlink ref="X57" r:id="rId95" display="https://uc16442ad1a957eff078f4927bd2.previews.dropboxusercontent.com/p/thumb/ABfQgS5eD-Dc0_ZVt4BEZofBELnHigLTDJm56KIL0YxtH3728O2aTw8FqqMBfBbZrlZ-ptkqza6IZ73s4VYpXK28VbN2dgBgBVRhpEKXSyTAYVUV-L-R9JL-rEx-yPEaNSgl2USiBjvuV0FR2q1at4QYSIxZw82e2rT2_Je8e1atoJ3bEfXPbHWMV-EaloMZQkuwQ97NqmLAOl2q0byXZoa1j2tFKhfbUynkzJCDJ1WcOELhmpNob-H53PPK36-0yZKHGwVBQGf8puwioasWXtjeCUBaqQZnRhXUqab7F339Is3GXSRIJfC7IJG15y3wNPolRNbHUVex9_cB8KXxY2JzRX4y7KXjjpRZomOfpzqcwg/p.jpeg" xr:uid="{6DD0DAF0-0914-4F7A-BE1E-AB16195D419D}"/>
+    <hyperlink ref="X59" r:id="rId96" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AABaN1jywFzFPpUWpgEShzxPa/IMAGENS-PEIXES-COMP/Leporinus%20friderici.JPG?dl=0" xr:uid="{A6250578-25D5-4DE2-AC54-14077AEA9974}"/>
+    <hyperlink ref="X54" r:id="rId97" display="https://uc04d513c53c7dfd1d2a2b000539.previews.dropboxusercontent.com/p/thumb/ABfES9nvijxWr7pRK1lEM2-i_-AVQ_6qrIzkzkWvWAHOidl6PwmzQk9DDjLO6dj9Ykdz1ac78uKwROWAPCLDL_XbW9csAmUdpcN4ARTM5sA1wuJKa7prqNkMsn75EmDdxh3maSwrlIjsrkNGPgUL5pLAMvk6rCDtWUMmBNKDYha43-hGb1vcmdsbrMGO9GBFccIpBQYc0pnWx3HUBVDSHsnYdWFu_ILWJvvxKDSU3XooERIily9GcDLjVD7piCZxzZXUVnEu4LjKpiSiq_BYnTFt56Oe2s2Jk_Q1ODlRXwCNS95kJk-Oci3CwWLCgP6GiFnrzLLn35aOp6yRwSQU5Y0LFrdlUA3kDg12szOhqnXYUw/p.jpeg" xr:uid="{BE7BAD88-C5F1-461E-9EAA-08378FFE85D1}"/>
+    <hyperlink ref="X60" r:id="rId98" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AAAv8lOH1KpwZtclwQ6T4AQ7a/IMAGENS-PEIXES-COMP/Lycengraulis%20batesi.JPG?dl=0" xr:uid="{8CB275EA-E549-4990-B21D-C293364377B4}"/>
+    <hyperlink ref="X52" r:id="rId99" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AABycH01-jWguDoS9hV6A11aa/IMAGENS-PEIXES-COMP/Moenkhausia%20dichroura.JPG?dl=0" xr:uid="{A95D70A8-901D-43CD-8EB0-B30C4687BDA7}"/>
+    <hyperlink ref="X61" r:id="rId100" display="https://uc6824aa3e7508a5698af866e503.previews.dropboxusercontent.com/p/thumb/ABdm8j5ooPxSUFH1Dl899lN6TBB1OLXefL6NkKBFeI7iKlg6-YJwTov9wp2MFtf02ira_XH1O-xHYVoFABl8Vxjb4jkAr85qvSyb2sDjQxKps9yJstHMLMZaWr9yX3TrbCQhzaCTl9CXP6SLdQK_beU8-nbUi5ZfsnhqZmeMczoptSZA51Cuk2nJk5nNw41hdjI_qLjtYoDsAW1KWibXDBANmLPKsHkDJlWIWdt5U6-BOHqCPd8gG49s4eFkYfdaRpqEGGYKKx3W5nFCl2xS2zTtblQ7i_9aF8bTfbG_oPimVmswe--B9bXMD7LYok3uW_4VtXnA139sDg7pID5VC85bXUtGOQCxNran6t0DueUhGw/p.jpeg" xr:uid="{D7B56B6A-98A3-40B3-8F6C-E278972F5EF1}"/>
+    <hyperlink ref="X63" r:id="rId101" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AACSJrf9ZJ-i8bm_RKJR94zYa/IMAGENS-PEIXES-COMP/Megaleporinus%20trifasciatus.JPG?dl=0" xr:uid="{5B0069E0-E0E0-4C88-9B97-B0882F658678}"/>
+    <hyperlink ref="X53" r:id="rId102" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AADuWRBNEs3KZ7aRoxZTnR0Oa/IMAGENS-PEIXES-COMP/Mesonauta%20festivus.JPG?dl=0" xr:uid="{71F52AC9-A4DA-4D81-8F5B-5D65E17B7A1F}"/>
+    <hyperlink ref="X62" r:id="rId103" display="https://uc62fa473fb4392a51c5178a7bf3.previews.dropboxusercontent.com/p/thumb/ABc8Nu47xnhJx3bH7-nI4gCzsTG7nK01VTVHxr1JSTsNUg0-hkZMUCgGhH_6oi8TLHbmX-6LdGUnvvDg62WQgu_7TV6FVGO7H_Owm7l_PfHzYJ2mE2OnGRMoDkCMbzHsamR_Ic_ZLKAYcpyKSvDjkSJFSizdQmOMiCxQAybwfBTSZoYGixMz2hxJ2UT8v7IPBZfCBoDxkJUgsArw-GJXXdfaOUbF0jfme68olC2J2rygXxpL-XaedAb3R_qEQ3BfVeoRmiVEBeXgYrqTKOoOifioRM7TBO83H1kU4bmX7LT8DuLd_PcSbG3VJO50g3AAv0BgsSm5xKV02FY8AVwO9LAlpUdYC279Ex2KZPGGjTC47A/p.jpeg" xr:uid="{38D7D05A-F90C-48AF-B668-E9AB5939B7F7}"/>
+    <hyperlink ref="X64" r:id="rId104" display="https://uc5e03984c6226991f53a718010f.previews.dropboxusercontent.com/p/thumb/ABfmt-GxlgZ6ktMqgtKR-x0dRZW2vyVD-mwgdZT6q397c_9_aDMLpw1QadvK6CaxKdz7DXi_G-1QQaURRYwQRea7Bn012LyD5Ik-YM5yGWUVY4Dwj1cmTZ8MVaa9FGs_K9Owr8JSosiZAqJ8hTVJmLZoWNShvCC5krV1C9X5gquKRwELPRwIpu6f4YT2za1M94nq89Qz6F2qR_CPbNHSjZoaWXdJrFdKuu_VG1mVUPNOfHitWeiiZicyegaVUqjvfBa-nI5yqYx-WTjgwhGnkh8Bzk8DiYHzZz1_hY_dZXOLHE_1r5RGuFa3Hv4J9GDkjBgWce7IteBJUGScSvYFD0ziWRBUVjROB8kermtB6mAD-w/p.jpeg" xr:uid="{589370AD-4218-4D3B-AEA9-1BF1E5E658B3}"/>
+    <hyperlink ref="X50" r:id="rId105" display="https://uc77b041c61dfe1fdecdb93ef952.previews.dropboxusercontent.com/p/thumb/ABfDCzKstc8UKJUB8lpwBE13DokKW9ujWOM5TjITC5wB84vWTxVGhTNXN7YDt13Y4k_bdzJCMY4E2Gd-Hp0f2QjN6hIo3_Nr85VIOGW4F_UGgTa9CJDPDoUCWM2n_Wbty_psvQw8pPmZvKvq8kwQ5k9382Pl6zuXsahMwMz3jk266VhNGFb6zycYDkNY9w2AjOYwol1AKr4L3uM2sPjBwVn9I0cJ7cY4SRDEuBWgc-PzcLJtuRzC2EUnKxo8bH2CqJECSjo93uhzrrOsfO1BTGcDD5vI8VZPmAeqnTqzN5TeDoHxo1M8W3-4QVR5-QQqEeoYfhi96SsJf3edcgy0TxrPpr8ymTz9Rb1JiCDi4tbl6A/p.jpeg" xr:uid="{AB2DD17B-B744-4AAA-8129-B87A650B0924}"/>
+    <hyperlink ref="X49" r:id="rId106" display="https://uc7c7632166ae5c988f082b208af.previews.dropboxusercontent.com/p/thumb/ABcjnzJzn1ZP4rj5dytBB-JabBAlPCoPK7JWD01Mz5NeKQFFQh9ipgW22tRf_Aa-RUqlpbuc3Eh25GtPiE77tIpKQpAondeITIMAwi9M2HoDuPcx8jqAbG0mKGgd2W42E-DbNmoUgn0AvHFuJmhcJkguLh-5sHko1F_9Dgsg1sFkKmw26lNwJWBFf43kEiWvJFsv4XwBcWqmaw3kG6oVXvRdaqH5jzpfMF4lGeCySNpGGGSZFRUD2wrSCH5mD5utjlbiMLbizkiYpe7IeiVXXxaRJ1mt3xKTQA7EA6gB6jer3wgXPL96_01p-W5E30N7LudO-h6eKNsflDfOq0Ka1bby2SDay3WF5iK7R29pC-G9nA/p.jpeg" xr:uid="{71E75540-A502-4C6B-A9DA-D14B6A3545C7}"/>
+    <hyperlink ref="X48" r:id="rId107" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AACjM2baghwdzyGn-9v0yxD_a/IMAGENS-PEIXES-COMP/Moenkhausia%20oligolepis.JPG?dl=0" xr:uid="{85D89012-4712-4583-A6A9-280B39A6DAA6}"/>
+    <hyperlink ref="X47" r:id="rId108" display="https://uc97b17a8f30ed3f49bea94d23d6.previews.dropboxusercontent.com/p/thumb/ABfNqIi3mQ4bir_2J-hqI-cI0_EhaIZzmoWx28MWwlxBOP8pmgO4h7cRXeMo-aw2HCgnZYFpaxiAOvV7kt8wDIVGHSidzZwXdgWHDtVVXZY-R5aa9XOsHy8f5YyZtL9K3W17lh5W_q05zNj0yN_s3Ls-tBdK3Y6CuM7F-opkwenKWsv_BeeP2nS-gIlZWe7Knje5-EGUT9ZoXxc9Q1TPUfqXTrgCnDHUMmrhKPcjhQVarqyWZagK-zQVGCNBYP9KE5KrT7fSdeTx8HKlHKq-cvRVO-zjOhO91408mm-KD8mO1hgrApWjqQ0-ZaYpH_AkHRkRi-iLSLBFW_5qpTVnJIesmjxUqrfz01llHvU0_LxxbQ/p.jpeg" xr:uid="{515E6AA7-5FEE-4F00-864B-B1E211A90B41}"/>
+    <hyperlink ref="X67" r:id="rId109" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AAC5_329wbAk1r6Q8iAvEr2Ua/IMAGENS-PEIXES-COMP/Mylesinus%20paucisquamatus.jpg?dl=0" xr:uid="{C0D23813-68E7-427D-8D14-671B74DB9028}"/>
+    <hyperlink ref="X46" r:id="rId110" display="https://uc1f535f680548879e982df620c8.previews.dropboxusercontent.com/p/thumb/ABeUwT6sCoz6eMdCowHoHSwdF1vU3fqyUmJP15qo8aMls4u48HJzPLSgoavaY4G5ZkvgqMD__wvK4LyVfxn80KTudF4Oyxf5Uh_49Ei48BS8wngb6VngWoKOF-Jw1n5Xj4mqqW2LMfPffPUKR-wbLNNH5QsOEs5ktucvBunt92bdBgysiqXBDJ4flcPKcwD8dknsLGCnF0S_keHLFMtQgiUsylD2bShxbHDhj6VY58_w1NjTVnDoMpkvzJ9PK7xr20PsEoxW8Jef7KSloXm9vv6971PL9LutS_M9Be-A5iKt-RBsXLwLwzHKsLQovGPJLvBMMvpJ9EuEsPsNVBGIE7I1gFzfPBNicga2nP_FR5tsfg/p.jpeg" xr:uid="{8D149CE2-3941-43FC-BA4F-A31E3D3CCA3B}"/>
+    <hyperlink ref="X68" r:id="rId111" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AAD_2ol5WCDh0Bo448NTyo1Ja/IMAGENS-PEIXES-COMP/Myloplus%20schomburgkii.JPG?dl=0" xr:uid="{490A9F49-8024-4C20-8460-E83F03E471C1}"/>
+    <hyperlink ref="X45" r:id="rId112" display="https://uc5c42be7fbd7932bc11b903bd5b.previews.dropboxusercontent.com/p/thumb/ABf0YCn5HHfyoqiWkk3xYVr-Az-jXpUaLlu6UKl9IB2Vg08CnQJnVfs-MuZrrRYsCCdqmjp4w37c0Y26zGE5CKCgvX7VpUEov1IXML2UE2VGcoVnj3NNDw0h2Tgr9QApwdAnc-xjyd8pTLoZ1DZ6S90CA_WB3dR8EvzAvD1Yy2plv9iAZGpbv8cB4elfQKNDxyxSFj52lRBjiZEDgaWdbmTpPeHv2UI6MxjMZLZ70NI2p0o3_rf6iHTKX9J591zqzPC8ecUoAMT_TflRKiwEE_0G4aHJCBsi9nFxNspkpGTLyA6ghU0VE4JsI1XLSWWbB_b9VxeMQjffXf4DfR6vh8OAEo9nYmxe-EhZNINMjdansA/p.jpeg" xr:uid="{BB24C68D-147B-4177-A8C7-30C6AE355E11}"/>
+    <hyperlink ref="X70" r:id="rId113" display="https://uce9398e2925bbc628e2824dd58f.previews.dropboxusercontent.com/p/thumb/ABdl17CysgvdtTm4Msx-9ObT23hW5u24AmdCNU0pnQkJQtENC2XtA-T_09Ck6Gzh5bqzfsp3G1hLuvCmXx5VH8uDMTcSVUHvIhVYYYVctqLmSm5qZ2wqjoHMYoc2x22K4-v80DkNkdtvx9QKTvsH46Tge2q3zCc4_J_I8qImd92CXYcS-_syR5rWZybPMvbKCLCBH7QCspqqkcd628jOCHhsVFxMLTaeDHQUAbszUmwDlHc-iPALTNhhabID5KjNTqhiiKPJTB1y4KIXJc1P7Bztni2OspbX3A3ck2uNMt4lua5oTBe1qwM6GwAVvC21ekWaj6-g4RBZxJMrz-REGQX24YrNhIUgsVhqSj4ucZppkA/p.jpeg" xr:uid="{0236504D-8886-4E49-BE0D-A1A746157D8A}"/>
+    <hyperlink ref="X44" r:id="rId114" display="https://uc78884d9a3e59c9a74f25943e01.previews.dropboxusercontent.com/p/thumb/ABd7UyvAibY_7VyJYmT3UldgwCTYCsVYucWyZ6KdTheJVOmyZYr1Uy8PaumtilOSD6VSdLzx42H5M0LjpknY56EiqEpt_CxJ5sLsoo4kkL2T7rjyhq1g7H040SeYafVBQMjYdX7F42vqdEXCp96GO0_CI4Us0XxHR8nYZdz-LNXdTeTzRpgjdoSf6_NMFVliLSRaHPSKXsX4N-bw9AnjUfNBAV9f5ITYr4bcqwXYSkmhMEqgbRbXjlDpsFwKi46gzphtixNMPqN7AsvRwSHOkszdwFpuQftIgDLcDSDDcUQRNlPqyN6ur1OEXIXBqaz-h3bn5iTJs5ymcvjn9UuFrjgno8eRL1qHLjYpxornEdhfnQ/p.jpeg" xr:uid="{1908A5AD-9EDA-4753-840D-31D9BF753A7E}"/>
+    <hyperlink ref="X43" r:id="rId115" display="https://ucbe45138b130d7b9d49fa5ec9ea.previews.dropboxusercontent.com/p/thumb/ABcSjoU2HQ7liM2UmMZyCMx8KvzeF4cv7wHN4ZL0-u27RzDUBx0ER1rAWH-ljjTc_7QnHEXzlxfV0B9YPVWfgV6wv1neYvv8-SAFtQAgnB7Ulx3lMx4YVZ6rBQkQZI0eVo94Y5insKKq1Qhj4oD07pqO92DDHB3FF6NGbrZZaBKVfu_XitJn4WNlZP4ZsvtyeTEz4TEl1O970mBq7N9xMhNB1WL3-pmcJa2CSKiKAKGXL0FYEp6nBbqHHwPj2Rl_EY9WQp1yUcYOWH0qXG1zE1rQaqUTmVWkUuinIjqR7yLNqFpUYRPQLp7zfCRoC7I6ELmxYBJtHQkh_FVSOiXLnPLWQlZ-FTIexeyiSbd5DRq7yA/p.jpeg" xr:uid="{675D58C6-67FD-443C-BF63-C1815967F6F2}"/>
+    <hyperlink ref="X42" r:id="rId116" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AACPuoB9Gfbu2WUYhd0ZCDIya/IMAGENS-PEIXES-COMP/Oreochromis%20niloticus.jpg?dl=0" xr:uid="{9AB65C70-B44D-4377-9FC9-7C1485A6C2C5}"/>
+    <hyperlink ref="X41" r:id="rId117" display="https://uccf47b276f8572fa50cce7cb99f.previews.dropboxusercontent.com/p/thumb/ABefIcP099-FCvs1tV09A9ITNOtYqpWD5JhRTfrE4IzG7GtjVgn_UZHN-czdT2jj_uIlFDzd09W2vhP4NskL1auwNMY0V7NIM-3vuucsIywcjf52Ju7uwpzc-JYR7cNDIy8_92jBeCtMEJVixebQuXj_6fZdDb0D9LDESPOc5nHgTrgKrUeUZisX3AHIGpX1ZrYafC64MtF0lJHRyrYol5XF4PfSHVEeCH9JawBH_yrM00617sI590STzHqF0FteG0hYc-kk0lyZ8tlI7Ehm_z2ZWDcIu7LTzlW1q8KCW2vu1i7swJpVvTR1s55yocI4mMyCQAb4TsHRlYQRL35yFLiP0bnnzCaTxL-pRjUDUnSr7Q/p.jpeg" xr:uid="{2F49D156-D8B4-402C-ADB4-317540CBF653}"/>
+    <hyperlink ref="X73" r:id="rId118" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AABYrbhZdKIIyyLqPZk7KFAua/IMAGENS-PEIXES-COMP/Osteoglossum%20bicirrhosum.JPG?dl=0" xr:uid="{A890F856-BCAB-4637-96D0-AB2F3B35DB16}"/>
+    <hyperlink ref="X40" r:id="rId119" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AAAILsq4uAUI0FNcSqI_mhDCa/IMAGENS-PEIXES-COMP/Pachypops%20fourcroi.JPG?dl=0" xr:uid="{2656CB73-2961-49BE-BA86-B5B66256BCA7}"/>
+    <hyperlink ref="X74" r:id="rId120" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AADYA8fAuVQ-F8NooDSlVZ9xa/IMAGENS-PEIXES-COMP/Paratrygon%20aiereba.jpg?dl=0" xr:uid="{F61D9830-263F-4A28-86E9-A61DC82D0AD1}"/>
+    <hyperlink ref="X76" r:id="rId121" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AAABdMCI8HIJPV8GaxwtrG2Wa/IMAGENS-PEIXES-COMP/Pellona%20castelnaeana.JPG?dl=0" xr:uid="{5B961133-F0AC-44BF-9C2F-B95E9AE41958}"/>
+    <hyperlink ref="X77" r:id="rId122" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AAAvnWSee1KqapbMyokPyCdFa/IMAGENS-PEIXES-COMP/Pelona%20flavipinnis.JPG?dl=0" xr:uid="{9F29F2B2-4974-4FEA-8FB6-8108BF3DDFD6}"/>
+    <hyperlink ref="X78" r:id="rId123" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AABlrH8XfldL2BARz2B05FLga/IMAGENS-PEIXES-COMP/Phractocephalus%20hemioliopterus.JPG?dl=0" xr:uid="{4956F86A-06F7-4801-93CD-587E2F332B56}"/>
+    <hyperlink ref="X79" r:id="rId124" display="https://ucef552ba4af4be4d23256571e96.previews.dropboxusercontent.com/p/thumb/ABeCY6htPwyjm3r83OyqVO1glEcotg12LoggunvoZJg_5GIzsUJKUfoSUSBwA86qnjhMcPq-Haso4Z7ZwoloOddIAyAp65U8Qh3GJK4uW44XmvhLgAYN5Raxr_0YonqJWFwHNIdXnJXBFBjgIMk2keEYYmF-4x3RiX8Ec1KWir88e-6sBHn5tNSk8YTK8iYH1g5KCmvxDNiIPPA4zVi4abbUOP6ePtRPjRA3NUBBsCcSB0ChOPaDFFrrGGNWpuVPqATZEzmYGu1GzVxO4xGx9kMwJfHa0k7luMas4l1lT_61xbHJlzZXW4v1cLINNBQ_2qyfurqC59BrlzMcKTVUfUjPWskE4MVjOC05NJ0HTdNGdg/p.jpeg" xr:uid="{86266C5C-6CFD-4943-9533-84DAF5390F16}"/>
+    <hyperlink ref="X80" r:id="rId125" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AAALnzyfV5l2cjp8y0cXQPgMa/IMAGENS-PEIXES-COMP/Piaractus%20brachypomus.JPG?dl=0" xr:uid="{2C0EB0A5-73BF-491F-8D40-DECDC33D0526}"/>
+    <hyperlink ref="X38" r:id="rId126" display="https://uc53ccaf2033313beab461be3e21.previews.dropboxusercontent.com/p/thumb/ABcNUG5hgvkYQDBY17eY_OzKAgZUrkjKLSnGaowDbMCXQW-utGDo-2yO9cdfeXYga1IfhM14LXKHzBSYtswKQUDmgixfiEONNONXnNSRTWDS69CxfMKTpspVOEmzjTLvIJlAz03PrShUABDe0kGEvZHPA1ZZ5imtPGPmui2iCNqVNR2c2PCgZbxlKn1TUzIxWioANtlyBrpd2d_jn-8Ml0YPoVYsgDXv_35JJWpevvJQWWZqN72uF-RtoOxY5ULNkzjEP8u8Dj31vjmEm_ockLA4cG4ZGUv41fTKdqUtiZ72XDdlNLx2X8ZJ2K1tWIEWO-jj61QH12oYTWylT1s9d00IdKd-x6NZSk3A95dG41ZPEA/p.jpeg" xr:uid="{045A789E-B079-4D49-8556-183E10A2614A}"/>
+    <hyperlink ref="X81" r:id="rId127" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AACzXEvj6FW0ylRrCpLtpgCja/IMAGENS-PEIXES-COMP/Pimelodella%20gracilis.jpg?dl=0" xr:uid="{852AFDB6-78C3-499C-82E5-2763FEB5E310}"/>
+    <hyperlink ref="X37" r:id="rId128" display="https://uc0ce4af853a16afd14b99ac002b.previews.dropboxusercontent.com/p/thumb/ABeFarXPZNiUZI6NcahovO4mxPzeQnvOX6Iet1KaNqSQN2hyNi7KYBCdtJ_rOrl8mr8xQgv_-1hvH_rViClOy4XjTf120rQD8nbtGfDiGp6PcuohDqoFiocbh6_CdT4POca5vqJLC5wkI8Iu0wULBMtoQbpsTnwRPpHOrkXem5K3e6EO1J7v5YwjR0-eln5rbbQFofeZA5h4Q0ynXDdFPJoYqPYiVAyl4gh9CYX1lxo4gUcDyWaWdnoLEjb4lhu8Zp8nb_DdivpffqdOgRMGVnZ90W3imWaS5sZdKBNrTdoVb4MrHAyUdSikcXy_T4p_RzjCpYc9_u3y8X7bORNgNQ1SsWJt2LlzI_BIklbL5zA8zg/p.jpeg" xr:uid="{C48277B8-9ABE-4D67-9FB6-228B48FAD676}"/>
+    <hyperlink ref="X83" r:id="rId129" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AAAvnWSee1KqapbMyokPyCdFa/IMAGENS-PEIXES-COMP/Pelona%20flavipinnis.JPG?dl=0" xr:uid="{C34203D3-3389-4191-96BC-9578EDF07F93}"/>
+    <hyperlink ref="X34" r:id="rId130" display="https://ucc2e53d24408614657af09d625a.previews.dropboxusercontent.com/p/thumb/ABfdBN9gLUScVLTcIYy34lHGl82E8s9Zgt9RUwHJlDjE5TaNSpnKo2c7NokfeFlhdVSbf4pzRLX_Rx9puqRSqfPHT4T3ntU2qlXD60JYMo6Mij-EwnxR18L8F7ZXU8H0XLOAQwzIdPxeDepkwWsxsAtDuagDEbPpwcILjbtLjwGC8UPgejEWAuBJFMv2YD2ur1MTdzHC5bWe0VNekZQGzX_yF5aAo2T-VHJC2H9H1FmHxJ7oFFEVMGDfgcIv1Kjql4ISZem1eIYeTLl1Og0y-5Tl7xy0Y2kzRqHCelHmbS0xHAbfQwtFdbrer3-QvfI_P3CtsUnsja4DKXUokwH7l37h2BxKHQcpf0HwIKJw4wZEHQ/p.jpeg" xr:uid="{615ED25A-8A25-44C9-BE58-E396C27595B9}"/>
+    <hyperlink ref="X84" r:id="rId131" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AAA7iDN4mU2L43grTlFyexvoa/IMAGENS-PEIXES-COMP/Pimelodus%20blochii.JPG?dl=0" xr:uid="{3BBC45AC-AF07-48D1-9755-4ACAB9CBF11E}"/>
+    <hyperlink ref="X33" r:id="rId132" display="https://uc6888decfe555a554f184ca02ea.previews.dropboxusercontent.com/p/thumb/ABexdXQd5rqcjnZrLYO-hLQ_biUGd2AVQDur3tT8bGNzM2TK3BftdPYteu3-gU43-NDDxqImDpchPAAQJHBXWbtlO1OvobcqDmtvVlEzO7bxoq4RHshBEqMtfeIwCcs-xTE8ChhY10Ftvw-rUSDXtbPy1Xw8IcXPj4GGP5bQ-hJokvYSbca-cuiXg1xc7bTQHdKs_vhgoV9h4xBvnCs-M7yZN2o_0ffKYZ9S4V7iYeQmLrV3aVQa2bQaeN_hX1Tadugj-j1o0ubkwppmWCF9bPq3Xdis0wgOdVuDpFweEheFVLMAqoTPmu0wWYrynLgRYGYpux-2FaRyamPW6F0Zpb8HSw6ijBIPENZkLlUDGS7ONw/p.jpeg" xr:uid="{A37B5CEC-5828-4754-8AD5-63D09E9DA77E}"/>
+    <hyperlink ref="X85" r:id="rId133" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AAAY-25ybeXXyYdwQoNAIM9Ra/IMAGENS-PEIXES-COMP/Pimelodus%20ornatus.JPG?dl=0" xr:uid="{69785AEB-A8A3-4B76-AC70-D5073421614A}"/>
+    <hyperlink ref="X32" r:id="rId134" display="https://uc090bf1260852f46cd8f642a40c.previews.dropboxusercontent.com/p/thumb/ABe8RXs4OHDd5ke4RPpsnjUM2d3eRharGKJZ-U83y7rlSBeaquO_MYbsp885eGdUZMdi8EXvG_vBLvfbERFDyYcXM51vBq_Og6faDkpxQoNQeRvauN_CpHnHST8msJKqa4TGix64XgxtbCPqizBR_tWh29rH4orlnZHDCTINKo_bi62szdE0KeIFArHFi5DH-2Rz8m24Tp1iyGnpFJaN_njd_NDYr_YVflI3ORGQ4vx3E7pJmXbi3BiOCq-E00DSYGc3MFjbCVgcKyoYZcLVl0ylK5nh7y_Ap4ImGHvoW4ln4_X_MtRzAPdrMRfm4z9TnflgB6SDpQK6UeHmBy3pMFBL_5CyCGT2cCO228XUdtcu3Q/p.jpeg" xr:uid="{CD3269C7-B2AC-4244-A2BE-F357D6C6DE98}"/>
+    <hyperlink ref="X86" r:id="rId135" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AADoMJzwzl979lGkcl1COGZ3a/IMAGENS-PEIXES-COMP/Pinirampus%20pirinampu.JPG?dl=0" xr:uid="{A0F3F175-FC71-4E30-9DCC-D5411C9F7AA4}"/>
+    <hyperlink ref="X31" r:id="rId136" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AACfNh7tCn1JZmXGEQcLoqRAa/IMAGENS-PEIXES-COMP/Plagioscion%20squamosissimus.JPG?dl=0" xr:uid="{FF2229E2-62B8-4D7D-A056-CA7B3638BC7A}"/>
+    <hyperlink ref="X87" r:id="rId137" display="https://uc6a7f6d61704af646220a94c25d.previews.dropboxusercontent.com/p/thumb/ABf3fkui5s0_S1XaBvQfVe_E1u_J9qp6ZlMWz058X7_VDwSA88SJyAYC081auiyrwaj0gxxAUr4S2frk4YexWcXo0bIs84FB7y-95IDtzenq15fHVAOXk8iv3Fij7cSZ1owFHvu0cVsCJiVpFiocJhF4-jVsC_MqhW8IPF1vJuKunphcvVUXEE9RdYcw4rdTQNlMY73VSufhNuRePtKXkMb2c1CC0W-GuUIJiELuHUDHrD5FtCEctmbh3BeAY6iH6IWQaCaeKev7xarKIF6-yNvngYitqnzyTLAx03_o3IJGb7bIjEHCrKfgU5MsK9px5u7rokSZc3T9XFwEEB-QM7WNMWSzS7GjBLdkcLw74if9iw/p.jpeg" xr:uid="{B535B463-18A2-46D8-BE92-622DA1F494B0}"/>
+    <hyperlink ref="X88" r:id="rId138" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AAAcbuE7Wu4XjnSXPja0xuDGa/IMAGENS-PEIXES-COMP/Platydoras%20costatus.JPG?dl=0" xr:uid="{D3CA15E6-021D-4DA1-B033-41444559392B}"/>
+    <hyperlink ref="X30" r:id="rId139" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AACy6WMl-PXOK-C5lJwnd4e_a/IMAGENS-PEIXES-COMP/Platynematichthys%20notatus.jpg?dl=0" xr:uid="{EFDD7221-BFC2-4BE0-924F-60CBC4120A45}"/>
+    <hyperlink ref="X89" r:id="rId140" display="https://uce16851f311c50ac1fa50f1b774.previews.dropboxusercontent.com/p/thumb/ABcRoVsQmKSF4t7m83oQ1cm1cAky01t_7NUtSIfLZ2vroQS22ZBeDmsxBiFMkDvLTav6TKSFmAmYN_2-5s6qVhXV0i5Ql7BEUSKGP5MnK8oqVIOXB2fs5p25JWQlRMvf4N3KzGA2b9YH52vV6KdEDqybuv60lxL8fsD6v7jH5qe1sc9n1VK35Cv4OOY4ndaNJ3m5GDgfJVDt5iRC8hV2_K_Rq3MIyVYV1VuQVXUzNnwCpiiBBsUGliwNP0hdAbdCJ142Ceib_XxZnDaahrnpq5u9MqLUt648ICskQQetXqtba46eCibSUcEh2tUyxtzdLW5U77LxcpDRRzlzlB1M955oJYKZ_1DwRNJgV4TrxW7KGQ/p.jpeg" xr:uid="{BBBA7358-AA89-4A72-B875-0572C5D775E8}"/>
+    <hyperlink ref="X90" r:id="rId141" display="https://uc751271b4062061414791311d1c.previews.dropboxusercontent.com/p/thumb/ABeRhVGqzu4v5qEMChilHwN6xhhEkNltwOZSPRfZQPkGwwrPTR7G6KuAU312horrszln5XwUd-Sk3fIwdH0B6W8SuoW3Ht8D2GIF3sUKGwmV1-01ezRCE3wzD6wkqcqGc9AwYtiAqGqt7n8AKk4csY785Fw0rdgtZzG4NSIQ-68IEvO5A2Jqnjl42yEGk0KtHoX4tdJFxJurS5RJgLreeQZh2zcv75MIbdGl8PJVECYTuht8LKkAbxn_hYvkzxKxg8E7eR7_wwabTWsN_PAR-BHbOoPdAl2hRJXxIPG4oduTtu6iaofHJikXFSy_QjP_g50_Cb-jluxzQEDRplQH2gGB4Kk8Mwf37mP2bW3j1A-soA/p.jpeg" xr:uid="{922248DA-4E5D-4C58-BF2B-A7938E6D3E41}"/>
+    <hyperlink ref="X27" r:id="rId142" display="https://uc75f31e86b454d72f82cba7683c.previews.dropboxusercontent.com/p/thumb/ABc0RaqO871tXdqXKLsWljqRprtTavD2-2NVZg8bFGotrIEsOWZt-rraU76TnifjoRIcylbmA25Rc5HQkOJXdCisdL4RIkKjdX1W6QUvHtF87INNdKYUZqJ7PH0zR4mnx7w__qPv5820BvLNEM9gHBNFduEn-z3DTAE4R8S4mfNh3yhfReo-S5rT67T5gbPg6EcSsskZAO9-m80iWtuHsW6q8HgRKJw_xI-cAvfLmEDbs2nBsT8bBITbNwJNgOQGHn0xe7-fi14PB39Tzm0dc_uLdSeCGPMv8uHYe57s6TXiCdPyh0uuRnYwE85eIlV9WOpsiXr03wprsJh1NdUWgf2sO6sRGkKnhFprASSDxSi_MA/p.jpeg" xr:uid="{8ABE310F-4860-41C9-B602-CC4D58016DB3}"/>
+    <hyperlink ref="X26" r:id="rId143" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AABbLiTuIFay_XaYb-O1qprSa/IMAGENS-PEIXES-COMP/Potamorrhapis%20guianensis.JPG?dl=0" xr:uid="{EA36E9BC-84CE-4022-9BAA-0BB9B733B910}"/>
+    <hyperlink ref="X25" r:id="rId144" display="https://uc6977c3ed016ff579d8311194ad.previews.dropboxusercontent.com/p/thumb/ABdunapR_jgeuGSIfiWOKm9rYjHmj45zeY-1AJfGnVF_1LzjScsItgC1P59HxkojDFShpfqWV4220bsisPbkUFQskr98hmmFCp5f01dy6i_zZD-9AQ1U_xiiSJOh3yfHxZluebN8tbh-7zSGg-k2pSjlqC9QO0Yr0mUhUnAwkqyWv5jOo2ugFFV2R3fyx9MqMJXQSezV-ofDQUOyrxMaUbbPh-U4QagDLVD9bCcYsMSz0czClKhqq_xeWATIPVzYp8TU7j7tGm9o_UEfHARFJVJFQgiLmQkqH2xSBig6C6msd4GEshM6Zad50vfir5kGYaFpODUPCZSI7Y-daEdwGm1IZ9Mv3SPVR14kLh-nDf36Bw/p.jpeg" xr:uid="{59E4835F-9ADA-40BA-B20D-F0F844E38966}"/>
+    <hyperlink ref="X92" r:id="rId145" display="https://uc74569af4136e861368869398ae.previews.dropboxusercontent.com/p/thumb/ABdvuTDyCkYo4YKGPnn-_Xv6O_v7HCXexNeN00sjSBAzFMtOgS2FtyQPzTfdTTjDv_IBma3T-eUWYa2m7B_LvZeUEYP38RU2WWhEaXBZEPu0kA7exkiTU89__4MeDinIy7Fsnp_onmsgA73-4az1cJpu4ON_lnc9dl176_L4QEFioE8zIMk032S6aUFRIzmsrLL0woD9U3VTvhx-KEUoxqGZiEdw4BO4TLRrVHupD8Iqwd99vOGQ4RqREweCk_VJBXpxfx7x4JkDvo-WLFM7pwOPg_XagcxxBsdBniKsavFyw_OMqYEir1cXYvCqaC4VN0vKSQi_9_RFcwjm4nXa9HLuTnLsWpkOHYQ2E78tchQSxg/p.jpeg" xr:uid="{426769A4-A083-4B29-BA26-311340951C1C}"/>
+    <hyperlink ref="X24" r:id="rId146" display="https://ucd73935300d08e26010bc71a199.previews.dropboxusercontent.com/p/thumb/ABdZWOmShlGbIB2ExpJHcMAN434foPVBYDgB_I9KSsqTNnUdVYX48mlu9wD0H_1cRS8Tx_b5fxJzdADrp8qT5YxH7MedgcgbbPgqIqKC0xwuCRvWltPKJ0f4yJOx1ozGLIu8lW5IMg8WOrmfi0tJgUW9Dxd_pV-XJ8TtZWnRLAPt6UXcTZtab-kXCaCMtkb9u4ZMGZPLPBq0nQMM_Q3-1A9Dh6SOr9QxmUgH_icWeoJHdDNPZTqU81d0A7xfYKSJ1Ybr_tWHHZ5uq64HewwSDxx0UnK7msjOPHjRSX0P1vxMjF_fpW62KlFy4k21QWy56k67WCKQ1Vz2t8jNUrAE97nTZyS3oKW1RJdau45w8GyPdg/p.jpeg" xr:uid="{7BA7ECD9-D8E5-49C0-A323-278ED557DCAB}"/>
+    <hyperlink ref="X23" r:id="rId147" display="https://uc1d5494ef47f71c66f613d3fc72.previews.dropboxusercontent.com/p/thumb/ABeseledRBrvJZ41_WBcfyfrTr-dO7i9U_Qj2sk3S749hjlgdQSsKAdUgvoJp93-I7S0g8Ou1M2Q4D821NZzzguexUltuc4iQpkZM1q1I1YU_XwZoUftQHNbuY1yHsqZlyxHUkzWcddCWJ0BzVgEbcNRplaYpXs8G3ryquWxudOVAVlO8xAkG-BsYOu70ldjKNmu8csRRL2n8LYoJVk4KrDxHMVkPLKVm-5l79diZ55vhf8wCKod7xMKBoku7flRd1rl0RFYl9iiPNuo-YnHTI42QMWd5RXMYvDOiRPLBsU7YTyD5NfTrTYH7i4yAQ2uq4wGQluChyiZX3LN_VbKAgDjcNA9RqSQ-nnH0r9YqIKruw/p.jpeg" xr:uid="{AFB414F9-9F3D-4E4B-ABBA-0CCE4FFC40D2}"/>
+    <hyperlink ref="X22" r:id="rId148" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AADcBEMuZ477MtbZrHaGm4Pla/IMAGENS-PEIXES-COMP/Prochilodus%20nigricans.JPG?dl=0" xr:uid="{4939AE6F-B99D-4C2C-8A12-847007F2AF69}"/>
+    <hyperlink ref="X21" r:id="rId149" display="https://ucd616a464a6594f237a9f07a731.previews.dropboxusercontent.com/p/thumb/ABfS-RTkMXLDpEuQiyo3CmAWabnTJ8IDH6FQL56b0yAd6r9eljvmq-QkTKfNT7MsIJE0IbML8N4549ojIrS6E2zzJ18t9mrUtVgbcLllhlprxefk5_iuFUOikyaD26c1MwnDVjmDrm3OyqWcLsG-2L1L_F192kh5C_IJcWKpH-c1UHq6yYmth-ZoJXdJrG3OyzCG7ut0SVOPY0g99hf3ION1r7Wx1vzbzx76cWFB0BVxxicwmFoIPZS50X6DV4F8RBcqLso0b-8s9maubzLfNSZxN0XT2wt4ExIfotqxVebDYt1uY5W1euPQ7ime7teWHrgr4Dz4suhveRSHTfTZFgjbMwckIWw2wY5t385ETyC8dQ/p.jpeg" xr:uid="{D290E12D-B189-49B5-8A0F-987CD74C4E4E}"/>
+    <hyperlink ref="X96" r:id="rId150" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AACNL0_62R878dYkHK_SZptda/IMAGENS-PEIXES-COMP/Psectrogaster%20amazonica.JPG?dl=0" xr:uid="{B413D5D4-C253-4D1A-B1C4-C162C3694503}"/>
+    <hyperlink ref="X20" r:id="rId151" display="https://uc250fc6e8d86604912444474d4b.previews.dropboxusercontent.com/p/thumb/ABf_H3uxQ_yIYMPHjQ3fTimREoM6oFbGpZ4LqBfvtIRsGFHFvo3XohCKHXatEqr7S4awYXgc76IkV0Dm--eSDnVUnYswQJbrNH3QYaY4oTFgn-9tvydKcX5tL_28GsnwBlnh1TivEx5lgbGRb-gkvM2yMVaGLh13ye1hAJt2VvWWZbjO-v_7rOS8EX8gDa7stpjUb-Q3NJ9EOaBnkB-Sc6_UQai7hkHdIFs_RMvxwHENCSKTUPYw0zyAafgZzJj_BMY1weyYcZiwKTJj8Dk-536iW9lX5k6uZ7DL_QqpzrkmjS7ml2NIRh65cuGdBfaLdJ64AtCnAkf75u69vus2yI8TH6wvHsxBwt9ErlCRwZGSIw/p.jpeg" xr:uid="{71C26637-0E1B-4477-868D-EA3BE1B31523}"/>
+    <hyperlink ref="X97" r:id="rId152" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AAD9ZDjhfNB6V6gWvFcmiFcua/IMAGENS-PEIXES-COMP/Pseudoplatystoma%20fasciatum.JPG?dl=0" xr:uid="{AEB9A314-B25E-4573-8AB5-47F18CDFDC25}"/>
+    <hyperlink ref="X19" r:id="rId153" display="https://ucc1d5a0267188ad93b6605edb38.previews.dropboxusercontent.com/p/thumb/ABfb-ZYnMfF-s53vrrCQq6i183kuyq1VABhv76BKZYLlifjBPTsVEhwlkQ4if6fQEFm7LlEMa0nRsGn6YiQXMthwXjtB0o6mgYsvwt-RW3P1QFq2ljFVrp9bVHCGrV8mFmbD59hHHGoVcYIi2Zs8CnfbShqFWZQIZylJEWNQN2uLuWks9hxt755QpcQvVOsiMdU0RizL-lBRcTcr3wZrh5LDKjxc-ZgAxVkK5weUzQlgJIXM8LxbXs1D6vcza5vsdjhr-hptAGvog5HBBakJGFMfF3Y8DR_njEtZwUEXD8-HRYfOGlbnHfXCsSh6QuNP0gzcV-usBAw6ZnQlqt8ImDpkkfgCoR2sSnyF_3P9MPoNXg/p.jpeg" xr:uid="{90CA64C1-879B-448F-BF70-5A46177A0D5B}"/>
+    <hyperlink ref="X98" r:id="rId154" display="https://ucd187babd43fe7c28e9235a67b9.previews.dropboxusercontent.com/p/thumb/ABe34vCh_f58sS8Vz8-3yvcycbrjCyDN7UluV_8iGAJpggYsnc7PC0Ey1vlUIRHa3g_4EJI9gFOSjrkJt02WIDygGvHUYvR2QEbjPZFXiKM59QxO-2qVXxSAMeCxXi6wupNHrPU7C4poKLXVL1kxHHpYEEq8NfojWbhRyPtCBmaMCRkFxyDNrpAkzC11PwM6fQJiq0newbIRmoA53DxCbfMEwzlzs1nVYZzKEy0BRPQ8vXPZNcSo2FT7s81IO1KOMhP7k9xFEQqAKpB12W7T4unLg7GvjJkYe0dP6_-lbj1dQy7gX3w1BwsQq_WY57dcZsmqQvUTmv0KlEnFIrGVBGs2CUOgxKgaiWZUGf0e44yrxQ/p.jpeg" xr:uid="{854191AF-FE32-48AE-BD50-64ED23667272}"/>
+    <hyperlink ref="X18" r:id="rId155" display="https://uc5c780ec2e2e0b053f5c54f32e8.previews.dropboxusercontent.com/p/thumb/ABevpHe-YasrylWvbXfbqHD2QdKuOf8bBZlggGggp0PfGA8ZkpgAUB523tNMJYZPHwvQvgeDIVQDDC5l-115Ww-SWNcGFCasKTFvCEQ8_EeofwJu5lrwFeDoSXwyfPu2CBP4mGMfKBqiedXpq8rzrs7t_nfWkP7ar4EEP3Hb6R_knKmJtMJVC_qZEIf7ToaNI057HpBkIhX8Jkrt2-RkNQVc6co1NvJYtBO-AC3MfwdSifHI0J7E1CsNXVuJTCCwBAqrbYFWjncK9ydvoP_sZRzz4H-dxWRo52qSxG3KPDmeQrcYCuPklw9niYBggvDZ6u-JdyxCV9cTh-4BnFnIuL1dcSxmHxzHbZyAAmfKIsLHbA/p.jpeg" xr:uid="{5D8A26EC-70BC-497E-AD73-A8FC19F43673}"/>
+    <hyperlink ref="X17" r:id="rId156" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AAC6F3IwgPnSC65H90tdGsCOa/IMAGENS-PEIXES-COMP/Pterygoplichthys%20joselimaianus.JPG?dl=0" xr:uid="{E2575198-CE4A-4577-A49E-67197A01369E}"/>
+    <hyperlink ref="X16" r:id="rId157" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AADWsSa9ePO4Cu_WQJkzTn-2a/IMAGENS-PEIXES-COMP/Pygocentrus%20nattereri.JPG?dl=0" xr:uid="{A7C8692E-8BAF-4E0C-9268-3A3EAF7BFC7A}"/>
+    <hyperlink ref="X100" r:id="rId158" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AACz1lvaNE4ola6s5HDBk3kOa/IMAGENS-PEIXES-COMP/Rhaphiodon%20vulpinus.JPG?dl=0" xr:uid="{945936CE-5F98-440A-9604-0F2B07B1E75B}"/>
+    <hyperlink ref="X101" r:id="rId159" display="https://ucf3e33395a32b6217232a9a7944.previews.dropboxusercontent.com/p/thumb/ABeBijHW6Qbw-QtUrfrjaEsE1l9YMHcNsIKe6RkkmBXrsv9CB8c2EQFY3ZgHT-_l_zGjRj0Jew_7BAVh7cWIgFPgFl6XRxzgGzeusQi1j7yV8zFxTbeNMmm39NLKf2003ZKHnww0QmhSrfMlWB32zAScZtQ8xwk1BLTw8SGtfiFELkukjj5acZ04MV3XHEHp0QgpTudnwWTMaqJDRLRBn9LHLHZ8JyzWkfWxkxnSKGO7aoRzBUd7FqU5-1xh5MKtmhNPoTsfrWVfMeVgopeUt0FEsZD4_3MnnAhbNkmb9uXquMKJStR7DmTpN16WCjS6KxAh-V5Y7MwjYu7Z-15NDKUL5lXNt9jcBzEPx4j9PpDXvQ/p.jpeg" xr:uid="{7AF2FEA6-E9ED-4FDC-A467-81829842F2F5}"/>
+    <hyperlink ref="X102" r:id="rId160" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AADq0APo6MtUrzQ6Bn34YGTVa/IMAGENS-PEIXES-COMP/Rhamdia%20quelen.JPG?dl=0" xr:uid="{BB2F231A-E303-4F9B-A31B-3D227AB3A4B1}"/>
+    <hyperlink ref="X15" r:id="rId161" display="https://uc7d2a566b168a081c5f59209275.previews.dropboxusercontent.com/p/thumb/ABdImVbDJbUWRVTbGc0ahLmY6RyWc3riKJtKWwQ4gQUENWjI8tHtnEM2_LYqoferLVPYenRz9IO28ybNAVPI_q2is8IU22MP73LyuRITe42zCizo1ExtZMamoTbJcc6u-TTyNjcv_JWUCX7HtR1SfdDsX_NsHA4CbyYDpnkRh3A5Ac5giVxvtri0lgzKcxoiCaV5viOph64Li9nCnereEm-1TfQmviVxftL4Jrm8-2A228v2bfWjcBCTRabFhxueejOy2PX8ZeY6o4qiOYWZW8Je71v_JRaPW3k_PiHDBPByYArLcQYsQ0MSjGiLl6BYtakb-jV4fYFHRE5vy6wgJXflRtzZTNdQF0L4OtPHzu4odg/p.jpeg" xr:uid="{303FA126-F1DF-42C2-8EC7-FDFC50B603E2}"/>
+    <hyperlink ref="X103" r:id="rId162" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AAD64t33d_lYTf0Ot0d1Gyv9a/IMAGENS-PEIXES-COMP/Salminus%20hilarii.jpg?dl=0" xr:uid="{EB34AD35-6219-4DB3-ADBB-3A947D534104}"/>
+    <hyperlink ref="X12" r:id="rId163" display="https://ucdd929105e65bb62e940132c869.previews.dropboxusercontent.com/p/thumb/ABcAJCZ4qO58Cn4FI4uVF-dY7Wv6nOhlujnuSimdCYw6xpRk4wHeRlrcyjsRyk_qfgPo3VB0zQ4hWxRWORiO5LZ_c71wgHHT9TaCMpw6TH0AUJrlLV0OWS0uXSGqv2Y-c0wkOQTB7fhx275nabeFmfuNmhdXSrGOBf3uokRYEfdSdJNdxhBeAjerxFbgurTUCg3QhXRSihfOMQ2CMR-nbKUcRwqSFhzH31h39vt8OsB1uAyCXRGEqBToTk777YJOOxRYzNTHzxA7zEMtBHcHr_HbYJzBOUEUGXp3YSyn7XzMhtdJVdfY2O6p_RBuAD9RF7FRbqppy5-heIY8BvtPWdOW4Uy4WLHNFKl5hg-19NfjSQ/p.jpeg" xr:uid="{46326706-0F5D-4996-9052-906068027EC3}"/>
+    <hyperlink ref="X104" r:id="rId164" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AAC2EQYX64NdzWNCuWAuDrcVa/IMAGENS-PEIXES-COMP/Schizodon%20vittatus.JPG?dl=0" xr:uid="{CEBA506A-FC74-4470-A4FB-B072FD075286}"/>
+    <hyperlink ref="X11" r:id="rId165" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AAClkk-O0h17qx0oWtn-CTwXa/IMAGENS-PEIXES-COMP/Serrasalmus%20eigenmanni.JPG?dl=0" xr:uid="{85AAA7DA-F4C2-4B7E-A8F6-CE662C850965}"/>
+    <hyperlink ref="X105" r:id="rId166" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AAC9sHLOxqvoEZIvRND0hhZ3a/IMAGENS-PEIXES-COMP/Serrasalmus%20rhombeus.JPG?dl=0" xr:uid="{591CE47B-A975-4979-B4FC-6201B5FE58A6}"/>
+    <hyperlink ref="X107" r:id="rId167" display="https://uc432a2d3a87f646126e7e559734.previews.dropboxusercontent.com/p/thumb/ABeAKhH759fgcLcM1YhOZev6vGaXoLSqZ9F2eI2SnZJnXWXno3b4FnDMTGz45cUaO8GO4hWZ2OQp3WZ-dZ8WBecpMXV7aSZZXFVRAixuMQlLbOuP-lgYCli96RKboClEBlLr8q3_6K1MMAJx9AM6kgQlrf6-r5q6hJCem1Xc57Vfgj6lugiWsyn9vJWZI8VZmqq56zgJ-eOwYAY9rFmTrQmCLFeMfWkivsdXCDQ3E-GdjyM4XaFmLNoiFLsS8kSZ-t5Ud-Q5xz8Kky5QFnn-nNsc-SjLPhpSrJRBU_wnv5MeSAqgXc2XQRRLnIXF93AnwqEUmMqEH1id3m9PgPv7zGIW_GiCo-1UldVX3eNIYNSMMQ/p.jpeg" xr:uid="{1B322C1A-F3D5-4BC2-83A5-E2CDED3F6255}"/>
+    <hyperlink ref="X108" r:id="rId168" display="https://uc40c8d29fe83cb66b38f1541ebd.previews.dropboxusercontent.com/p/thumb/ABdRNh_wbTQsHEWD5P3NhqBbuvPq-4_JCUxtKUCM0_PnD0mo2NtrErqu2xONwfwqXOAymjDYokYx4AJkvqsm9FWD2Sj4X9S-KPmlm_0YVmRErL53xYtUBX7EBHwqlUpPUqx1Wco9T1l8N9_QvJ5oLIsthJzH7MhZZSBqEO5P1w3KIyWBa89aUpvfpNLcCEA5NeplZZCxDBBpJySF9h2B_kLKmnmlsf3Km71Moz2MaYDPT6p7DPfSnPO7wMWvsYm7VeHga6aeNylLGShKa-L4MlE2_44QIx14kR6IskK7k8PlP1TdZVXJ9Euw3-cP_JIBQfLEf1-2-woWvcOGLssidOLQZ4I5BOaptVd-ZETiHRGkvw/p.jpeg" xr:uid="{400C0A23-5984-4B13-BF17-1868844256F4}"/>
+    <hyperlink ref="X10" r:id="rId169" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AABdJLNMq8Nqbbga9VjZfaSUa/IMAGENS-PEIXES-COMP/Sorubim%20lima.JPG?dl=0" xr:uid="{7C724629-404D-4287-80E7-81C7A7712C90}"/>
+    <hyperlink ref="X9" r:id="rId170" display="https://ucca13d3fc2d289a990c6ddfd5cd.previews.dropboxusercontent.com/p/thumb/ABfi7FNUmPH4-pLgQKzubFvemu8FAciqcWnIu5943mQDtP-fiz1fCJ_1kqLmNDhNlWAXVx-pUHMw9HMIXTpwAj3ITqX4wLo4Nku5RrmwLwTOgGD5cMcewd8sPMqxegbRh9eKnth717gB-1XGNn40VDeI8LUcxb9ACy2FLFeYZ7QDzoJ6f_mVFMk5GW-9XxpCaYrS0DvCbHMiLX2FjdHkRE-KR454xGhyLVycSN9uKq6bq-eUNzCHMpVI70DpeLhrSKP7yPPwG7VSL1IiUHgEruALH_upE06jZCvpUMuYmk3O_-WLj0SHOQnaYdjkd_r9DVeBvqy6jbUDtNMOaQlfyBP2JoN3AKP8NwkOv-CdlJ9mlw/p.jpeg" xr:uid="{C631BAFC-D5D3-4151-9408-CBCB7A762E56}"/>
+    <hyperlink ref="X109" r:id="rId171" display="https://uceebfd71d7a1f827c59f1c92bae.previews.dropboxusercontent.com/p/thumb/ABfZY0VSL7dxdJe-UnkQ2Xzs6aCrDfYuvtO4twDDG-v6i95pM-dcIiUzb5Rc9wA5ObGksLpdS8x-9MgOjRp6KnsgWnwUsEOeBykMxn5YUI_ry4mz9qaA0jaYOYV-hb_d9jD5AU0RLCuOadypH1D4ZBEXlvVeSw5XMv6TkpA-WdZatVeBljd1rFNwqCBeOz6-ZilbBhG86Z6HGo9fBKscSw3CYZJ2qPCjmXTcoHIVK5zmwWXY15u59aqM_RPL0KrCdZDgz2GePIm6M_nqf42GfKNzgeac83GFDPxzkV075L2XW3ufNT3SDwpE47IlgyIfqUS2QEBIghHy45XPmbBBKVB4qHzoKrwNXqKptHmrA-SsCA/p.jpeg" xr:uid="{10CC5C7D-41D9-45FF-955C-0AC9DE5160D2}"/>
+    <hyperlink ref="X8" r:id="rId172" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AABmepXnrKV7MWeYHXOu6Geja/IMAGENS-PEIXES-COMP/Sorubimichthys%20planiceps.JPG?dl=0" xr:uid="{FE2650F0-E061-40D0-9109-8350D6A0BB13}"/>
+    <hyperlink ref="X7" r:id="rId173" display="https://uca26f2e845fdce598edda8f3836.previews.dropboxusercontent.com/p/thumb/ABfpF2tMyacvMWIaeb7qScVuGdINudWdm8UGxJV33Im07dPmNiZxPkotylArmQgILBHqVbCbkqZx6rK7SzidK24T2mN1TFLfgmQuyovs6SmldSgVcWT1AXYZU8X9pDQ3JnAo5OViAQby8ARz8h4-Y-QaRBbS7t9WmJ_oSctd2SQvSPJXby5o1rMhB2UCfOvpPfLJvvIlyqDXFQiQmMZKL2SU1AL59nJg7bey_MK81c-BnRtlMO-6d7zSf9coD_Lz5s2drfFy6EELzPF_MR8JIecgGQEA5ibTZGNpV5bXOX-wYfncoTC4hUtKkHsMmPs5TddVVg14B8TkxicX5YMbZz2KQgvxoLiopyVjtJjEWifQAA/p.jpeg" xr:uid="{6B2861E5-C6CA-4784-89E7-E7358934C3FC}"/>
+    <hyperlink ref="X110" r:id="rId174" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AADbgGlZQyvj0KdS8BGwRJ1ra/IMAGENS-PEIXES-COMP/Tetragonopterus%20argenteus.JPG?dl=0" xr:uid="{F5B7D08C-3A0F-416A-B4B8-71A78562227E}"/>
+    <hyperlink ref="X5" r:id="rId175" display="https://uc61755ebe615e0501827b7b4316.previews.dropboxusercontent.com/p/thumb/ABdxfK-zbBKI-lpRYmI4KDQR1C06gVM7VHmf8v2qYqOzt-eXfi9X7UICTK0Wp6d-4sqfjGdvskuXfnk323EYW32BcLmZc7b8Szz6dA2CqG6sccO65jlrqTPzZT0XH5xnT4RFBhr2_9fHLU2f3CAsyGc_qDOD6g_WBJeGt8uSLvwi2Qi9Un_6Jt1igETbZtfPqUyJ0E_buE_KbaMWRCJLv2RRm_TWyeijP3zoUiV2WNDyXTBRCkMCsIAsRlGq0H9mM_jYDCfq_pde0ISNWs4tidzl7u-jxIYeBEbb9Cx6tN_d5aLU8zY3-v68pxUPl4c6tvf3oj0AW7geHQmVdUNEGQL1krpjSkKWQDfHKKolyiljyA/p.jpeg" xr:uid="{1F46D7A0-BB7E-4307-B106-6D4D276F6E37}"/>
+    <hyperlink ref="X113" r:id="rId176" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AADnlkGtA7fiF7o81dZslO3Pa/IMAGENS-PEIXES-COMP/Trachelyopterus%20galeatus.JPG?dl=0" xr:uid="{68F85D91-6D62-430D-8401-E2BB84530393}"/>
+    <hyperlink ref="X4" r:id="rId177" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AAA_KSDc8TQ9IhRf6LLb7L7da/IMAGENS-PEIXES-COMP/Triportheus%20albus.JPG?dl=0" xr:uid="{484B2330-F5DE-4B82-A7CB-262E1A22E7C4}"/>
+    <hyperlink ref="X114" r:id="rId178" display="https://uc82d8c29f83a204c0a7115a8834.previews.dropboxusercontent.com/p/thumb/ABfN9na-oAGv9_PJvTPk8Q8qDHQdMvFAeS1iKw4xAzeWAHT8o6gbKFYZuF2-kZOPKKiHIwAMZnUKeOvmGrv0foN0CaJ1CjKwd447HAWorClMxRNBuecQUnw7QTuKFxaixJIXxiTLfAUFkOL7G63zQeISg6GS76ipIPNHeUNJtz1S-0aODpgzHnoH3mhbfGy7EwPF3hFpnPC0WMJpVhbu8dPDGGBUziesxoi9jM0x9OCIDHgJHUM7Y4q2p3iT7vF9sXsQqIJQwHxizCxACKJuhZeTEdCBEld65um8fU2Y7WXftjT4CzBUPtbw_6bAfbMhELJjkeUeyUc8q5dznKW22fn-8617XKWdGja4eqqBidLHIQ/p.jpeg" xr:uid="{C5936592-1F87-4CE0-A332-586A4BB4836B}"/>
+    <hyperlink ref="X115" r:id="rId179" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AAAQGRq3z7ED4QDaq6H6y3vga/IMAGENS-PEIXES-COMP/Triportheus%20trifurcatus.JPG?dl=0" xr:uid="{E8EC5ED6-3BC2-4A03-8BC1-9E6FD37A161C}"/>
+    <hyperlink ref="X116" r:id="rId180" display="https://uc9fb217afc3ccedf0d41cf1f6cc.previews.dropboxusercontent.com/p/thumb/ABfJXIrK4k0RS2GkMLqDfH3fqqBfL5giyDe6lizIxQjjhI44_EFL_zycbJoxReDgPjQCWsluK-ddoytH2mQdLArSbj-q-bhbYYw5-mN9QyUCewPlA3ZMXOgj_XMjrvdybG_L-IJ_DiKgE2oUt6U0MaFrx_ta4BdN9MjotYN87JpPUqoGNLDpPO9O3qU0K7Ldn97bAAFJgfHGMyTdapNZZIVIcwG2aJ4M0nudgAUpJIh_qKemhX7rdll92dXsd72V09BdqqY7pGr1tMCwjADs0R8f48D9R5xQwSsbIg4KwwE-yZdrjQCKLPMco6Q6QcEOztRUn6bvgybuq9HdyQMNZXBdI5ybB6rXlTaPd5qb3NW-CQ/p.jpeg" xr:uid="{120D1B07-1AE6-4B33-A565-411EF6FFFEDD}"/>
+    <hyperlink ref="X117" r:id="rId181" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AABZndaVIQjC6xaMcxRajZ9pa/IMAGENS-PEIXES-COMP/Leporellus%20vittatus.JPG?dl=0" xr:uid="{12F27B92-1785-46DF-A951-61D1895A0DAD}"/>
+    <hyperlink ref="X119" r:id="rId182" xr:uid="{CF14BFB0-1DC8-4DDA-8BF8-EAAF17AB1915}"/>
+    <hyperlink ref="X3" r:id="rId183" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AAA7NxFhV1XWPolav1l8Ra9Xa/IMAGENS-PEIXES-COMP/Zungaro%20zungaro.JPG?dl=0" xr:uid="{D02298C0-5E8F-44FF-A63F-4BB90D67AFD2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -6984,7 +7253,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/src/utils/seed/planilha-dados.xlsx
+++ b/src/utils/seed/planilha-dados.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucasfellipe/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5A0A6581-A0B0-4A25-BAD3-1301EA5E44C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4BE4BA00-12AC-4450-B03C-B177BFD849C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="36960" yWindow="3120" windowWidth="33600" windowHeight="19080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,6 +28,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1542" uniqueCount="486">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1538" uniqueCount="487">
   <si>
     <t>Grande Grupo</t>
   </si>
@@ -85,6 +86,9 @@
     <t>Foto</t>
   </si>
   <si>
+    <t>https://i.imgur.com/K01uWFd.jpg</t>
+  </si>
+  <si>
     <t>Peixes com escamas</t>
   </si>
   <si>
@@ -109,7 +113,7 @@
     <t>Não</t>
   </si>
   <si>
-    <t>https://uc9fb217afc3ccedf0d41cf1f6cc.previews.dropboxusercontent.com/p/thumb/ABfJXIrK4k0RS2GkMLqDfH3fqqBfL5giyDe6lizIxQjjhI44_EFL_zycbJoxReDgPjQCWsluK-ddoytH2mQdLArSbj-q-bhbYYw5-mN9QyUCewPlA3ZMXOgj_XMjrvdybG_L-IJ_DiKgE2oUt6U0MaFrx_ta4BdN9MjotYN87JpPUqoGNLDpPO9O3qU0K7Ldn97bAAFJgfHGMyTdapNZZIVIcwG2aJ4M0nudgAUpJIh_qKemhX7rdll92dXsd72V09BdqqY7pGr1tMCwjADs0R8f48D9R5xQwSsbIg4KwwE-yZdrjQCKLPMco6Q6QcEOztRUn6bvgybuq9HdyQMNZXBdI5ybB6rXlTaPd5qb3NW-CQ/p.jpeg</t>
+    <t>https://i.imgur.com/o3JYs13.jpg</t>
   </si>
   <si>
     <t>Acestrorhynchus microlepis</t>
@@ -118,7 +122,7 @@
     <t>0.23</t>
   </si>
   <si>
-    <t>https://uc82d8c29f83a204c0a7115a8834.previews.dropboxusercontent.com/p/thumb/ABfN9na-oAGv9_PJvTPk8Q8qDHQdMvFAeS1iKw4xAzeWAHT8o6gbKFYZuF2-kZOPKKiHIwAMZnUKeOvmGrv0foN0CaJ1CjKwd447HAWorClMxRNBuecQUnw7QTuKFxaixJIXxiTLfAUFkOL7G63zQeISg6GS76ipIPNHeUNJtz1S-0aODpgzHnoH3mhbfGy7EwPF3hFpnPC0WMJpVhbu8dPDGGBUziesxoi9jM0x9OCIDHgJHUM7Y4q2p3iT7vF9sXsQqIJQwHxizCxACKJuhZeTEdCBEld65um8fU2Y7WXftjT4CzBUPtbw_6bAfbMhELJjkeUeyUc8q5dznKW22fn-8617XKWdGja4eqqBidLHIQ/p.jpeg</t>
+    <t>https://i.imgur.com/vvkM5dR.jpg</t>
   </si>
   <si>
     <t>Peixes de couro</t>
@@ -148,7 +152,7 @@
     <t>Sim</t>
   </si>
   <si>
-    <t>https://uc61755ebe615e0501827b7b4316.previews.dropboxusercontent.com/p/thumb/ABdxfK-zbBKI-lpRYmI4KDQR1C06gVM7VHmf8v2qYqOzt-eXfi9X7UICTK0Wp6d-4sqfjGdvskuXfnk323EYW32BcLmZc7b8Szz6dA2CqG6sccO65jlrqTPzZT0XH5xnT4RFBhr2_9fHLU2f3CAsyGc_qDOD6g_WBJeGt8uSLvwi2Qi9Un_6Jt1igETbZtfPqUyJ0E_buE_KbaMWRCJLv2RRm_TWyeijP3zoUiV2WNDyXTBRCkMCsIAsRlGq0H9mM_jYDCfq_pde0ISNWs4tidzl7u-jxIYeBEbb9Cx6tN_d5aLU8zY3-v68pxUPl4c6tvf3oj0AW7geHQmVdUNEGQL1krpjSkKWQDfHKKolyiljyA/p.jpeg</t>
+    <t>https://i.imgur.com/GCbaxaU.jpg</t>
   </si>
   <si>
     <t>Fidalgo, Mandubé-de-ferrão</t>
@@ -157,9 +161,6 @@
     <t>Ageneiosus ucayalensis</t>
   </si>
   <si>
-    <t>https://uca26f2e845fdce598edda8f3836.previews.dropboxusercontent.com/p/thumb/ABfpF2tMyacvMWIaeb7qScVuGdINudWdm8UGxJV33Im07dPmNiZxPkotylArmQgILBHqVbCbkqZx6rK7SzidK24T2mN1TFLfgmQuyovs6SmldSgVcWT1AXYZU8X9pDQ3JnAo5OViAQby8ARz8h4-Y-QaRBbS7t9WmJ_oSctd2SQvSPJXby5o1rMhB2UCfOvpPfLJvvIlyqDXFQiQmMZKL2SU1AL59nJg7bey_MK81c-BnRtlMO-6d7zSf9coD_Lz5s2drfFy6EELzPF_MR8JIecgGQEA5ibTZGNpV5bXOX-wYfncoTC4hUtKkHsMmPs5TddVVg14B8TkxicX5YMbZz2KQgvxoLiopyVjtJjEWifQAA/p.jpeg</t>
-  </si>
-  <si>
     <t>Peixes pequenos</t>
   </si>
   <si>
@@ -178,6 +179,9 @@
     <t>26.8</t>
   </si>
   <si>
+    <t>https://i.imgur.com/kRmAuOp.jpg</t>
+  </si>
+  <si>
     <t>Mandís</t>
   </si>
   <si>
@@ -205,7 +209,7 @@
     <t>Sim. Categoria Vulnerável.</t>
   </si>
   <si>
-    <t>https://uceebfd71d7a1f827c59f1c92bae.previews.dropboxusercontent.com/p/thumb/ABfZY0VSL7dxdJe-UnkQ2Xzs6aCrDfYuvtO4twDDG-v6i95pM-dcIiUzb5Rc9wA5ObGksLpdS8x-9MgOjRp6KnsgWnwUsEOeBykMxn5YUI_ry4mz9qaA0jaYOYV-hb_d9jD5AU0RLCuOadypH1D4ZBEXlvVeSw5XMv6TkpA-WdZatVeBljd1rFNwqCBeOz6-ZilbBhG86Z6HGo9fBKscSw3CYZJ2qPCjmXTcoHIVK5zmwWXY15u59aqM_RPL0KrCdZDgz2GePIm6M_nqf42GfKNzgeac83GFDPxzkV075L2XW3ufNT3SDwpE47IlgyIfqUS2QEBIghHy45XPmbBBKVB4qHzoKrwNXqKptHmrA-SsCA/p.jpeg</t>
+    <t>https://i.imgur.com/Be97rg5.jpg</t>
   </si>
   <si>
     <t>Piaus</t>
@@ -223,7 +227,7 @@
     <t>Material vegetal</t>
   </si>
   <si>
-    <t>https://ucca13d3fc2d289a990c6ddfd5cd.previews.dropboxusercontent.com/p/thumb/ABfi7FNUmPH4-pLgQKzubFvemu8FAciqcWnIu5943mQDtP-fiz1fCJ_1kqLmNDhNlWAXVx-pUHMw9HMIXTpwAj3ITqX4wLo4Nku5RrmwLwTOgGD5cMcewd8sPMqxegbRh9eKnth717gB-1XGNn40VDeI8LUcxb9ACy2FLFeYZ7QDzoJ6f_mVFMk5GW-9XxpCaYrS0DvCbHMiLX2FjdHkRE-KR454xGhyLVycSN9uKq6bq-eUNzCHMpVI70DpeLhrSKP7yPPwG7VSL1IiUHgEruALH_upE06jZCvpUMuYmk3O_-WLj0SHOQnaYdjkd_r9DVeBvqy6jbUDtNMOaQlfyBP2JoN3AKP8NwkOv-CdlJ9mlw/p.jpeg</t>
+    <t>https://i.imgur.com/e97QraO.jpg</t>
   </si>
   <si>
     <t>Outros</t>
@@ -244,7 +248,7 @@
     <t>Lagoas e lagos de água parada.</t>
   </si>
   <si>
-    <t>https://uc40c8d29fe83cb66b38f1541ebd.previews.dropboxusercontent.com/p/thumb/ABdRNh_wbTQsHEWD5P3NhqBbuvPq-4_JCUxtKUCM0_PnD0mo2NtrErqu2xONwfwqXOAymjDYokYx4AJkvqsm9FWD2Sj4X9S-KPmlm_0YVmRErL53xYtUBX7EBHwqlUpPUqx1Wco9T1l8N9_QvJ5oLIsthJzH7MhZZSBqEO5P1w3KIyWBa89aUpvfpNLcCEA5NeplZZCxDBBpJySF9h2B_kLKmnmlsf3Km71Moz2MaYDPT6p7DPfSnPO7wMWvsYm7VeHga6aeNylLGShKa-L4MlE2_44QIx14kR6IskK7k8PlP1TdZVXJ9Euw3-cP_JIBQfLEf1-2-woWvcOGLssidOLQZ4I5BOaptVd-ZETiHRGkvw/p.jpeg</t>
+    <t>https://i.imgur.com/DABbWR9.jpg</t>
   </si>
   <si>
     <t>Peixes grandes</t>
@@ -259,7 +263,10 @@
     <t>Arapaimidae</t>
   </si>
   <si>
-    <t>https://uc432a2d3a87f646126e7e559734.previews.dropboxusercontent.com/p/thumb/ABeAKhH759fgcLcM1YhOZev6vGaXoLSqZ9F2eI2SnZJnXWXno3b4FnDMTGz45cUaO8GO4hWZ2OQp3WZ-dZ8WBecpMXV7aSZZXFVRAixuMQlLbOuP-lgYCli96RKboClEBlLr8q3_6K1MMAJx9AM6kgQlrf6-r5q6hJCem1Xc57Vfgj6lugiWsyn9vJWZI8VZmqq56zgJ-eOwYAY9rFmTrQmCLFeMfWkivsdXCDQ3E-GdjyM4XaFmLNoiFLsS8kSZ-t5Ud-Q5xz8Kky5QFnn-nNsc-SjLPhpSrJRBU_wnv5MeSAqgXc2XQRRLnIXF93AnwqEUmMqEH1id3m9PgPv7zGIW_GiCo-1UldVX3eNIYNSMMQ/p.jpeg</t>
+    <t>https://i.imgur.com/MR1DzAG.jpg</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/Px2fiDB.jpg</t>
   </si>
   <si>
     <t>Carás, Marianas e Jacundás</t>
@@ -283,7 +290,7 @@
     <t>1.6</t>
   </si>
   <si>
-    <t>https://ucdd929105e65bb62e940132c869.previews.dropboxusercontent.com/p/thumb/ABcAJCZ4qO58Cn4FI4uVF-dY7Wv6nOhlujnuSimdCYw6xpRk4wHeRlrcyjsRyk_qfgPo3VB0zQ4hWxRWORiO5LZ_c71wgHHT9TaCMpw6TH0AUJrlLV0OWS0uXSGqv2Y-c0wkOQTB7fhx275nabeFmfuNmhdXSrGOBf3uokRYEfdSdJNdxhBeAjerxFbgurTUCg3QhXRSihfOMQ2CMR-nbKUcRwqSFhzH31h39vt8OsB1uAyCXRGEqBToTk777YJOOxRYzNTHzxA7zEMtBHcHr_HbYJzBOUEUGXp3YSyn7XzMhtdJVdfY2O6p_RBuAD9RF7FRbqppy5-heIY8BvtPWdOW4Uy4WLHNFKl5hg-19NfjSQ/p.jpeg</t>
+    <t>https://i.imgur.com/UmMuaK8.jpg</t>
   </si>
   <si>
     <t>Lambarís e piabas</t>
@@ -304,9 +311,6 @@
     <t>17.5</t>
   </si>
   <si>
-    <t>https://uc7d2a566b168a081c5f59209275.previews.dropboxusercontent.com/p/thumb/ABdImVbDJbUWRVTbGc0ahLmY6RyWc3riKJtKWwQ4gQUENWjI8tHtnEM2_LYqoferLVPYenRz9IO28ybNAVPI_q2is8IU22MP73LyuRITe42zCizo1ExtZMamoTbJcc6u-TTyNjcv_JWUCX7HtR1SfdDsX_NsHA4CbyYDpnkRh3A5Ac5giVxvtri0lgzKcxoiCaV5viOph64Li9nCnereEm-1TfQmviVxftL4Jrm8-2A228v2bfWjcBCTRabFhxueejOy2PX8ZeY6o4qiOYWZW8Je71v_JRaPW3k_PiHDBPByYArLcQYsQ0MSjGiLl6BYtakb-jV4fYFHRE5vy6wgJXflRtzZTNdQF0L4OtPHzu4odg/p.jpeg</t>
-  </si>
-  <si>
     <t>Lambarí-largo</t>
   </si>
   <si>
@@ -328,6 +332,9 @@
     <t>17.1</t>
   </si>
   <si>
+    <t>https://i.imgur.com/HXJ1lgR.jpg</t>
+  </si>
+  <si>
     <t>Bagres pequenos</t>
   </si>
   <si>
@@ -337,7 +344,7 @@
     <t>Auchenipterus nuchalis</t>
   </si>
   <si>
-    <t>https://ucf3e33395a32b6217232a9a7944.previews.dropboxusercontent.com/p/thumb/ABeBijHW6Qbw-QtUrfrjaEsE1l9YMHcNsIKe6RkkmBXrsv9CB8c2EQFY3ZgHT-_l_zGjRj0Jew_7BAVh7cWIgFPgFl6XRxzgGzeusQi1j7yV8zFxTbeNMmm39NLKf2003ZKHnww0QmhSrfMlWB32zAScZtQ8xwk1BLTw8SGtfiFELkukjj5acZ04MV3XHEHp0QgpTudnwWTMaqJDRLRBn9LHLHZ8JyzWkfWxkxnSKGO7aoRzBUd7FqU5-1xh5MKtmhNPoTsfrWVfMeVgopeUt0FEsZD4_3MnnAhbNkmb9uXquMKJStR7DmTpN16WCjS6KxAh-V5Y7MwjYu7Z-15NDKUL5lXNt9jcBzEPx4j9PpDXvQ/p.jpeg</t>
+    <t>https://i.imgur.com/99taq5x.jpg</t>
   </si>
   <si>
     <t>Cascudos</t>
@@ -364,7 +371,7 @@
     <t>Sim. Categoria Criticamente Ameaçada.</t>
   </si>
   <si>
-    <t>https://uc5c780ec2e2e0b053f5c54f32e8.previews.dropboxusercontent.com/p/thumb/ABevpHe-YasrylWvbXfbqHD2QdKuOf8bBZlggGggp0PfGA8ZkpgAUB523tNMJYZPHwvQvgeDIVQDDC5l-115Ww-SWNcGFCasKTFvCEQ8_EeofwJu5lrwFeDoSXwyfPu2CBP4mGMfKBqiedXpq8rzrs7t_nfWkP7ar4EEP3Hb6R_knKmJtMJVC_qZEIf7ToaNI057HpBkIhX8Jkrt2-RkNQVc6co1NvJYtBO-AC3MfwdSifHI0J7E1CsNXVuJTCCwBAqrbYFWjncK9ydvoP_sZRzz4H-dxWRo52qSxG3KPDmeQrcYCuPklw9niYBggvDZ6u-JdyxCV9cTh-4BnFnIuL1dcSxmHxzHbZyAAmfKIsLHbA/p.jpeg</t>
+    <t>https://i.imgur.com/Dt5yGxl.jpg</t>
   </si>
   <si>
     <t>Baryancistrus niveatus</t>
@@ -373,7 +380,7 @@
     <t>0.52</t>
   </si>
   <si>
-    <t>https://ucd187babd43fe7c28e9235a67b9.previews.dropboxusercontent.com/p/thumb/ABe34vCh_f58sS8Vz8-3yvcycbrjCyDN7UluV_8iGAJpggYsnc7PC0Ey1vlUIRHa3g_4EJI9gFOSjrkJt02WIDygGvHUYvR2QEbjPZFXiKM59QxO-2qVXxSAMeCxXi6wupNHrPU7C4poKLXVL1kxHHpYEEq8NfojWbhRyPtCBmaMCRkFxyDNrpAkzC11PwM6fQJiq0newbIRmoA53DxCbfMEwzlzs1nVYZzKEy0BRPQ8vXPZNcSo2FT7s81IO1KOMhP7k9xFEQqAKpB12W7T4unLg7GvjJkYe0dP6_-lbj1dQy7gX3w1BwsQq_WY57dcZsmqQvUTmv0KlEnFIrGVBGs2CUOgxKgaiWZUGf0e44yrxQ/p.jpeg</t>
+    <t>https://i.imgur.com/1V8L5Im.jpg</t>
   </si>
   <si>
     <t>Bicudas</t>
@@ -388,7 +395,7 @@
     <t>Ctenoluciidae</t>
   </si>
   <si>
-    <t>https://ucc1d5a0267188ad93b6605edb38.previews.dropboxusercontent.com/p/thumb/ABfb-ZYnMfF-s53vrrCQq6i183kuyq1VABhv76BKZYLlifjBPTsVEhwlkQ4if6fQEFm7LlEMa0nRsGn6YiQXMthwXjtB0o6mgYsvwt-RW3P1QFq2ljFVrp9bVHCGrV8mFmbD59hHHGoVcYIi2Zs8CnfbShqFWZQIZylJEWNQN2uLuWks9hxt755QpcQvVOsiMdU0RizL-lBRcTcr3wZrh5LDKjxc-ZgAxVkK5weUzQlgJIXM8LxbXs1D6vcza5vsdjhr-hptAGvog5HBBakJGFMfF3Y8DR_njEtZwUEXD8-HRYfOGlbnHfXCsSh6QuNP0gzcV-usBAw6ZnQlqt8ImDpkkfgCoR2sSnyF_3P9MPoNXg/p.jpeg</t>
+    <t>https://i.imgur.com/X69UALI.jpg</t>
   </si>
   <si>
     <t>Boulengerella maculata</t>
@@ -397,7 +404,7 @@
     <t>31.9</t>
   </si>
   <si>
-    <t>https://uc250fc6e8d86604912444474d4b.previews.dropboxusercontent.com/p/thumb/ABf_H3uxQ_yIYMPHjQ3fTimREoM6oFbGpZ4LqBfvtIRsGFHFvo3XohCKHXatEqr7S4awYXgc76IkV0Dm--eSDnVUnYswQJbrNH3QYaY4oTFgn-9tvydKcX5tL_28GsnwBlnh1TivEx5lgbGRb-gkvM2yMVaGLh13ye1hAJt2VvWWZbjO-v_7rOS8EX8gDa7stpjUb-Q3NJ9EOaBnkB-Sc6_UQai7hkHdIFs_RMvxwHENCSKTUPYw0zyAafgZzJj_BMY1weyYcZiwKTJj8Dk-536iW9lX5k6uZ7DL_QqpzrkmjS7ml2NIRh65cuGdBfaLdJ64AtCnAkf75u69vus2yI8TH6wvHsxBwt9ErlCRwZGSIw/p.jpeg</t>
+    <t>https://i.imgur.com/u6M2LVk.jpg</t>
   </si>
   <si>
     <t>Grandes bagres</t>
@@ -409,7 +416,7 @@
     <t>Brachiplatystoma filamentosum</t>
   </si>
   <si>
-    <t>https://ucd616a464a6594f237a9f07a731.previews.dropboxusercontent.com/p/thumb/ABfS-RTkMXLDpEuQiyo3CmAWabnTJ8IDH6FQL56b0yAd6r9eljvmq-QkTKfNT7MsIJE0IbML8N4549ojIrS6E2zzJ18t9mrUtVgbcLllhlprxefk5_iuFUOikyaD26c1MwnDVjmDrm3OyqWcLsG-2L1L_F192kh5C_IJcWKpH-c1UHq6yYmth-ZoJXdJrG3OyzCG7ut0SVOPY0g99hf3ION1r7Wx1vzbzx76cWFB0BVxxicwmFoIPZS50X6DV4F8RBcqLso0b-8s9maubzLfNSZxN0XT2wt4ExIfotqxVebDYt1uY5W1euPQ7ime7teWHrgr4Dz4suhveRSHTfTZFgjbMwckIWw2wY5t385ETyC8dQ/p.jpeg</t>
+    <t>https://i.imgur.com/0WH2z3c.jpg</t>
   </si>
   <si>
     <t>Piabanha, Matrinxã e Voadores</t>
@@ -424,7 +431,7 @@
     <t>Bryconidae</t>
   </si>
   <si>
-    <t>https://uc1d5494ef47f71c66f613d3fc72.previews.dropboxusercontent.com/p/thumb/ABeseledRBrvJZ41_WBcfyfrTr-dO7i9U_Qj2sk3S749hjlgdQSsKAdUgvoJp93-I7S0g8Ou1M2Q4D821NZzzguexUltuc4iQpkZM1q1I1YU_XwZoUftQHNbuY1yHsqZlyxHUkzWcddCWJ0BzVgEbcNRplaYpXs8G3ryquWxudOVAVlO8xAkG-BsYOu70ldjKNmu8csRRL2n8LYoJVk4KrDxHMVkPLKVm-5l79diZ55vhf8wCKod7xMKBoku7flRd1rl0RFYl9iiPNuo-YnHTI42QMWd5RXMYvDOiRPLBsU7YTyD5NfTrTYH7i4yAQ2uq4wGQluChyiZX3LN_VbKAgDjcNA9RqSQ-nnH0r9YqIKruw/p.jpeg</t>
+    <t>https://i.imgur.com/ogL02vv.jpg</t>
   </si>
   <si>
     <t>Piabanha, Matrinxã</t>
@@ -439,13 +446,13 @@
     <t>Sim. Categoria Ameaçada.</t>
   </si>
   <si>
-    <t>https://ucd73935300d08e26010bc71a199.previews.dropboxusercontent.com/p/thumb/ABdZWOmShlGbIB2ExpJHcMAN434foPVBYDgB_I9KSsqTNnUdVYX48mlu9wD0H_1cRS8Tx_b5fxJzdADrp8qT5YxH7MedgcgbbPgqIqKC0xwuCRvWltPKJ0f4yJOx1ozGLIu8lW5IMg8WOrmfi0tJgUW9Dxd_pV-XJ8TtZWnRLAPt6UXcTZtab-kXCaCMtkb9u4ZMGZPLPBq0nQMM_Q3-1A9Dh6SOr9QxmUgH_icWeoJHdDNPZTqU81d0A7xfYKSJ1Ybr_tWHHZ5uq64HewwSDxx0UnK7msjOPHjRSX0P1vxMjF_fpW62KlFy4k21QWy56k67WCKQ1Vz2t8jNUrAE97nTZyS3oKW1RJdau45w8GyPdg/p.jpeg</t>
+    <t>https://i.imgur.com/Ct5xUD4.jpg</t>
   </si>
   <si>
     <t>Brycon nattereri</t>
   </si>
   <si>
-    <t>https://uc74569af4136e861368869398ae.previews.dropboxusercontent.com/p/thumb/ABdvuTDyCkYo4YKGPnn-_Xv6O_v7HCXexNeN00sjSBAzFMtOgS2FtyQPzTfdTTjDv_IBma3T-eUWYa2m7B_LvZeUEYP38RU2WWhEaXBZEPu0kA7exkiTU89__4MeDinIy7Fsnp_onmsgA73-4az1cJpu4ON_lnc9dl176_L4QEFioE8zIMk032S6aUFRIzmsrLL0woD9U3VTvhx-KEUoxqGZiEdw4BO4TLRrVHupD8Iqwd99vOGQ4RqREweCk_VJBXpxfx7x4JkDvo-WLFM7pwOPg_XagcxxBsdBniKsavFyw_OMqYEir1cXYvCqaC4VN0vKSQi_9_RFcwjm4nXa9HLuTnLsWpkOHYQ2E78tchQSxg/p.jpeg</t>
+    <t>https://i.imgur.com/rxnllg2.jpg</t>
   </si>
   <si>
     <t>Piaba-beiradeira</t>
@@ -457,7 +464,7 @@
     <t>Peixes e insetos</t>
   </si>
   <si>
-    <t>https://uc6977c3ed016ff579d8311194ad.previews.dropboxusercontent.com/p/thumb/ABdunapR_jgeuGSIfiWOKm9rYjHmj45zeY-1AJfGnVF_1LzjScsItgC1P59HxkojDFShpfqWV4220bsisPbkUFQskr98hmmFCp5f01dy6i_zZD-9AQ1U_xiiSJOh3yfHxZluebN8tbh-7zSGg-k2pSjlqC9QO0Yr0mUhUnAwkqyWv5jOo2ugFFV2R3fyx9MqMJXQSezV-ofDQUOyrxMaUbbPh-U4QagDLVD9bCcYsMSz0czClKhqq_xeWATIPVzYp8TU7j7tGm9o_UEfHARFJVJFQgiLmQkqH2xSBig6C6msd4GEshM6Zad50vfir5kGYaFpODUPCZSI7Y-daEdwGm1IZ9Mv3SPVR14kLh-nDf36Bw/p.jpeg</t>
+    <t>https://i.imgur.com/yLmezY5.jpg</t>
   </si>
   <si>
     <t>Brycon polylepis</t>
@@ -466,7 +473,7 @@
     <t>22.4</t>
   </si>
   <si>
-    <t>https://uc75f31e86b454d72f82cba7683c.previews.dropboxusercontent.com/p/thumb/ABc0RaqO871tXdqXKLsWljqRprtTavD2-2NVZg8bFGotrIEsOWZt-rraU76TnifjoRIcylbmA25Rc5HQkOJXdCisdL4RIkKjdX1W6QUvHtF87INNdKYUZqJ7PH0zR4mnx7w__qPv5820BvLNEM9gHBNFduEn-z3DTAE4R8S4mfNh3yhfReo-S5rT67T5gbPg6EcSsskZAO9-m80iWtuHsW6q8HgRKJw_xI-cAvfLmEDbs2nBsT8bBITbNwJNgOQGHn0xe7-fi14PB39Tzm0dc_uLdSeCGPMv8uHYe57s6TXiCdPyh0uuRnYwE85eIlV9WOpsiXr03wprsJh1NdUWgf2sO6sRGkKnhFprASSDxSi_MA/p.jpeg</t>
+    <t>https://i.imgur.com/jLZGp2i.jpg</t>
   </si>
   <si>
     <t>Piquirão</t>
@@ -475,7 +482,7 @@
     <t>Bryconops alburnoides</t>
   </si>
   <si>
-    <t>https://uc751271b4062061414791311d1c.previews.dropboxusercontent.com/p/thumb/ABeRhVGqzu4v5qEMChilHwN6xhhEkNltwOZSPRfZQPkGwwrPTR7G6KuAU312horrszln5XwUd-Sk3fIwdH0B6W8SuoW3Ht8D2GIF3sUKGwmV1-01ezRCE3wzD6wkqcqGc9AwYtiAqGqt7n8AKk4csY785Fw0rdgtZzG4NSIQ-68IEvO5A2Jqnjl42yEGk0KtHoX4tdJFxJurS5RJgLreeQZh2zcv75MIbdGl8PJVECYTuht8LKkAbxn_hYvkzxKxg8E7eR7_wwabTWsN_PAR-BHbOoPdAl2hRJXxIPG4oduTtu6iaofHJikXFSy_QjP_g50_Cb-jluxzQEDRplQH2gGB4Kk8Mwf37mP2bW3j1A-soA/p.jpeg</t>
+    <t>https://i.imgur.com/oy3chMg.jpg</t>
   </si>
   <si>
     <t>Durinho, Cabeça-dura</t>
@@ -490,9 +497,6 @@
     <t>18.6</t>
   </si>
   <si>
-    <t>https://uce16851f311c50ac1fa50f1b774.previews.dropboxusercontent.com/p/thumb/ABcRoVsQmKSF4t7m83oQ1cm1cAky01t_7NUtSIfLZ2vroQS22ZBeDmsxBiFMkDvLTav6TKSFmAmYN_2-5s6qVhXV0i5Ql7BEUSKGP5MnK8oqVIOXB2fs5p25JWQlRMvf4N3KzGA2b9YH52vV6KdEDqybuv60lxL8fsD6v7jH5qe1sc9n1VK35Cv4OOY4ndaNJ3m5GDgfJVDt5iRC8hV2_K_Rq3MIyVYV1VuQVXUzNnwCpiiBBsUGliwNP0hdAbdCJ142Ceib_XxZnDaahrnpq5u9MqLUt648ICskQQetXqtba46eCibSUcEh2tUyxtzdLW5U77LxcpDRRzlzlB1M955oJYKZ_1DwRNJgV4TrxW7KGQ/p.jpeg</t>
-  </si>
-  <si>
     <t>Candirús</t>
   </si>
   <si>
@@ -517,6 +521,9 @@
     <t>27.3</t>
   </si>
   <si>
+    <t>https://i.imgur.com/ft85xFW.jpg</t>
+  </si>
+  <si>
     <t>Rabo-vermelho</t>
   </si>
   <si>
@@ -532,7 +539,7 @@
     <t>0.07</t>
   </si>
   <si>
-    <t>https://uc6a7f6d61704af646220a94c25d.previews.dropboxusercontent.com/p/thumb/ABf3fkui5s0_S1XaBvQfVe_E1u_J9qp6ZlMWz058X7_VDwSA88SJyAYC081auiyrwaj0gxxAUr4S2frk4YexWcXo0bIs84FB7y-95IDtzenq15fHVAOXk8iv3Fij7cSZ1owFHvu0cVsCJiVpFiocJhF4-jVsC_MqhW8IPF1vJuKunphcvVUXEE9RdYcw4rdTQNlMY73VSufhNuRePtKXkMb2c1CC0W-GuUIJiELuHUDHrD5FtCEctmbh3BeAY6iH6IWQaCaeKev7xarKIF6-yNvngYitqnzyTLAx03_o3IJGb7bIjEHCrKfgU5MsK9px5u7rokSZc3T9XFwEEB-QM7WNMWSzS7GjBLdkcLw74if9iw/p.jpeg</t>
+    <t>https://i.imgur.com/THb2cXE.jpg</t>
   </si>
   <si>
     <t>Tucunarés</t>
@@ -550,7 +557,7 @@
     <t>4.9</t>
   </si>
   <si>
-    <t>https://uc090bf1260852f46cd8f642a40c.previews.dropboxusercontent.com/p/thumb/ABe8RXs4OHDd5ke4RPpsnjUM2d3eRharGKJZ-U83y7rlSBeaquO_MYbsp885eGdUZMdi8EXvG_vBLvfbERFDyYcXM51vBq_Og6faDkpxQoNQeRvauN_CpHnHST8msJKqa4TGix64XgxtbCPqizBR_tWh29rH4orlnZHDCTINKo_bi62szdE0KeIFArHFi5DH-2Rz8m24Tp1iyGnpFJaN_njd_NDYr_YVflI3ORGQ4vx3E7pJmXbi3BiOCq-E00DSYGc3MFjbCVgcKyoYZcLVl0ylK5nh7y_Ap4ImGHvoW4ln4_X_MtRzAPdrMRfm4z9TnflgB6SDpQK6UeHmBy3pMFBL_5CyCGT2cCO228XUdtcu3Q/p.jpeg</t>
+    <t>https://i.imgur.com/cbdtFaB.jpg</t>
   </si>
   <si>
     <t>Tucunaré-azul</t>
@@ -562,7 +569,7 @@
     <t>1.8</t>
   </si>
   <si>
-    <t>https://uc6888decfe555a554f184ca02ea.previews.dropboxusercontent.com/p/thumb/ABexdXQd5rqcjnZrLYO-hLQ_biUGd2AVQDur3tT8bGNzM2TK3BftdPYteu3-gU43-NDDxqImDpchPAAQJHBXWbtlO1OvobcqDmtvVlEzO7bxoq4RHshBEqMtfeIwCcs-xTE8ChhY10Ftvw-rUSDXtbPy1Xw8IcXPj4GGP5bQ-hJokvYSbca-cuiXg1xc7bTQHdKs_vhgoV9h4xBvnCs-M7yZN2o_0ffKYZ9S4V7iYeQmLrV3aVQa2bQaeN_hX1Tadugj-j1o0ubkwppmWCF9bPq3Xdis0wgOdVuDpFweEheFVLMAqoTPmu0wWYrynLgRYGYpux-2FaRyamPW6F0Zpb8HSw6ijBIPENZkLlUDGS7ONw/p.jpeg</t>
+    <t>https://i.imgur.com/tEsSS1d.jpg</t>
   </si>
   <si>
     <t>Acará, Caroço-de-manga</t>
@@ -574,7 +581,7 @@
     <t>0.3</t>
   </si>
   <si>
-    <t>https://ucc2e53d24408614657af09d625a.previews.dropboxusercontent.com/p/thumb/ABfdBN9gLUScVLTcIYy34lHGl82E8s9Zgt9RUwHJlDjE5TaNSpnKo2c7NokfeFlhdVSbf4pzRLX_Rx9puqRSqfPHT4T3ntU2qlXD60JYMo6Mij-EwnxR18L8F7ZXU8H0XLOAQwzIdPxeDepkwWsxsAtDuagDEbPpwcILjbtLjwGC8UPgejEWAuBJFMv2YD2ur1MTdzHC5bWe0VNekZQGzX_yF5aAo2T-VHJC2H9H1FmHxJ7oFFEVMGDfgcIv1Kjql4ISZem1eIYeTLl1Og0y-5Tl7xy0Y2kzRqHCelHmbS0xHAbfQwtFdbrer3-QvfI_P3CtsUnsja4DKXUokwH7l37h2BxKHQcpf0HwIKJw4wZEHQ/p.jpeg</t>
+    <t>https://i.imgur.com/wWBD8OM.jpg</t>
   </si>
   <si>
     <t>Baiacu</t>
@@ -586,9 +593,6 @@
     <t>Tetraodontidae</t>
   </si>
   <si>
-    <t>https://uc0ce4af853a16afd14b99ac002b.previews.dropboxusercontent.com/p/thumb/ABeFarXPZNiUZI6NcahovO4mxPzeQnvOX6Iet1KaNqSQN2hyNi7KYBCdtJ_rOrl8mr8xQgv_-1hvH_rViClOy4XjTf120rQD8nbtGfDiGp6PcuohDqoFiocbh6_CdT4POca5vqJLC5wkI8Iu0wULBMtoQbpsTnwRPpHOrkXem5K3e6EO1J7v5YwjR0-eln5rbbQFofeZA5h4Q0ynXDdFPJoYqPYiVAyl4gh9CYX1lxo4gUcDyWaWdnoLEjb4lhu8Zp8nb_DdivpffqdOgRMGVnZ90W3imWaS5sZdKBNrTdoVb4MrHAyUdSikcXy_T4p_RzjCpYc9_u3y8X7bORNgNQ1SsWJt2LlzI_BIklbL5zA8zg/p.jpeg</t>
-  </si>
-  <si>
     <t>Mariana, Jacundá-vermelho</t>
   </si>
   <si>
@@ -607,13 +611,16 @@
     <t>Crenicichla reticulata</t>
   </si>
   <si>
+    <t>https://i.imgur.com/VaxQRDt.jpg</t>
+  </si>
+  <si>
     <t>Mariana, Jacundá-açú</t>
   </si>
   <si>
     <t>Crenicichla sp</t>
   </si>
   <si>
-    <t>https://uc53ccaf2033313beab461be3e21.previews.dropboxusercontent.com/p/thumb/ABcNUG5hgvkYQDBY17eY_OzKAgZUrkjKLSnGaowDbMCXQW-utGDo-2yO9cdfeXYga1IfhM14LXKHzBSYtswKQUDmgixfiEONNONXnNSRTWDS69CxfMKTpspVOEmzjTLvIJlAz03PrShUABDe0kGEvZHPA1ZZ5imtPGPmui2iCNqVNR2c2PCgZbxlKn1TUzIxWioANtlyBrpd2d_jn-8Ml0YPoVYsgDXv_35JJWpevvJQWWZqN72uF-RtoOxY5ULNkzjEP8u8Dj31vjmEm_ockLA4cG4ZGUv41fTKdqUtiZ72XDdlNLx2X8ZJ2K1tWIEWO-jj61QH12oYTWylT1s9d00IdKd-x6NZSk3A95dG41ZPEA/p.jpeg</t>
+    <t>https://i.imgur.com/JtBXogv.jpg</t>
   </si>
   <si>
     <t>Papa-terras e Curimatás</t>
@@ -628,9 +635,6 @@
     <t>Curimatidae</t>
   </si>
   <si>
-    <t>https://ucef552ba4af4be4d23256571e96.previews.dropboxusercontent.com/p/thumb/ABeCY6htPwyjm3r83OyqVO1glEcotg12LoggunvoZJg_5GIzsUJKUfoSUSBwA86qnjhMcPq-Haso4Z7ZwoloOddIAyAp65U8Qh3GJK4uW44XmvhLgAYN5Raxr_0YonqJWFwHNIdXnJXBFBjgIMk2keEYYmF-4x3RiX8Ec1KWir88e-6sBHn5tNSk8YTK8iYH1g5KCmvxDNiIPPA4zVi4abbUOP6ePtRPjRA3NUBBsCcSB0ChOPaDFFrrGGNWpuVPqATZEzmYGu1GzVxO4xGx9kMwJfHa0k7luMas4l1lT_61xbHJlzZXW4v1cLINNBQ_2qyfurqC59BrlzMcKTVUfUjPWskE4MVjOC05NJ0HTdNGdg/p.jpeg</t>
-  </si>
-  <si>
     <t>Cachorra-icanga</t>
   </si>
   <si>
@@ -646,6 +650,9 @@
     <t>0.49</t>
   </si>
   <si>
+    <t>https://i.imgur.com/XrYzOWu.jpg</t>
+  </si>
+  <si>
     <t>Peixes elétricos</t>
   </si>
   <si>
@@ -658,7 +665,7 @@
     <t>Gymnotidae</t>
   </si>
   <si>
-    <t>https://uccf47b276f8572fa50cce7cb99f.previews.dropboxusercontent.com/p/thumb/ABefIcP099-FCvs1tV09A9ITNOtYqpWD5JhRTfrE4IzG7GtjVgn_UZHN-czdT2jj_uIlFDzd09W2vhP4NskL1auwNMY0V7NIM-3vuucsIywcjf52Ju7uwpzc-JYR7cNDIy8_92jBeCtMEJVixebQuXj_6fZdDb0D9LDESPOc5nHgTrgKrUeUZisX3AHIGpX1ZrYafC64MtF0lJHRyrYol5XF4PfSHVEeCH9JawBH_yrM00617sI590STzHqF0FteG0hYc-kk0lyZ8tlI7Ehm_z2ZWDcIu7LTzlW1q8KCW2vu1i7swJpVvTR1s55yocI4mMyCQAb4TsHRlYQRL35yFLiP0bnnzCaTxL-pRjUDUnSr7Q/p.jpeg</t>
+    <t>https://i.imgur.com/yYCk2qx.jpg</t>
   </si>
   <si>
     <t>Miguelinho</t>
@@ -670,7 +677,7 @@
     <t>7.5</t>
   </si>
   <si>
-    <t>https://ucbe45138b130d7b9d49fa5ec9ea.previews.dropboxusercontent.com/p/thumb/ABcSjoU2HQ7liM2UmMZyCMx8KvzeF4cv7wHN4ZL0-u27RzDUBx0ER1rAWH-ljjTc_7QnHEXzlxfV0B9YPVWfgV6wv1neYvv8-SAFtQAgnB7Ulx3lMx4YVZ6rBQkQZI0eVo94Y5insKKq1Qhj4oD07pqO92DDHB3FF6NGbrZZaBKVfu_XitJn4WNlZP4ZsvtyeTEz4TEl1O970mBq7N9xMhNB1WL3-pmcJa2CSKiKAKGXL0FYEp6nBbqHHwPj2Rl_EY9WQp1yUcYOWH0qXG1zE1rQaqUTmVWkUuinIjqR7yLNqFpUYRPQLp7zfCRoC7I6ELmxYBJtHQkh_FVSOiXLnPLWQlZ-FTIexeyiSbd5DRq7yA/p.jpeg</t>
+    <t>https://i.imgur.com/zNJHR5R.jpg</t>
   </si>
   <si>
     <t>Corró, Acará-bicudo</t>
@@ -679,7 +686,7 @@
     <t>Geophagus aff. altifrons</t>
   </si>
   <si>
-    <t>https://uc78884d9a3e59c9a74f25943e01.previews.dropboxusercontent.com/p/thumb/ABd7UyvAibY_7VyJYmT3UldgwCTYCsVYucWyZ6KdTheJVOmyZYr1Uy8PaumtilOSD6VSdLzx42H5M0LjpknY56EiqEpt_CxJ5sLsoo4kkL2T7rjyhq1g7H040SeYafVBQMjYdX7F42vqdEXCp96GO0_CI4Us0XxHR8nYZdz-LNXdTeTzRpgjdoSf6_NMFVliLSRaHPSKXsX4N-bw9AnjUfNBAV9f5ITYr4bcqwXYSkmhMEqgbRbXjlDpsFwKi46gzphtixNMPqN7AsvRwSHOkszdwFpuQftIgDLcDSDDcUQRNlPqyN6ur1OEXIXBqaz-h3bn5iTJs5ymcvjn9UuFrjgno8eRL1qHLjYpxornEdhfnQ/p.jpeg</t>
+    <t>https://i.imgur.com/2axjlYH.jpg</t>
   </si>
   <si>
     <t>Tuvira</t>
@@ -691,7 +698,7 @@
     <t>1.2</t>
   </si>
   <si>
-    <t>https://uce9398e2925bbc628e2824dd58f.previews.dropboxusercontent.com/p/thumb/ABdl17CysgvdtTm4Msx-9ObT23hW5u24AmdCNU0pnQkJQtENC2XtA-T_09Ck6Gzh5bqzfsp3G1hLuvCmXx5VH8uDMTcSVUHvIhVYYYVctqLmSm5qZ2wqjoHMYoc2x22K4-v80DkNkdtvx9QKTvsH46Tge2q3zCc4_J_I8qImd92CXYcS-_syR5rWZybPMvbKCLCBH7QCspqqkcd628jOCHhsVFxMLTaeDHQUAbszUmwDlHc-iPALTNhhabID5KjNTqhiiKPJTB1y4KIXJc1P7Bztni2OspbX3A3ck2uNMt4lua5oTBe1qwM6GwAVvC21ekWaj6-g4RBZxJMrz-REGQX24YrNhIUgsVhqSj4ucZppkA/p.jpeg</t>
+    <t>https://i.imgur.com/enLYODF.jpg</t>
   </si>
   <si>
     <t>Mandí-serra</t>
@@ -706,7 +713,7 @@
     <t>Rios de água turva.</t>
   </si>
   <si>
-    <t>https://uc5c42be7fbd7932bc11b903bd5b.previews.dropboxusercontent.com/p/thumb/ABf0YCn5HHfyoqiWkk3xYVr-Az-jXpUaLlu6UKl9IB2Vg08CnQJnVfs-MuZrrRYsCCdqmjp4w37c0Y26zGE5CKCgvX7VpUEov1IXML2UE2VGcoVnj3NNDw0h2Tgr9QApwdAnc-xjyd8pTLoZ1DZ6S90CA_WB3dR8EvzAvD1Yy2plv9iAZGpbv8cB4elfQKNDxyxSFj52lRBjiZEDgaWdbmTpPeHv2UI6MxjMZLZ70NI2p0o3_rf6iHTKX9J591zqzPC8ecUoAMT_TflRKiwEE_0G4aHJCBsi9nFxNspkpGTLyA6ghU0VE4JsI1XLSWWbB_b9VxeMQjffXf4DfR6vh8OAEo9nYmxe-EhZNINMjdansA/p.jpeg</t>
+    <t>https://i.imgur.com/dsut9Ih.jpg</t>
   </si>
   <si>
     <t>Voador-rabo-vermelho</t>
@@ -721,7 +728,7 @@
     <t>Onívoro</t>
   </si>
   <si>
-    <t>https://uc1f535f680548879e982df620c8.previews.dropboxusercontent.com/p/thumb/ABeUwT6sCoz6eMdCowHoHSwdF1vU3fqyUmJP15qo8aMls4u48HJzPLSgoavaY4G5ZkvgqMD__wvK4LyVfxn80KTudF4Oyxf5Uh_49Ei48BS8wngb6VngWoKOF-Jw1n5Xj4mqqW2LMfPffPUKR-wbLNNH5QsOEs5ktucvBunt92bdBgysiqXBDJ4flcPKcwD8dknsLGCnF0S_keHLFMtQgiUsylD2bShxbHDhj6VY58_w1NjTVnDoMpkvzJ9PK7xr20PsEoxW8Jef7KSloXm9vv6971PL9LutS_M9Be-A5iKt-RBsXLwLwzHKsLQovGPJLvBMMvpJ9EuEsPsNVBGIE7I1gFzfPBNicga2nP_FR5tsfg/p.jpeg</t>
+    <t>https://i.imgur.com/DzkGkON.jpg</t>
   </si>
   <si>
     <t>Voador-escama-fina</t>
@@ -730,7 +737,7 @@
     <t>Hemiodus microlepis</t>
   </si>
   <si>
-    <t>https://uc97b17a8f30ed3f49bea94d23d6.previews.dropboxusercontent.com/p/thumb/ABfNqIi3mQ4bir_2J-hqI-cI0_EhaIZzmoWx28MWwlxBOP8pmgO4h7cRXeMo-aw2HCgnZYFpaxiAOvV7kt8wDIVGHSidzZwXdgWHDtVVXZY-R5aa9XOsHy8f5YyZtL9K3W17lh5W_q05zNj0yN_s3Ls-tBdK3Y6CuM7F-opkwenKWsv_BeeP2nS-gIlZWe7Knje5-EGUT9ZoXxc9Q1TPUfqXTrgCnDHUMmrhKPcjhQVarqyWZagK-zQVGCNBYP9KE5KrT7fSdeTx8HKlHKq-cvRVO-zjOhO91408mm-KD8mO1hgrApWjqQ0-ZaYpH_AkHRkRi-iLSLBFW_5qpTVnJIesmjxUqrfz01llHvU0_LxxbQ/p.jpeg</t>
+    <t>https://i.imgur.com/H6xGlE8.jpg</t>
   </si>
   <si>
     <t>Voador-vermelho</t>
@@ -739,7 +746,7 @@
     <t>Hemiodus ternetzi</t>
   </si>
   <si>
-    <t>https://uc7c7632166ae5c988f082b208af.previews.dropboxusercontent.com/p/thumb/ABcjnzJzn1ZP4rj5dytBB-JabBAlPCoPK7JWD01Mz5NeKQFFQh9ipgW22tRf_Aa-RUqlpbuc3Eh25GtPiE77tIpKQpAondeITIMAwi9M2HoDuPcx8jqAbG0mKGgd2W42E-DbNmoUgn0AvHFuJmhcJkguLh-5sHko1F_9Dgsg1sFkKmw26lNwJWBFf43kEiWvJFsv4XwBcWqmaw3kG6oVXvRdaqH5jzpfMF4lGeCySNpGGGSZFRUD2wrSCH5mD5utjlbiMLbizkiYpe7IeiVXXxaRJ1mt3xKTQA7EA6gB6jer3wgXPL96_01p-W5E30N7LudO-h6eKNsflDfOq0Ka1bby2SDay3WF5iK7R29pC-G9nA/p.jpeg</t>
+    <t>https://i.imgur.com/o85AVxv.jpg</t>
   </si>
   <si>
     <t>Voador-escama-grossa</t>
@@ -748,7 +755,7 @@
     <t>Hemiodus unimaculatus</t>
   </si>
   <si>
-    <t>https://uc77b041c61dfe1fdecdb93ef952.previews.dropboxusercontent.com/p/thumb/ABfDCzKstc8UKJUB8lpwBE13DokKW9ujWOM5TjITC5wB84vWTxVGhTNXN7YDt13Y4k_bdzJCMY4E2Gd-Hp0f2QjN6hIo3_Nr85VIOGW4F_UGgTa9CJDPDoUCWM2n_Wbty_psvQw8pPmZvKvq8kwQ5k9382Pl6zuXsahMwMz3jk266VhNGFb6zycYDkNY9w2AjOYwol1AKr4L3uM2sPjBwVn9I0cJ7cY4SRDEuBWgc-PzcLJtuRzC2EUnKxo8bH2CqJECSjo93uhzrrOsfO1BTGcDD5vI8VZPmAeqnTqzN5TeDoHxo1M8W3-4QVR5-QQqEeoYfhi96SsJf3edcgy0TxrPpr8ymTz9Rb1JiCDi4tbl6A/p.jpeg</t>
+    <t>https://i.imgur.com/RDmRU11.jpg</t>
   </si>
   <si>
     <t>Jeripoca, Jurupoca</t>
@@ -760,7 +767,7 @@
     <t>2.7</t>
   </si>
   <si>
-    <t>https://uc5e03984c6226991f53a718010f.previews.dropboxusercontent.com/p/thumb/ABfmt-GxlgZ6ktMqgtKR-x0dRZW2vyVD-mwgdZT6q397c_9_aDMLpw1QadvK6CaxKdz7DXi_G-1QQaURRYwQRea7Bn012LyD5Ik-YM5yGWUVY4Dwj1cmTZ8MVaa9FGs_K9Owr8JSosiZAqJ8hTVJmLZoWNShvCC5krV1C9X5gquKRwELPRwIpu6f4YT2za1M94nq89Qz6F2qR_CPbNHSjZoaWXdJrFdKuu_VG1mVUPNOfHitWeiiZicyegaVUqjvfBa-nI5yqYx-WTjgwhGnkh8Bzk8DiYHzZz1_hY_dZXOLHE_1r5RGuFa3Hv4J9GDkjBgWce7IteBJUGScSvYFD0ziWRBUVjROB8kermtB6mAD-w/p.jpeg</t>
+    <t>https://i.imgur.com/kmJUcEF.jpg</t>
   </si>
   <si>
     <t>Acará-folha</t>
@@ -769,9 +776,6 @@
     <t>Heros efasciatus</t>
   </si>
   <si>
-    <t>https://uc62fa473fb4392a51c5178a7bf3.previews.dropboxusercontent.com/p/thumb/ABc8Nu47xnhJx3bH7-nI4gCzsTG7nK01VTVHxr1JSTsNUg0-hkZMUCgGhH_6oi8TLHbmX-6LdGUnvvDg62WQgu_7TV6FVGO7H_Owm7l_PfHzYJ2mE2OnGRMoDkCMbzHsamR_Ic_ZLKAYcpyKSvDjkSJFSizdQmOMiCxQAybwfBTSZoYGixMz2hxJ2UT8v7IPBZfCBoDxkJUgsArw-GJXXdfaOUbF0jfme68olC2J2rygXxpL-XaedAb3R_qEQ3BfVeoRmiVEBeXgYrqTKOoOifioRM7TBO83H1kU4bmX7LT8DuLd_PcSbG3VJO50g3AAv0BgsSm5xKV02FY8AVwO9LAlpUdYC279Ex2KZPGGjTC47A/p.jpeg</t>
-  </si>
-  <si>
     <t>Traíras</t>
   </si>
   <si>
@@ -787,6 +791,9 @@
     <t>Ambientes com água parada.</t>
   </si>
   <si>
+    <t>https://i.imgur.com/uX1wLlX.jpg</t>
+  </si>
+  <si>
     <t>Traíra</t>
   </si>
   <si>
@@ -796,7 +803,7 @@
     <t>3.8</t>
   </si>
   <si>
-    <t>https://uc04d513c53c7dfd1d2a2b000539.previews.dropboxusercontent.com/p/thumb/ABfES9nvijxWr7pRK1lEM2-i_-AVQ_6qrIzkzkWvWAHOidl6PwmzQk9DDjLO6dj9Ykdz1ac78uKwROWAPCLDL_XbW9csAmUdpcN4ARTM5sA1wuJKa7prqNkMsn75EmDdxh3maSwrlIjsrkNGPgUL5pLAMvk6rCDtWUMmBNKDYha43-hGb1vcmdsbrMGO9GBFccIpBQYc0pnWx3HUBVDSHsnYdWFu_ILWJvvxKDSU3XooERIily9GcDLjVD7piCZxzZXUVnEu4LjKpiSiq_BYnTFt56Oe2s2Jk_Q1ODlRXwCNS95kJk-Oci3CwWLCgP6GiFnrzLLn35aOp6yRwSQU5Y0LFrdlUA3kDg12szOhqnXYUw/p.jpeg</t>
+    <t>https://i.imgur.com/5ZTNTtS.jpg</t>
   </si>
   <si>
     <t>Trairão</t>
@@ -805,7 +812,7 @@
     <t>Hoplias curupira</t>
   </si>
   <si>
-    <t>https://uc6824aa3e7508a5698af866e503.previews.dropboxusercontent.com/p/thumb/ABdm8j5ooPxSUFH1Dl899lN6TBB1OLXefL6NkKBFeI7iKlg6-YJwTov9wp2MFtf02ira_XH1O-xHYVoFABl8Vxjb4jkAr85qvSyb2sDjQxKps9yJstHMLMZaWr9yX3TrbCQhzaCTl9CXP6SLdQK_beU8-nbUi5ZfsnhqZmeMczoptSZA51Cuk2nJk5nNw41hdjI_qLjtYoDsAW1KWibXDBANmLPKsHkDJlWIWdt5U6-BOHqCPd8gG49s4eFkYfdaRpqEGGYKKx3W5nFCl2xS2zTtblQ7i_9aF8bTfbG_oPimVmswe--B9bXMD7LYok3uW_4VtXnA139sDg7pID5VC85bXUtGOQCxNran6t0DueUhGw/p.jpeg</t>
+    <t>https://i.imgur.com/yKCTCVX.jpg</t>
   </si>
   <si>
     <t>Cachorra-larga</t>
@@ -817,15 +824,15 @@
     <t>8.5</t>
   </si>
   <si>
-    <t>https://uc16442ad1a957eff078f4927bd2.previews.dropboxusercontent.com/p/thumb/ABfQgS5eD-Dc0_ZVt4BEZofBELnHigLTDJm56KIL0YxtH3728O2aTw8FqqMBfBbZrlZ-ptkqza6IZ73s4VYpXK28VbN2dgBgBVRhpEKXSyTAYVUV-L-R9JL-rEx-yPEaNSgl2USiBjvuV0FR2q1at4QYSIxZw82e2rT2_Je8e1atoJ3bEfXPbHWMV-EaloMZQkuwQ97NqmLAOl2q0byXZoa1j2tFKhfbUynkzJCDJ1WcOELhmpNob-H53PPK36-0yZKHGwVBQGf8puwioasWXtjeCUBaqQZnRhXUqab7F339Is3GXSRIJfC7IJG15y3wNPolRNbHUVex9_cB8KXxY2JzRX4y7KXjjpRZomOfpzqcwg/p.jpeg</t>
-  </si>
-  <si>
     <t>Cachorra-corcunda</t>
   </si>
   <si>
     <t>Hydrolycus tatauaia</t>
   </si>
   <si>
+    <t>https://i.imgur.com/wMXGl0t.jpg</t>
+  </si>
+  <si>
     <t>Mapará</t>
   </si>
   <si>
@@ -841,7 +848,7 @@
     <t>1.3</t>
   </si>
   <si>
-    <t>https://uc6a230972e8e58c601d0bd4a977.previews.dropboxusercontent.com/p/thumb/ABcbw1ZQSmwcQuxrJBEuw7-1uFpfLmNg2QlWgEvoOmXstYHgcBCfZQPK2_iUCf_FG6xkiZqVo6JvoXHwh2uGyn5wNI6XK96V8PijuVrVL_QnZWe_qo77QuKf1lJm2YbgHTzQRaC5rLE2_Y7-wWTmDh2XX24WDvMl_1TTt526kgYci2537fjbVl1Vsu2XCeEAtIaUr6gssiH_AZHpTULkRQmSJsBKnq93RC2wK6Yq3ZWC8eXw2Hcx8ikagehvn_RuibnrbXuYjGmcUzsSXII9rXXVOThvIxC3SF7CDNDi5bMAmeCw9agSONmxyY0oVog43YOBnYTKHbypEeU_1B3_0b8m8C3cTbrLVAvpx97tmKiXbQ/p.jpeg</t>
+    <t>https://i.imgur.com/X3E2GKe.jpg</t>
   </si>
   <si>
     <t>Acará-roxo</t>
@@ -850,22 +857,22 @@
     <t>Hypselacara temporalis</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AACmO9IbOGmdgafHxqFokh0Ua/IMAGENS-PEIXES-COMP/Hypselacara%20temporalis.JPG?dl=0</t>
-  </si>
-  <si>
     <t>Cascudo-paca</t>
   </si>
   <si>
     <t>Leporacanthicus galaxias</t>
   </si>
   <si>
+    <t>https://i.imgur.com/BtzEXqk.jpg</t>
+  </si>
+  <si>
     <t>Piau-flamengo</t>
   </si>
   <si>
     <t>Leporinus affinis</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AADhhYZ1RU5Qpl3hgucksodwa/IMAGENS-PEIXES-COMP/Leporinus%20affinis.JPG?dl=0</t>
+    <t>https://i.imgur.com/PAJntGF.jpg</t>
   </si>
   <si>
     <t>Piau-comum</t>
@@ -877,7 +884,7 @@
     <t>1.5</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AABaN1jywFzFPpUWpgEShzxPa/IMAGENS-PEIXES-COMP/Leporinus%20friderici.JPG?dl=0</t>
+    <t>https://i.imgur.com/NcOuLz6.jpg</t>
   </si>
   <si>
     <t>Sardinha-de-gato, Manjuba</t>
@@ -889,7 +896,7 @@
     <t>Engraulidae</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AAAv8lOH1KpwZtclwQ6T4AQ7a/IMAGENS-PEIXES-COMP/Lycengraulis%20batesi.JPG?dl=0</t>
+    <t>https://i.imgur.com/LDxq0K3.jpg</t>
   </si>
   <si>
     <t>Piau-cabeça-gorda</t>
@@ -901,7 +908,7 @@
     <t>2.2</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AACSJrf9ZJ-i8bm_RKJR94zYa/IMAGENS-PEIXES-COMP/Megaleporinus%20trifasciatus.JPG?dl=0</t>
+    <t>https://i.imgur.com/sWdevOW.jpg</t>
   </si>
   <si>
     <t>Mandí-prata</t>
@@ -910,7 +917,7 @@
     <t>Megalonema platycephalum</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AABycH01-jWguDoS9hV6A11aa/IMAGENS-PEIXES-COMP/Moenkhausia%20dichroura.JPG?dl=0</t>
+    <t>https://i.imgur.com/8NQ0YZo.jpg</t>
   </si>
   <si>
     <t>Acará-festivo</t>
@@ -919,7 +926,7 @@
     <t>Mesonauta festivus</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AADuWRBNEs3KZ7aRoxZTnR0Oa/IMAGENS-PEIXES-COMP/Mesonauta%20festivus.JPG?dl=0</t>
+    <t>https://i.imgur.com/caeXqqx.jpg</t>
   </si>
   <si>
     <t>Lambarí-rabo-preto-e-branco</t>
@@ -928,9 +935,6 @@
     <t>Moenkhausia dichroura</t>
   </si>
   <si>
-    <t>https://ucb0c136efc20f41b8a9b797e705.previews.dropboxusercontent.com/p/thumb/ABfkAEhD3kFNG-OMboYh-ShXQdNELjbNM8Xd4f__KfZJQXBe1XLluaSab0eH6ceBlMuDKCNa2RjusxveJZgcoHTi2bIf-iyJYgoTQVGfbuYmPXy_iMT0cwtuKd4ofnPAeskIkZ6rYxwVYTVnWraesQgwUudqeMr9Ofn3kFR93Uk7VAerklEk08wtYVstYu0vk2m08T-erYKhxWEE3cDdSBgfCLVIad-4vyzdmNWESqYWkYkwBUOTKxCLhfA-ty5bnmAeVuIn24UrnmFsqD9a7mjqflqiy-nrq0rxV5Z3calrZWJDT6iy2cF6a1sKzi1zTPOgn3CeeR1KARmqyAYK4weKFH8-3E5TsoDFAHDNYZ1_4g/p.jpeg</t>
-  </si>
-  <si>
     <t>Lambarí-rabo-vermelho-e-preto</t>
   </si>
   <si>
@@ -940,13 +944,16 @@
     <t>10.5</t>
   </si>
   <si>
+    <t>https://i.imgur.com/6JAB8rs.jpg</t>
+  </si>
+  <si>
     <t>Lambarí-rabo-de-ouro</t>
   </si>
   <si>
     <t>Moenkhausia oligolepis</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AACjM2baghwdzyGn-9v0yxD_a/IMAGENS-PEIXES-COMP/Moenkhausia%20oligolepis.JPG?dl=0</t>
+    <t>https://i.imgur.com/inj4Ua4.jpg</t>
   </si>
   <si>
     <t>Peixes redondos</t>
@@ -967,21 +974,18 @@
     <t>Rios com corredeiras.</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AAC5_329wbAk1r6Q8iAvEr2Ua/IMAGENS-PEIXES-COMP/Mylesinus%20paucisquamatus.jpg?dl=0</t>
-  </si>
-  <si>
     <t>Myleus setiger</t>
   </si>
   <si>
+    <t>https://i.imgur.com/DN88XOc.jpg</t>
+  </si>
+  <si>
     <t>Pacú-ferrado</t>
   </si>
   <si>
     <t>Myloplus schomburgkii</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AAD_2ol5WCDh0Bo448NTyo1Ja/IMAGENS-PEIXES-COMP/Myloplus%20schomburgkii.JPG?dl=0</t>
-  </si>
-  <si>
     <t>Pacú-branca</t>
   </si>
   <si>
@@ -994,6 +998,9 @@
     <t>Mylossoma duriventre</t>
   </si>
   <si>
+    <t>https://i.imgur.com/6zcPVbM.jpg</t>
+  </si>
+  <si>
     <t>Peixes médios</t>
   </si>
   <si>
@@ -1006,7 +1013,7 @@
     <t>4.3</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AACPuoB9Gfbu2WUYhd0ZCDIya/IMAGENS-PEIXES-COMP/Oreochromis%20niloticus.jpg?dl=0</t>
+    <t>https://i.imgur.com/ZljPdPM.jpg</t>
   </si>
   <si>
     <t>Aruanã</t>
@@ -1018,15 +1025,15 @@
     <t>Osteoglossidae</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AABYrbhZdKIIyyLqPZk7KFAua/IMAGENS-PEIXES-COMP/Osteoglossum%20bicirrhosum.JPG?dl=0</t>
-  </si>
-  <si>
     <t>Cuiú-cuiú</t>
   </si>
   <si>
     <t>Oxydoras niger</t>
   </si>
   <si>
+    <t>https://i.imgur.com/BHxSE8h.jpg</t>
+  </si>
+  <si>
     <t>Corvinas</t>
   </si>
   <si>
@@ -1039,7 +1046,7 @@
     <t>Scianidae</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AAAILsq4uAUI0FNcSqI_mhDCa/IMAGENS-PEIXES-COMP/Pachypops%20fourcroi.JPG?dl=0</t>
+    <t>https://i.imgur.com/ueH9rJ6.jpg</t>
   </si>
   <si>
     <t>Arraias</t>
@@ -1060,7 +1067,7 @@
     <t>Endêmica da Amazônia.</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AADYA8fAuVQ-F8NooDSlVZ9xa/IMAGENS-PEIXES-COMP/Paratrygon%20aiereba.jpg?dl=0</t>
+    <t>https://i.imgur.com/uFn4d8P.jpg</t>
   </si>
   <si>
     <t>Apapá, Sardinhão, Pescada-amarela</t>
@@ -1075,7 +1082,7 @@
     <t>7.1</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AAABdMCI8HIJPV8GaxwtrG2Wa/IMAGENS-PEIXES-COMP/Pellona%20castelnaeana.JPG?dl=0</t>
+    <t>https://i.imgur.com/7I8qoya.jpg</t>
   </si>
   <si>
     <t>Pescada-branca</t>
@@ -1084,7 +1091,7 @@
     <t>Pellona flavipinnis</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AAAvnWSee1KqapbMyokPyCdFa/IMAGENS-PEIXES-COMP/Pelona%20flavipinnis.JPG?dl=0</t>
+    <t>https://i.imgur.com/2e87XnI.jpg</t>
   </si>
   <si>
     <t>Pirarara</t>
@@ -1096,7 +1103,7 @@
     <t>44.2</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AABlrH8XfldL2BARz2B05FLga/IMAGENS-PEIXES-COMP/Phractocephalus%20hemioliopterus.JPG?dl=0</t>
+    <t>https://i.imgur.com/is6kFsS.jpg</t>
   </si>
   <si>
     <t>Caranha, Pirapitinga</t>
@@ -1108,9 +1115,6 @@
     <t>Frutas e sementes.</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AAALnzyfV5l2cjp8y0cXQPgMa/IMAGENS-PEIXES-COMP/Piaractus%20brachypomus.JPG?dl=0</t>
-  </si>
-  <si>
     <t>Chorão</t>
   </si>
   <si>
@@ -1120,15 +1124,15 @@
     <t>Heptapteridae</t>
   </si>
   <si>
+    <t>https://i.imgur.com/TP4UIXw.jpg</t>
+  </si>
+  <si>
     <t>Chorão-de-faixa</t>
   </si>
   <si>
     <t>Pimelodella gracilis</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AACzXEvj6FW0ylRrCpLtpgCja/IMAGENS-PEIXES-COMP/Pimelodella%20gracilis.jpg?dl=0</t>
-  </si>
-  <si>
     <t>Mandí-moela</t>
   </si>
   <si>
@@ -1138,13 +1142,16 @@
     <t>Canais de grandes rios.</t>
   </si>
   <si>
+    <t>https://i.imgur.com/QzfOUWc.jpg</t>
+  </si>
+  <si>
     <t>Mandí-amarelo, Mandí-cabeça-de-ferro</t>
   </si>
   <si>
     <t>Pimelodus blochii</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AAA7iDN4mU2L43grTlFyexvoa/IMAGENS-PEIXES-COMP/Pimelodus%20blochii.JPG?dl=0</t>
+    <t>https://i.imgur.com/TYA8CVe.jpg</t>
   </si>
   <si>
     <t>Mandí-guarú</t>
@@ -1153,7 +1160,7 @@
     <t>Pimelodus ornatus</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AAAY-25ybeXXyYdwQoNAIM9Ra/IMAGENS-PEIXES-COMP/Pimelodus%20ornatus.JPG?dl=0</t>
+    <t>https://i.imgur.com/ztIOP0Z.jpg</t>
   </si>
   <si>
     <t>Barbado</t>
@@ -1165,7 +1172,7 @@
     <t>7.7</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AADoMJzwzl979lGkcl1COGZ3a/IMAGENS-PEIXES-COMP/Pinirampus%20pirinampu.JPG?dl=0</t>
+    <t>https://i.imgur.com/U5n7vfB.jpg</t>
   </si>
   <si>
     <t>Corvina</t>
@@ -1177,7 +1184,7 @@
     <t>4.5</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AACfNh7tCn1JZmXGEQcLoqRAa/IMAGENS-PEIXES-COMP/Plagioscion%20squamosissimus.JPG?dl=0</t>
+    <t>https://i.imgur.com/Eq9Up0Z.jpg</t>
   </si>
   <si>
     <t>Bacu-rebeca, Cascudo-rebeca, Cascudo listrado</t>
@@ -1186,7 +1193,7 @@
     <t>Platydoras costatus</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AAAcbuE7Wu4XjnSXPja0xuDGa/IMAGENS-PEIXES-COMP/Platydoras%20costatus.JPG?dl=0</t>
+    <t>https://i.imgur.com/6yJVNxu.jpg</t>
   </si>
   <si>
     <t>Coroatá, Piranambú, Surubim-de-corredeira</t>
@@ -1195,9 +1202,6 @@
     <t>Platynematichthys notatus</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AACy6WMl-PXOK-C5lJwnd4e_a/IMAGENS-PEIXES-COMP/Platynematichthys%20notatus.jpg?dl=0</t>
-  </si>
-  <si>
     <t>Lambarí-papudo</t>
   </si>
   <si>
@@ -1207,6 +1211,9 @@
     <t>10.2</t>
   </si>
   <si>
+    <t>https://i.imgur.com/jTzh2VX.jpg</t>
+  </si>
+  <si>
     <t>Bicuda-agulha</t>
   </si>
   <si>
@@ -1222,9 +1229,6 @@
     <t>29.1</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AABbLiTuIFay_XaYb-O1qprSa/IMAGENS-PEIXES-COMP/Potamorrhapis%20guianensis.JPG?dl=0</t>
-  </si>
-  <si>
     <t>Arraia-de-fogo</t>
   </si>
   <si>
@@ -1249,6 +1253,9 @@
     <t>14.5</t>
   </si>
   <si>
+    <t>https://i.imgur.com/3A8ingl.jpg</t>
+  </si>
+  <si>
     <t>Papa-terra</t>
   </si>
   <si>
@@ -1258,7 +1265,7 @@
     <t>Prochilodontidae</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AADcBEMuZ477MtbZrHaGm4Pla/IMAGENS-PEIXES-COMP/Prochilodus%20nigricans.JPG?dl=0</t>
+    <t>https://i.imgur.com/JTO5nUg.jpg</t>
   </si>
   <si>
     <t>Branquinha-cascuda</t>
@@ -1270,7 +1277,7 @@
     <t>0.2</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AACNL0_62R878dYkHK_SZptda/IMAGENS-PEIXES-COMP/Psectrogaster%20amazonica.JPG?dl=0</t>
+    <t>https://i.imgur.com/thb6kRo.jpg</t>
   </si>
   <si>
     <t>Surubim, Cachara, Pintado</t>
@@ -1279,9 +1286,6 @@
     <t>Pseudoplatystoma fasciatum</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AAD9ZDjhfNB6V6gWvFcmiFcua/IMAGENS-PEIXES-COMP/Pseudoplatystoma%20fasciatum.JPG?dl=0</t>
-  </si>
-  <si>
     <t>Abotoado</t>
   </si>
   <si>
@@ -1294,6 +1298,9 @@
     <t>6.5</t>
   </si>
   <si>
+    <t>https://i.imgur.com/mgJQyUg.jpg</t>
+  </si>
+  <si>
     <t>Cascudos grandes</t>
   </si>
   <si>
@@ -1306,7 +1313,7 @@
     <t>39.5</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AAC6F3IwgPnSC65H90tdGsCOa/IMAGENS-PEIXES-COMP/Pterygoplichthys%20joselimaianus.JPG?dl=0</t>
+    <t>https://i.imgur.com/I3T5TzB.jpg</t>
   </si>
   <si>
     <t>Piranha-vermelha</t>
@@ -1318,7 +1325,7 @@
     <t>3.9</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AADWsSa9ePO4Cu_WQJkzTn-2a/IMAGENS-PEIXES-COMP/Pygocentrus%20nattereri.JPG?dl=0</t>
+    <t>https://i.imgur.com/1ELVWpn.jpg</t>
   </si>
   <si>
     <t>Cachorra-facão</t>
@@ -1330,7 +1337,7 @@
     <t>2.1</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AACz1lvaNE4ola6s5HDBk3kOa/IMAGENS-PEIXES-COMP/Rhaphiodon%20vulpinus.JPG?dl=0</t>
+    <t>https://i.imgur.com/sat4cHQ.jpg</t>
   </si>
   <si>
     <t>Jundiá, Bagre, Lobó</t>
@@ -1345,7 +1352,7 @@
     <t>47.4</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AADq0APo6MtUrzQ6Bn34YGTVa/IMAGENS-PEIXES-COMP/Rhamdia%20quelen.JPG?dl=0</t>
+    <t>https://i.imgur.com/WCA4tJJ.jpg</t>
   </si>
   <si>
     <t>Tubarana, Tabarana</t>
@@ -1357,15 +1364,12 @@
     <t>1.1</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AAD64t33d_lYTf0Ot0d1Gyv9a/IMAGENS-PEIXES-COMP/Salminus%20hilarii.jpg?dl=0</t>
+    <t>https://i.imgur.com/ryIrxoP.jpg</t>
   </si>
   <si>
     <t>Schizodon vittatus</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AAC2EQYX64NdzWNCuWAuDrcVa/IMAGENS-PEIXES-COMP/Schizodon%20vittatus.JPG?dl=0</t>
-  </si>
-  <si>
     <t>Jaraqui</t>
   </si>
   <si>
@@ -1375,13 +1379,16 @@
     <t>2.6</t>
   </si>
   <si>
+    <t>https://i.imgur.com/zRQmMI2.jpg</t>
+  </si>
+  <si>
     <t>Piranha</t>
   </si>
   <si>
     <t>Serrasalmus eigenmanni</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AAClkk-O0h17qx0oWtn-CTwXa/IMAGENS-PEIXES-COMP/Serrasalmus%20eigenmanni.JPG?dl=0</t>
+    <t>https://i.imgur.com/cvg49vb.jpg</t>
   </si>
   <si>
     <t>Piranha-preta</t>
@@ -1393,7 +1400,7 @@
     <t>41.5</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AAC9sHLOxqvoEZIvRND0hhZ3a/IMAGENS-PEIXES-COMP/Serrasalmus%20rhombeus.JPG?dl=0</t>
+    <t>https://i.imgur.com/xRh4o61.jpg</t>
   </si>
   <si>
     <t>Bico-de-pato, Jurupensém</t>
@@ -1405,7 +1412,7 @@
     <t>54.2</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AABdJLNMq8Nqbbga9VjZfaSUa/IMAGENS-PEIXES-COMP/Sorubim%20lima.JPG?dl=0</t>
+    <t>https://i.imgur.com/uKI1tvM.jpg</t>
   </si>
   <si>
     <t>Surubim-chicote, Bargada</t>
@@ -1414,9 +1421,6 @@
     <t>Sorubimichthys planiceps</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AABmepXnrKV7MWeYHXOu6Geja/IMAGENS-PEIXES-COMP/Sorubimichthys%20planiceps.JPG?dl=0</t>
-  </si>
-  <si>
     <t>Cascudo-chicote</t>
   </si>
   <si>
@@ -1432,13 +1436,16 @@
     <t>Synbranchidae</t>
   </si>
   <si>
+    <t>https://i.imgur.com/Nxx0kfy.jpg</t>
+  </si>
+  <si>
     <t>Pataquinha</t>
   </si>
   <si>
     <t>Tetragonopterus argenteus</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AADbgGlZQyvj0KdS8BGwRJ1ra/IMAGENS-PEIXES-COMP/Tetragonopterus%20argenteus.JPG?dl=0</t>
+    <t>https://i.imgur.com/mqvUoCy.jpg</t>
   </si>
   <si>
     <t>Cangatí, Cachorro-do-padre</t>
@@ -1447,7 +1454,7 @@
     <t>Trachelyopterus galeatus</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AADnlkGtA7fiF7o81dZslO3Pa/IMAGENS-PEIXES-COMP/Trachelyopterus%20galeatus.JPG?dl=0</t>
+    <t>https://i.imgur.com/qNwluY1.jpg</t>
   </si>
   <si>
     <t>Sardinhas</t>
@@ -1462,7 +1469,7 @@
     <t>25.7</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AAA_KSDc8TQ9IhRf6LLb7L7da/IMAGENS-PEIXES-COMP/Triportheus%20albus.JPG?dl=0</t>
+    <t>https://i.imgur.com/vF2RMVC.jpg</t>
   </si>
   <si>
     <t>Sardinha-papuda</t>
@@ -1474,7 +1481,7 @@
     <t>16.5</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AAAQGRq3z7ED4QDaq6H6y3vga/IMAGENS-PEIXES-COMP/Triportheus%20trifurcatus.JPG?dl=0</t>
+    <t>https://i.imgur.com/pORsNwC.jpg</t>
   </si>
   <si>
     <t>Jaú</t>
@@ -1483,7 +1490,7 @@
     <t>Zungaro zungaro</t>
   </si>
   <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AAA7NxFhV1XWPolav1l8Ra9Xa/IMAGENS-PEIXES-COMP/Zungaro%20zungaro.JPG?dl=0</t>
+    <t>https://i.imgur.com/K2DQg0s.jpg</t>
   </si>
   <si>
     <t>Peixes de escama</t>
@@ -1493,16 +1500,13 @@
   </si>
   <si>
     <t>Leporellus vittatus</t>
-  </si>
-  <si>
-    <t>https://www.dropbox.com/sh/yacowjkdclxiyp9/AABZndaVIQjC6xaMcxRajZ9pa/IMAGENS-PEIXES-COMP/Leporellus%20vittatus.JPG?dl=0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1516,6 +1520,19 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1540,9 +1557,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -1860,8 +1879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView tabSelected="1" topLeftCell="L107" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T122" sqref="T122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15"/>
@@ -1881,7 +1900,9 @@
     <col min="14" max="14" width="18.140625" customWidth="1"/>
     <col min="15" max="15" width="14.7109375" customWidth="1"/>
     <col min="18" max="18" width="0" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="95.140625" customWidth="1"/>
+    <col min="19" max="19" width="33.85546875" customWidth="1"/>
+    <col min="23" max="23" width="3.28515625" customWidth="1"/>
+    <col min="24" max="24" width="36.42578125" customWidth="1"/>
     <col min="31" max="31" width="41.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1931,195 +1952,217 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" spans="1:24">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2">
         <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>23</v>
+        <v>23</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3">
         <v>37</v>
       </c>
       <c r="I3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="X3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="X4" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="X5" s="1" t="s">
-        <v>39</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
@@ -2137,7 +2180,7 @@
         <v>44</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H6" t="s">
         <v>45</v>
@@ -2146,168 +2189,190 @@
         <v>115</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>55</v>
+        <v>23</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="3" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:24">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H8">
         <v>30</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M8" t="s">
-        <v>22</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>61</v>
+        <v>23</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:24">
       <c r="A9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M9" t="s">
-        <v>22</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>68</v>
+        <v>23</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:24">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H10">
         <v>450</v>
@@ -2316,353 +2381,389 @@
         <v>200</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:24">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M11" t="s">
-        <v>22</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>81</v>
+        <v>23</v>
+      </c>
+      <c r="S11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:24">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F12" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H12" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I12">
         <v>96</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M12" t="s">
-        <v>22</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>88</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D13" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H13" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M13" t="s">
-        <v>22</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
     </row>
     <row r="14" spans="1:24">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I14">
         <v>69</v>
       </c>
       <c r="J14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M14" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" t="s">
         <v>44</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H15">
         <v>30</v>
       </c>
       <c r="J15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M15" t="s">
-        <v>22</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>99</v>
+        <v>23</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:24">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E16" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H16">
         <v>20</v>
       </c>
       <c r="J16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K16" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M16" t="s">
-        <v>22</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>108</v>
+        <v>23</v>
+      </c>
+      <c r="S16" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B17" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H17">
         <v>34</v>
       </c>
       <c r="I17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M17" t="s">
-        <v>22</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="X17" s="1" t="s">
-        <v>111</v>
+        <v>23</v>
+      </c>
+      <c r="S17" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:24">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H18">
         <v>88</v>
@@ -2671,89 +2772,97 @@
         <v>6</v>
       </c>
       <c r="J18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M18" t="s">
-        <v>22</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="X18" s="1" t="s">
-        <v>116</v>
+        <v>23</v>
+      </c>
+      <c r="S18" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D19" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" t="s">
         <v>117</v>
       </c>
-      <c r="E19" t="s">
-        <v>115</v>
-      </c>
       <c r="F19" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H19" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M19" t="s">
-        <v>22</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="X19" s="1" t="s">
-        <v>119</v>
+        <v>23</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="20" spans="1:24">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C20" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D20" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H20">
         <v>360</v>
@@ -2762,45 +2871,49 @@
         <v>200</v>
       </c>
       <c r="J20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M20" t="s">
-        <v>22</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>123</v>
+        <v>23</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:24">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E21" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H21">
         <v>37</v>
@@ -2809,819 +2922,905 @@
         <v>1</v>
       </c>
       <c r="J21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M21" t="s">
-        <v>22</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="X21" s="1" t="s">
-        <v>128</v>
+        <v>23</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E22" t="s">
         <v>129</v>
       </c>
-      <c r="D22" t="s">
-        <v>130</v>
-      </c>
-      <c r="E22" t="s">
-        <v>127</v>
-      </c>
       <c r="F22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H22" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="J22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K22" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L22" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M22" t="s">
-        <v>22</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="X22" s="1" t="s">
-        <v>133</v>
+        <v>23</v>
+      </c>
+      <c r="S22" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="3" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G23" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H23">
         <v>37</v>
       </c>
       <c r="J23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M23" t="s">
-        <v>22</v>
-      </c>
-      <c r="S23" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="X23" s="1" t="s">
-        <v>135</v>
+        <v>23</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:24">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D24" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E24" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F24" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H24">
         <v>12</v>
       </c>
       <c r="J24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M24" t="s">
-        <v>22</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="X24" s="1" t="s">
-        <v>139</v>
+        <v>23</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C25" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D25" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E25" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G25" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H25" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="J25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M25" t="s">
-        <v>22</v>
-      </c>
-      <c r="S25" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="X25" s="1" t="s">
-        <v>142</v>
+        <v>23</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="3" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D26" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F26" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M26" t="s">
-        <v>22</v>
-      </c>
-      <c r="S26" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="X26" s="1" t="s">
-        <v>145</v>
+        <v>23</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D27" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E27" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F27" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H27" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="J27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M27" t="s">
-        <v>22</v>
-      </c>
-      <c r="S27" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="X27" s="1" t="s">
-        <v>150</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
     </row>
     <row r="28" spans="1:24">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C28" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D28" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E28" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H28">
         <v>30</v>
       </c>
       <c r="J28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M28" t="s">
-        <v>22</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
     </row>
     <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C29" t="s">
+        <v>157</v>
+      </c>
+      <c r="D29" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" t="s">
+        <v>155</v>
+      </c>
+      <c r="F29" t="s">
         <v>156</v>
       </c>
-      <c r="D29" t="s">
-        <v>157</v>
-      </c>
-      <c r="E29" t="s">
-        <v>154</v>
-      </c>
-      <c r="F29" t="s">
-        <v>155</v>
-      </c>
       <c r="G29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I29">
         <v>280</v>
       </c>
       <c r="J29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M29" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B30" t="s">
         <v>40</v>
       </c>
       <c r="C30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D30" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F30" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H30" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I30" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M30" t="s">
-        <v>22</v>
-      </c>
-      <c r="S30" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="X30" s="1" t="s">
-        <v>164</v>
+        <v>23</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="3" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:24">
       <c r="A31" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B31" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C31" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D31" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E31" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H31" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I31" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M31" t="s">
-        <v>22</v>
-      </c>
-      <c r="S31" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="X31" s="1" t="s">
-        <v>170</v>
+        <v>23</v>
+      </c>
+      <c r="S31" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B32" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C32" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D32" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E32" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H32">
         <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="J32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M32" t="s">
-        <v>22</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="X32" s="1" t="s">
-        <v>174</v>
+        <v>23</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="3" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="33" spans="1:24">
       <c r="A33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C33" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D33" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E33" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G33" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H33">
         <v>22</v>
       </c>
       <c r="I33" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="J33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M33" t="s">
-        <v>22</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="X33" s="1" t="s">
-        <v>178</v>
+        <v>23</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="3" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="34" spans="1:24">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C34" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D34" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E34" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H34">
         <v>10</v>
       </c>
       <c r="J34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M34" t="s">
-        <v>22</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="X34" s="1" t="s">
-        <v>182</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
     </row>
     <row r="35" spans="1:24">
       <c r="A35" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D35" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E35" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G35" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H35" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M35" t="s">
-        <v>22</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
     </row>
     <row r="36" spans="1:24">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C36" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D36" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E36" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F36" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H36">
         <v>25</v>
       </c>
       <c r="J36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M36" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="3" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="37" spans="1:24">
       <c r="A37" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C37" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D37" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E37" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M37" t="s">
-        <v>22</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="X37" s="1" t="s">
-        <v>191</v>
+        <v>23</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="38" spans="1:24">
       <c r="A38" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B38" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C38" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D38" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E38" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F38" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G38" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M38" t="s">
-        <v>22</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="X38" s="1" t="s">
-        <v>196</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
     </row>
     <row r="39" spans="1:24">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D39" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E39" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F39" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G39" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H39" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I39" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="J39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M39" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="3" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="40" spans="1:24">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B40" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C40" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D40" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E40" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F40" t="s">
         <v>44</v>
       </c>
       <c r="G40" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H40">
         <v>250</v>
@@ -3630,271 +3829,295 @@
         <v>20</v>
       </c>
       <c r="J40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M40" t="s">
-        <v>22</v>
-      </c>
-      <c r="S40" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="X40" s="1" t="s">
-        <v>206</v>
+        <v>23</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="3" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="41" spans="1:24">
       <c r="A41" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B41" t="s">
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D41" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E41" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G41" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H41" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="J41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M41" t="s">
-        <v>22</v>
-      </c>
-      <c r="S41" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="X41" s="1" t="s">
-        <v>210</v>
+        <v>23</v>
+      </c>
+      <c r="S41" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="42" spans="1:24">
       <c r="A42" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C42" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D42" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E42" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G42" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H42">
         <v>28</v>
       </c>
       <c r="J42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M42" t="s">
-        <v>22</v>
-      </c>
-      <c r="S42" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="X42" s="1" t="s">
-        <v>213</v>
+        <v>23</v>
+      </c>
+      <c r="S42" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="3" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:24">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D43" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E43" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F43" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G43" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H43">
         <v>76</v>
       </c>
       <c r="I43" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M43" t="s">
-        <v>22</v>
-      </c>
-      <c r="S43" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="X43" s="1" t="s">
-        <v>217</v>
+        <v>23</v>
+      </c>
+      <c r="S43" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="3" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="44" spans="1:24">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C44" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D44" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E44" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F44" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G44" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H44">
         <v>25</v>
       </c>
       <c r="J44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M44" t="s">
-        <v>22</v>
-      </c>
-      <c r="S44" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="X44" s="1" t="s">
-        <v>222</v>
+        <v>23</v>
+      </c>
+      <c r="S44" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="45" spans="1:24">
       <c r="A45" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B45" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C45" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D45" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E45" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F45" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H45">
         <v>20</v>
       </c>
       <c r="I45" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M45" t="s">
-        <v>22</v>
-      </c>
-      <c r="S45" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="X45" s="1" t="s">
-        <v>227</v>
+        <v>23</v>
+      </c>
+      <c r="S45" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="3" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:24">
       <c r="A46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B46" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C46" t="s">
+        <v>230</v>
+      </c>
+      <c r="D46" t="s">
+        <v>231</v>
+      </c>
+      <c r="E46" t="s">
+        <v>227</v>
+      </c>
+      <c r="F46" t="s">
         <v>228</v>
       </c>
-      <c r="D46" t="s">
-        <v>229</v>
-      </c>
-      <c r="E46" t="s">
-        <v>225</v>
-      </c>
-      <c r="F46" t="s">
-        <v>226</v>
-      </c>
       <c r="G46" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H46">
         <v>27</v>
@@ -3903,86 +4126,94 @@
         <v>161</v>
       </c>
       <c r="J46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M46" t="s">
-        <v>22</v>
-      </c>
-      <c r="S46" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="X46" s="1" t="s">
-        <v>230</v>
+        <v>23</v>
+      </c>
+      <c r="S46" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="3" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="1:24">
       <c r="A47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B47" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C47" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D47" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E47" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F47" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G47" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J47" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K47" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L47" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M47" t="s">
-        <v>22</v>
-      </c>
-      <c r="S47" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="X47" s="1" t="s">
-        <v>233</v>
+        <v>23</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="3" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="48" spans="1:24">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B48" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C48" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D48" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E48" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F48" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H48">
         <v>27</v>
@@ -3991,1033 +4222,1137 @@
         <v>259</v>
       </c>
       <c r="J48" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K48" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L48" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M48" t="s">
-        <v>22</v>
-      </c>
-      <c r="S48" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="X48" s="1" t="s">
-        <v>236</v>
+        <v>23</v>
+      </c>
+      <c r="S48" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="3" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="49" spans="1:24">
       <c r="A49" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B49" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C49" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D49" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E49" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F49" t="s">
         <v>44</v>
       </c>
       <c r="G49" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H49">
         <v>61</v>
       </c>
       <c r="I49" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L49" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M49" t="s">
-        <v>22</v>
-      </c>
-      <c r="S49" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="X49" s="1" t="s">
-        <v>240</v>
+        <v>23</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="3" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="50" spans="1:24">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C50" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D50" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E50" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F50" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M50" t="s">
-        <v>22</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="X50" s="1" t="s">
-        <v>243</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
     </row>
     <row r="51" spans="1:24">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C51" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D51" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E51" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G51" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H51">
         <v>25</v>
       </c>
       <c r="J51" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K51" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L51" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M51" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S51" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="3" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="52" spans="1:24">
       <c r="A52" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B52" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C52" t="s">
+        <v>251</v>
+      </c>
+      <c r="D52" t="s">
+        <v>252</v>
+      </c>
+      <c r="E52" t="s">
+        <v>248</v>
+      </c>
+      <c r="F52" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" t="s">
         <v>249</v>
-      </c>
-      <c r="D52" t="s">
-        <v>250</v>
-      </c>
-      <c r="E52" t="s">
-        <v>247</v>
-      </c>
-      <c r="F52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" t="s">
-        <v>248</v>
       </c>
       <c r="H52">
         <v>65</v>
       </c>
       <c r="I52" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="J52" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K52" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L52" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M52" t="s">
-        <v>22</v>
-      </c>
-      <c r="S52" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="X52" s="1" t="s">
-        <v>252</v>
+        <v>23</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="3" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="53" spans="1:24">
       <c r="A53" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B53" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C53" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D53" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E53" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F53" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G53" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H53">
         <v>35</v>
       </c>
       <c r="J53" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K53" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L53" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M53" t="s">
-        <v>22</v>
-      </c>
-      <c r="S53" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="X53" s="1" t="s">
-        <v>255</v>
+        <v>23</v>
+      </c>
+      <c r="S53" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="54" spans="1:24">
       <c r="A54" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B54" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C54" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D54" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E54" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G54" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H54">
         <v>89</v>
       </c>
       <c r="I54" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J54" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K54" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L54" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M54" t="s">
-        <v>22</v>
-      </c>
-      <c r="S54" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="X54" s="1" t="s">
-        <v>259</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
     </row>
     <row r="55" spans="1:24">
       <c r="A55" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C55" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D55" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E55" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G55" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H55">
         <v>59</v>
       </c>
       <c r="I55" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="J55" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K55" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L55" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M55" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S55" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="3" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="56" spans="1:24">
       <c r="A56" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B56" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C56" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D56" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E56" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F56" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G56" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H56" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="I56" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="J56" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K56" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L56" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M56" t="s">
-        <v>35</v>
-      </c>
-      <c r="S56" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="X56" s="1" t="s">
-        <v>267</v>
+        <v>36</v>
+      </c>
+      <c r="S56" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="3" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="57" spans="1:24">
       <c r="A57" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B57" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C57" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D57" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E57" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F57" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G57" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="J57" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K57" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L57" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M57" t="s">
-        <v>22</v>
-      </c>
-      <c r="S57" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="X57" s="1" t="s">
-        <v>270</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
     </row>
     <row r="58" spans="1:24">
       <c r="A58" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B58" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C58" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D58" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E58" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F58" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G58" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H58">
         <v>25</v>
       </c>
       <c r="J58" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K58" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L58" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M58" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S58" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
+      <c r="X58" s="3" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="59" spans="1:24">
       <c r="A59" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C59" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D59" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E59" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G59" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H59">
         <v>30</v>
       </c>
       <c r="J59" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K59" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L59" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M59" t="s">
-        <v>22</v>
-      </c>
-      <c r="S59" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="X59" s="1" t="s">
-        <v>275</v>
+        <v>23</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="3" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="60" spans="1:24">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C60" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D60" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E60" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F60" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G60" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H60">
         <v>40</v>
       </c>
       <c r="I60" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="J60" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K60" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L60" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M60" t="s">
-        <v>22</v>
-      </c>
-      <c r="S60" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="X60" s="1" t="s">
-        <v>279</v>
+        <v>23</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
+      <c r="X60" s="3" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="61" spans="1:24">
       <c r="A61" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B61" t="s">
         <v>40</v>
       </c>
       <c r="C61" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D61" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E61" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F61" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G61" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H61">
         <v>30</v>
       </c>
       <c r="J61" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K61" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L61" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M61" t="s">
-        <v>22</v>
-      </c>
-      <c r="S61" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="X61" s="1" t="s">
-        <v>283</v>
+        <v>23</v>
+      </c>
+      <c r="S61" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="3" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="62" spans="1:24">
       <c r="A62" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C62" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D62" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E62" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F62" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G62" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H62">
         <v>45</v>
       </c>
       <c r="I62" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="J62" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K62" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M62" t="s">
-        <v>22</v>
-      </c>
-      <c r="S62" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="X62" s="1" t="s">
-        <v>287</v>
+        <v>23</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
+      <c r="X62" s="3" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C63" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="D63" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E63" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F63" t="s">
         <v>44</v>
       </c>
       <c r="G63" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H63">
         <v>30</v>
       </c>
       <c r="J63" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K63" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L63" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M63" t="s">
-        <v>22</v>
-      </c>
-      <c r="S63" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="X63" s="1" t="s">
-        <v>290</v>
+        <v>23</v>
+      </c>
+      <c r="S63" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="T63" s="2"/>
+      <c r="U63" s="2"/>
+      <c r="V63" s="2"/>
+      <c r="W63" s="2"/>
+      <c r="X63" s="3" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C64" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D64" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E64" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F64" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G64" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I64">
         <v>97</v>
       </c>
       <c r="J64" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K64" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L64" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M64" t="s">
-        <v>22</v>
-      </c>
-      <c r="S64" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="X64" s="1" t="s">
-        <v>293</v>
+        <v>23</v>
+      </c>
+      <c r="S64" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="2"/>
+      <c r="X64" s="3" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="65" spans="1:24">
       <c r="A65" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C65" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D65" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E65" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F65" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G65" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H65">
         <v>12</v>
       </c>
       <c r="J65" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K65" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L65" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M65" t="s">
-        <v>22</v>
-      </c>
-      <c r="S65" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="X65" s="1" t="s">
-        <v>296</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="2"/>
+      <c r="X65" s="2"/>
     </row>
     <row r="66" spans="1:24">
       <c r="A66" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C66" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D66" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E66" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F66" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G66" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H66" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J66" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K66" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L66" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M66" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S66" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="2"/>
+      <c r="X66" s="3" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="67" spans="1:24">
       <c r="A67" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C67" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D67" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E67" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F67" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G67" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H67">
         <v>12</v>
       </c>
       <c r="J67" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K67" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L67" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M67" t="s">
-        <v>22</v>
-      </c>
-      <c r="S67" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="X67" s="1" t="s">
-        <v>302</v>
+        <v>23</v>
+      </c>
+      <c r="S67" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="2"/>
+      <c r="X67" s="3" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="68" spans="1:24">
       <c r="A68" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B68" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C68" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D68" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E68" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F68" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="G68" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H68">
         <v>22</v>
       </c>
       <c r="J68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K68" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L68" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M68" t="s">
-        <v>22</v>
-      </c>
-      <c r="S68" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="X68" s="1" t="s">
-        <v>309</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+      <c r="X68" s="2"/>
     </row>
     <row r="69" spans="1:24">
       <c r="A69" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B69" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C69" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="D69" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E69" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F69" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G69" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H69">
         <v>30</v>
       </c>
       <c r="J69" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K69" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L69" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M69" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S69" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="2"/>
+      <c r="X69" s="3" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="70" spans="1:24">
       <c r="A70" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B70" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C70" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D70" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E70" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F70" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G70" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H70">
         <v>42</v>
       </c>
       <c r="J70" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K70" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L70" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M70" t="s">
-        <v>22</v>
-      </c>
-      <c r="S70" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="X70" s="1" t="s">
-        <v>313</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="2"/>
+      <c r="X70" s="2"/>
     </row>
     <row r="71" spans="1:24">
       <c r="A71" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B71" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C71" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D71" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E71" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F71" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G71" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J71" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K71" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L71" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M71" t="s">
-        <v>22</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="2"/>
+      <c r="X71" s="2"/>
     </row>
     <row r="72" spans="1:24">
       <c r="A72" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B72" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C72" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="D72" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E72" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F72" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G72" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H72">
         <v>30</v>
@@ -5026,86 +5361,100 @@
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L72" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M72" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S72" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="2"/>
+      <c r="X72" s="3" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="73" spans="1:24">
       <c r="A73" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C73" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D73" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E73" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F73" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G73" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H73">
         <v>60</v>
       </c>
       <c r="I73" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="J73" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K73" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L73" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M73" t="s">
-        <v>35</v>
-      </c>
-      <c r="S73" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="X73" s="1" t="s">
-        <v>322</v>
+        <v>36</v>
+      </c>
+      <c r="S73" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
+      <c r="X73" s="3" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="74" spans="1:24">
       <c r="A74" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C74" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D74" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E74" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="F74" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G74" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H74">
         <v>90</v>
@@ -5114,45 +5463,45 @@
         <v>6</v>
       </c>
       <c r="J74" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K74" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L74" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M74" t="s">
-        <v>22</v>
-      </c>
-      <c r="S74" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="X74" s="1" t="s">
-        <v>326</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
+      <c r="X74" s="2"/>
     </row>
     <row r="75" spans="1:24">
       <c r="A75" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B75" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C75" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D75" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E75" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F75" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G75" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H75">
         <v>120</v>
@@ -5161,71 +5510,85 @@
         <v>23</v>
       </c>
       <c r="J75" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K75" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L75" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M75" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S75" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
+      <c r="X75" s="3" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="76" spans="1:24">
       <c r="A76" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B76" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C76" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D76" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E76" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F76" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G76" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H76">
         <v>25</v>
       </c>
-      <c r="S76" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="X76" s="1" t="s">
-        <v>333</v>
+      <c r="S76" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
+      <c r="X76" s="3" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="77" spans="1:24">
       <c r="A77" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B77" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C77" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D77" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E77" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F77" t="s">
         <v>44</v>
       </c>
       <c r="G77" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H77">
         <v>80</v>
@@ -5234,186 +5597,202 @@
         <v>14</v>
       </c>
       <c r="J77" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="K77" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L77" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M77" t="s">
-        <v>22</v>
-      </c>
-      <c r="S77" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="X77" s="1" t="s">
-        <v>340</v>
+        <v>23</v>
+      </c>
+      <c r="S77" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="2"/>
+      <c r="X77" s="3" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="78" spans="1:24">
       <c r="A78" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B78" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C78" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D78" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E78" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F78" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G78" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H78">
         <v>80</v>
       </c>
       <c r="I78" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J78" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K78" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L78" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M78" t="s">
-        <v>22</v>
-      </c>
-      <c r="S78" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="X78" s="1" t="s">
-        <v>345</v>
+        <v>23</v>
+      </c>
+      <c r="S78" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+      <c r="X78" s="3" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="79" spans="1:24">
       <c r="A79" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C79" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D79" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E79" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F79" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G79" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H79">
         <v>80</v>
       </c>
       <c r="I79" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="J79" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K79" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L79" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M79" t="s">
-        <v>22</v>
-      </c>
-      <c r="S79" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="X79" s="1" t="s">
-        <v>348</v>
+        <v>23</v>
+      </c>
+      <c r="S79" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="2"/>
+      <c r="X79" s="3" t="s">
+        <v>350</v>
       </c>
     </row>
     <row r="80" spans="1:24">
       <c r="A80" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B80" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C80" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="D80" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E80" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F80" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G80" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H80">
         <v>135</v>
       </c>
       <c r="I80" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="J80" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K80" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L80" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M80" t="s">
-        <v>22</v>
-      </c>
-      <c r="S80" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="X80" s="1" t="s">
-        <v>352</v>
+        <v>23</v>
+      </c>
+      <c r="S80" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="2"/>
+      <c r="X80" s="3" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="81" spans="1:24">
       <c r="A81" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B81" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C81" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D81" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E81" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F81" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G81" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H81">
         <v>88</v>
@@ -5422,215 +5801,233 @@
         <v>25</v>
       </c>
       <c r="J81" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K81" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L81" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M81" t="s">
-        <v>22</v>
-      </c>
-      <c r="S81" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="X81" s="1" t="s">
-        <v>356</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="S81" s="2"/>
+      <c r="T81" s="2"/>
+      <c r="U81" s="2"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="2"/>
+      <c r="X81" s="2"/>
     </row>
     <row r="82" spans="1:24">
       <c r="A82" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B82" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C82" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D82" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E82" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F82" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G82" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H82">
         <v>35</v>
       </c>
       <c r="J82" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K82" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L82" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M82" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S82" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2"/>
+      <c r="V82" s="2"/>
+      <c r="W82" s="2"/>
+      <c r="X82" s="3" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="83" spans="1:24">
       <c r="A83" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B83" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C83" t="s">
+        <v>362</v>
+      </c>
+      <c r="D83" t="s">
+        <v>363</v>
+      </c>
+      <c r="E83" t="s">
         <v>360</v>
       </c>
-      <c r="D83" t="s">
-        <v>361</v>
-      </c>
-      <c r="E83" t="s">
-        <v>359</v>
-      </c>
       <c r="F83" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G83" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H83">
         <v>20</v>
       </c>
       <c r="J83" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K83" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L83" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M83" t="s">
-        <v>22</v>
-      </c>
-      <c r="S83" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="X83" s="1" t="s">
-        <v>362</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="S83" s="1"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="2"/>
+      <c r="X83" s="1"/>
     </row>
     <row r="84" spans="1:24">
       <c r="A84" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C84" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D84" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E84" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F84" t="s">
         <v>44</v>
       </c>
       <c r="G84" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H84">
         <v>39</v>
       </c>
       <c r="J84" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K84" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M84" t="s">
-        <v>22</v>
-      </c>
-      <c r="S84" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="X84" s="1" t="s">
-        <v>348</v>
+        <v>23</v>
+      </c>
+      <c r="S84" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="T84" s="2"/>
+      <c r="U84" s="2"/>
+      <c r="V84" s="2"/>
+      <c r="W84" s="2"/>
+      <c r="X84" s="3" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="85" spans="1:24">
       <c r="A85" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C85" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D85" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E85" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F85" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G85" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H85">
         <v>35</v>
       </c>
       <c r="J85" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K85" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M85" t="s">
-        <v>22</v>
-      </c>
-      <c r="S85" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="X85" s="1" t="s">
-        <v>368</v>
+        <v>23</v>
+      </c>
+      <c r="S85" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="T85" s="2"/>
+      <c r="U85" s="2"/>
+      <c r="V85" s="2"/>
+      <c r="W85" s="2"/>
+      <c r="X85" s="3" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="86" spans="1:24">
       <c r="A86" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C86" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D86" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="E86" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F86" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G86" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H86">
         <v>35</v>
@@ -5639,520 +6036,576 @@
         <v>426</v>
       </c>
       <c r="J86" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K86" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L86" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M86" t="s">
-        <v>22</v>
-      </c>
-      <c r="S86" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="X86" s="1" t="s">
-        <v>371</v>
+        <v>23</v>
+      </c>
+      <c r="S86" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="T86" s="2"/>
+      <c r="U86" s="2"/>
+      <c r="V86" s="2"/>
+      <c r="W86" s="2"/>
+      <c r="X86" s="3" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="87" spans="1:24">
       <c r="A87" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B87" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C87" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D87" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="E87" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F87" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G87" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H87">
         <v>120</v>
       </c>
       <c r="I87" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="J87" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K87" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L87" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M87" t="s">
-        <v>22</v>
-      </c>
-      <c r="S87" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="X87" s="1" t="s">
-        <v>375</v>
+        <v>23</v>
+      </c>
+      <c r="S87" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="T87" s="2"/>
+      <c r="U87" s="2"/>
+      <c r="V87" s="2"/>
+      <c r="W87" s="2"/>
+      <c r="X87" s="3" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="88" spans="1:24">
       <c r="A88" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B88" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C88" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D88" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E88" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F88" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G88" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H88">
         <v>80</v>
       </c>
       <c r="I88" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="J88" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K88" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L88" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M88" t="s">
-        <v>22</v>
-      </c>
-      <c r="S88" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="X88" s="1" t="s">
-        <v>379</v>
+        <v>23</v>
+      </c>
+      <c r="S88" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="T88" s="2"/>
+      <c r="U88" s="2"/>
+      <c r="V88" s="2"/>
+      <c r="W88" s="2"/>
+      <c r="X88" s="3" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="89" spans="1:24">
       <c r="A89" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B89" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C89" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D89" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E89" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F89" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G89" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H89">
         <v>30</v>
       </c>
       <c r="J89" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K89" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L89" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M89" t="s">
-        <v>22</v>
-      </c>
-      <c r="S89" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="X89" s="1" t="s">
-        <v>382</v>
+        <v>23</v>
+      </c>
+      <c r="S89" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="T89" s="2"/>
+      <c r="U89" s="2"/>
+      <c r="V89" s="2"/>
+      <c r="W89" s="2"/>
+      <c r="X89" s="3" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="90" spans="1:24">
       <c r="A90" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B90" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C90" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D90" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E90" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F90" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G90" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H90">
         <v>80</v>
       </c>
       <c r="J90" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K90" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M90" t="s">
-        <v>22</v>
-      </c>
-      <c r="S90" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="X90" s="1" t="s">
-        <v>385</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="S90" s="2"/>
+      <c r="T90" s="2"/>
+      <c r="U90" s="2"/>
+      <c r="V90" s="2"/>
+      <c r="W90" s="2"/>
+      <c r="X90" s="2"/>
     </row>
     <row r="91" spans="1:24">
       <c r="A91" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B91" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C91" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D91" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E91" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F91" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G91" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H91" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="J91" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K91" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L91" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M91" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="T91" s="2"/>
+      <c r="U91" s="2"/>
+      <c r="V91" s="2"/>
+      <c r="W91" s="2"/>
+      <c r="X91" s="3" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="92" spans="1:24">
       <c r="A92" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B92" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C92" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D92" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E92" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F92" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G92" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H92" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="J92" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K92" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L92" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M92" t="s">
-        <v>22</v>
-      </c>
-      <c r="S92" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="X92" s="1" t="s">
-        <v>394</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="S92" s="2"/>
+      <c r="T92" s="2"/>
+      <c r="U92" s="2"/>
+      <c r="V92" s="2"/>
+      <c r="W92" s="2"/>
+      <c r="X92" s="2"/>
     </row>
     <row r="93" spans="1:24">
       <c r="A93" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B93" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C93" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D93" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="E93" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F93" t="s">
         <v>44</v>
       </c>
       <c r="G93" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H93">
         <v>45</v>
       </c>
       <c r="J93" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K93" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L93" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M93" t="s">
-        <v>22</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
+      <c r="U93" s="2"/>
+      <c r="V93" s="2"/>
+      <c r="W93" s="2"/>
+      <c r="X93" s="2"/>
     </row>
     <row r="94" spans="1:24">
       <c r="A94" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B94" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C94" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D94" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E94" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F94" t="s">
         <v>44</v>
       </c>
       <c r="G94" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H94">
         <v>35</v>
       </c>
       <c r="I94" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="J94" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K94" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L94" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M94" t="s">
-        <v>22</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="S94" s="2"/>
+      <c r="T94" s="2"/>
+      <c r="U94" s="2"/>
+      <c r="V94" s="2"/>
+      <c r="W94" s="2"/>
+      <c r="X94" s="2"/>
     </row>
     <row r="95" spans="1:24">
       <c r="A95" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B95" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C95" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D95" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E95" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F95" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G95" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H95" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="J95" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K95" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L95" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M95" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S95" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="T95" s="2"/>
+      <c r="U95" s="2"/>
+      <c r="V95" s="2"/>
+      <c r="W95" s="2"/>
+      <c r="X95" s="3" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="96" spans="1:24">
       <c r="A96" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B96" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C96" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="D96" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="E96" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F96" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G96" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H96">
         <v>45</v>
       </c>
       <c r="I96" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J96" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K96" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L96" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M96" t="s">
-        <v>22</v>
-      </c>
-      <c r="S96" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="X96" s="1" t="s">
-        <v>406</v>
+        <v>23</v>
+      </c>
+      <c r="S96" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="T96" s="2"/>
+      <c r="U96" s="2"/>
+      <c r="V96" s="2"/>
+      <c r="W96" s="2"/>
+      <c r="X96" s="3" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="97" spans="1:24">
       <c r="A97" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B97" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C97" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D97" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E97" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F97" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G97" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H97">
         <v>19</v>
       </c>
       <c r="I97" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="J97" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K97" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L97" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M97" t="s">
-        <v>22</v>
-      </c>
-      <c r="S97" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="X97" s="1" t="s">
-        <v>410</v>
+        <v>23</v>
+      </c>
+      <c r="S97" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="T97" s="2"/>
+      <c r="U97" s="2"/>
+      <c r="V97" s="2"/>
+      <c r="W97" s="2"/>
+      <c r="X97" s="3" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="98" spans="1:24">
       <c r="A98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B98" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C98" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="D98" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E98" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F98" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G98" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H98">
         <v>105</v>
@@ -6161,403 +6614,443 @@
         <v>70</v>
       </c>
       <c r="J98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K98" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L98" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M98" t="s">
-        <v>22</v>
-      </c>
-      <c r="S98" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="X98" s="1" t="s">
-        <v>413</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="S98" s="2"/>
+      <c r="T98" s="2"/>
+      <c r="U98" s="2"/>
+      <c r="V98" s="2"/>
+      <c r="W98" s="2"/>
+      <c r="X98" s="2"/>
     </row>
     <row r="99" spans="1:24">
       <c r="A99" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B99" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C99" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D99" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="E99" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F99" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G99" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H99">
         <v>70</v>
       </c>
       <c r="I99" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="J99" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K99" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L99" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M99" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S99" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="T99" s="2"/>
+      <c r="U99" s="2"/>
+      <c r="V99" s="2"/>
+      <c r="W99" s="2"/>
+      <c r="X99" s="3" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="100" spans="1:24">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B100" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C100" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="D100" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E100" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F100" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G100" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H100" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="J100" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K100" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L100" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M100" t="s">
-        <v>22</v>
-      </c>
-      <c r="S100" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="X100" s="1" t="s">
-        <v>422</v>
+        <v>23</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="T100" s="2"/>
+      <c r="U100" s="2"/>
+      <c r="V100" s="2"/>
+      <c r="W100" s="2"/>
+      <c r="X100" s="3" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="101" spans="1:24">
       <c r="A101" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B101" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C101" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="D101" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E101" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F101" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G101" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H101">
         <v>50</v>
       </c>
       <c r="I101" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="J101" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K101" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L101" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M101" t="s">
-        <v>22</v>
-      </c>
-      <c r="S101" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="X101" s="1" t="s">
-        <v>426</v>
+        <v>23</v>
+      </c>
+      <c r="S101" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="T101" s="2"/>
+      <c r="U101" s="2"/>
+      <c r="V101" s="2"/>
+      <c r="W101" s="2"/>
+      <c r="X101" s="3" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="102" spans="1:24">
       <c r="A102" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B102" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C102" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D102" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F102" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G102" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H102">
         <v>80</v>
       </c>
       <c r="I102" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="J102" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K102" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L102" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M102" t="s">
-        <v>22</v>
-      </c>
-      <c r="S102" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="X102" s="1" t="s">
-        <v>430</v>
+        <v>23</v>
+      </c>
+      <c r="S102" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="T102" s="2"/>
+      <c r="U102" s="2"/>
+      <c r="V102" s="2"/>
+      <c r="W102" s="2"/>
+      <c r="X102" s="3" t="s">
+        <v>432</v>
       </c>
     </row>
     <row r="103" spans="1:24">
       <c r="A103" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B103" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C103" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D103" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E103" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F103" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G103" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H103" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="I103">
         <v>4</v>
       </c>
       <c r="J103" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K103" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L103" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M103" t="s">
-        <v>22</v>
-      </c>
-      <c r="S103" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="X103" s="1" t="s">
-        <v>435</v>
+        <v>23</v>
+      </c>
+      <c r="S103" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="T103" s="2"/>
+      <c r="U103" s="2"/>
+      <c r="V103" s="2"/>
+      <c r="W103" s="2"/>
+      <c r="X103" s="3" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="104" spans="1:24">
       <c r="A104" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B104" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C104" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D104" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E104" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F104" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G104" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="H104">
         <v>45</v>
       </c>
       <c r="I104" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="J104" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K104" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L104" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M104" t="s">
-        <v>22</v>
-      </c>
-      <c r="S104" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="X104" s="1" t="s">
-        <v>439</v>
+        <v>23</v>
+      </c>
+      <c r="S104" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="T104" s="2"/>
+      <c r="U104" s="2"/>
+      <c r="V104" s="2"/>
+      <c r="W104" s="2"/>
+      <c r="X104" s="3" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="105" spans="1:24">
       <c r="A105" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B105" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C105" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D105" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E105" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F105" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G105" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H105">
         <v>35</v>
       </c>
       <c r="J105" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K105" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L105" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M105" t="s">
-        <v>22</v>
-      </c>
-      <c r="S105" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="X105" s="1" t="s">
-        <v>441</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="S105" s="2"/>
+      <c r="T105" s="2"/>
+      <c r="U105" s="2"/>
+      <c r="V105" s="2"/>
+      <c r="W105" s="2"/>
+      <c r="X105" s="2"/>
     </row>
     <row r="106" spans="1:24">
       <c r="A106" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B106" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C106" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D106" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E106" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F106" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G106" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H106">
         <v>54</v>
       </c>
       <c r="I106" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="J106" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K106" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L106" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M106" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S106" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="T106" s="2"/>
+      <c r="U106" s="2"/>
+      <c r="V106" s="2"/>
+      <c r="W106" s="2"/>
+      <c r="X106" s="3" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="107" spans="1:24">
       <c r="A107" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B107" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C107" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="D107" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E107" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F107" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G107" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H107">
         <v>35</v>
@@ -6566,303 +7059,335 @@
         <v>394</v>
       </c>
       <c r="J107" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K107" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L107" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M107" t="s">
-        <v>22</v>
-      </c>
-      <c r="S107" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="X107" s="1" t="s">
-        <v>447</v>
+        <v>23</v>
+      </c>
+      <c r="S107" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="T107" s="2"/>
+      <c r="U107" s="2"/>
+      <c r="V107" s="2"/>
+      <c r="W107" s="2"/>
+      <c r="X107" s="3" t="s">
+        <v>449</v>
       </c>
     </row>
     <row r="108" spans="1:24">
       <c r="A108" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B108" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C108" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D108" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="E108" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="F108" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G108" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H108" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="I108">
         <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K108" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L108" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M108" t="s">
-        <v>22</v>
-      </c>
-      <c r="S108" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="X108" s="1" t="s">
-        <v>451</v>
+        <v>23</v>
+      </c>
+      <c r="S108" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="T108" s="2"/>
+      <c r="U108" s="2"/>
+      <c r="V108" s="2"/>
+      <c r="W108" s="2"/>
+      <c r="X108" s="3" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="109" spans="1:24">
       <c r="A109" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B109" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C109" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D109" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E109" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F109" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G109" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H109" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="I109" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="J109" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K109" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M109" t="s">
-        <v>22</v>
-      </c>
-      <c r="S109" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="X109" s="1" t="s">
-        <v>455</v>
+        <v>23</v>
+      </c>
+      <c r="S109" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="T109" s="2"/>
+      <c r="U109" s="2"/>
+      <c r="V109" s="2"/>
+      <c r="W109" s="2"/>
+      <c r="X109" s="3" t="s">
+        <v>457</v>
       </c>
     </row>
     <row r="110" spans="1:24">
       <c r="A110" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B110" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C110" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D110" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E110" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F110" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G110" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H110">
         <v>150</v>
       </c>
       <c r="J110" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K110" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L110" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M110" t="s">
-        <v>22</v>
-      </c>
-      <c r="S110" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="X110" s="1" t="s">
-        <v>458</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="S110" s="2"/>
+      <c r="T110" s="2"/>
+      <c r="U110" s="2"/>
+      <c r="V110" s="2"/>
+      <c r="W110" s="2"/>
+      <c r="X110" s="2"/>
     </row>
     <row r="111" spans="1:24">
       <c r="A111" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B111" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C111" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D111" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E111" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F111" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G111" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H111">
         <v>15</v>
       </c>
       <c r="J111" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K111" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L111" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M111" t="s">
-        <v>22</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="S111" s="2"/>
+      <c r="T111" s="2"/>
+      <c r="U111" s="2"/>
+      <c r="V111" s="2"/>
+      <c r="W111" s="2"/>
+      <c r="X111" s="2"/>
     </row>
     <row r="112" spans="1:24">
       <c r="A112" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B112" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C112" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D112" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E112" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F112" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G112" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H112">
         <v>150</v>
       </c>
       <c r="J112" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K112" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L112" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M112" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="S112" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="T112" s="2"/>
+      <c r="U112" s="2"/>
+      <c r="V112" s="2"/>
+      <c r="W112" s="2"/>
+      <c r="X112" s="3" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="113" spans="1:24">
       <c r="A113" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B113" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C113" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="D113" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E113" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F113" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G113" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H113">
         <v>12</v>
       </c>
       <c r="J113" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K113" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L113" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M113" t="s">
-        <v>22</v>
-      </c>
-      <c r="S113" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="X113" s="1" t="s">
-        <v>466</v>
+        <v>23</v>
+      </c>
+      <c r="S113" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="T113" s="2"/>
+      <c r="U113" s="2"/>
+      <c r="V113" s="2"/>
+      <c r="W113" s="2"/>
+      <c r="X113" s="3" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="114" spans="1:24">
       <c r="A114" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B114" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C114" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D114" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E114" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F114" t="s">
         <v>44</v>
       </c>
       <c r="G114" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H114">
         <v>30</v>
@@ -6871,136 +7396,148 @@
         <v>675</v>
       </c>
       <c r="J114" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K114" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L114" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M114" t="s">
-        <v>22</v>
-      </c>
-      <c r="S114" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="X114" s="1" t="s">
-        <v>469</v>
+        <v>23</v>
+      </c>
+      <c r="S114" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="T114" s="2"/>
+      <c r="U114" s="2"/>
+      <c r="V114" s="2"/>
+      <c r="W114" s="2"/>
+      <c r="X114" s="3" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="115" spans="1:24">
       <c r="A115" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B115" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C115" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D115" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E115" t="s">
         <v>43</v>
       </c>
       <c r="F115" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G115" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H115" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="I115" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="J115" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K115" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L115" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M115" t="s">
-        <v>22</v>
-      </c>
-      <c r="S115" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="X115" s="1" t="s">
-        <v>474</v>
+        <v>23</v>
+      </c>
+      <c r="S115" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="T115" s="2"/>
+      <c r="U115" s="2"/>
+      <c r="V115" s="2"/>
+      <c r="W115" s="2"/>
+      <c r="X115" s="3" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="116" spans="1:24">
       <c r="A116" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B116" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C116" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D116" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="E116" t="s">
         <v>43</v>
       </c>
       <c r="F116" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G116" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H116" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="J116" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K116" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L116" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M116" t="s">
-        <v>22</v>
-      </c>
-      <c r="S116" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="X116" s="1" t="s">
-        <v>478</v>
+        <v>23</v>
+      </c>
+      <c r="S116" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="T116" s="2"/>
+      <c r="U116" s="2"/>
+      <c r="V116" s="2"/>
+      <c r="W116" s="2"/>
+      <c r="X116" s="3" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="117" spans="1:24">
       <c r="A117" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B117" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C117" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D117" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E117" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F117" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G117" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H117">
         <v>170</v>
@@ -7009,238 +7546,57 @@
         <v>50</v>
       </c>
       <c r="J117" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K117" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L117" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M117" t="s">
-        <v>22</v>
-      </c>
-      <c r="S117" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="X117" s="1" t="s">
-        <v>481</v>
+        <v>23</v>
+      </c>
+      <c r="S117" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="T117" s="2"/>
+      <c r="U117" s="2"/>
+      <c r="V117" s="2"/>
+      <c r="W117" s="2"/>
+      <c r="X117" s="3" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="118" spans="1:24">
       <c r="A118" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B118" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C118" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D118" t="s">
-        <v>484</v>
-      </c>
-      <c r="S118" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="X118" s="1" t="s">
-        <v>485</v>
-      </c>
+        <v>486</v>
+      </c>
+      <c r="S118" s="1"/>
+      <c r="T118" s="2"/>
+      <c r="U118" s="2"/>
+      <c r="V118" s="2"/>
+      <c r="W118" s="2"/>
+      <c r="X118" s="1"/>
     </row>
     <row r="119" spans="1:24">
-      <c r="S119" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="X119" s="1" t="s">
-        <v>485</v>
-      </c>
+      <c r="X119" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:O1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
-    <hyperlink ref="S119" r:id="rId1" xr:uid="{08A3F25F-0414-4A0F-A719-72B022F2E356}"/>
-    <hyperlink ref="S2" r:id="rId2" display="https://uc9fb217afc3ccedf0d41cf1f6cc.previews.dropboxusercontent.com/p/thumb/ABfJXIrK4k0RS2GkMLqDfH3fqqBfL5giyDe6lizIxQjjhI44_EFL_zycbJoxReDgPjQCWsluK-ddoytH2mQdLArSbj-q-bhbYYw5-mN9QyUCewPlA3ZMXOgj_XMjrvdybG_L-IJ_DiKgE2oUt6U0MaFrx_ta4BdN9MjotYN87JpPUqoGNLDpPO9O3qU0K7Ldn97bAAFJgfHGMyTdapNZZIVIcwG2aJ4M0nudgAUpJIh_qKemhX7rdll92dXsd72V09BdqqY7pGr1tMCwjADs0R8f48D9R5xQwSsbIg4KwwE-yZdrjQCKLPMco6Q6QcEOztRUn6bvgybuq9HdyQMNZXBdI5ybB6rXlTaPd5qb3NW-CQ/p.jpeg" xr:uid="{9ECB1404-B45D-4AFC-816E-26036A3FCBBB}"/>
-    <hyperlink ref="S117" r:id="rId3" xr:uid="{FA043706-2418-432F-B7FE-CD4917F577EF}"/>
-    <hyperlink ref="S116" r:id="rId4" xr:uid="{9B08E448-A33F-4876-8B2D-80E23B551D54}"/>
-    <hyperlink ref="S3" r:id="rId5" display="https://uc82d8c29f83a204c0a7115a8834.previews.dropboxusercontent.com/p/thumb/ABfN9na-oAGv9_PJvTPk8Q8qDHQdMvFAeS1iKw4xAzeWAHT8o6gbKFYZuF2-kZOPKKiHIwAMZnUKeOvmGrv0foN0CaJ1CjKwd447HAWorClMxRNBuecQUnw7QTuKFxaixJIXxiTLfAUFkOL7G63zQeISg6GS76ipIPNHeUNJtz1S-0aODpgzHnoH3mhbfGy7EwPF3hFpnPC0WMJpVhbu8dPDGGBUziesxoi9jM0x9OCIDHgJHUM7Y4q2p3iT7vF9sXsQqIJQwHxizCxACKJuhZeTEdCBEld65um8fU2Y7WXftjT4CzBUPtbw_6bAfbMhELJjkeUeyUc8q5dznKW22fn-8617XKWdGja4eqqBidLHIQ/p.jpeg" xr:uid="{42BCB43A-A740-4362-9343-018B8DAFFD31}"/>
-    <hyperlink ref="S115" r:id="rId6" xr:uid="{0D168D68-FFA1-4886-8A0B-DB218F59AE1C}"/>
-    <hyperlink ref="S114" r:id="rId7" xr:uid="{C22B599C-F442-4501-A9F9-6A8400F6172C}"/>
-    <hyperlink ref="S4" r:id="rId8" display="https://uc61755ebe615e0501827b7b4316.previews.dropboxusercontent.com/p/thumb/ABdxfK-zbBKI-lpRYmI4KDQR1C06gVM7VHmf8v2qYqOzt-eXfi9X7UICTK0Wp6d-4sqfjGdvskuXfnk323EYW32BcLmZc7b8Szz6dA2CqG6sccO65jlrqTPzZT0XH5xnT4RFBhr2_9fHLU2f3CAsyGc_qDOD6g_WBJeGt8uSLvwi2Qi9Un_6Jt1igETbZtfPqUyJ0E_buE_KbaMWRCJLv2RRm_TWyeijP3zoUiV2WNDyXTBRCkMCsIAsRlGq0H9mM_jYDCfq_pde0ISNWs4tidzl7u-jxIYeBEbb9Cx6tN_d5aLU8zY3-v68pxUPl4c6tvf3oj0AW7geHQmVdUNEGQL1krpjSkKWQDfHKKolyiljyA/p.jpeg" xr:uid="{70DEF3EC-7056-4B17-8850-C1CE31B288FB}"/>
-    <hyperlink ref="S113" r:id="rId9" xr:uid="{0F8FF7E4-C11D-43EB-A495-B509DB231213}"/>
-    <hyperlink ref="S5" r:id="rId10" display="https://uca26f2e845fdce598edda8f3836.previews.dropboxusercontent.com/p/thumb/ABfpF2tMyacvMWIaeb7qScVuGdINudWdm8UGxJV33Im07dPmNiZxPkotylArmQgILBHqVbCbkqZx6rK7SzidK24T2mN1TFLfgmQuyovs6SmldSgVcWT1AXYZU8X9pDQ3JnAo5OViAQby8ARz8h4-Y-QaRBbS7t9WmJ_oSctd2SQvSPJXby5o1rMhB2UCfOvpPfLJvvIlyqDXFQiQmMZKL2SU1AL59nJg7bey_MK81c-BnRtlMO-6d7zSf9coD_Lz5s2drfFy6EELzPF_MR8JIecgGQEA5ibTZGNpV5bXOX-wYfncoTC4hUtKkHsMmPs5TddVVg14B8TkxicX5YMbZz2KQgvxoLiopyVjtJjEWifQAA/p.jpeg" xr:uid="{AFDBFE02-5199-40BE-901F-5A390252797D}"/>
-    <hyperlink ref="S110" r:id="rId11" xr:uid="{459A5495-4787-4D8F-B703-4AFBBD4034D8}"/>
-    <hyperlink ref="S7" r:id="rId12" display="https://uceebfd71d7a1f827c59f1c92bae.previews.dropboxusercontent.com/p/thumb/ABfZY0VSL7dxdJe-UnkQ2Xzs6aCrDfYuvtO4twDDG-v6i95pM-dcIiUzb5Rc9wA5ObGksLpdS8x-9MgOjRp6KnsgWnwUsEOeBykMxn5YUI_ry4mz9qaA0jaYOYV-hb_d9jD5AU0RLCuOadypH1D4ZBEXlvVeSw5XMv6TkpA-WdZatVeBljd1rFNwqCBeOz6-ZilbBhG86Z6HGo9fBKscSw3CYZJ2qPCjmXTcoHIVK5zmwWXY15u59aqM_RPL0KrCdZDgz2GePIm6M_nqf42GfKNzgeac83GFDPxzkV075L2XW3ufNT3SDwpE47IlgyIfqUS2QEBIghHy45XPmbBBKVB4qHzoKrwNXqKptHmrA-SsCA/p.jpeg" xr:uid="{60261B18-2BCC-49FD-88BE-A28704D0A89F}"/>
-    <hyperlink ref="S8" r:id="rId13" display="https://ucca13d3fc2d289a990c6ddfd5cd.previews.dropboxusercontent.com/p/thumb/ABfi7FNUmPH4-pLgQKzubFvemu8FAciqcWnIu5943mQDtP-fiz1fCJ_1kqLmNDhNlWAXVx-pUHMw9HMIXTpwAj3ITqX4wLo4Nku5RrmwLwTOgGD5cMcewd8sPMqxegbRh9eKnth717gB-1XGNn40VDeI8LUcxb9ACy2FLFeYZ7QDzoJ6f_mVFMk5GW-9XxpCaYrS0DvCbHMiLX2FjdHkRE-KR454xGhyLVycSN9uKq6bq-eUNzCHMpVI70DpeLhrSKP7yPPwG7VSL1IiUHgEruALH_upE06jZCvpUMuYmk3O_-WLj0SHOQnaYdjkd_r9DVeBvqy6jbUDtNMOaQlfyBP2JoN3AKP8NwkOv-CdlJ9mlw/p.jpeg" xr:uid="{EC8768B4-E6BE-40DD-9C77-E3A425D4B0FB}"/>
-    <hyperlink ref="S109" r:id="rId14" xr:uid="{C330ABE3-972D-4081-AAC3-C63501B0F5C2}"/>
-    <hyperlink ref="S9" r:id="rId15" display="https://uc40c8d29fe83cb66b38f1541ebd.previews.dropboxusercontent.com/p/thumb/ABdRNh_wbTQsHEWD5P3NhqBbuvPq-4_JCUxtKUCM0_PnD0mo2NtrErqu2xONwfwqXOAymjDYokYx4AJkvqsm9FWD2Sj4X9S-KPmlm_0YVmRErL53xYtUBX7EBHwqlUpPUqx1Wco9T1l8N9_QvJ5oLIsthJzH7MhZZSBqEO5P1w3KIyWBa89aUpvfpNLcCEA5NeplZZCxDBBpJySF9h2B_kLKmnmlsf3Km71Moz2MaYDPT6p7DPfSnPO7wMWvsYm7VeHga6aeNylLGShKa-L4MlE2_44QIx14kR6IskK7k8PlP1TdZVXJ9Euw3-cP_JIBQfLEf1-2-woWvcOGLssidOLQZ4I5BOaptVd-ZETiHRGkvw/p.jpeg" xr:uid="{4B3F45E0-42DF-4E9E-9C80-2F0C3EEEBAF8}"/>
-    <hyperlink ref="S10" r:id="rId16" display="https://uc432a2d3a87f646126e7e559734.previews.dropboxusercontent.com/p/thumb/ABeAKhH759fgcLcM1YhOZev6vGaXoLSqZ9F2eI2SnZJnXWXno3b4FnDMTGz45cUaO8GO4hWZ2OQp3WZ-dZ8WBecpMXV7aSZZXFVRAixuMQlLbOuP-lgYCli96RKboClEBlLr8q3_6K1MMAJx9AM6kgQlrf6-r5q6hJCem1Xc57Vfgj6lugiWsyn9vJWZI8VZmqq56zgJ-eOwYAY9rFmTrQmCLFeMfWkivsdXCDQ3E-GdjyM4XaFmLNoiFLsS8kSZ-t5Ud-Q5xz8Kky5QFnn-nNsc-SjLPhpSrJRBU_wnv5MeSAqgXc2XQRRLnIXF93AnwqEUmMqEH1id3m9PgPv7zGIW_GiCo-1UldVX3eNIYNSMMQ/p.jpeg" xr:uid="{9CDDFEA1-8012-4701-BAC5-2D7225E170F5}"/>
-    <hyperlink ref="S108" r:id="rId17" xr:uid="{5277B38A-204B-4B87-9040-A744AFC25530}"/>
-    <hyperlink ref="S107" r:id="rId18" xr:uid="{6ED5A6FC-2B11-4300-AF1C-41821F8AB203}"/>
-    <hyperlink ref="S105" r:id="rId19" xr:uid="{2F7B420F-24FC-4CCA-8AEA-29E61AF1ECD6}"/>
-    <hyperlink ref="S11" r:id="rId20" display="https://ucdd929105e65bb62e940132c869.previews.dropboxusercontent.com/p/thumb/ABcAJCZ4qO58Cn4FI4uVF-dY7Wv6nOhlujnuSimdCYw6xpRk4wHeRlrcyjsRyk_qfgPo3VB0zQ4hWxRWORiO5LZ_c71wgHHT9TaCMpw6TH0AUJrlLV0OWS0uXSGqv2Y-c0wkOQTB7fhx275nabeFmfuNmhdXSrGOBf3uokRYEfdSdJNdxhBeAjerxFbgurTUCg3QhXRSihfOMQ2CMR-nbKUcRwqSFhzH31h39vt8OsB1uAyCXRGEqBToTk777YJOOxRYzNTHzxA7zEMtBHcHr_HbYJzBOUEUGXp3YSyn7XzMhtdJVdfY2O6p_RBuAD9RF7FRbqppy5-heIY8BvtPWdOW4Uy4WLHNFKl5hg-19NfjSQ/p.jpeg" xr:uid="{EC53894E-6532-4B09-861D-B6EE7DC6A583}"/>
-    <hyperlink ref="S104" r:id="rId21" xr:uid="{0308509F-1F94-49E7-A457-BA1A2A654AB9}"/>
-    <hyperlink ref="S12" r:id="rId22" display="https://uc7d2a566b168a081c5f59209275.previews.dropboxusercontent.com/p/thumb/ABdImVbDJbUWRVTbGc0ahLmY6RyWc3riKJtKWwQ4gQUENWjI8tHtnEM2_LYqoferLVPYenRz9IO28ybNAVPI_q2is8IU22MP73LyuRITe42zCizo1ExtZMamoTbJcc6u-TTyNjcv_JWUCX7HtR1SfdDsX_NsHA4CbyYDpnkRh3A5Ac5giVxvtri0lgzKcxoiCaV5viOph64Li9nCnereEm-1TfQmviVxftL4Jrm8-2A228v2bfWjcBCTRabFhxueejOy2PX8ZeY6o4qiOYWZW8Je71v_JRaPW3k_PiHDBPByYArLcQYsQ0MSjGiLl6BYtakb-jV4fYFHRE5vy6wgJXflRtzZTNdQF0L4OtPHzu4odg/p.jpeg" xr:uid="{33D3FA1D-DC37-4FDF-A096-69C2D2324395}"/>
-    <hyperlink ref="S103" r:id="rId23" xr:uid="{1DF4DD8D-5377-4193-AE41-2B8277ACBDEB}"/>
-    <hyperlink ref="S15" r:id="rId24" display="https://ucf3e33395a32b6217232a9a7944.previews.dropboxusercontent.com/p/thumb/ABeBijHW6Qbw-QtUrfrjaEsE1l9YMHcNsIKe6RkkmBXrsv9CB8c2EQFY3ZgHT-_l_zGjRj0Jew_7BAVh7cWIgFPgFl6XRxzgGzeusQi1j7yV8zFxTbeNMmm39NLKf2003ZKHnww0QmhSrfMlWB32zAScZtQ8xwk1BLTw8SGtfiFELkukjj5acZ04MV3XHEHp0QgpTudnwWTMaqJDRLRBn9LHLHZ8JyzWkfWxkxnSKGO7aoRzBUd7FqU5-1xh5MKtmhNPoTsfrWVfMeVgopeUt0FEsZD4_3MnnAhbNkmb9uXquMKJStR7DmTpN16WCjS6KxAh-V5Y7MwjYu7Z-15NDKUL5lXNt9jcBzEPx4j9PpDXvQ/p.jpeg" xr:uid="{F80EA165-40A2-490E-B378-8667EDB1CF82}"/>
-    <hyperlink ref="S102" r:id="rId25" xr:uid="{A0AD95C2-9571-47B5-B12F-F459C414E925}"/>
-    <hyperlink ref="S101" r:id="rId26" xr:uid="{F9288155-8FF7-4E08-8181-3714D1F4AAE5}"/>
-    <hyperlink ref="S100" r:id="rId27" xr:uid="{46D99794-CF13-4DCB-B26D-67035C8C2141}"/>
-    <hyperlink ref="S16" r:id="rId28" display="https://uc5c780ec2e2e0b053f5c54f32e8.previews.dropboxusercontent.com/p/thumb/ABevpHe-YasrylWvbXfbqHD2QdKuOf8bBZlggGggp0PfGA8ZkpgAUB523tNMJYZPHwvQvgeDIVQDDC5l-115Ww-SWNcGFCasKTFvCEQ8_EeofwJu5lrwFeDoSXwyfPu2CBP4mGMfKBqiedXpq8rzrs7t_nfWkP7ar4EEP3Hb6R_knKmJtMJVC_qZEIf7ToaNI057HpBkIhX8Jkrt2-RkNQVc6co1NvJYtBO-AC3MfwdSifHI0J7E1CsNXVuJTCCwBAqrbYFWjncK9ydvoP_sZRzz4H-dxWRo52qSxG3KPDmeQrcYCuPklw9niYBggvDZ6u-JdyxCV9cTh-4BnFnIuL1dcSxmHxzHbZyAAmfKIsLHbA/p.jpeg" xr:uid="{AB3D87C9-7D0F-4032-9690-F550082C465F}"/>
-    <hyperlink ref="S17" r:id="rId29" display="https://ucd187babd43fe7c28e9235a67b9.previews.dropboxusercontent.com/p/thumb/ABe34vCh_f58sS8Vz8-3yvcycbrjCyDN7UluV_8iGAJpggYsnc7PC0Ey1vlUIRHa3g_4EJI9gFOSjrkJt02WIDygGvHUYvR2QEbjPZFXiKM59QxO-2qVXxSAMeCxXi6wupNHrPU7C4poKLXVL1kxHHpYEEq8NfojWbhRyPtCBmaMCRkFxyDNrpAkzC11PwM6fQJiq0newbIRmoA53DxCbfMEwzlzs1nVYZzKEy0BRPQ8vXPZNcSo2FT7s81IO1KOMhP7k9xFEQqAKpB12W7T4unLg7GvjJkYe0dP6_-lbj1dQy7gX3w1BwsQq_WY57dcZsmqQvUTmv0KlEnFIrGVBGs2CUOgxKgaiWZUGf0e44yrxQ/p.jpeg" xr:uid="{5E73B485-8D4E-406B-8E01-9A24198B6989}"/>
-    <hyperlink ref="S18" r:id="rId30" display="https://ucc1d5a0267188ad93b6605edb38.previews.dropboxusercontent.com/p/thumb/ABfb-ZYnMfF-s53vrrCQq6i183kuyq1VABhv76BKZYLlifjBPTsVEhwlkQ4if6fQEFm7LlEMa0nRsGn6YiQXMthwXjtB0o6mgYsvwt-RW3P1QFq2ljFVrp9bVHCGrV8mFmbD59hHHGoVcYIi2Zs8CnfbShqFWZQIZylJEWNQN2uLuWks9hxt755QpcQvVOsiMdU0RizL-lBRcTcr3wZrh5LDKjxc-ZgAxVkK5weUzQlgJIXM8LxbXs1D6vcza5vsdjhr-hptAGvog5HBBakJGFMfF3Y8DR_njEtZwUEXD8-HRYfOGlbnHfXCsSh6QuNP0gzcV-usBAw6ZnQlqt8ImDpkkfgCoR2sSnyF_3P9MPoNXg/p.jpeg" xr:uid="{1C216117-3EA3-4DB1-9344-5A878188703E}"/>
-    <hyperlink ref="S98" r:id="rId31" xr:uid="{BCEC2863-A25D-454A-A7DD-050F6C31238C}"/>
-    <hyperlink ref="S19" r:id="rId32" display="https://uc250fc6e8d86604912444474d4b.previews.dropboxusercontent.com/p/thumb/ABf_H3uxQ_yIYMPHjQ3fTimREoM6oFbGpZ4LqBfvtIRsGFHFvo3XohCKHXatEqr7S4awYXgc76IkV0Dm--eSDnVUnYswQJbrNH3QYaY4oTFgn-9tvydKcX5tL_28GsnwBlnh1TivEx5lgbGRb-gkvM2yMVaGLh13ye1hAJt2VvWWZbjO-v_7rOS8EX8gDa7stpjUb-Q3NJ9EOaBnkB-Sc6_UQai7hkHdIFs_RMvxwHENCSKTUPYw0zyAafgZzJj_BMY1weyYcZiwKTJj8Dk-536iW9lX5k6uZ7DL_QqpzrkmjS7ml2NIRh65cuGdBfaLdJ64AtCnAkf75u69vus2yI8TH6wvHsxBwt9ErlCRwZGSIw/p.jpeg" xr:uid="{24A2721C-1EE4-4619-AF54-6A980028DC39}"/>
-    <hyperlink ref="S97" r:id="rId33" xr:uid="{23DDFA23-4E47-4469-B38E-BDC9BAE646A2}"/>
-    <hyperlink ref="S20" r:id="rId34" display="https://ucd616a464a6594f237a9f07a731.previews.dropboxusercontent.com/p/thumb/ABfS-RTkMXLDpEuQiyo3CmAWabnTJ8IDH6FQL56b0yAd6r9eljvmq-QkTKfNT7MsIJE0IbML8N4549ojIrS6E2zzJ18t9mrUtVgbcLllhlprxefk5_iuFUOikyaD26c1MwnDVjmDrm3OyqWcLsG-2L1L_F192kh5C_IJcWKpH-c1UHq6yYmth-ZoJXdJrG3OyzCG7ut0SVOPY0g99hf3ION1r7Wx1vzbzx76cWFB0BVxxicwmFoIPZS50X6DV4F8RBcqLso0b-8s9maubzLfNSZxN0XT2wt4ExIfotqxVebDYt1uY5W1euPQ7ime7teWHrgr4Dz4suhveRSHTfTZFgjbMwckIWw2wY5t385ETyC8dQ/p.jpeg" xr:uid="{D14E1F61-D584-443D-B8F9-469505A35F52}"/>
-    <hyperlink ref="S96" r:id="rId35" xr:uid="{B267C1DE-294D-442D-954D-0CB23BF7FE57}"/>
-    <hyperlink ref="S21" r:id="rId36" display="https://uc1d5494ef47f71c66f613d3fc72.previews.dropboxusercontent.com/p/thumb/ABeseledRBrvJZ41_WBcfyfrTr-dO7i9U_Qj2sk3S749hjlgdQSsKAdUgvoJp93-I7S0g8Ou1M2Q4D821NZzzguexUltuc4iQpkZM1q1I1YU_XwZoUftQHNbuY1yHsqZlyxHUkzWcddCWJ0BzVgEbcNRplaYpXs8G3ryquWxudOVAVlO8xAkG-BsYOu70ldjKNmu8csRRL2n8LYoJVk4KrDxHMVkPLKVm-5l79diZ55vhf8wCKod7xMKBoku7flRd1rl0RFYl9iiPNuo-YnHTI42QMWd5RXMYvDOiRPLBsU7YTyD5NfTrTYH7i4yAQ2uq4wGQluChyiZX3LN_VbKAgDjcNA9RqSQ-nnH0r9YqIKruw/p.jpeg" xr:uid="{BB7C0591-AED2-4C94-A813-DD979708BA14}"/>
-    <hyperlink ref="S22" r:id="rId37" display="https://ucd73935300d08e26010bc71a199.previews.dropboxusercontent.com/p/thumb/ABdZWOmShlGbIB2ExpJHcMAN434foPVBYDgB_I9KSsqTNnUdVYX48mlu9wD0H_1cRS8Tx_b5fxJzdADrp8qT5YxH7MedgcgbbPgqIqKC0xwuCRvWltPKJ0f4yJOx1ozGLIu8lW5IMg8WOrmfi0tJgUW9Dxd_pV-XJ8TtZWnRLAPt6UXcTZtab-kXCaCMtkb9u4ZMGZPLPBq0nQMM_Q3-1A9Dh6SOr9QxmUgH_icWeoJHdDNPZTqU81d0A7xfYKSJ1Ybr_tWHHZ5uq64HewwSDxx0UnK7msjOPHjRSX0P1vxMjF_fpW62KlFy4k21QWy56k67WCKQ1Vz2t8jNUrAE97nTZyS3oKW1RJdau45w8GyPdg/p.jpeg" xr:uid="{F13F8704-8289-41EA-A3A6-659480185842}"/>
-    <hyperlink ref="S23" r:id="rId38" display="https://uc74569af4136e861368869398ae.previews.dropboxusercontent.com/p/thumb/ABdvuTDyCkYo4YKGPnn-_Xv6O_v7HCXexNeN00sjSBAzFMtOgS2FtyQPzTfdTTjDv_IBma3T-eUWYa2m7B_LvZeUEYP38RU2WWhEaXBZEPu0kA7exkiTU89__4MeDinIy7Fsnp_onmsgA73-4az1cJpu4ON_lnc9dl176_L4QEFioE8zIMk032S6aUFRIzmsrLL0woD9U3VTvhx-KEUoxqGZiEdw4BO4TLRrVHupD8Iqwd99vOGQ4RqREweCk_VJBXpxfx7x4JkDvo-WLFM7pwOPg_XagcxxBsdBniKsavFyw_OMqYEir1cXYvCqaC4VN0vKSQi_9_RFcwjm4nXa9HLuTnLsWpkOHYQ2E78tchQSxg/p.jpeg" xr:uid="{A5389021-867F-4831-B886-1C614F4D4754}"/>
-    <hyperlink ref="S24" r:id="rId39" display="https://uc6977c3ed016ff579d8311194ad.previews.dropboxusercontent.com/p/thumb/ABdunapR_jgeuGSIfiWOKm9rYjHmj45zeY-1AJfGnVF_1LzjScsItgC1P59HxkojDFShpfqWV4220bsisPbkUFQskr98hmmFCp5f01dy6i_zZD-9AQ1U_xiiSJOh3yfHxZluebN8tbh-7zSGg-k2pSjlqC9QO0Yr0mUhUnAwkqyWv5jOo2ugFFV2R3fyx9MqMJXQSezV-ofDQUOyrxMaUbbPh-U4QagDLVD9bCcYsMSz0czClKhqq_xeWATIPVzYp8TU7j7tGm9o_UEfHARFJVJFQgiLmQkqH2xSBig6C6msd4GEshM6Zad50vfir5kGYaFpODUPCZSI7Y-daEdwGm1IZ9Mv3SPVR14kLh-nDf36Bw/p.jpeg" xr:uid="{091CB816-BEA2-4F12-A75A-DD98A837D23E}"/>
-    <hyperlink ref="S92" r:id="rId40" xr:uid="{684E1A62-CE22-4299-8956-8EB927260FF8}"/>
-    <hyperlink ref="S25" r:id="rId41" display="https://uc75f31e86b454d72f82cba7683c.previews.dropboxusercontent.com/p/thumb/ABc0RaqO871tXdqXKLsWljqRprtTavD2-2NVZg8bFGotrIEsOWZt-rraU76TnifjoRIcylbmA25Rc5HQkOJXdCisdL4RIkKjdX1W6QUvHtF87INNdKYUZqJ7PH0zR4mnx7w__qPv5820BvLNEM9gHBNFduEn-z3DTAE4R8S4mfNh3yhfReo-S5rT67T5gbPg6EcSsskZAO9-m80iWtuHsW6q8HgRKJw_xI-cAvfLmEDbs2nBsT8bBITbNwJNgOQGHn0xe7-fi14PB39Tzm0dc_uLdSeCGPMv8uHYe57s6TXiCdPyh0uuRnYwE85eIlV9WOpsiXr03wprsJh1NdUWgf2sO6sRGkKnhFprASSDxSi_MA/p.jpeg" xr:uid="{384C6749-AB5C-4DBD-B525-B4C6D8B88403}"/>
-    <hyperlink ref="S26" r:id="rId42" display="https://uc751271b4062061414791311d1c.previews.dropboxusercontent.com/p/thumb/ABeRhVGqzu4v5qEMChilHwN6xhhEkNltwOZSPRfZQPkGwwrPTR7G6KuAU312horrszln5XwUd-Sk3fIwdH0B6W8SuoW3Ht8D2GIF3sUKGwmV1-01ezRCE3wzD6wkqcqGc9AwYtiAqGqt7n8AKk4csY785Fw0rdgtZzG4NSIQ-68IEvO5A2Jqnjl42yEGk0KtHoX4tdJFxJurS5RJgLreeQZh2zcv75MIbdGl8PJVECYTuht8LKkAbxn_hYvkzxKxg8E7eR7_wwabTWsN_PAR-BHbOoPdAl2hRJXxIPG4oduTtu6iaofHJikXFSy_QjP_g50_Cb-jluxzQEDRplQH2gGB4Kk8Mwf37mP2bW3j1A-soA/p.jpeg" xr:uid="{22333AE4-0388-4368-B086-4E3B48650CD3}"/>
-    <hyperlink ref="S27" r:id="rId43" display="https://uce16851f311c50ac1fa50f1b774.previews.dropboxusercontent.com/p/thumb/ABcRoVsQmKSF4t7m83oQ1cm1cAky01t_7NUtSIfLZ2vroQS22ZBeDmsxBiFMkDvLTav6TKSFmAmYN_2-5s6qVhXV0i5Ql7BEUSKGP5MnK8oqVIOXB2fs5p25JWQlRMvf4N3KzGA2b9YH52vV6KdEDqybuv60lxL8fsD6v7jH5qe1sc9n1VK35Cv4OOY4ndaNJ3m5GDgfJVDt5iRC8hV2_K_Rq3MIyVYV1VuQVXUzNnwCpiiBBsUGliwNP0hdAbdCJ142Ceib_XxZnDaahrnpq5u9MqLUt648ICskQQetXqtba46eCibSUcEh2tUyxtzdLW5U77LxcpDRRzlzlB1M955oJYKZ_1DwRNJgV4TrxW7KGQ/p.jpeg" xr:uid="{827731C5-3AE8-40B2-BC57-FE841C69DAEF}"/>
-    <hyperlink ref="S90" r:id="rId44" xr:uid="{74DFAD5E-15A5-4F5D-A7DC-F051F4DB143B}"/>
-    <hyperlink ref="S89" r:id="rId45" xr:uid="{B45807E6-7392-4AD2-9F08-022937B69378}"/>
-    <hyperlink ref="S30" r:id="rId46" display="https://uc6a7f6d61704af646220a94c25d.previews.dropboxusercontent.com/p/thumb/ABf3fkui5s0_S1XaBvQfVe_E1u_J9qp6ZlMWz058X7_VDwSA88SJyAYC081auiyrwaj0gxxAUr4S2frk4YexWcXo0bIs84FB7y-95IDtzenq15fHVAOXk8iv3Fij7cSZ1owFHvu0cVsCJiVpFiocJhF4-jVsC_MqhW8IPF1vJuKunphcvVUXEE9RdYcw4rdTQNlMY73VSufhNuRePtKXkMb2c1CC0W-GuUIJiELuHUDHrD5FtCEctmbh3BeAY6iH6IWQaCaeKev7xarKIF6-yNvngYitqnzyTLAx03_o3IJGb7bIjEHCrKfgU5MsK9px5u7rokSZc3T9XFwEEB-QM7WNMWSzS7GjBLdkcLw74if9iw/p.jpeg" xr:uid="{A7E47F32-F209-4CDF-ABEA-539DA5D4A66C}"/>
-    <hyperlink ref="S88" r:id="rId47" xr:uid="{4D7DD7B5-1489-4282-86D7-96E75FFB7B63}"/>
-    <hyperlink ref="S87" r:id="rId48" xr:uid="{E7E937AD-BBF5-4986-B89A-53E905853B98}"/>
-    <hyperlink ref="S31" r:id="rId49" display="https://uc090bf1260852f46cd8f642a40c.previews.dropboxusercontent.com/p/thumb/ABe8RXs4OHDd5ke4RPpsnjUM2d3eRharGKJZ-U83y7rlSBeaquO_MYbsp885eGdUZMdi8EXvG_vBLvfbERFDyYcXM51vBq_Og6faDkpxQoNQeRvauN_CpHnHST8msJKqa4TGix64XgxtbCPqizBR_tWh29rH4orlnZHDCTINKo_bi62szdE0KeIFArHFi5DH-2Rz8m24Tp1iyGnpFJaN_njd_NDYr_YVflI3ORGQ4vx3E7pJmXbi3BiOCq-E00DSYGc3MFjbCVgcKyoYZcLVl0ylK5nh7y_Ap4ImGHvoW4ln4_X_MtRzAPdrMRfm4z9TnflgB6SDpQK6UeHmBy3pMFBL_5CyCGT2cCO228XUdtcu3Q/p.jpeg" xr:uid="{D9B893A6-989C-40E2-BD5D-FD5F18683B13}"/>
-    <hyperlink ref="S86" r:id="rId50" xr:uid="{FC6A2171-7CC2-4E0F-858C-D70AE62BCD49}"/>
-    <hyperlink ref="S32" r:id="rId51" display="https://uc6888decfe555a554f184ca02ea.previews.dropboxusercontent.com/p/thumb/ABexdXQd5rqcjnZrLYO-hLQ_biUGd2AVQDur3tT8bGNzM2TK3BftdPYteu3-gU43-NDDxqImDpchPAAQJHBXWbtlO1OvobcqDmtvVlEzO7bxoq4RHshBEqMtfeIwCcs-xTE8ChhY10Ftvw-rUSDXtbPy1Xw8IcXPj4GGP5bQ-hJokvYSbca-cuiXg1xc7bTQHdKs_vhgoV9h4xBvnCs-M7yZN2o_0ffKYZ9S4V7iYeQmLrV3aVQa2bQaeN_hX1Tadugj-j1o0ubkwppmWCF9bPq3Xdis0wgOdVuDpFweEheFVLMAqoTPmu0wWYrynLgRYGYpux-2FaRyamPW6F0Zpb8HSw6ijBIPENZkLlUDGS7ONw/p.jpeg" xr:uid="{504959EF-916C-4300-8F03-4AC31162701F}"/>
-    <hyperlink ref="S85" r:id="rId52" xr:uid="{2AF5EBD7-1F31-431C-A2F0-F38F2CF2EAEF}"/>
-    <hyperlink ref="S33" r:id="rId53" display="https://ucc2e53d24408614657af09d625a.previews.dropboxusercontent.com/p/thumb/ABfdBN9gLUScVLTcIYy34lHGl82E8s9Zgt9RUwHJlDjE5TaNSpnKo2c7NokfeFlhdVSbf4pzRLX_Rx9puqRSqfPHT4T3ntU2qlXD60JYMo6Mij-EwnxR18L8F7ZXU8H0XLOAQwzIdPxeDepkwWsxsAtDuagDEbPpwcILjbtLjwGC8UPgejEWAuBJFMv2YD2ur1MTdzHC5bWe0VNekZQGzX_yF5aAo2T-VHJC2H9H1FmHxJ7oFFEVMGDfgcIv1Kjql4ISZem1eIYeTLl1Og0y-5Tl7xy0Y2kzRqHCelHmbS0xHAbfQwtFdbrer3-QvfI_P3CtsUnsja4DKXUokwH7l37h2BxKHQcpf0HwIKJw4wZEHQ/p.jpeg" xr:uid="{2EEEAE0B-6781-49AD-AC40-A5610FF1DAA4}"/>
-    <hyperlink ref="S84" r:id="rId54" xr:uid="{64863B1C-44EC-4D8B-9E8C-08CA16AAA5C5}"/>
-    <hyperlink ref="S34" r:id="rId55" display="https://uc0ce4af853a16afd14b99ac002b.previews.dropboxusercontent.com/p/thumb/ABeFarXPZNiUZI6NcahovO4mxPzeQnvOX6Iet1KaNqSQN2hyNi7KYBCdtJ_rOrl8mr8xQgv_-1hvH_rViClOy4XjTf120rQD8nbtGfDiGp6PcuohDqoFiocbh6_CdT4POca5vqJLC5wkI8Iu0wULBMtoQbpsTnwRPpHOrkXem5K3e6EO1J7v5YwjR0-eln5rbbQFofeZA5h4Q0ynXDdFPJoYqPYiVAyl4gh9CYX1lxo4gUcDyWaWdnoLEjb4lhu8Zp8nb_DdivpffqdOgRMGVnZ90W3imWaS5sZdKBNrTdoVb4MrHAyUdSikcXy_T4p_RzjCpYc9_u3y8X7bORNgNQ1SsWJt2LlzI_BIklbL5zA8zg/p.jpeg" xr:uid="{4177EAB0-9D3C-4DB2-943A-C88B49F0A04E}"/>
-    <hyperlink ref="S83" r:id="rId56" xr:uid="{3C55DEBF-3646-48AA-9074-10179AE8018B}"/>
-    <hyperlink ref="S37" r:id="rId57" display="https://uc53ccaf2033313beab461be3e21.previews.dropboxusercontent.com/p/thumb/ABcNUG5hgvkYQDBY17eY_OzKAgZUrkjKLSnGaowDbMCXQW-utGDo-2yO9cdfeXYga1IfhM14LXKHzBSYtswKQUDmgixfiEONNONXnNSRTWDS69CxfMKTpspVOEmzjTLvIJlAz03PrShUABDe0kGEvZHPA1ZZ5imtPGPmui2iCNqVNR2c2PCgZbxlKn1TUzIxWioANtlyBrpd2d_jn-8Ml0YPoVYsgDXv_35JJWpevvJQWWZqN72uF-RtoOxY5ULNkzjEP8u8Dj31vjmEm_ockLA4cG4ZGUv41fTKdqUtiZ72XDdlNLx2X8ZJ2K1tWIEWO-jj61QH12oYTWylT1s9d00IdKd-x6NZSk3A95dG41ZPEA/p.jpeg" xr:uid="{FDAC5791-2B05-4B1F-B329-E7A655CECDC6}"/>
-    <hyperlink ref="S81" r:id="rId58" xr:uid="{6C29BEEB-9380-4475-833C-4EC3C7791646}"/>
-    <hyperlink ref="S38" r:id="rId59" display="https://ucef552ba4af4be4d23256571e96.previews.dropboxusercontent.com/p/thumb/ABeCY6htPwyjm3r83OyqVO1glEcotg12LoggunvoZJg_5GIzsUJKUfoSUSBwA86qnjhMcPq-Haso4Z7ZwoloOddIAyAp65U8Qh3GJK4uW44XmvhLgAYN5Raxr_0YonqJWFwHNIdXnJXBFBjgIMk2keEYYmF-4x3RiX8Ec1KWir88e-6sBHn5tNSk8YTK8iYH1g5KCmvxDNiIPPA4zVi4abbUOP6ePtRPjRA3NUBBsCcSB0ChOPaDFFrrGGNWpuVPqATZEzmYGu1GzVxO4xGx9kMwJfHa0k7luMas4l1lT_61xbHJlzZXW4v1cLINNBQ_2qyfurqC59BrlzMcKTVUfUjPWskE4MVjOC05NJ0HTdNGdg/p.jpeg" xr:uid="{03628202-D11F-4A5F-BE71-DE2A5AD97B71}"/>
-    <hyperlink ref="S80" r:id="rId60" xr:uid="{F1A4DB3E-C837-46CD-8853-637CE70E4625}"/>
-    <hyperlink ref="S79" r:id="rId61" xr:uid="{D2D46AB3-F33E-42B3-AF6D-9CC5D7FE9DA7}"/>
-    <hyperlink ref="S78" r:id="rId62" xr:uid="{6684545E-95B7-4D76-B123-007EC36D247C}"/>
-    <hyperlink ref="S77" r:id="rId63" xr:uid="{9E89D255-5C13-4C5C-81FA-3B908D4FD707}"/>
-    <hyperlink ref="S76" r:id="rId64" xr:uid="{5932A081-90C7-4C9E-8007-1735043537FC}"/>
-    <hyperlink ref="S74" r:id="rId65" xr:uid="{1D081D37-D3D6-4B6D-94E7-B150C41DB62E}"/>
-    <hyperlink ref="S40" r:id="rId66" display="https://uccf47b276f8572fa50cce7cb99f.previews.dropboxusercontent.com/p/thumb/ABefIcP099-FCvs1tV09A9ITNOtYqpWD5JhRTfrE4IzG7GtjVgn_UZHN-czdT2jj_uIlFDzd09W2vhP4NskL1auwNMY0V7NIM-3vuucsIywcjf52Ju7uwpzc-JYR7cNDIy8_92jBeCtMEJVixebQuXj_6fZdDb0D9LDESPOc5nHgTrgKrUeUZisX3AHIGpX1ZrYafC64MtF0lJHRyrYol5XF4PfSHVEeCH9JawBH_yrM00617sI590STzHqF0FteG0hYc-kk0lyZ8tlI7Ehm_z2ZWDcIu7LTzlW1q8KCW2vu1i7swJpVvTR1s55yocI4mMyCQAb4TsHRlYQRL35yFLiP0bnnzCaTxL-pRjUDUnSr7Q/p.jpeg" xr:uid="{6C294763-D096-4B9C-B1FD-4DB5E5C9934A}"/>
-    <hyperlink ref="S73" r:id="rId67" xr:uid="{D21EE40B-43F0-4267-ACCA-8410E8A90238}"/>
-    <hyperlink ref="S41" r:id="rId68" display="https://ucbe45138b130d7b9d49fa5ec9ea.previews.dropboxusercontent.com/p/thumb/ABcSjoU2HQ7liM2UmMZyCMx8KvzeF4cv7wHN4ZL0-u27RzDUBx0ER1rAWH-ljjTc_7QnHEXzlxfV0B9YPVWfgV6wv1neYvv8-SAFtQAgnB7Ulx3lMx4YVZ6rBQkQZI0eVo94Y5insKKq1Qhj4oD07pqO92DDHB3FF6NGbrZZaBKVfu_XitJn4WNlZP4ZsvtyeTEz4TEl1O970mBq7N9xMhNB1WL3-pmcJa2CSKiKAKGXL0FYEp6nBbqHHwPj2Rl_EY9WQp1yUcYOWH0qXG1zE1rQaqUTmVWkUuinIjqR7yLNqFpUYRPQLp7zfCRoC7I6ELmxYBJtHQkh_FVSOiXLnPLWQlZ-FTIexeyiSbd5DRq7yA/p.jpeg" xr:uid="{DC7E5C5D-3291-4BE2-A97F-B05603CB0686}"/>
-    <hyperlink ref="S42" r:id="rId69" display="https://uc78884d9a3e59c9a74f25943e01.previews.dropboxusercontent.com/p/thumb/ABd7UyvAibY_7VyJYmT3UldgwCTYCsVYucWyZ6KdTheJVOmyZYr1Uy8PaumtilOSD6VSdLzx42H5M0LjpknY56EiqEpt_CxJ5sLsoo4kkL2T7rjyhq1g7H040SeYafVBQMjYdX7F42vqdEXCp96GO0_CI4Us0XxHR8nYZdz-LNXdTeTzRpgjdoSf6_NMFVliLSRaHPSKXsX4N-bw9AnjUfNBAV9f5ITYr4bcqwXYSkmhMEqgbRbXjlDpsFwKi46gzphtixNMPqN7AsvRwSHOkszdwFpuQftIgDLcDSDDcUQRNlPqyN6ur1OEXIXBqaz-h3bn5iTJs5ymcvjn9UuFrjgno8eRL1qHLjYpxornEdhfnQ/p.jpeg" xr:uid="{91D38BF0-A6C2-4871-BCD4-69E399FCFB24}"/>
-    <hyperlink ref="S43" r:id="rId70" display="https://uce9398e2925bbc628e2824dd58f.previews.dropboxusercontent.com/p/thumb/ABdl17CysgvdtTm4Msx-9ObT23hW5u24AmdCNU0pnQkJQtENC2XtA-T_09Ck6Gzh5bqzfsp3G1hLuvCmXx5VH8uDMTcSVUHvIhVYYYVctqLmSm5qZ2wqjoHMYoc2x22K4-v80DkNkdtvx9QKTvsH46Tge2q3zCc4_J_I8qImd92CXYcS-_syR5rWZybPMvbKCLCBH7QCspqqkcd628jOCHhsVFxMLTaeDHQUAbszUmwDlHc-iPALTNhhabID5KjNTqhiiKPJTB1y4KIXJc1P7Bztni2OspbX3A3ck2uNMt4lua5oTBe1qwM6GwAVvC21ekWaj6-g4RBZxJMrz-REGQX24YrNhIUgsVhqSj4ucZppkA/p.jpeg" xr:uid="{E9D4D0E1-8BFE-4EF4-89B8-0FDDEEAE3BCF}"/>
-    <hyperlink ref="S44" r:id="rId71" display="https://uc5c42be7fbd7932bc11b903bd5b.previews.dropboxusercontent.com/p/thumb/ABf0YCn5HHfyoqiWkk3xYVr-Az-jXpUaLlu6UKl9IB2Vg08CnQJnVfs-MuZrrRYsCCdqmjp4w37c0Y26zGE5CKCgvX7VpUEov1IXML2UE2VGcoVnj3NNDw0h2Tgr9QApwdAnc-xjyd8pTLoZ1DZ6S90CA_WB3dR8EvzAvD1Yy2plv9iAZGpbv8cB4elfQKNDxyxSFj52lRBjiZEDgaWdbmTpPeHv2UI6MxjMZLZ70NI2p0o3_rf6iHTKX9J591zqzPC8ecUoAMT_TflRKiwEE_0G4aHJCBsi9nFxNspkpGTLyA6ghU0VE4JsI1XLSWWbB_b9VxeMQjffXf4DfR6vh8OAEo9nYmxe-EhZNINMjdansA/p.jpeg" xr:uid="{DA64F217-2099-46D6-8846-3DF0D87ED1C2}"/>
-    <hyperlink ref="S70" r:id="rId72" xr:uid="{3D8DCC6E-A185-4F3E-9CF0-523F4B53695D}"/>
-    <hyperlink ref="S45" r:id="rId73" display="https://uc1f535f680548879e982df620c8.previews.dropboxusercontent.com/p/thumb/ABeUwT6sCoz6eMdCowHoHSwdF1vU3fqyUmJP15qo8aMls4u48HJzPLSgoavaY4G5ZkvgqMD__wvK4LyVfxn80KTudF4Oyxf5Uh_49Ei48BS8wngb6VngWoKOF-Jw1n5Xj4mqqW2LMfPffPUKR-wbLNNH5QsOEs5ktucvBunt92bdBgysiqXBDJ4flcPKcwD8dknsLGCnF0S_keHLFMtQgiUsylD2bShxbHDhj6VY58_w1NjTVnDoMpkvzJ9PK7xr20PsEoxW8Jef7KSloXm9vv6971PL9LutS_M9Be-A5iKt-RBsXLwLwzHKsLQovGPJLvBMMvpJ9EuEsPsNVBGIE7I1gFzfPBNicga2nP_FR5tsfg/p.jpeg" xr:uid="{45A27B6B-B9EC-4F35-84B7-CE9A211662C0}"/>
-    <hyperlink ref="S68" r:id="rId74" xr:uid="{E2B468C6-38E2-4F50-B521-D7873935576C}"/>
-    <hyperlink ref="S46" r:id="rId75" display="https://uc97b17a8f30ed3f49bea94d23d6.previews.dropboxusercontent.com/p/thumb/ABfNqIi3mQ4bir_2J-hqI-cI0_EhaIZzmoWx28MWwlxBOP8pmgO4h7cRXeMo-aw2HCgnZYFpaxiAOvV7kt8wDIVGHSidzZwXdgWHDtVVXZY-R5aa9XOsHy8f5YyZtL9K3W17lh5W_q05zNj0yN_s3Ls-tBdK3Y6CuM7F-opkwenKWsv_BeeP2nS-gIlZWe7Knje5-EGUT9ZoXxc9Q1TPUfqXTrgCnDHUMmrhKPcjhQVarqyWZagK-zQVGCNBYP9KE5KrT7fSdeTx8HKlHKq-cvRVO-zjOhO91408mm-KD8mO1hgrApWjqQ0-ZaYpH_AkHRkRi-iLSLBFW_5qpTVnJIesmjxUqrfz01llHvU0_LxxbQ/p.jpeg" xr:uid="{2F4D4E24-8D85-4DC3-A68F-C8835A8C8CC8}"/>
-    <hyperlink ref="S67" r:id="rId76" xr:uid="{6A7AD920-F7E9-4B9C-A793-D35F4D695E6A}"/>
-    <hyperlink ref="S47" r:id="rId77" display="https://uc7c7632166ae5c988f082b208af.previews.dropboxusercontent.com/p/thumb/ABcjnzJzn1ZP4rj5dytBB-JabBAlPCoPK7JWD01Mz5NeKQFFQh9ipgW22tRf_Aa-RUqlpbuc3Eh25GtPiE77tIpKQpAondeITIMAwi9M2HoDuPcx8jqAbG0mKGgd2W42E-DbNmoUgn0AvHFuJmhcJkguLh-5sHko1F_9Dgsg1sFkKmw26lNwJWBFf43kEiWvJFsv4XwBcWqmaw3kG6oVXvRdaqH5jzpfMF4lGeCySNpGGGSZFRUD2wrSCH5mD5utjlbiMLbizkiYpe7IeiVXXxaRJ1mt3xKTQA7EA6gB6jer3wgXPL96_01p-W5E30N7LudO-h6eKNsflDfOq0Ka1bby2SDay3WF5iK7R29pC-G9nA/p.jpeg" xr:uid="{9A9466B3-7C2C-4C04-9C42-C6F95183D15A}"/>
-    <hyperlink ref="S48" r:id="rId78" display="https://uc77b041c61dfe1fdecdb93ef952.previews.dropboxusercontent.com/p/thumb/ABfDCzKstc8UKJUB8lpwBE13DokKW9ujWOM5TjITC5wB84vWTxVGhTNXN7YDt13Y4k_bdzJCMY4E2Gd-Hp0f2QjN6hIo3_Nr85VIOGW4F_UGgTa9CJDPDoUCWM2n_Wbty_psvQw8pPmZvKvq8kwQ5k9382Pl6zuXsahMwMz3jk266VhNGFb6zycYDkNY9w2AjOYwol1AKr4L3uM2sPjBwVn9I0cJ7cY4SRDEuBWgc-PzcLJtuRzC2EUnKxo8bH2CqJECSjo93uhzrrOsfO1BTGcDD5vI8VZPmAeqnTqzN5TeDoHxo1M8W3-4QVR5-QQqEeoYfhi96SsJf3edcgy0TxrPpr8ymTz9Rb1JiCDi4tbl6A/p.jpeg" xr:uid="{42A7F6EA-BA09-490B-AEA0-932EB36AECAB}"/>
-    <hyperlink ref="S49" r:id="rId79" display="https://uc5e03984c6226991f53a718010f.previews.dropboxusercontent.com/p/thumb/ABfmt-GxlgZ6ktMqgtKR-x0dRZW2vyVD-mwgdZT6q397c_9_aDMLpw1QadvK6CaxKdz7DXi_G-1QQaURRYwQRea7Bn012LyD5Ik-YM5yGWUVY4Dwj1cmTZ8MVaa9FGs_K9Owr8JSosiZAqJ8hTVJmLZoWNShvCC5krV1C9X5gquKRwELPRwIpu6f4YT2za1M94nq89Qz6F2qR_CPbNHSjZoaWXdJrFdKuu_VG1mVUPNOfHitWeiiZicyegaVUqjvfBa-nI5yqYx-WTjgwhGnkh8Bzk8DiYHzZz1_hY_dZXOLHE_1r5RGuFa3Hv4J9GDkjBgWce7IteBJUGScSvYFD0ziWRBUVjROB8kermtB6mAD-w/p.jpeg" xr:uid="{EB6BF247-0D37-4FEE-B8BB-3FD000029744}"/>
-    <hyperlink ref="S50" r:id="rId80" display="https://uc62fa473fb4392a51c5178a7bf3.previews.dropboxusercontent.com/p/thumb/ABc8Nu47xnhJx3bH7-nI4gCzsTG7nK01VTVHxr1JSTsNUg0-hkZMUCgGhH_6oi8TLHbmX-6LdGUnvvDg62WQgu_7TV6FVGO7H_Owm7l_PfHzYJ2mE2OnGRMoDkCMbzHsamR_Ic_ZLKAYcpyKSvDjkSJFSizdQmOMiCxQAybwfBTSZoYGixMz2hxJ2UT8v7IPBZfCBoDxkJUgsArw-GJXXdfaOUbF0jfme68olC2J2rygXxpL-XaedAb3R_qEQ3BfVeoRmiVEBeXgYrqTKOoOifioRM7TBO83H1kU4bmX7LT8DuLd_PcSbG3VJO50g3AAv0BgsSm5xKV02FY8AVwO9LAlpUdYC279Ex2KZPGGjTC47A/p.jpeg" xr:uid="{CBB9CFE0-32A8-4560-A6E6-23C5B2B59FAD}"/>
-    <hyperlink ref="S64" r:id="rId81" xr:uid="{27FE5FEC-D381-4D2E-BD24-B0A183EAC1D0}"/>
-    <hyperlink ref="S62" r:id="rId82" xr:uid="{9F35053B-AFFE-47B5-A05D-216185E4DB51}"/>
-    <hyperlink ref="S53" r:id="rId83" display="https://uc6824aa3e7508a5698af866e503.previews.dropboxusercontent.com/p/thumb/ABdm8j5ooPxSUFH1Dl899lN6TBB1OLXefL6NkKBFeI7iKlg6-YJwTov9wp2MFtf02ira_XH1O-xHYVoFABl8Vxjb4jkAr85qvSyb2sDjQxKps9yJstHMLMZaWr9yX3TrbCQhzaCTl9CXP6SLdQK_beU8-nbUi5ZfsnhqZmeMczoptSZA51Cuk2nJk5nNw41hdjI_qLjtYoDsAW1KWibXDBANmLPKsHkDJlWIWdt5U6-BOHqCPd8gG49s4eFkYfdaRpqEGGYKKx3W5nFCl2xS2zTtblQ7i_9aF8bTfbG_oPimVmswe--B9bXMD7LYok3uW_4VtXnA139sDg7pID5VC85bXUtGOQCxNran6t0DueUhGw/p.jpeg" xr:uid="{7932744B-D63D-4C1F-844E-6D281C4BBBD3}"/>
-    <hyperlink ref="S63" r:id="rId84" xr:uid="{B7BE9BE8-F682-4C1A-9B73-74956E1BFB50}"/>
-    <hyperlink ref="S61" r:id="rId85" xr:uid="{8C51B5C6-E1F6-4F4D-B258-2E00C10F816D}"/>
-    <hyperlink ref="S52" r:id="rId86" display="https://uc04d513c53c7dfd1d2a2b000539.previews.dropboxusercontent.com/p/thumb/ABfES9nvijxWr7pRK1lEM2-i_-AVQ_6qrIzkzkWvWAHOidl6PwmzQk9DDjLO6dj9Ykdz1ac78uKwROWAPCLDL_XbW9csAmUdpcN4ARTM5sA1wuJKa7prqNkMsn75EmDdxh3maSwrlIjsrkNGPgUL5pLAMvk6rCDtWUMmBNKDYha43-hGb1vcmdsbrMGO9GBFccIpBQYc0pnWx3HUBVDSHsnYdWFu_ILWJvvxKDSU3XooERIily9GcDLjVD7piCZxzZXUVnEu4LjKpiSiq_BYnTFt56Oe2s2Jk_Q1ODlRXwCNS95kJk-Oci3CwWLCgP6GiFnrzLLn35aOp6yRwSQU5Y0LFrdlUA3kDg12szOhqnXYUw/p.jpeg" xr:uid="{14F6D591-C73A-4C63-B5F0-242224FEF67C}"/>
-    <hyperlink ref="S60" r:id="rId87" xr:uid="{36F4343C-DB8A-45A6-BBAC-0088882378A9}"/>
-    <hyperlink ref="S54" r:id="rId88" display="https://uc16442ad1a957eff078f4927bd2.previews.dropboxusercontent.com/p/thumb/ABfQgS5eD-Dc0_ZVt4BEZofBELnHigLTDJm56KIL0YxtH3728O2aTw8FqqMBfBbZrlZ-ptkqza6IZ73s4VYpXK28VbN2dgBgBVRhpEKXSyTAYVUV-L-R9JL-rEx-yPEaNSgl2USiBjvuV0FR2q1at4QYSIxZw82e2rT2_Je8e1atoJ3bEfXPbHWMV-EaloMZQkuwQ97NqmLAOl2q0byXZoa1j2tFKhfbUynkzJCDJ1WcOELhmpNob-H53PPK36-0yZKHGwVBQGf8puwioasWXtjeCUBaqQZnRhXUqab7F339Is3GXSRIJfC7IJG15y3wNPolRNbHUVex9_cB8KXxY2JzRX4y7KXjjpRZomOfpzqcwg/p.jpeg" xr:uid="{B4543D33-6DE6-48F7-BF92-D2ED31FFFF12}"/>
-    <hyperlink ref="S59" r:id="rId89" xr:uid="{820A12A8-022D-444D-981C-135311FD60C3}"/>
-    <hyperlink ref="S57" r:id="rId90" xr:uid="{EE1E2092-AC87-468B-8185-F8CC3AACACE4}"/>
-    <hyperlink ref="S56" r:id="rId91" display="https://uc6a230972e8e58c601d0bd4a977.previews.dropboxusercontent.com/p/thumb/ABcbw1ZQSmwcQuxrJBEuw7-1uFpfLmNg2QlWgEvoOmXstYHgcBCfZQPK2_iUCf_FG6xkiZqVo6JvoXHwh2uGyn5wNI6XK96V8PijuVrVL_QnZWe_qo77QuKf1lJm2YbgHTzQRaC5rLE2_Y7-wWTmDh2XX24WDvMl_1TTt526kgYci2537fjbVl1Vsu2XCeEAtIaUr6gssiH_AZHpTULkRQmSJsBKnq93RC2wK6Yq3ZWC8eXw2Hcx8ikagehvn_RuibnrbXuYjGmcUzsSXII9rXXVOThvIxC3SF7CDNDi5bMAmeCw9agSONmxyY0oVog43YOBnYTKHbypEeU_1B3_0b8m8C3cTbrLVAvpx97tmKiXbQ/p.jpeg" xr:uid="{31F44A9D-D9C5-4F49-B2D2-2FB243B3B396}"/>
-    <hyperlink ref="X2" r:id="rId92" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AABZndaVIQjC6xaMcxRajZ9pa/IMAGENS-PEIXES-COMP/Leporellus%20vittatus.JPG?dl=0" xr:uid="{64237D7A-8B38-48BA-B7E0-7A03970F36CF}"/>
-    <hyperlink ref="X65" r:id="rId93" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AACmO9IbOGmdgafHxqFokh0Ua/IMAGENS-PEIXES-COMP/Hypselacara%20temporalis.JPG?dl=0" xr:uid="{17B065B6-5919-46E5-A07D-DDCA11623568}"/>
-    <hyperlink ref="X56" r:id="rId94" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AADhhYZ1RU5Qpl3hgucksodwa/IMAGENS-PEIXES-COMP/Leporinus%20affinis.JPG?dl=0" xr:uid="{EEF41250-232C-42FB-9534-594821808C8E}"/>
-    <hyperlink ref="X57" r:id="rId95" display="https://uc16442ad1a957eff078f4927bd2.previews.dropboxusercontent.com/p/thumb/ABfQgS5eD-Dc0_ZVt4BEZofBELnHigLTDJm56KIL0YxtH3728O2aTw8FqqMBfBbZrlZ-ptkqza6IZ73s4VYpXK28VbN2dgBgBVRhpEKXSyTAYVUV-L-R9JL-rEx-yPEaNSgl2USiBjvuV0FR2q1at4QYSIxZw82e2rT2_Je8e1atoJ3bEfXPbHWMV-EaloMZQkuwQ97NqmLAOl2q0byXZoa1j2tFKhfbUynkzJCDJ1WcOELhmpNob-H53PPK36-0yZKHGwVBQGf8puwioasWXtjeCUBaqQZnRhXUqab7F339Is3GXSRIJfC7IJG15y3wNPolRNbHUVex9_cB8KXxY2JzRX4y7KXjjpRZomOfpzqcwg/p.jpeg" xr:uid="{6DD0DAF0-0914-4F7A-BE1E-AB16195D419D}"/>
-    <hyperlink ref="X59" r:id="rId96" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AABaN1jywFzFPpUWpgEShzxPa/IMAGENS-PEIXES-COMP/Leporinus%20friderici.JPG?dl=0" xr:uid="{A6250578-25D5-4DE2-AC54-14077AEA9974}"/>
-    <hyperlink ref="X54" r:id="rId97" display="https://uc04d513c53c7dfd1d2a2b000539.previews.dropboxusercontent.com/p/thumb/ABfES9nvijxWr7pRK1lEM2-i_-AVQ_6qrIzkzkWvWAHOidl6PwmzQk9DDjLO6dj9Ykdz1ac78uKwROWAPCLDL_XbW9csAmUdpcN4ARTM5sA1wuJKa7prqNkMsn75EmDdxh3maSwrlIjsrkNGPgUL5pLAMvk6rCDtWUMmBNKDYha43-hGb1vcmdsbrMGO9GBFccIpBQYc0pnWx3HUBVDSHsnYdWFu_ILWJvvxKDSU3XooERIily9GcDLjVD7piCZxzZXUVnEu4LjKpiSiq_BYnTFt56Oe2s2Jk_Q1ODlRXwCNS95kJk-Oci3CwWLCgP6GiFnrzLLn35aOp6yRwSQU5Y0LFrdlUA3kDg12szOhqnXYUw/p.jpeg" xr:uid="{BE7BAD88-C5F1-461E-9EAA-08378FFE85D1}"/>
-    <hyperlink ref="X60" r:id="rId98" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AAAv8lOH1KpwZtclwQ6T4AQ7a/IMAGENS-PEIXES-COMP/Lycengraulis%20batesi.JPG?dl=0" xr:uid="{8CB275EA-E549-4990-B21D-C293364377B4}"/>
-    <hyperlink ref="X52" r:id="rId99" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AABycH01-jWguDoS9hV6A11aa/IMAGENS-PEIXES-COMP/Moenkhausia%20dichroura.JPG?dl=0" xr:uid="{A95D70A8-901D-43CD-8EB0-B30C4687BDA7}"/>
-    <hyperlink ref="X61" r:id="rId100" display="https://uc6824aa3e7508a5698af866e503.previews.dropboxusercontent.com/p/thumb/ABdm8j5ooPxSUFH1Dl899lN6TBB1OLXefL6NkKBFeI7iKlg6-YJwTov9wp2MFtf02ira_XH1O-xHYVoFABl8Vxjb4jkAr85qvSyb2sDjQxKps9yJstHMLMZaWr9yX3TrbCQhzaCTl9CXP6SLdQK_beU8-nbUi5ZfsnhqZmeMczoptSZA51Cuk2nJk5nNw41hdjI_qLjtYoDsAW1KWibXDBANmLPKsHkDJlWIWdt5U6-BOHqCPd8gG49s4eFkYfdaRpqEGGYKKx3W5nFCl2xS2zTtblQ7i_9aF8bTfbG_oPimVmswe--B9bXMD7LYok3uW_4VtXnA139sDg7pID5VC85bXUtGOQCxNran6t0DueUhGw/p.jpeg" xr:uid="{D7B56B6A-98A3-40B3-8F6C-E278972F5EF1}"/>
-    <hyperlink ref="X63" r:id="rId101" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AACSJrf9ZJ-i8bm_RKJR94zYa/IMAGENS-PEIXES-COMP/Megaleporinus%20trifasciatus.JPG?dl=0" xr:uid="{5B0069E0-E0E0-4C88-9B97-B0882F658678}"/>
-    <hyperlink ref="X53" r:id="rId102" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AADuWRBNEs3KZ7aRoxZTnR0Oa/IMAGENS-PEIXES-COMP/Mesonauta%20festivus.JPG?dl=0" xr:uid="{71F52AC9-A4DA-4D81-8F5B-5D65E17B7A1F}"/>
-    <hyperlink ref="X62" r:id="rId103" display="https://uc62fa473fb4392a51c5178a7bf3.previews.dropboxusercontent.com/p/thumb/ABc8Nu47xnhJx3bH7-nI4gCzsTG7nK01VTVHxr1JSTsNUg0-hkZMUCgGhH_6oi8TLHbmX-6LdGUnvvDg62WQgu_7TV6FVGO7H_Owm7l_PfHzYJ2mE2OnGRMoDkCMbzHsamR_Ic_ZLKAYcpyKSvDjkSJFSizdQmOMiCxQAybwfBTSZoYGixMz2hxJ2UT8v7IPBZfCBoDxkJUgsArw-GJXXdfaOUbF0jfme68olC2J2rygXxpL-XaedAb3R_qEQ3BfVeoRmiVEBeXgYrqTKOoOifioRM7TBO83H1kU4bmX7LT8DuLd_PcSbG3VJO50g3AAv0BgsSm5xKV02FY8AVwO9LAlpUdYC279Ex2KZPGGjTC47A/p.jpeg" xr:uid="{38D7D05A-F90C-48AF-B668-E9AB5939B7F7}"/>
-    <hyperlink ref="X64" r:id="rId104" display="https://uc5e03984c6226991f53a718010f.previews.dropboxusercontent.com/p/thumb/ABfmt-GxlgZ6ktMqgtKR-x0dRZW2vyVD-mwgdZT6q397c_9_aDMLpw1QadvK6CaxKdz7DXi_G-1QQaURRYwQRea7Bn012LyD5Ik-YM5yGWUVY4Dwj1cmTZ8MVaa9FGs_K9Owr8JSosiZAqJ8hTVJmLZoWNShvCC5krV1C9X5gquKRwELPRwIpu6f4YT2za1M94nq89Qz6F2qR_CPbNHSjZoaWXdJrFdKuu_VG1mVUPNOfHitWeiiZicyegaVUqjvfBa-nI5yqYx-WTjgwhGnkh8Bzk8DiYHzZz1_hY_dZXOLHE_1r5RGuFa3Hv4J9GDkjBgWce7IteBJUGScSvYFD0ziWRBUVjROB8kermtB6mAD-w/p.jpeg" xr:uid="{589370AD-4218-4D3B-AEA9-1BF1E5E658B3}"/>
-    <hyperlink ref="X50" r:id="rId105" display="https://uc77b041c61dfe1fdecdb93ef952.previews.dropboxusercontent.com/p/thumb/ABfDCzKstc8UKJUB8lpwBE13DokKW9ujWOM5TjITC5wB84vWTxVGhTNXN7YDt13Y4k_bdzJCMY4E2Gd-Hp0f2QjN6hIo3_Nr85VIOGW4F_UGgTa9CJDPDoUCWM2n_Wbty_psvQw8pPmZvKvq8kwQ5k9382Pl6zuXsahMwMz3jk266VhNGFb6zycYDkNY9w2AjOYwol1AKr4L3uM2sPjBwVn9I0cJ7cY4SRDEuBWgc-PzcLJtuRzC2EUnKxo8bH2CqJECSjo93uhzrrOsfO1BTGcDD5vI8VZPmAeqnTqzN5TeDoHxo1M8W3-4QVR5-QQqEeoYfhi96SsJf3edcgy0TxrPpr8ymTz9Rb1JiCDi4tbl6A/p.jpeg" xr:uid="{AB2DD17B-B744-4AAA-8129-B87A650B0924}"/>
-    <hyperlink ref="X49" r:id="rId106" display="https://uc7c7632166ae5c988f082b208af.previews.dropboxusercontent.com/p/thumb/ABcjnzJzn1ZP4rj5dytBB-JabBAlPCoPK7JWD01Mz5NeKQFFQh9ipgW22tRf_Aa-RUqlpbuc3Eh25GtPiE77tIpKQpAondeITIMAwi9M2HoDuPcx8jqAbG0mKGgd2W42E-DbNmoUgn0AvHFuJmhcJkguLh-5sHko1F_9Dgsg1sFkKmw26lNwJWBFf43kEiWvJFsv4XwBcWqmaw3kG6oVXvRdaqH5jzpfMF4lGeCySNpGGGSZFRUD2wrSCH5mD5utjlbiMLbizkiYpe7IeiVXXxaRJ1mt3xKTQA7EA6gB6jer3wgXPL96_01p-W5E30N7LudO-h6eKNsflDfOq0Ka1bby2SDay3WF5iK7R29pC-G9nA/p.jpeg" xr:uid="{71E75540-A502-4C6B-A9DA-D14B6A3545C7}"/>
-    <hyperlink ref="X48" r:id="rId107" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AACjM2baghwdzyGn-9v0yxD_a/IMAGENS-PEIXES-COMP/Moenkhausia%20oligolepis.JPG?dl=0" xr:uid="{85D89012-4712-4583-A6A9-280B39A6DAA6}"/>
-    <hyperlink ref="X47" r:id="rId108" display="https://uc97b17a8f30ed3f49bea94d23d6.previews.dropboxusercontent.com/p/thumb/ABfNqIi3mQ4bir_2J-hqI-cI0_EhaIZzmoWx28MWwlxBOP8pmgO4h7cRXeMo-aw2HCgnZYFpaxiAOvV7kt8wDIVGHSidzZwXdgWHDtVVXZY-R5aa9XOsHy8f5YyZtL9K3W17lh5W_q05zNj0yN_s3Ls-tBdK3Y6CuM7F-opkwenKWsv_BeeP2nS-gIlZWe7Knje5-EGUT9ZoXxc9Q1TPUfqXTrgCnDHUMmrhKPcjhQVarqyWZagK-zQVGCNBYP9KE5KrT7fSdeTx8HKlHKq-cvRVO-zjOhO91408mm-KD8mO1hgrApWjqQ0-ZaYpH_AkHRkRi-iLSLBFW_5qpTVnJIesmjxUqrfz01llHvU0_LxxbQ/p.jpeg" xr:uid="{515E6AA7-5FEE-4F00-864B-B1E211A90B41}"/>
-    <hyperlink ref="X67" r:id="rId109" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AAC5_329wbAk1r6Q8iAvEr2Ua/IMAGENS-PEIXES-COMP/Mylesinus%20paucisquamatus.jpg?dl=0" xr:uid="{C0D23813-68E7-427D-8D14-671B74DB9028}"/>
-    <hyperlink ref="X46" r:id="rId110" display="https://uc1f535f680548879e982df620c8.previews.dropboxusercontent.com/p/thumb/ABeUwT6sCoz6eMdCowHoHSwdF1vU3fqyUmJP15qo8aMls4u48HJzPLSgoavaY4G5ZkvgqMD__wvK4LyVfxn80KTudF4Oyxf5Uh_49Ei48BS8wngb6VngWoKOF-Jw1n5Xj4mqqW2LMfPffPUKR-wbLNNH5QsOEs5ktucvBunt92bdBgysiqXBDJ4flcPKcwD8dknsLGCnF0S_keHLFMtQgiUsylD2bShxbHDhj6VY58_w1NjTVnDoMpkvzJ9PK7xr20PsEoxW8Jef7KSloXm9vv6971PL9LutS_M9Be-A5iKt-RBsXLwLwzHKsLQovGPJLvBMMvpJ9EuEsPsNVBGIE7I1gFzfPBNicga2nP_FR5tsfg/p.jpeg" xr:uid="{8D149CE2-3941-43FC-BA4F-A31E3D3CCA3B}"/>
-    <hyperlink ref="X68" r:id="rId111" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AAD_2ol5WCDh0Bo448NTyo1Ja/IMAGENS-PEIXES-COMP/Myloplus%20schomburgkii.JPG?dl=0" xr:uid="{490A9F49-8024-4C20-8460-E83F03E471C1}"/>
-    <hyperlink ref="X45" r:id="rId112" display="https://uc5c42be7fbd7932bc11b903bd5b.previews.dropboxusercontent.com/p/thumb/ABf0YCn5HHfyoqiWkk3xYVr-Az-jXpUaLlu6UKl9IB2Vg08CnQJnVfs-MuZrrRYsCCdqmjp4w37c0Y26zGE5CKCgvX7VpUEov1IXML2UE2VGcoVnj3NNDw0h2Tgr9QApwdAnc-xjyd8pTLoZ1DZ6S90CA_WB3dR8EvzAvD1Yy2plv9iAZGpbv8cB4elfQKNDxyxSFj52lRBjiZEDgaWdbmTpPeHv2UI6MxjMZLZ70NI2p0o3_rf6iHTKX9J591zqzPC8ecUoAMT_TflRKiwEE_0G4aHJCBsi9nFxNspkpGTLyA6ghU0VE4JsI1XLSWWbB_b9VxeMQjffXf4DfR6vh8OAEo9nYmxe-EhZNINMjdansA/p.jpeg" xr:uid="{BB24C68D-147B-4177-A8C7-30C6AE355E11}"/>
-    <hyperlink ref="X70" r:id="rId113" display="https://uce9398e2925bbc628e2824dd58f.previews.dropboxusercontent.com/p/thumb/ABdl17CysgvdtTm4Msx-9ObT23hW5u24AmdCNU0pnQkJQtENC2XtA-T_09Ck6Gzh5bqzfsp3G1hLuvCmXx5VH8uDMTcSVUHvIhVYYYVctqLmSm5qZ2wqjoHMYoc2x22K4-v80DkNkdtvx9QKTvsH46Tge2q3zCc4_J_I8qImd92CXYcS-_syR5rWZybPMvbKCLCBH7QCspqqkcd628jOCHhsVFxMLTaeDHQUAbszUmwDlHc-iPALTNhhabID5KjNTqhiiKPJTB1y4KIXJc1P7Bztni2OspbX3A3ck2uNMt4lua5oTBe1qwM6GwAVvC21ekWaj6-g4RBZxJMrz-REGQX24YrNhIUgsVhqSj4ucZppkA/p.jpeg" xr:uid="{0236504D-8886-4E49-BE0D-A1A746157D8A}"/>
-    <hyperlink ref="X44" r:id="rId114" display="https://uc78884d9a3e59c9a74f25943e01.previews.dropboxusercontent.com/p/thumb/ABd7UyvAibY_7VyJYmT3UldgwCTYCsVYucWyZ6KdTheJVOmyZYr1Uy8PaumtilOSD6VSdLzx42H5M0LjpknY56EiqEpt_CxJ5sLsoo4kkL2T7rjyhq1g7H040SeYafVBQMjYdX7F42vqdEXCp96GO0_CI4Us0XxHR8nYZdz-LNXdTeTzRpgjdoSf6_NMFVliLSRaHPSKXsX4N-bw9AnjUfNBAV9f5ITYr4bcqwXYSkmhMEqgbRbXjlDpsFwKi46gzphtixNMPqN7AsvRwSHOkszdwFpuQftIgDLcDSDDcUQRNlPqyN6ur1OEXIXBqaz-h3bn5iTJs5ymcvjn9UuFrjgno8eRL1qHLjYpxornEdhfnQ/p.jpeg" xr:uid="{1908A5AD-9EDA-4753-840D-31D9BF753A7E}"/>
-    <hyperlink ref="X43" r:id="rId115" display="https://ucbe45138b130d7b9d49fa5ec9ea.previews.dropboxusercontent.com/p/thumb/ABcSjoU2HQ7liM2UmMZyCMx8KvzeF4cv7wHN4ZL0-u27RzDUBx0ER1rAWH-ljjTc_7QnHEXzlxfV0B9YPVWfgV6wv1neYvv8-SAFtQAgnB7Ulx3lMx4YVZ6rBQkQZI0eVo94Y5insKKq1Qhj4oD07pqO92DDHB3FF6NGbrZZaBKVfu_XitJn4WNlZP4ZsvtyeTEz4TEl1O970mBq7N9xMhNB1WL3-pmcJa2CSKiKAKGXL0FYEp6nBbqHHwPj2Rl_EY9WQp1yUcYOWH0qXG1zE1rQaqUTmVWkUuinIjqR7yLNqFpUYRPQLp7zfCRoC7I6ELmxYBJtHQkh_FVSOiXLnPLWQlZ-FTIexeyiSbd5DRq7yA/p.jpeg" xr:uid="{675D58C6-67FD-443C-BF63-C1815967F6F2}"/>
-    <hyperlink ref="X42" r:id="rId116" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AACPuoB9Gfbu2WUYhd0ZCDIya/IMAGENS-PEIXES-COMP/Oreochromis%20niloticus.jpg?dl=0" xr:uid="{9AB65C70-B44D-4377-9FC9-7C1485A6C2C5}"/>
-    <hyperlink ref="X41" r:id="rId117" display="https://uccf47b276f8572fa50cce7cb99f.previews.dropboxusercontent.com/p/thumb/ABefIcP099-FCvs1tV09A9ITNOtYqpWD5JhRTfrE4IzG7GtjVgn_UZHN-czdT2jj_uIlFDzd09W2vhP4NskL1auwNMY0V7NIM-3vuucsIywcjf52Ju7uwpzc-JYR7cNDIy8_92jBeCtMEJVixebQuXj_6fZdDb0D9LDESPOc5nHgTrgKrUeUZisX3AHIGpX1ZrYafC64MtF0lJHRyrYol5XF4PfSHVEeCH9JawBH_yrM00617sI590STzHqF0FteG0hYc-kk0lyZ8tlI7Ehm_z2ZWDcIu7LTzlW1q8KCW2vu1i7swJpVvTR1s55yocI4mMyCQAb4TsHRlYQRL35yFLiP0bnnzCaTxL-pRjUDUnSr7Q/p.jpeg" xr:uid="{2F49D156-D8B4-402C-ADB4-317540CBF653}"/>
-    <hyperlink ref="X73" r:id="rId118" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AABYrbhZdKIIyyLqPZk7KFAua/IMAGENS-PEIXES-COMP/Osteoglossum%20bicirrhosum.JPG?dl=0" xr:uid="{A890F856-BCAB-4637-96D0-AB2F3B35DB16}"/>
-    <hyperlink ref="X40" r:id="rId119" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AAAILsq4uAUI0FNcSqI_mhDCa/IMAGENS-PEIXES-COMP/Pachypops%20fourcroi.JPG?dl=0" xr:uid="{2656CB73-2961-49BE-BA86-B5B66256BCA7}"/>
-    <hyperlink ref="X74" r:id="rId120" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AADYA8fAuVQ-F8NooDSlVZ9xa/IMAGENS-PEIXES-COMP/Paratrygon%20aiereba.jpg?dl=0" xr:uid="{F61D9830-263F-4A28-86E9-A61DC82D0AD1}"/>
-    <hyperlink ref="X76" r:id="rId121" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AAABdMCI8HIJPV8GaxwtrG2Wa/IMAGENS-PEIXES-COMP/Pellona%20castelnaeana.JPG?dl=0" xr:uid="{5B961133-F0AC-44BF-9C2F-B95E9AE41958}"/>
-    <hyperlink ref="X77" r:id="rId122" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AAAvnWSee1KqapbMyokPyCdFa/IMAGENS-PEIXES-COMP/Pelona%20flavipinnis.JPG?dl=0" xr:uid="{9F29F2B2-4974-4FEA-8FB6-8108BF3DDFD6}"/>
-    <hyperlink ref="X78" r:id="rId123" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AABlrH8XfldL2BARz2B05FLga/IMAGENS-PEIXES-COMP/Phractocephalus%20hemioliopterus.JPG?dl=0" xr:uid="{4956F86A-06F7-4801-93CD-587E2F332B56}"/>
-    <hyperlink ref="X79" r:id="rId124" display="https://ucef552ba4af4be4d23256571e96.previews.dropboxusercontent.com/p/thumb/ABeCY6htPwyjm3r83OyqVO1glEcotg12LoggunvoZJg_5GIzsUJKUfoSUSBwA86qnjhMcPq-Haso4Z7ZwoloOddIAyAp65U8Qh3GJK4uW44XmvhLgAYN5Raxr_0YonqJWFwHNIdXnJXBFBjgIMk2keEYYmF-4x3RiX8Ec1KWir88e-6sBHn5tNSk8YTK8iYH1g5KCmvxDNiIPPA4zVi4abbUOP6ePtRPjRA3NUBBsCcSB0ChOPaDFFrrGGNWpuVPqATZEzmYGu1GzVxO4xGx9kMwJfHa0k7luMas4l1lT_61xbHJlzZXW4v1cLINNBQ_2qyfurqC59BrlzMcKTVUfUjPWskE4MVjOC05NJ0HTdNGdg/p.jpeg" xr:uid="{86266C5C-6CFD-4943-9533-84DAF5390F16}"/>
-    <hyperlink ref="X80" r:id="rId125" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AAALnzyfV5l2cjp8y0cXQPgMa/IMAGENS-PEIXES-COMP/Piaractus%20brachypomus.JPG?dl=0" xr:uid="{2C0EB0A5-73BF-491F-8D40-DECDC33D0526}"/>
-    <hyperlink ref="X38" r:id="rId126" display="https://uc53ccaf2033313beab461be3e21.previews.dropboxusercontent.com/p/thumb/ABcNUG5hgvkYQDBY17eY_OzKAgZUrkjKLSnGaowDbMCXQW-utGDo-2yO9cdfeXYga1IfhM14LXKHzBSYtswKQUDmgixfiEONNONXnNSRTWDS69CxfMKTpspVOEmzjTLvIJlAz03PrShUABDe0kGEvZHPA1ZZ5imtPGPmui2iCNqVNR2c2PCgZbxlKn1TUzIxWioANtlyBrpd2d_jn-8Ml0YPoVYsgDXv_35JJWpevvJQWWZqN72uF-RtoOxY5ULNkzjEP8u8Dj31vjmEm_ockLA4cG4ZGUv41fTKdqUtiZ72XDdlNLx2X8ZJ2K1tWIEWO-jj61QH12oYTWylT1s9d00IdKd-x6NZSk3A95dG41ZPEA/p.jpeg" xr:uid="{045A789E-B079-4D49-8556-183E10A2614A}"/>
-    <hyperlink ref="X81" r:id="rId127" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AACzXEvj6FW0ylRrCpLtpgCja/IMAGENS-PEIXES-COMP/Pimelodella%20gracilis.jpg?dl=0" xr:uid="{852AFDB6-78C3-499C-82E5-2763FEB5E310}"/>
-    <hyperlink ref="X37" r:id="rId128" display="https://uc0ce4af853a16afd14b99ac002b.previews.dropboxusercontent.com/p/thumb/ABeFarXPZNiUZI6NcahovO4mxPzeQnvOX6Iet1KaNqSQN2hyNi7KYBCdtJ_rOrl8mr8xQgv_-1hvH_rViClOy4XjTf120rQD8nbtGfDiGp6PcuohDqoFiocbh6_CdT4POca5vqJLC5wkI8Iu0wULBMtoQbpsTnwRPpHOrkXem5K3e6EO1J7v5YwjR0-eln5rbbQFofeZA5h4Q0ynXDdFPJoYqPYiVAyl4gh9CYX1lxo4gUcDyWaWdnoLEjb4lhu8Zp8nb_DdivpffqdOgRMGVnZ90W3imWaS5sZdKBNrTdoVb4MrHAyUdSikcXy_T4p_RzjCpYc9_u3y8X7bORNgNQ1SsWJt2LlzI_BIklbL5zA8zg/p.jpeg" xr:uid="{C48277B8-9ABE-4D67-9FB6-228B48FAD676}"/>
-    <hyperlink ref="X83" r:id="rId129" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AAAvnWSee1KqapbMyokPyCdFa/IMAGENS-PEIXES-COMP/Pelona%20flavipinnis.JPG?dl=0" xr:uid="{C34203D3-3389-4191-96BC-9578EDF07F93}"/>
-    <hyperlink ref="X34" r:id="rId130" display="https://ucc2e53d24408614657af09d625a.previews.dropboxusercontent.com/p/thumb/ABfdBN9gLUScVLTcIYy34lHGl82E8s9Zgt9RUwHJlDjE5TaNSpnKo2c7NokfeFlhdVSbf4pzRLX_Rx9puqRSqfPHT4T3ntU2qlXD60JYMo6Mij-EwnxR18L8F7ZXU8H0XLOAQwzIdPxeDepkwWsxsAtDuagDEbPpwcILjbtLjwGC8UPgejEWAuBJFMv2YD2ur1MTdzHC5bWe0VNekZQGzX_yF5aAo2T-VHJC2H9H1FmHxJ7oFFEVMGDfgcIv1Kjql4ISZem1eIYeTLl1Og0y-5Tl7xy0Y2kzRqHCelHmbS0xHAbfQwtFdbrer3-QvfI_P3CtsUnsja4DKXUokwH7l37h2BxKHQcpf0HwIKJw4wZEHQ/p.jpeg" xr:uid="{615ED25A-8A25-44C9-BE58-E396C27595B9}"/>
-    <hyperlink ref="X84" r:id="rId131" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AAA7iDN4mU2L43grTlFyexvoa/IMAGENS-PEIXES-COMP/Pimelodus%20blochii.JPG?dl=0" xr:uid="{3BBC45AC-AF07-48D1-9755-4ACAB9CBF11E}"/>
-    <hyperlink ref="X33" r:id="rId132" display="https://uc6888decfe555a554f184ca02ea.previews.dropboxusercontent.com/p/thumb/ABexdXQd5rqcjnZrLYO-hLQ_biUGd2AVQDur3tT8bGNzM2TK3BftdPYteu3-gU43-NDDxqImDpchPAAQJHBXWbtlO1OvobcqDmtvVlEzO7bxoq4RHshBEqMtfeIwCcs-xTE8ChhY10Ftvw-rUSDXtbPy1Xw8IcXPj4GGP5bQ-hJokvYSbca-cuiXg1xc7bTQHdKs_vhgoV9h4xBvnCs-M7yZN2o_0ffKYZ9S4V7iYeQmLrV3aVQa2bQaeN_hX1Tadugj-j1o0ubkwppmWCF9bPq3Xdis0wgOdVuDpFweEheFVLMAqoTPmu0wWYrynLgRYGYpux-2FaRyamPW6F0Zpb8HSw6ijBIPENZkLlUDGS7ONw/p.jpeg" xr:uid="{A37B5CEC-5828-4754-8AD5-63D09E9DA77E}"/>
-    <hyperlink ref="X85" r:id="rId133" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AAAY-25ybeXXyYdwQoNAIM9Ra/IMAGENS-PEIXES-COMP/Pimelodus%20ornatus.JPG?dl=0" xr:uid="{69785AEB-A8A3-4B76-AC70-D5073421614A}"/>
-    <hyperlink ref="X32" r:id="rId134" display="https://uc090bf1260852f46cd8f642a40c.previews.dropboxusercontent.com/p/thumb/ABe8RXs4OHDd5ke4RPpsnjUM2d3eRharGKJZ-U83y7rlSBeaquO_MYbsp885eGdUZMdi8EXvG_vBLvfbERFDyYcXM51vBq_Og6faDkpxQoNQeRvauN_CpHnHST8msJKqa4TGix64XgxtbCPqizBR_tWh29rH4orlnZHDCTINKo_bi62szdE0KeIFArHFi5DH-2Rz8m24Tp1iyGnpFJaN_njd_NDYr_YVflI3ORGQ4vx3E7pJmXbi3BiOCq-E00DSYGc3MFjbCVgcKyoYZcLVl0ylK5nh7y_Ap4ImGHvoW4ln4_X_MtRzAPdrMRfm4z9TnflgB6SDpQK6UeHmBy3pMFBL_5CyCGT2cCO228XUdtcu3Q/p.jpeg" xr:uid="{CD3269C7-B2AC-4244-A2BE-F357D6C6DE98}"/>
-    <hyperlink ref="X86" r:id="rId135" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AADoMJzwzl979lGkcl1COGZ3a/IMAGENS-PEIXES-COMP/Pinirampus%20pirinampu.JPG?dl=0" xr:uid="{A0F3F175-FC71-4E30-9DCC-D5411C9F7AA4}"/>
-    <hyperlink ref="X31" r:id="rId136" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AACfNh7tCn1JZmXGEQcLoqRAa/IMAGENS-PEIXES-COMP/Plagioscion%20squamosissimus.JPG?dl=0" xr:uid="{FF2229E2-62B8-4D7D-A056-CA7B3638BC7A}"/>
-    <hyperlink ref="X87" r:id="rId137" display="https://uc6a7f6d61704af646220a94c25d.previews.dropboxusercontent.com/p/thumb/ABf3fkui5s0_S1XaBvQfVe_E1u_J9qp6ZlMWz058X7_VDwSA88SJyAYC081auiyrwaj0gxxAUr4S2frk4YexWcXo0bIs84FB7y-95IDtzenq15fHVAOXk8iv3Fij7cSZ1owFHvu0cVsCJiVpFiocJhF4-jVsC_MqhW8IPF1vJuKunphcvVUXEE9RdYcw4rdTQNlMY73VSufhNuRePtKXkMb2c1CC0W-GuUIJiELuHUDHrD5FtCEctmbh3BeAY6iH6IWQaCaeKev7xarKIF6-yNvngYitqnzyTLAx03_o3IJGb7bIjEHCrKfgU5MsK9px5u7rokSZc3T9XFwEEB-QM7WNMWSzS7GjBLdkcLw74if9iw/p.jpeg" xr:uid="{B535B463-18A2-46D8-BE92-622DA1F494B0}"/>
-    <hyperlink ref="X88" r:id="rId138" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AAAcbuE7Wu4XjnSXPja0xuDGa/IMAGENS-PEIXES-COMP/Platydoras%20costatus.JPG?dl=0" xr:uid="{D3CA15E6-021D-4DA1-B033-41444559392B}"/>
-    <hyperlink ref="X30" r:id="rId139" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AACy6WMl-PXOK-C5lJwnd4e_a/IMAGENS-PEIXES-COMP/Platynematichthys%20notatus.jpg?dl=0" xr:uid="{EFDD7221-BFC2-4BE0-924F-60CBC4120A45}"/>
-    <hyperlink ref="X89" r:id="rId140" display="https://uce16851f311c50ac1fa50f1b774.previews.dropboxusercontent.com/p/thumb/ABcRoVsQmKSF4t7m83oQ1cm1cAky01t_7NUtSIfLZ2vroQS22ZBeDmsxBiFMkDvLTav6TKSFmAmYN_2-5s6qVhXV0i5Ql7BEUSKGP5MnK8oqVIOXB2fs5p25JWQlRMvf4N3KzGA2b9YH52vV6KdEDqybuv60lxL8fsD6v7jH5qe1sc9n1VK35Cv4OOY4ndaNJ3m5GDgfJVDt5iRC8hV2_K_Rq3MIyVYV1VuQVXUzNnwCpiiBBsUGliwNP0hdAbdCJ142Ceib_XxZnDaahrnpq5u9MqLUt648ICskQQetXqtba46eCibSUcEh2tUyxtzdLW5U77LxcpDRRzlzlB1M955oJYKZ_1DwRNJgV4TrxW7KGQ/p.jpeg" xr:uid="{BBBA7358-AA89-4A72-B875-0572C5D775E8}"/>
-    <hyperlink ref="X90" r:id="rId141" display="https://uc751271b4062061414791311d1c.previews.dropboxusercontent.com/p/thumb/ABeRhVGqzu4v5qEMChilHwN6xhhEkNltwOZSPRfZQPkGwwrPTR7G6KuAU312horrszln5XwUd-Sk3fIwdH0B6W8SuoW3Ht8D2GIF3sUKGwmV1-01ezRCE3wzD6wkqcqGc9AwYtiAqGqt7n8AKk4csY785Fw0rdgtZzG4NSIQ-68IEvO5A2Jqnjl42yEGk0KtHoX4tdJFxJurS5RJgLreeQZh2zcv75MIbdGl8PJVECYTuht8LKkAbxn_hYvkzxKxg8E7eR7_wwabTWsN_PAR-BHbOoPdAl2hRJXxIPG4oduTtu6iaofHJikXFSy_QjP_g50_Cb-jluxzQEDRplQH2gGB4Kk8Mwf37mP2bW3j1A-soA/p.jpeg" xr:uid="{922248DA-4E5D-4C58-BF2B-A7938E6D3E41}"/>
-    <hyperlink ref="X27" r:id="rId142" display="https://uc75f31e86b454d72f82cba7683c.previews.dropboxusercontent.com/p/thumb/ABc0RaqO871tXdqXKLsWljqRprtTavD2-2NVZg8bFGotrIEsOWZt-rraU76TnifjoRIcylbmA25Rc5HQkOJXdCisdL4RIkKjdX1W6QUvHtF87INNdKYUZqJ7PH0zR4mnx7w__qPv5820BvLNEM9gHBNFduEn-z3DTAE4R8S4mfNh3yhfReo-S5rT67T5gbPg6EcSsskZAO9-m80iWtuHsW6q8HgRKJw_xI-cAvfLmEDbs2nBsT8bBITbNwJNgOQGHn0xe7-fi14PB39Tzm0dc_uLdSeCGPMv8uHYe57s6TXiCdPyh0uuRnYwE85eIlV9WOpsiXr03wprsJh1NdUWgf2sO6sRGkKnhFprASSDxSi_MA/p.jpeg" xr:uid="{8ABE310F-4860-41C9-B602-CC4D58016DB3}"/>
-    <hyperlink ref="X26" r:id="rId143" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AABbLiTuIFay_XaYb-O1qprSa/IMAGENS-PEIXES-COMP/Potamorrhapis%20guianensis.JPG?dl=0" xr:uid="{EA36E9BC-84CE-4022-9BAA-0BB9B733B910}"/>
-    <hyperlink ref="X25" r:id="rId144" display="https://uc6977c3ed016ff579d8311194ad.previews.dropboxusercontent.com/p/thumb/ABdunapR_jgeuGSIfiWOKm9rYjHmj45zeY-1AJfGnVF_1LzjScsItgC1P59HxkojDFShpfqWV4220bsisPbkUFQskr98hmmFCp5f01dy6i_zZD-9AQ1U_xiiSJOh3yfHxZluebN8tbh-7zSGg-k2pSjlqC9QO0Yr0mUhUnAwkqyWv5jOo2ugFFV2R3fyx9MqMJXQSezV-ofDQUOyrxMaUbbPh-U4QagDLVD9bCcYsMSz0czClKhqq_xeWATIPVzYp8TU7j7tGm9o_UEfHARFJVJFQgiLmQkqH2xSBig6C6msd4GEshM6Zad50vfir5kGYaFpODUPCZSI7Y-daEdwGm1IZ9Mv3SPVR14kLh-nDf36Bw/p.jpeg" xr:uid="{59E4835F-9ADA-40BA-B20D-F0F844E38966}"/>
-    <hyperlink ref="X92" r:id="rId145" display="https://uc74569af4136e861368869398ae.previews.dropboxusercontent.com/p/thumb/ABdvuTDyCkYo4YKGPnn-_Xv6O_v7HCXexNeN00sjSBAzFMtOgS2FtyQPzTfdTTjDv_IBma3T-eUWYa2m7B_LvZeUEYP38RU2WWhEaXBZEPu0kA7exkiTU89__4MeDinIy7Fsnp_onmsgA73-4az1cJpu4ON_lnc9dl176_L4QEFioE8zIMk032S6aUFRIzmsrLL0woD9U3VTvhx-KEUoxqGZiEdw4BO4TLRrVHupD8Iqwd99vOGQ4RqREweCk_VJBXpxfx7x4JkDvo-WLFM7pwOPg_XagcxxBsdBniKsavFyw_OMqYEir1cXYvCqaC4VN0vKSQi_9_RFcwjm4nXa9HLuTnLsWpkOHYQ2E78tchQSxg/p.jpeg" xr:uid="{426769A4-A083-4B29-BA26-311340951C1C}"/>
-    <hyperlink ref="X24" r:id="rId146" display="https://ucd73935300d08e26010bc71a199.previews.dropboxusercontent.com/p/thumb/ABdZWOmShlGbIB2ExpJHcMAN434foPVBYDgB_I9KSsqTNnUdVYX48mlu9wD0H_1cRS8Tx_b5fxJzdADrp8qT5YxH7MedgcgbbPgqIqKC0xwuCRvWltPKJ0f4yJOx1ozGLIu8lW5IMg8WOrmfi0tJgUW9Dxd_pV-XJ8TtZWnRLAPt6UXcTZtab-kXCaCMtkb9u4ZMGZPLPBq0nQMM_Q3-1A9Dh6SOr9QxmUgH_icWeoJHdDNPZTqU81d0A7xfYKSJ1Ybr_tWHHZ5uq64HewwSDxx0UnK7msjOPHjRSX0P1vxMjF_fpW62KlFy4k21QWy56k67WCKQ1Vz2t8jNUrAE97nTZyS3oKW1RJdau45w8GyPdg/p.jpeg" xr:uid="{7BA7ECD9-D8E5-49C0-A323-278ED557DCAB}"/>
-    <hyperlink ref="X23" r:id="rId147" display="https://uc1d5494ef47f71c66f613d3fc72.previews.dropboxusercontent.com/p/thumb/ABeseledRBrvJZ41_WBcfyfrTr-dO7i9U_Qj2sk3S749hjlgdQSsKAdUgvoJp93-I7S0g8Ou1M2Q4D821NZzzguexUltuc4iQpkZM1q1I1YU_XwZoUftQHNbuY1yHsqZlyxHUkzWcddCWJ0BzVgEbcNRplaYpXs8G3ryquWxudOVAVlO8xAkG-BsYOu70ldjKNmu8csRRL2n8LYoJVk4KrDxHMVkPLKVm-5l79diZ55vhf8wCKod7xMKBoku7flRd1rl0RFYl9iiPNuo-YnHTI42QMWd5RXMYvDOiRPLBsU7YTyD5NfTrTYH7i4yAQ2uq4wGQluChyiZX3LN_VbKAgDjcNA9RqSQ-nnH0r9YqIKruw/p.jpeg" xr:uid="{AFB414F9-9F3D-4E4B-ABBA-0CCE4FFC40D2}"/>
-    <hyperlink ref="X22" r:id="rId148" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AADcBEMuZ477MtbZrHaGm4Pla/IMAGENS-PEIXES-COMP/Prochilodus%20nigricans.JPG?dl=0" xr:uid="{4939AE6F-B99D-4C2C-8A12-847007F2AF69}"/>
-    <hyperlink ref="X21" r:id="rId149" display="https://ucd616a464a6594f237a9f07a731.previews.dropboxusercontent.com/p/thumb/ABfS-RTkMXLDpEuQiyo3CmAWabnTJ8IDH6FQL56b0yAd6r9eljvmq-QkTKfNT7MsIJE0IbML8N4549ojIrS6E2zzJ18t9mrUtVgbcLllhlprxefk5_iuFUOikyaD26c1MwnDVjmDrm3OyqWcLsG-2L1L_F192kh5C_IJcWKpH-c1UHq6yYmth-ZoJXdJrG3OyzCG7ut0SVOPY0g99hf3ION1r7Wx1vzbzx76cWFB0BVxxicwmFoIPZS50X6DV4F8RBcqLso0b-8s9maubzLfNSZxN0XT2wt4ExIfotqxVebDYt1uY5W1euPQ7ime7teWHrgr4Dz4suhveRSHTfTZFgjbMwckIWw2wY5t385ETyC8dQ/p.jpeg" xr:uid="{D290E12D-B189-49B5-8A0F-987CD74C4E4E}"/>
-    <hyperlink ref="X96" r:id="rId150" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AACNL0_62R878dYkHK_SZptda/IMAGENS-PEIXES-COMP/Psectrogaster%20amazonica.JPG?dl=0" xr:uid="{B413D5D4-C253-4D1A-B1C4-C162C3694503}"/>
-    <hyperlink ref="X20" r:id="rId151" display="https://uc250fc6e8d86604912444474d4b.previews.dropboxusercontent.com/p/thumb/ABf_H3uxQ_yIYMPHjQ3fTimREoM6oFbGpZ4LqBfvtIRsGFHFvo3XohCKHXatEqr7S4awYXgc76IkV0Dm--eSDnVUnYswQJbrNH3QYaY4oTFgn-9tvydKcX5tL_28GsnwBlnh1TivEx5lgbGRb-gkvM2yMVaGLh13ye1hAJt2VvWWZbjO-v_7rOS8EX8gDa7stpjUb-Q3NJ9EOaBnkB-Sc6_UQai7hkHdIFs_RMvxwHENCSKTUPYw0zyAafgZzJj_BMY1weyYcZiwKTJj8Dk-536iW9lX5k6uZ7DL_QqpzrkmjS7ml2NIRh65cuGdBfaLdJ64AtCnAkf75u69vus2yI8TH6wvHsxBwt9ErlCRwZGSIw/p.jpeg" xr:uid="{71C26637-0E1B-4477-868D-EA3BE1B31523}"/>
-    <hyperlink ref="X97" r:id="rId152" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AAD9ZDjhfNB6V6gWvFcmiFcua/IMAGENS-PEIXES-COMP/Pseudoplatystoma%20fasciatum.JPG?dl=0" xr:uid="{AEB9A314-B25E-4573-8AB5-47F18CDFDC25}"/>
-    <hyperlink ref="X19" r:id="rId153" display="https://ucc1d5a0267188ad93b6605edb38.previews.dropboxusercontent.com/p/thumb/ABfb-ZYnMfF-s53vrrCQq6i183kuyq1VABhv76BKZYLlifjBPTsVEhwlkQ4if6fQEFm7LlEMa0nRsGn6YiQXMthwXjtB0o6mgYsvwt-RW3P1QFq2ljFVrp9bVHCGrV8mFmbD59hHHGoVcYIi2Zs8CnfbShqFWZQIZylJEWNQN2uLuWks9hxt755QpcQvVOsiMdU0RizL-lBRcTcr3wZrh5LDKjxc-ZgAxVkK5weUzQlgJIXM8LxbXs1D6vcza5vsdjhr-hptAGvog5HBBakJGFMfF3Y8DR_njEtZwUEXD8-HRYfOGlbnHfXCsSh6QuNP0gzcV-usBAw6ZnQlqt8ImDpkkfgCoR2sSnyF_3P9MPoNXg/p.jpeg" xr:uid="{90CA64C1-879B-448F-BF70-5A46177A0D5B}"/>
-    <hyperlink ref="X98" r:id="rId154" display="https://ucd187babd43fe7c28e9235a67b9.previews.dropboxusercontent.com/p/thumb/ABe34vCh_f58sS8Vz8-3yvcycbrjCyDN7UluV_8iGAJpggYsnc7PC0Ey1vlUIRHa3g_4EJI9gFOSjrkJt02WIDygGvHUYvR2QEbjPZFXiKM59QxO-2qVXxSAMeCxXi6wupNHrPU7C4poKLXVL1kxHHpYEEq8NfojWbhRyPtCBmaMCRkFxyDNrpAkzC11PwM6fQJiq0newbIRmoA53DxCbfMEwzlzs1nVYZzKEy0BRPQ8vXPZNcSo2FT7s81IO1KOMhP7k9xFEQqAKpB12W7T4unLg7GvjJkYe0dP6_-lbj1dQy7gX3w1BwsQq_WY57dcZsmqQvUTmv0KlEnFIrGVBGs2CUOgxKgaiWZUGf0e44yrxQ/p.jpeg" xr:uid="{854191AF-FE32-48AE-BD50-64ED23667272}"/>
-    <hyperlink ref="X18" r:id="rId155" display="https://uc5c780ec2e2e0b053f5c54f32e8.previews.dropboxusercontent.com/p/thumb/ABevpHe-YasrylWvbXfbqHD2QdKuOf8bBZlggGggp0PfGA8ZkpgAUB523tNMJYZPHwvQvgeDIVQDDC5l-115Ww-SWNcGFCasKTFvCEQ8_EeofwJu5lrwFeDoSXwyfPu2CBP4mGMfKBqiedXpq8rzrs7t_nfWkP7ar4EEP3Hb6R_knKmJtMJVC_qZEIf7ToaNI057HpBkIhX8Jkrt2-RkNQVc6co1NvJYtBO-AC3MfwdSifHI0J7E1CsNXVuJTCCwBAqrbYFWjncK9ydvoP_sZRzz4H-dxWRo52qSxG3KPDmeQrcYCuPklw9niYBggvDZ6u-JdyxCV9cTh-4BnFnIuL1dcSxmHxzHbZyAAmfKIsLHbA/p.jpeg" xr:uid="{5D8A26EC-70BC-497E-AD73-A8FC19F43673}"/>
-    <hyperlink ref="X17" r:id="rId156" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AAC6F3IwgPnSC65H90tdGsCOa/IMAGENS-PEIXES-COMP/Pterygoplichthys%20joselimaianus.JPG?dl=0" xr:uid="{E2575198-CE4A-4577-A49E-67197A01369E}"/>
-    <hyperlink ref="X16" r:id="rId157" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AADWsSa9ePO4Cu_WQJkzTn-2a/IMAGENS-PEIXES-COMP/Pygocentrus%20nattereri.JPG?dl=0" xr:uid="{A7C8692E-8BAF-4E0C-9268-3A3EAF7BFC7A}"/>
-    <hyperlink ref="X100" r:id="rId158" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AACz1lvaNE4ola6s5HDBk3kOa/IMAGENS-PEIXES-COMP/Rhaphiodon%20vulpinus.JPG?dl=0" xr:uid="{945936CE-5F98-440A-9604-0F2B07B1E75B}"/>
-    <hyperlink ref="X101" r:id="rId159" display="https://ucf3e33395a32b6217232a9a7944.previews.dropboxusercontent.com/p/thumb/ABeBijHW6Qbw-QtUrfrjaEsE1l9YMHcNsIKe6RkkmBXrsv9CB8c2EQFY3ZgHT-_l_zGjRj0Jew_7BAVh7cWIgFPgFl6XRxzgGzeusQi1j7yV8zFxTbeNMmm39NLKf2003ZKHnww0QmhSrfMlWB32zAScZtQ8xwk1BLTw8SGtfiFELkukjj5acZ04MV3XHEHp0QgpTudnwWTMaqJDRLRBn9LHLHZ8JyzWkfWxkxnSKGO7aoRzBUd7FqU5-1xh5MKtmhNPoTsfrWVfMeVgopeUt0FEsZD4_3MnnAhbNkmb9uXquMKJStR7DmTpN16WCjS6KxAh-V5Y7MwjYu7Z-15NDKUL5lXNt9jcBzEPx4j9PpDXvQ/p.jpeg" xr:uid="{7AF2FEA6-E9ED-4FDC-A467-81829842F2F5}"/>
-    <hyperlink ref="X102" r:id="rId160" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AADq0APo6MtUrzQ6Bn34YGTVa/IMAGENS-PEIXES-COMP/Rhamdia%20quelen.JPG?dl=0" xr:uid="{BB2F231A-E303-4F9B-A31B-3D227AB3A4B1}"/>
-    <hyperlink ref="X15" r:id="rId161" display="https://uc7d2a566b168a081c5f59209275.previews.dropboxusercontent.com/p/thumb/ABdImVbDJbUWRVTbGc0ahLmY6RyWc3riKJtKWwQ4gQUENWjI8tHtnEM2_LYqoferLVPYenRz9IO28ybNAVPI_q2is8IU22MP73LyuRITe42zCizo1ExtZMamoTbJcc6u-TTyNjcv_JWUCX7HtR1SfdDsX_NsHA4CbyYDpnkRh3A5Ac5giVxvtri0lgzKcxoiCaV5viOph64Li9nCnereEm-1TfQmviVxftL4Jrm8-2A228v2bfWjcBCTRabFhxueejOy2PX8ZeY6o4qiOYWZW8Je71v_JRaPW3k_PiHDBPByYArLcQYsQ0MSjGiLl6BYtakb-jV4fYFHRE5vy6wgJXflRtzZTNdQF0L4OtPHzu4odg/p.jpeg" xr:uid="{303FA126-F1DF-42C2-8EC7-FDFC50B603E2}"/>
-    <hyperlink ref="X103" r:id="rId162" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AAD64t33d_lYTf0Ot0d1Gyv9a/IMAGENS-PEIXES-COMP/Salminus%20hilarii.jpg?dl=0" xr:uid="{EB34AD35-6219-4DB3-ADBB-3A947D534104}"/>
-    <hyperlink ref="X12" r:id="rId163" display="https://ucdd929105e65bb62e940132c869.previews.dropboxusercontent.com/p/thumb/ABcAJCZ4qO58Cn4FI4uVF-dY7Wv6nOhlujnuSimdCYw6xpRk4wHeRlrcyjsRyk_qfgPo3VB0zQ4hWxRWORiO5LZ_c71wgHHT9TaCMpw6TH0AUJrlLV0OWS0uXSGqv2Y-c0wkOQTB7fhx275nabeFmfuNmhdXSrGOBf3uokRYEfdSdJNdxhBeAjerxFbgurTUCg3QhXRSihfOMQ2CMR-nbKUcRwqSFhzH31h39vt8OsB1uAyCXRGEqBToTk777YJOOxRYzNTHzxA7zEMtBHcHr_HbYJzBOUEUGXp3YSyn7XzMhtdJVdfY2O6p_RBuAD9RF7FRbqppy5-heIY8BvtPWdOW4Uy4WLHNFKl5hg-19NfjSQ/p.jpeg" xr:uid="{46326706-0F5D-4996-9052-906068027EC3}"/>
-    <hyperlink ref="X104" r:id="rId164" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AAC2EQYX64NdzWNCuWAuDrcVa/IMAGENS-PEIXES-COMP/Schizodon%20vittatus.JPG?dl=0" xr:uid="{CEBA506A-FC74-4470-A4FB-B072FD075286}"/>
-    <hyperlink ref="X11" r:id="rId165" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AAClkk-O0h17qx0oWtn-CTwXa/IMAGENS-PEIXES-COMP/Serrasalmus%20eigenmanni.JPG?dl=0" xr:uid="{85AAA7DA-F4C2-4B7E-A8F6-CE662C850965}"/>
-    <hyperlink ref="X105" r:id="rId166" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AAC9sHLOxqvoEZIvRND0hhZ3a/IMAGENS-PEIXES-COMP/Serrasalmus%20rhombeus.JPG?dl=0" xr:uid="{591CE47B-A975-4979-B4FC-6201B5FE58A6}"/>
-    <hyperlink ref="X107" r:id="rId167" display="https://uc432a2d3a87f646126e7e559734.previews.dropboxusercontent.com/p/thumb/ABeAKhH759fgcLcM1YhOZev6vGaXoLSqZ9F2eI2SnZJnXWXno3b4FnDMTGz45cUaO8GO4hWZ2OQp3WZ-dZ8WBecpMXV7aSZZXFVRAixuMQlLbOuP-lgYCli96RKboClEBlLr8q3_6K1MMAJx9AM6kgQlrf6-r5q6hJCem1Xc57Vfgj6lugiWsyn9vJWZI8VZmqq56zgJ-eOwYAY9rFmTrQmCLFeMfWkivsdXCDQ3E-GdjyM4XaFmLNoiFLsS8kSZ-t5Ud-Q5xz8Kky5QFnn-nNsc-SjLPhpSrJRBU_wnv5MeSAqgXc2XQRRLnIXF93AnwqEUmMqEH1id3m9PgPv7zGIW_GiCo-1UldVX3eNIYNSMMQ/p.jpeg" xr:uid="{1B322C1A-F3D5-4BC2-83A5-E2CDED3F6255}"/>
-    <hyperlink ref="X108" r:id="rId168" display="https://uc40c8d29fe83cb66b38f1541ebd.previews.dropboxusercontent.com/p/thumb/ABdRNh_wbTQsHEWD5P3NhqBbuvPq-4_JCUxtKUCM0_PnD0mo2NtrErqu2xONwfwqXOAymjDYokYx4AJkvqsm9FWD2Sj4X9S-KPmlm_0YVmRErL53xYtUBX7EBHwqlUpPUqx1Wco9T1l8N9_QvJ5oLIsthJzH7MhZZSBqEO5P1w3KIyWBa89aUpvfpNLcCEA5NeplZZCxDBBpJySF9h2B_kLKmnmlsf3Km71Moz2MaYDPT6p7DPfSnPO7wMWvsYm7VeHga6aeNylLGShKa-L4MlE2_44QIx14kR6IskK7k8PlP1TdZVXJ9Euw3-cP_JIBQfLEf1-2-woWvcOGLssidOLQZ4I5BOaptVd-ZETiHRGkvw/p.jpeg" xr:uid="{400C0A23-5984-4B13-BF17-1868844256F4}"/>
-    <hyperlink ref="X10" r:id="rId169" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AABdJLNMq8Nqbbga9VjZfaSUa/IMAGENS-PEIXES-COMP/Sorubim%20lima.JPG?dl=0" xr:uid="{7C724629-404D-4287-80E7-81C7A7712C90}"/>
-    <hyperlink ref="X9" r:id="rId170" display="https://ucca13d3fc2d289a990c6ddfd5cd.previews.dropboxusercontent.com/p/thumb/ABfi7FNUmPH4-pLgQKzubFvemu8FAciqcWnIu5943mQDtP-fiz1fCJ_1kqLmNDhNlWAXVx-pUHMw9HMIXTpwAj3ITqX4wLo4Nku5RrmwLwTOgGD5cMcewd8sPMqxegbRh9eKnth717gB-1XGNn40VDeI8LUcxb9ACy2FLFeYZ7QDzoJ6f_mVFMk5GW-9XxpCaYrS0DvCbHMiLX2FjdHkRE-KR454xGhyLVycSN9uKq6bq-eUNzCHMpVI70DpeLhrSKP7yPPwG7VSL1IiUHgEruALH_upE06jZCvpUMuYmk3O_-WLj0SHOQnaYdjkd_r9DVeBvqy6jbUDtNMOaQlfyBP2JoN3AKP8NwkOv-CdlJ9mlw/p.jpeg" xr:uid="{C631BAFC-D5D3-4151-9408-CBCB7A762E56}"/>
-    <hyperlink ref="X109" r:id="rId171" display="https://uceebfd71d7a1f827c59f1c92bae.previews.dropboxusercontent.com/p/thumb/ABfZY0VSL7dxdJe-UnkQ2Xzs6aCrDfYuvtO4twDDG-v6i95pM-dcIiUzb5Rc9wA5ObGksLpdS8x-9MgOjRp6KnsgWnwUsEOeBykMxn5YUI_ry4mz9qaA0jaYOYV-hb_d9jD5AU0RLCuOadypH1D4ZBEXlvVeSw5XMv6TkpA-WdZatVeBljd1rFNwqCBeOz6-ZilbBhG86Z6HGo9fBKscSw3CYZJ2qPCjmXTcoHIVK5zmwWXY15u59aqM_RPL0KrCdZDgz2GePIm6M_nqf42GfKNzgeac83GFDPxzkV075L2XW3ufNT3SDwpE47IlgyIfqUS2QEBIghHy45XPmbBBKVB4qHzoKrwNXqKptHmrA-SsCA/p.jpeg" xr:uid="{10CC5C7D-41D9-45FF-955C-0AC9DE5160D2}"/>
-    <hyperlink ref="X8" r:id="rId172" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AABmepXnrKV7MWeYHXOu6Geja/IMAGENS-PEIXES-COMP/Sorubimichthys%20planiceps.JPG?dl=0" xr:uid="{FE2650F0-E061-40D0-9109-8350D6A0BB13}"/>
-    <hyperlink ref="X7" r:id="rId173" display="https://uca26f2e845fdce598edda8f3836.previews.dropboxusercontent.com/p/thumb/ABfpF2tMyacvMWIaeb7qScVuGdINudWdm8UGxJV33Im07dPmNiZxPkotylArmQgILBHqVbCbkqZx6rK7SzidK24T2mN1TFLfgmQuyovs6SmldSgVcWT1AXYZU8X9pDQ3JnAo5OViAQby8ARz8h4-Y-QaRBbS7t9WmJ_oSctd2SQvSPJXby5o1rMhB2UCfOvpPfLJvvIlyqDXFQiQmMZKL2SU1AL59nJg7bey_MK81c-BnRtlMO-6d7zSf9coD_Lz5s2drfFy6EELzPF_MR8JIecgGQEA5ibTZGNpV5bXOX-wYfncoTC4hUtKkHsMmPs5TddVVg14B8TkxicX5YMbZz2KQgvxoLiopyVjtJjEWifQAA/p.jpeg" xr:uid="{6B2861E5-C6CA-4784-89E7-E7358934C3FC}"/>
-    <hyperlink ref="X110" r:id="rId174" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AADbgGlZQyvj0KdS8BGwRJ1ra/IMAGENS-PEIXES-COMP/Tetragonopterus%20argenteus.JPG?dl=0" xr:uid="{F5B7D08C-3A0F-416A-B4B8-71A78562227E}"/>
-    <hyperlink ref="X5" r:id="rId175" display="https://uc61755ebe615e0501827b7b4316.previews.dropboxusercontent.com/p/thumb/ABdxfK-zbBKI-lpRYmI4KDQR1C06gVM7VHmf8v2qYqOzt-eXfi9X7UICTK0Wp6d-4sqfjGdvskuXfnk323EYW32BcLmZc7b8Szz6dA2CqG6sccO65jlrqTPzZT0XH5xnT4RFBhr2_9fHLU2f3CAsyGc_qDOD6g_WBJeGt8uSLvwi2Qi9Un_6Jt1igETbZtfPqUyJ0E_buE_KbaMWRCJLv2RRm_TWyeijP3zoUiV2WNDyXTBRCkMCsIAsRlGq0H9mM_jYDCfq_pde0ISNWs4tidzl7u-jxIYeBEbb9Cx6tN_d5aLU8zY3-v68pxUPl4c6tvf3oj0AW7geHQmVdUNEGQL1krpjSkKWQDfHKKolyiljyA/p.jpeg" xr:uid="{1F46D7A0-BB7E-4307-B106-6D4D276F6E37}"/>
-    <hyperlink ref="X113" r:id="rId176" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AADnlkGtA7fiF7o81dZslO3Pa/IMAGENS-PEIXES-COMP/Trachelyopterus%20galeatus.JPG?dl=0" xr:uid="{68F85D91-6D62-430D-8401-E2BB84530393}"/>
-    <hyperlink ref="X4" r:id="rId177" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AAA_KSDc8TQ9IhRf6LLb7L7da/IMAGENS-PEIXES-COMP/Triportheus%20albus.JPG?dl=0" xr:uid="{484B2330-F5DE-4B82-A7CB-262E1A22E7C4}"/>
-    <hyperlink ref="X114" r:id="rId178" display="https://uc82d8c29f83a204c0a7115a8834.previews.dropboxusercontent.com/p/thumb/ABfN9na-oAGv9_PJvTPk8Q8qDHQdMvFAeS1iKw4xAzeWAHT8o6gbKFYZuF2-kZOPKKiHIwAMZnUKeOvmGrv0foN0CaJ1CjKwd447HAWorClMxRNBuecQUnw7QTuKFxaixJIXxiTLfAUFkOL7G63zQeISg6GS76ipIPNHeUNJtz1S-0aODpgzHnoH3mhbfGy7EwPF3hFpnPC0WMJpVhbu8dPDGGBUziesxoi9jM0x9OCIDHgJHUM7Y4q2p3iT7vF9sXsQqIJQwHxizCxACKJuhZeTEdCBEld65um8fU2Y7WXftjT4CzBUPtbw_6bAfbMhELJjkeUeyUc8q5dznKW22fn-8617XKWdGja4eqqBidLHIQ/p.jpeg" xr:uid="{C5936592-1F87-4CE0-A332-586A4BB4836B}"/>
-    <hyperlink ref="X115" r:id="rId179" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AAAQGRq3z7ED4QDaq6H6y3vga/IMAGENS-PEIXES-COMP/Triportheus%20trifurcatus.JPG?dl=0" xr:uid="{E8EC5ED6-3BC2-4A03-8BC1-9E6FD37A161C}"/>
-    <hyperlink ref="X116" r:id="rId180" display="https://uc9fb217afc3ccedf0d41cf1f6cc.previews.dropboxusercontent.com/p/thumb/ABfJXIrK4k0RS2GkMLqDfH3fqqBfL5giyDe6lizIxQjjhI44_EFL_zycbJoxReDgPjQCWsluK-ddoytH2mQdLArSbj-q-bhbYYw5-mN9QyUCewPlA3ZMXOgj_XMjrvdybG_L-IJ_DiKgE2oUt6U0MaFrx_ta4BdN9MjotYN87JpPUqoGNLDpPO9O3qU0K7Ldn97bAAFJgfHGMyTdapNZZIVIcwG2aJ4M0nudgAUpJIh_qKemhX7rdll92dXsd72V09BdqqY7pGr1tMCwjADs0R8f48D9R5xQwSsbIg4KwwE-yZdrjQCKLPMco6Q6QcEOztRUn6bvgybuq9HdyQMNZXBdI5ybB6rXlTaPd5qb3NW-CQ/p.jpeg" xr:uid="{120D1B07-1AE6-4B33-A565-411EF6FFFEDD}"/>
-    <hyperlink ref="X117" r:id="rId181" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AABZndaVIQjC6xaMcxRajZ9pa/IMAGENS-PEIXES-COMP/Leporellus%20vittatus.JPG?dl=0" xr:uid="{12F27B92-1785-46DF-A951-61D1895A0DAD}"/>
-    <hyperlink ref="X119" r:id="rId182" xr:uid="{CF14BFB0-1DC8-4DDA-8BF8-EAAF17AB1915}"/>
-    <hyperlink ref="X3" r:id="rId183" display="https://www.dropbox.com/sh/yacowjkdclxiyp9/AAA7NxFhV1XWPolav1l8Ra9Xa/IMAGENS-PEIXES-COMP/Zungaro%20zungaro.JPG?dl=0" xr:uid="{D02298C0-5E8F-44FF-A63F-4BB90D67AFD2}"/>
+    <hyperlink ref="S1" r:id="rId1" xr:uid="{DDED8508-DCFF-4223-BB47-CAC376C7C751}"/>
+    <hyperlink ref="X1" r:id="rId2" xr:uid="{528241A0-91E5-4EDB-BA82-556CF0AE2432}"/>
+    <hyperlink ref="S10" r:id="rId3" xr:uid="{A3AA2A1B-FB87-4EBD-BCFE-BD9E6E99BCD5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
